--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A43C692-1B55-4516-BF0D-BD2B7FADBB24}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32AA1401-896C-480D-BBE4-002B3218FB65}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="334">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/15 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="340">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 6/16 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/15 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/16 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -839,7 +839,7 @@
 Fatalities</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/15 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/16 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -851,7 +851,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/15 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/16 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -870,7 +870,7 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/15 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/16 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -891,7 +891,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/15 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/16 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -912,7 +912,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/15 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/16 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -921,7 +921,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/15 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/16 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -946,6 +946,9 @@
     <t>20-29 years</t>
   </si>
   <si>
+    <t>16%</t>
+  </si>
+  <si>
     <t>30-39 years</t>
   </si>
   <si>
@@ -976,10 +979,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          15,682</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/15 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          15,691</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/16 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -991,7 +994,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/15 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/16 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1000,28 +1003,43 @@
     <t>Asian</t>
   </si>
   <si>
+    <t>3.3%</t>
+  </si>
+  <si>
     <t>Black</t>
   </si>
   <si>
     <t>Hispanic</t>
   </si>
   <si>
+    <t>40%</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
+    <t>0.6%</t>
+  </si>
+  <si>
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/15 at 9:30 AM CST</t>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>13%</t>
+  </si>
+  <si>
+    <t>Age of Confirmed Fatalities as of 6/16 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Completed investigations received by DSHS =          664</t>
   </si>
   <si>
-    <t>Gender of Confirmed Fatalities as of 6/15 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/15 at 9:30 AM CST</t>
+    <t>Gender of Confirmed Fatalities as of 6/16 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/16 at 9:30 AM CST</t>
   </si>
   <si>
     <t>COVID-19
@@ -1044,20 +1062,21 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/14 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/15 at 3:00PM CST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="###,##0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="##,###,##0"/>
     <numFmt numFmtId="167" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="168" formatCode="##0"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="######&quot;%&quot;_);\(######&quot;%&quot;\)"/>
+    <numFmt numFmtId="169" formatCode="##0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1070,16 +1089,20 @@
       <sz val="11"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <sz val="9.5"/>
+      <color rgb="FF112277"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
@@ -1094,13 +1117,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF112277"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1188,9 +1204,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1224,27 +1240,6 @@
     <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1257,22 +1252,49 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{C00761E2-774A-4FC8-B229-F34B27F37AE8}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{BACDE6C8-D5D4-4A26-A486-BEE565A969D6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1408,7 +1430,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1419,11 +1441,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1441,10 +1463,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>102</v>
+        <v>989</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1452,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -1463,7 +1485,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -1474,7 +1496,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -1518,7 +1540,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1529,7 +1551,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1551,7 +1573,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="C13" s="4">
         <v>4</v>
@@ -1573,7 +1595,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1584,10 +1606,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="C16" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1595,10 +1617,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>4393</v>
+        <v>4437</v>
       </c>
       <c r="C17" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1639,10 +1661,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C21" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1650,10 +1672,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>864</v>
+        <v>1495</v>
       </c>
       <c r="C22" s="4">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1661,7 +1683,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="C23" s="4">
         <v>25</v>
@@ -1672,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -1705,7 +1727,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
@@ -1716,7 +1738,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1738,7 +1760,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1771,7 +1793,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>1138</v>
+        <v>1178</v>
       </c>
       <c r="C33" s="4">
         <v>44</v>
@@ -1782,7 +1804,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -1815,7 +1837,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1826,7 +1848,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1837,7 +1859,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -1903,10 +1925,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>1667</v>
+        <v>1787</v>
       </c>
       <c r="C45" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1925,7 +1947,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1947,7 +1969,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -1969,7 +1991,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -2002,7 +2024,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C54" s="4">
         <v>5</v>
@@ -2024,7 +2046,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2046,7 +2068,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2057,10 +2079,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>14232</v>
+        <v>14537</v>
       </c>
       <c r="C59" s="4">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2079,7 +2101,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -2090,7 +2112,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C62" s="4">
         <v>14</v>
@@ -2112,7 +2134,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1736</v>
+        <v>1772</v>
       </c>
       <c r="C64" s="4">
         <v>36</v>
@@ -2178,7 +2200,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="C70" s="4">
         <v>6</v>
@@ -2200,10 +2222,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>3911</v>
+        <v>3948</v>
       </c>
       <c r="C72" s="4">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2211,7 +2233,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C73" s="4">
         <v>19</v>
@@ -2222,7 +2244,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -2233,7 +2255,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2244,10 +2266,10 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C76" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2255,7 +2277,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2280,7 +2302,7 @@
         <v>16</v>
       </c>
       <c r="C79" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2299,7 +2321,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>2385</v>
+        <v>2402</v>
       </c>
       <c r="C81" s="4">
         <v>49</v>
@@ -2321,7 +2343,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2354,7 +2376,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>1255</v>
+        <v>1312</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
@@ -2365,7 +2387,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" s="4">
         <v>0</v>
@@ -2376,7 +2398,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -2387,7 +2409,7 @@
         <v>90</v>
       </c>
       <c r="B89" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" s="4">
         <v>0</v>
@@ -2409,7 +2431,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
@@ -2431,7 +2453,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C93" s="4">
         <v>4</v>
@@ -2442,10 +2464,10 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C94" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2453,7 +2475,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2464,7 +2486,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
@@ -2475,7 +2497,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C97" s="4">
         <v>5</v>
@@ -2497,7 +2519,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -2508,7 +2530,7 @@
         <v>101</v>
       </c>
       <c r="B100" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C100" s="4">
         <v>2</v>
@@ -2530,7 +2552,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2541,10 +2563,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>16778</v>
+        <v>17282</v>
       </c>
       <c r="C103" s="4">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2552,10 +2574,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C104" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2585,7 +2607,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>673</v>
+        <v>938</v>
       </c>
       <c r="C107" s="4">
         <v>5</v>
@@ -2607,7 +2629,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C109" s="4">
         <v>3</v>
@@ -2618,10 +2640,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>1050</v>
+        <v>1112</v>
       </c>
       <c r="C110" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2629,7 +2651,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -2662,7 +2684,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -2673,7 +2695,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2684,7 +2706,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -2783,10 +2805,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1242</v>
+        <v>1279</v>
       </c>
       <c r="C125" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2827,7 +2849,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2849,10 +2871,10 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C131" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2970,10 +2992,10 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C142" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2981,7 +3003,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -2992,7 +3014,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -3014,7 +3036,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C146" s="4">
         <v>2</v>
@@ -3025,7 +3047,7 @@
         <v>148</v>
       </c>
       <c r="B147" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3036,7 +3058,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3047,7 +3069,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3058,7 +3080,7 @@
         <v>151</v>
       </c>
       <c r="B150" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C150" s="4">
         <v>0</v>
@@ -3080,7 +3102,7 @@
         <v>153</v>
       </c>
       <c r="B152" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
@@ -3102,7 +3124,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>857</v>
+        <v>894</v>
       </c>
       <c r="C154" s="4">
         <v>51</v>
@@ -3113,7 +3135,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
@@ -3124,7 +3146,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3168,7 +3190,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3190,7 +3212,7 @@
         <v>163</v>
       </c>
       <c r="B162" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C162" s="4">
         <v>0</v>
@@ -3201,7 +3223,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C163" s="4">
         <v>4</v>
@@ -3245,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="C167" s="4">
         <v>13</v>
@@ -3300,10 +3322,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>1258</v>
+        <v>1300</v>
       </c>
       <c r="C172" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3311,7 +3333,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C173" s="4">
         <v>14</v>
@@ -3344,7 +3366,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C176" s="4">
         <v>25</v>
@@ -3355,10 +3377,10 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C177" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3377,7 +3399,7 @@
         <v>180</v>
       </c>
       <c r="B179" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -3388,10 +3410,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="C180" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3421,7 +3443,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C183" s="4">
         <v>2</v>
@@ -3443,7 +3465,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="C185" s="4">
         <v>23</v>
@@ -3454,7 +3476,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3465,7 +3487,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C187" s="4">
         <v>0</v>
@@ -3476,7 +3498,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -3487,7 +3509,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3498,7 +3520,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2785</v>
+        <v>2789</v>
       </c>
       <c r="C190" s="4">
         <v>36</v>
@@ -3531,7 +3553,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="C193" s="4">
         <v>7</v>
@@ -3564,7 +3586,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C196" s="4">
         <v>8</v>
@@ -3575,7 +3597,7 @@
         <v>198</v>
       </c>
       <c r="B197" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -3586,7 +3608,7 @@
         <v>199</v>
       </c>
       <c r="B198" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -3608,7 +3630,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3619,10 +3641,10 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C201" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3641,7 +3663,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3663,7 +3685,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C205" s="4">
         <v>4</v>
@@ -3674,7 +3696,7 @@
         <v>207</v>
       </c>
       <c r="B206" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -3685,7 +3707,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -3707,7 +3729,7 @@
         <v>210</v>
       </c>
       <c r="B209" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
@@ -3762,7 +3784,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3773,7 +3795,7 @@
         <v>216</v>
       </c>
       <c r="B215" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
@@ -3784,7 +3806,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3850,7 +3872,7 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>7334</v>
+        <v>7498</v>
       </c>
       <c r="C222" s="4">
         <v>197</v>
@@ -3905,10 +3927,10 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C227" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3916,7 +3938,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3927,10 +3949,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>4545</v>
+        <v>4664</v>
       </c>
       <c r="C229" s="4">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3938,7 +3960,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -3949,7 +3971,7 @@
         <v>232</v>
       </c>
       <c r="B231" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
@@ -3960,7 +3982,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -3971,7 +3993,7 @@
         <v>234</v>
       </c>
       <c r="B233" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" s="4">
         <v>0</v>
@@ -4004,7 +4026,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C236" s="4">
         <v>1</v>
@@ -4015,7 +4037,7 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C237" s="4">
         <v>8</v>
@@ -4026,7 +4048,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="C238" s="4">
         <v>27</v>
@@ -4037,7 +4059,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4048,7 +4070,7 @@
         <v>241</v>
       </c>
       <c r="B240" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4070,7 +4092,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>675</v>
+        <v>718</v>
       </c>
       <c r="C242" s="4">
         <v>20</v>
@@ -4081,7 +4103,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4103,7 +4125,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -4125,7 +4147,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4136,7 +4158,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>904</v>
+        <v>960</v>
       </c>
       <c r="C248" s="4">
         <v>30</v>
@@ -4147,7 +4169,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4180,7 +4202,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
@@ -4191,7 +4213,7 @@
         <v>254</v>
       </c>
       <c r="B253" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4213,7 +4235,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4235,10 +4257,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>89108</v>
+        <v>93206</v>
       </c>
       <c r="C257" s="4">
-        <v>1983</v>
+        <v>2029</v>
       </c>
     </row>
   </sheetData>
@@ -4268,15 +4290,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>295</v>
@@ -4287,38 +4309,38 @@
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B3" s="8">
         <v>7006</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="27">
         <f>B3/B$6</f>
-        <v>0.44675424053054458</v>
+        <v>0.44649799247976546</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B4" s="8">
-        <v>8386</v>
-      </c>
-      <c r="C4" s="18">
+        <v>8395</v>
+      </c>
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.53475322025251881</v>
+        <v>0.53502007520234529</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B5" s="8">
         <v>290</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
-        <v>1.8492539216936617E-2</v>
+        <v>1.8481932317889235E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4326,26 +4348,26 @@
         <v>258</v>
       </c>
       <c r="B6" s="8">
-        <v>15682</v>
-      </c>
-      <c r="C6" s="18">
+        <v>15691</v>
+      </c>
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4372,19 +4394,19 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>295</v>
@@ -4395,74 +4417,68 @@
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B3" s="8">
         <v>519</v>
       </c>
-      <c r="C3" s="18">
-        <f>B3/B$9</f>
-        <v>3.3095268460655532E-2</v>
+      <c r="C3" s="10" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B4" s="8">
-        <v>2552</v>
-      </c>
-      <c r="C4" s="18">
-        <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.16273434510904222</v>
+        <v>2555</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B5" s="8">
-        <v>6286</v>
-      </c>
-      <c r="C5" s="18">
-        <f t="shared" si="0"/>
-        <v>0.40084172937125367</v>
+        <v>6287</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B6" s="8">
         <v>99</v>
       </c>
-      <c r="C6" s="18">
-        <f t="shared" si="0"/>
-        <v>6.3129702844025E-3</v>
+      <c r="C6" s="10" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B7" s="8">
-        <v>4257</v>
-      </c>
-      <c r="C7" s="18">
-        <f t="shared" si="0"/>
-        <v>0.27145772222930747</v>
+        <v>4262</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B8" s="8">
         <v>1969</v>
       </c>
-      <c r="C8" s="18">
-        <f t="shared" si="0"/>
-        <v>0.1255579645453386</v>
+      <c r="C8" s="10" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4470,26 +4486,25 @@
         <v>258</v>
       </c>
       <c r="B9" s="8">
-        <v>15682</v>
-      </c>
-      <c r="C9" s="18">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>15691</v>
+      </c>
+      <c r="C9" s="10">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4516,15 +4531,15 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -4541,10 +4556,10 @@
       <c r="A3" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="18">
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27">
         <f>B3/B$16</f>
         <v>0</v>
       </c>
@@ -4553,10 +4568,10 @@
       <c r="A4" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
@@ -4565,10 +4580,10 @@
       <c r="A5" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
         <v>3.0120481927710845E-3</v>
       </c>
@@ -4577,118 +4592,118 @@
       <c r="A6" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>11</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
         <v>1.6566265060240965E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7" s="10">
+        <v>302</v>
+      </c>
+      <c r="B7" s="11">
         <v>13</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
         <v>1.9578313253012049E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" s="10">
+        <v>303</v>
+      </c>
+      <c r="B8" s="11">
         <v>26</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="27">
         <f t="shared" si="0"/>
         <v>3.9156626506024098E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9" s="10">
+        <v>304</v>
+      </c>
+      <c r="B9" s="11">
         <v>72</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="27">
         <f t="shared" si="0"/>
         <v>0.10843373493975904</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10" s="10">
+        <v>305</v>
+      </c>
+      <c r="B10" s="11">
         <v>60</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="27">
         <f t="shared" si="0"/>
         <v>9.036144578313253E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" s="10">
+        <v>306</v>
+      </c>
+      <c r="B11" s="11">
         <v>74</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="27">
         <f t="shared" si="0"/>
         <v>0.11144578313253012</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B12" s="10">
+        <v>307</v>
+      </c>
+      <c r="B12" s="11">
         <v>69</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="27">
         <f t="shared" si="0"/>
         <v>0.10391566265060241</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13" s="10">
+        <v>308</v>
+      </c>
+      <c r="B13" s="11">
         <v>70</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="27">
         <f t="shared" si="0"/>
         <v>0.10542168674698796</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" s="10">
+        <v>309</v>
+      </c>
+      <c r="B14" s="11">
         <v>265</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="27">
         <f t="shared" si="0"/>
         <v>0.3990963855421687</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="10">
+        <v>310</v>
+      </c>
+      <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="27">
         <f t="shared" si="0"/>
         <v>3.0120481927710845E-3</v>
       </c>
@@ -4697,27 +4712,27 @@
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="11">
         <v>664</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4744,19 +4759,19 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>295</v>
@@ -4767,36 +4782,36 @@
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B3" s="10">
+        <v>315</v>
+      </c>
+      <c r="B3" s="11">
         <v>272</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="27">
         <f>B3/B$6</f>
         <v>0.40963855421686746</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B4" s="10">
+        <v>316</v>
+      </c>
+      <c r="B4" s="11">
         <v>364</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
         <v>0.54819277108433739</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="10">
+        <v>310</v>
+      </c>
+      <c r="B5" s="11">
         <v>28</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
         <v>4.2168674698795178E-2</v>
       </c>
@@ -4805,27 +4820,27 @@
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>664</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4856,15 +4871,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>295</v>
@@ -4875,72 +4890,72 @@
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="10">
+        <v>319</v>
+      </c>
+      <c r="B3" s="11">
         <v>13</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="27">
         <f>B3/B$9</f>
         <v>1.9578313253012049E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B4" s="10">
+        <v>321</v>
+      </c>
+      <c r="B4" s="11">
         <v>85</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
         <v>0.12801204819277109</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B5" s="10">
+        <v>322</v>
+      </c>
+      <c r="B5" s="11">
         <v>171</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
         <v>0.25753012048192769</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" s="10">
+        <v>324</v>
+      </c>
+      <c r="B6" s="11">
         <v>5</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
         <v>7.5301204819277108E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B7" s="10">
+        <v>326</v>
+      </c>
+      <c r="B7" s="11">
         <v>269</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
         <v>0.40512048192771083</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" s="10">
+        <v>310</v>
+      </c>
+      <c r="B8" s="11">
         <v>121</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="27">
         <f t="shared" si="0"/>
         <v>0.18222891566265059</v>
       </c>
@@ -4949,27 +4964,27 @@
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>664</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4978,13 +4993,13 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -5001,22 +5016,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6427,6 +6442,23 @@
       </c>
       <c r="E85" s="4">
         <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>43998</v>
+      </c>
+      <c r="B86" s="4">
+        <v>93206</v>
+      </c>
+      <c r="C86" s="4">
+        <v>2029</v>
+      </c>
+      <c r="D86" s="4">
+        <v>4098</v>
+      </c>
+      <c r="E86" s="4">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -6456,10 +6488,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6471,17 +6503,17 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>59089</v>
+        <v>60681</v>
       </c>
       <c r="B3" s="7">
-        <v>28036</v>
+        <v>30496</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6495,10 +6527,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
@@ -6511,19 +6543,19 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="92" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>261</v>
       </c>
@@ -6536,17 +6568,17 @@
       <c r="D2" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>330</v>
+      <c r="E2" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6562,7 +6594,7 @@
       <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="17">
         <v>0.1056</v>
       </c>
       <c r="F3" s="8"/>
@@ -6582,7 +6614,7 @@
       <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="17">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="F4" s="8"/>
@@ -6602,7 +6634,7 @@
       <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="17">
         <v>8.8909998585200004E-2</v>
       </c>
       <c r="F5" s="8"/>
@@ -6622,7 +6654,7 @@
       <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="17">
         <v>0.1094</v>
       </c>
       <c r="F6" s="8"/>
@@ -6642,7 +6674,7 @@
       <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="17">
         <v>0.11070000000000001</v>
       </c>
       <c r="F7" s="8"/>
@@ -6662,7 +6694,7 @@
       <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="17">
         <v>0.100351636462</v>
       </c>
       <c r="F8" s="8"/>
@@ -6682,7 +6714,7 @@
       <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="17">
         <v>0.1055125178708</v>
       </c>
       <c r="F9" s="8"/>
@@ -6702,7 +6734,7 @@
       <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="17">
         <v>0.11360000000000001</v>
       </c>
       <c r="F10" s="8"/>
@@ -6722,7 +6754,7 @@
       <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="17">
         <v>0.12479999999999999</v>
       </c>
       <c r="F11" s="8"/>
@@ -6742,7 +6774,7 @@
       <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="17">
         <v>0.1386</v>
       </c>
       <c r="F12" s="8"/>
@@ -6762,7 +6794,7 @@
       <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="17">
         <v>0.1101</v>
       </c>
       <c r="F13" s="8"/>
@@ -6782,7 +6814,7 @@
       <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="17">
         <v>0.1105</v>
       </c>
       <c r="F14" s="8"/>
@@ -6802,7 +6834,7 @@
       <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="17">
         <v>0.1188</v>
       </c>
       <c r="F15" s="8"/>
@@ -6822,7 +6854,7 @@
       <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="17">
         <v>0.10630000000000001</v>
       </c>
       <c r="F16" s="8"/>
@@ -6842,7 +6874,7 @@
       <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="17">
         <v>0.1023</v>
       </c>
       <c r="F17" s="8"/>
@@ -6862,7 +6894,7 @@
       <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="17">
         <v>9.35E-2</v>
       </c>
       <c r="F18" s="8"/>
@@ -6882,7 +6914,7 @@
       <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="17">
         <v>9.7117268401900006E-2</v>
       </c>
       <c r="F19" s="8"/>
@@ -6902,7 +6934,7 @@
       <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="17">
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="F20" s="8"/>
@@ -6922,7 +6954,7 @@
       <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="17">
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="F21" s="8"/>
@@ -6942,7 +6974,7 @@
       <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="17">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="F22" s="8"/>
@@ -6962,7 +6994,7 @@
       <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="17">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="F23" s="8"/>
@@ -6982,7 +7014,7 @@
       <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="17">
         <v>6.3700000000000007E-2</v>
       </c>
       <c r="F24" s="8"/>
@@ -7002,7 +7034,7 @@
       <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="17">
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="F25" s="8"/>
@@ -7022,7 +7054,7 @@
       <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="17">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="F26" s="8"/>
@@ -7042,7 +7074,7 @@
       <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="17">
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="F27" s="8"/>
@@ -7062,7 +7094,7 @@
       <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="17">
         <v>6.10670666381E-2</v>
       </c>
       <c r="F28" s="8"/>
@@ -7082,7 +7114,7 @@
       <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="17">
         <v>5.8381327098900003E-2</v>
       </c>
       <c r="F29" s="8"/>
@@ -7102,7 +7134,7 @@
       <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="17">
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="F30" s="8"/>
@@ -7122,7 +7154,7 @@
       <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="17">
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="F31" s="8"/>
@@ -7142,7 +7174,7 @@
       <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="17">
         <v>6.0400000000000002E-2</v>
       </c>
       <c r="F32" s="8"/>
@@ -7162,7 +7194,7 @@
       <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="17">
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="F33" s="8"/>
@@ -7182,7 +7214,7 @@
       <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="17">
         <v>5.6754924069199998E-2</v>
       </c>
       <c r="F34" s="8"/>
@@ -7202,7 +7234,7 @@
       <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="17">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F35" s="8"/>
@@ -7222,7 +7254,7 @@
       <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="17">
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="F36" s="8"/>
@@ -7242,7 +7274,7 @@
       <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="17">
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="F37" s="8"/>
@@ -7262,7 +7294,7 @@
       <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="17">
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F38" s="8"/>
@@ -7282,7 +7314,7 @@
       <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="17">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F39" s="8"/>
@@ -7302,7 +7334,7 @@
       <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="17">
         <v>6.3711443038399998E-2</v>
       </c>
       <c r="F40" s="8"/>
@@ -7322,7 +7354,7 @@
       <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="17">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F41" s="8"/>
@@ -7342,7 +7374,7 @@
       <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="17">
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="F42" s="8"/>
@@ -7362,7 +7394,7 @@
       <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="17">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="F43" s="8"/>
@@ -7382,7 +7414,7 @@
       <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="17">
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="F44" s="8"/>
@@ -7402,7 +7434,7 @@
       <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="17">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="F45" s="8">
@@ -7428,7 +7460,7 @@
       <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="17">
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="F46" s="8">
@@ -7454,7 +7486,7 @@
       <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="17">
         <v>4.4720144337000001E-2</v>
       </c>
       <c r="F47" s="8">
@@ -7480,7 +7512,7 @@
       <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="17">
         <v>4.7E-2</v>
       </c>
       <c r="F48" s="8">
@@ -7506,7 +7538,7 @@
       <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="17">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="F49" s="8">
@@ -7532,7 +7564,7 @@
       <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="17">
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="F50" s="8">
@@ -7558,7 +7590,7 @@
       <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="17">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="F51" s="8">
@@ -7584,7 +7616,7 @@
       <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="17" t="s">
         <v>274</v>
       </c>
       <c r="F52" s="8"/>
@@ -7606,7 +7638,7 @@
       <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="17">
         <v>4.87E-2</v>
       </c>
       <c r="F53" s="8">
@@ -7632,7 +7664,7 @@
       <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="17">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F54" s="8">
@@ -7658,7 +7690,7 @@
       <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="17">
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="F55" s="8">
@@ -7684,7 +7716,7 @@
       <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="17">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="F56" s="8">
@@ -7710,7 +7742,7 @@
       <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="17">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F57" s="8">
@@ -7736,7 +7768,7 @@
       <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="17">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="F58" s="8">
@@ -7762,7 +7794,7 @@
       <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="17" t="s">
         <v>274</v>
       </c>
       <c r="F59" s="8"/>
@@ -7784,7 +7816,7 @@
       <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="17">
         <v>5.43810873784E-2</v>
       </c>
       <c r="F60" s="8">
@@ -7810,7 +7842,7 @@
       <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F61" s="8">
@@ -7836,7 +7868,7 @@
       <c r="D62" s="8">
         <v>1117274</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="17">
         <v>6.6236912120931343E-2</v>
       </c>
       <c r="F62" s="8">
@@ -7862,7 +7894,7 @@
       <c r="D63" s="8">
         <v>1150868</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="17">
         <v>6.2599418158065037E-2</v>
       </c>
       <c r="F63" s="8">
@@ -7888,7 +7920,7 @@
       <c r="D64" s="8">
         <v>1174948</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="17">
         <v>6.0272963321667726E-2</v>
       </c>
       <c r="F64" s="8">
@@ -7914,7 +7946,7 @@
       <c r="D65" s="8">
         <v>1209187</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="17">
         <v>6.4378489924739019E-2</v>
       </c>
       <c r="F65" s="8">
@@ -7940,7 +7972,7 @@
       <c r="D66" s="8">
         <v>1218955</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="17">
         <v>8.00231185826311E-2</v>
       </c>
       <c r="F66" s="8">
@@ -7966,7 +7998,7 @@
       <c r="D67" s="8">
         <v>1255899</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="17">
         <v>7.1138170808796614E-2</v>
       </c>
       <c r="F67" s="8">
@@ -7992,7 +8024,7 @@
       <c r="D68" s="8">
         <v>1286139</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="17">
         <v>6.6629016142145212E-2</v>
       </c>
       <c r="F68" s="8">
@@ -8018,7 +8050,7 @@
       <c r="D69" s="8">
         <v>1302049</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="17">
         <v>6.9239691807230483E-2</v>
       </c>
       <c r="F69" s="8">
@@ -8044,7 +8076,7 @@
       <c r="D70" s="8">
         <v>1348893</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="17">
         <v>6.8464816856912941E-2</v>
       </c>
       <c r="F70" s="8">
@@ -8070,7 +8102,7 @@
       <c r="D71" s="8">
         <v>1370131</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="17">
         <v>7.0522006760147776E-2</v>
       </c>
       <c r="F71" s="8">
@@ -8096,7 +8128,7 @@
       <c r="D72" s="8">
         <v>1404369</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="17">
         <v>7.2239317057985419E-2</v>
       </c>
       <c r="F72" s="8">
@@ -8122,7 +8154,7 @@
       <c r="D73" s="8">
         <v>1442950</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="17">
         <v>6.1077310009756289E-2</v>
       </c>
       <c r="F73" s="8">
@@ -8148,7 +8180,7 @@
       <c r="D74" s="8">
         <v>1463851</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="17">
         <v>6.6219239373601788E-2</v>
       </c>
       <c r="F74" s="8">
@@ -8165,31 +8197,57 @@
       <c r="A75" s="6">
         <v>43997</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>274</v>
+      <c r="B75" s="8">
+        <v>1348442</v>
+      </c>
+      <c r="C75" s="8">
+        <v>150573</v>
       </c>
       <c r="D75" s="8">
         <v>1499015</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-    </row>
-    <row r="77" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
+      <c r="E75" s="17">
+        <v>6.7095336844251494E-2</v>
+      </c>
+      <c r="F75" s="8">
+        <v>28727</v>
+      </c>
+      <c r="G75" s="8">
+        <v>1684</v>
+      </c>
+      <c r="H75" s="8">
+        <v>30411</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>43998</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D76" s="8">
+        <v>1522434</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="78" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -8214,10 +8272,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8232,7 +8290,7 @@
         <v>279</v>
       </c>
       <c r="B3" s="7">
-        <v>62621</v>
+        <v>64302</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8240,7 +8298,7 @@
         <v>280</v>
       </c>
       <c r="B4" s="7">
-        <v>1436394</v>
+        <v>1458132</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8248,14 +8306,14 @@
         <v>281</v>
       </c>
       <c r="B5" s="7">
-        <v>1499015</v>
+        <v>1522434</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8268,55 +8326,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E5169B-9BEE-4D25-AAC5-EEF9F7952767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BED0331-BE52-41C3-9971-0D15F6BEAFBC}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="13"/>
+    <col min="1" max="1" width="55.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="24"/>
+      <c r="A1" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="22" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="B3" s="17">
-        <v>149090</v>
+      <c r="A3" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="24">
+        <v>150573</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="B4" s="17">
-        <v>6135</v>
+      <c r="A4" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="24">
+        <v>6189</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8335,7 +8393,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8345,10 +8403,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8363,7 +8421,7 @@
         <v>285</v>
       </c>
       <c r="B3" s="7">
-        <v>2326</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8371,7 +8429,7 @@
         <v>286</v>
       </c>
       <c r="B4" s="7">
-        <v>51365</v>
+        <v>54844</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8379,7 +8437,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="7">
-        <v>14525</v>
+        <v>14993</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8387,7 +8445,7 @@
         <v>288</v>
       </c>
       <c r="B6" s="7">
-        <v>1626</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8395,14 +8453,14 @@
         <v>289</v>
       </c>
       <c r="B7" s="7">
-        <v>5626</v>
+        <v>5869</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8416,12 +8474,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8432,11 +8490,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -9252,17 +9310,28 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
+    <row r="76" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>74</v>
+      </c>
+      <c r="B76" s="6">
+        <v>43998</v>
+      </c>
+      <c r="C76" s="7">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9283,15 +9352,15 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -9311,9 +9380,9 @@
       <c r="B3" s="8">
         <v>41</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="27">
         <f>B3/B$16</f>
-        <v>2.6144624410151768E-3</v>
+        <v>2.612962844942961E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9323,9 +9392,9 @@
       <c r="B4" s="8">
         <v>180</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.1478127789822727E-2</v>
+        <v>1.147154419731056E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9335,9 +9404,9 @@
       <c r="B5" s="8">
         <v>471</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
-        <v>3.0034434383369467E-2</v>
+        <v>3.0017207316295966E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9347,117 +9416,117 @@
       <c r="B6" s="8">
         <v>2436</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
-        <v>0.15533732942226758</v>
+        <v>0.15524823147026959</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B7" s="8">
         <v>2869</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
-        <v>0.18294860349445224</v>
+        <v>0.18284366834491109</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B8" s="8">
-        <v>2931</v>
-      </c>
-      <c r="C8" s="18">
+        <v>2935</v>
+      </c>
+      <c r="C8" s="27">
         <f t="shared" si="0"/>
-        <v>0.18690218084428006</v>
+        <v>0.18704990121725831</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B9" s="8">
         <v>2873</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="27">
         <f t="shared" si="0"/>
-        <v>0.18320367300089274</v>
+        <v>0.18309859154929578</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B10" s="8">
-        <v>1224</v>
-      </c>
-      <c r="C10" s="18">
+        <v>1226</v>
+      </c>
+      <c r="C10" s="27">
         <f t="shared" si="0"/>
-        <v>7.8051268970794535E-2</v>
+        <v>7.8133962143904154E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B11" s="8">
         <v>887</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="27">
         <f t="shared" si="0"/>
-        <v>5.6561663053181992E-2</v>
+        <v>5.6529220572302592E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B12" s="8">
-        <v>592</v>
-      </c>
-      <c r="C12" s="18">
+        <v>593</v>
+      </c>
+      <c r="C12" s="27">
         <f t="shared" si="0"/>
-        <v>3.7750286953194746E-2</v>
+        <v>3.7792365050028677E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B13" s="8">
-        <v>391</v>
-      </c>
-      <c r="C13" s="18">
+        <v>392</v>
+      </c>
+      <c r="C13" s="27">
         <f t="shared" si="0"/>
-        <v>2.4933044254559368E-2</v>
+        <v>2.4982474029698554E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B14" s="8">
-        <v>664</v>
-      </c>
-      <c r="C14" s="18">
+        <v>665</v>
+      </c>
+      <c r="C14" s="27">
         <f t="shared" si="0"/>
-        <v>4.2341538069123837E-2</v>
+        <v>4.2380982728952903E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B15" s="8">
         <v>123</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="27">
         <f t="shared" si="0"/>
-        <v>7.8433873230455298E-3</v>
+        <v>7.838888534828883E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9465,26 +9534,26 @@
         <v>258</v>
       </c>
       <c r="B16" s="8">
-        <v>15682</v>
-      </c>
-      <c r="C16" s="18">
+        <v>15691</v>
+      </c>
+      <c r="C16" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9493,6 +9562,6 @@
     <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32AA1401-896C-480D-BBE4-002B3218FB65}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1880BE0B-003C-4DF1-8C08-7AC5F64A48D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,14 @@
     <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="340">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/16 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="334">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 6/17 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/16 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/17 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -839,7 +839,7 @@
 Fatalities</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/16 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/17 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -851,7 +851,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/16 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/17 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -870,7 +870,7 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/16 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/17 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -891,7 +891,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/16 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/17 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -912,7 +912,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/16 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/17 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -921,7 +921,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/16 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/17 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -946,9 +946,6 @@
     <t>20-29 years</t>
   </si>
   <si>
-    <t>16%</t>
-  </si>
-  <si>
     <t>30-39 years</t>
   </si>
   <si>
@@ -979,10 +976,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          15,691</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/16 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          18,346</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/17 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -994,7 +991,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/16 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/17 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1003,43 +1000,28 @@
     <t>Asian</t>
   </si>
   <si>
-    <t>3.3%</t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
     <t>Hispanic</t>
   </si>
   <si>
-    <t>40%</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>0.6%</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
-    <t>27%</t>
-  </si>
-  <si>
-    <t>13%</t>
-  </si>
-  <si>
-    <t>Age of Confirmed Fatalities as of 6/16 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/17 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Completed investigations received by DSHS =          664</t>
   </si>
   <si>
-    <t>Gender of Confirmed Fatalities as of 6/16 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/16 at 9:30 AM CST</t>
+    <t>Gender of Confirmed Fatalities as of 6/17 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/17 at 9:30 AM CST</t>
   </si>
   <si>
     <t>COVID-19
@@ -1062,19 +1044,18 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/15 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/16 at 3:00PM CST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="###,##0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="##,###,##0"/>
     <numFmt numFmtId="167" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="168" formatCode="######&quot;%&quot;_);\(######&quot;%&quot;\)"/>
     <numFmt numFmtId="169" formatCode="##0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
@@ -1206,7 +1187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1236,9 +1217,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1286,7 +1264,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1294,7 +1272,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{BACDE6C8-D5D4-4A26-A486-BEE565A969D6}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B8EA7250-9E87-41D4-AB5E-D4953F082366}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1441,11 +1419,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1463,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -1485,7 +1463,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -1518,7 +1496,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -1540,7 +1518,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1551,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1573,7 +1551,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="C13" s="4">
         <v>4</v>
@@ -1606,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>651</v>
+        <v>672</v>
       </c>
       <c r="C16" s="4">
         <v>7</v>
@@ -1617,7 +1595,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>4437</v>
+        <v>4876</v>
       </c>
       <c r="C17" s="4">
         <v>89</v>
@@ -1628,7 +1606,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1661,7 +1639,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C21" s="4">
         <v>8</v>
@@ -1672,7 +1650,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>1495</v>
+        <v>1525</v>
       </c>
       <c r="C22" s="4">
         <v>18</v>
@@ -1683,7 +1661,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>821</v>
+        <v>880</v>
       </c>
       <c r="C23" s="4">
         <v>25</v>
@@ -1694,7 +1672,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -1738,7 +1716,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1749,7 +1727,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -1760,10 +1738,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1793,10 +1771,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>1178</v>
+        <v>1236</v>
       </c>
       <c r="C33" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1826,7 +1804,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
@@ -1848,7 +1826,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1925,7 +1903,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>1787</v>
+        <v>1866</v>
       </c>
       <c r="C45" s="4">
         <v>38</v>
@@ -1947,7 +1925,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1958,7 +1936,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -1991,7 +1969,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -2002,7 +1980,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -2046,7 +2024,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2068,7 +2046,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2079,10 +2057,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>14537</v>
+        <v>14843</v>
       </c>
       <c r="C59" s="4">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2112,10 +2090,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C62" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2123,7 +2101,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -2134,7 +2112,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1772</v>
+        <v>1812</v>
       </c>
       <c r="C64" s="4">
         <v>36</v>
@@ -2167,7 +2145,7 @@
         <v>68</v>
       </c>
       <c r="B67" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
@@ -2200,10 +2178,10 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="C70" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2222,10 +2200,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>3948</v>
+        <v>3999</v>
       </c>
       <c r="C72" s="4">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2233,7 +2211,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="C73" s="4">
         <v>19</v>
@@ -2244,7 +2222,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -2255,7 +2233,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2266,7 +2244,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C76" s="4">
         <v>6</v>
@@ -2277,7 +2255,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2321,10 +2299,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>2402</v>
+        <v>2496</v>
       </c>
       <c r="C81" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2332,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2354,7 +2332,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2376,7 +2354,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>1312</v>
+        <v>1378</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
@@ -2431,7 +2409,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
@@ -2445,7 +2423,7 @@
         <v>111</v>
       </c>
       <c r="C92" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2453,7 +2431,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="C93" s="4">
         <v>4</v>
@@ -2464,7 +2442,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C94" s="4">
         <v>12</v>
@@ -2475,7 +2453,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2486,7 +2464,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
@@ -2497,7 +2475,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C97" s="4">
         <v>5</v>
@@ -2519,7 +2497,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -2552,7 +2530,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2563,10 +2541,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>17282</v>
+        <v>17707</v>
       </c>
       <c r="C103" s="4">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2607,7 +2585,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>938</v>
+        <v>1093</v>
       </c>
       <c r="C107" s="4">
         <v>5</v>
@@ -2618,7 +2596,7 @@
         <v>109</v>
       </c>
       <c r="B108" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" s="4">
         <v>0</v>
@@ -2629,7 +2607,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C109" s="4">
         <v>3</v>
@@ -2640,10 +2618,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>1112</v>
+        <v>1255</v>
       </c>
       <c r="C110" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2651,7 +2629,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -2662,7 +2640,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -2695,7 +2673,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2706,7 +2684,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -2728,7 +2706,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="C118" s="4">
         <v>5</v>
@@ -2739,7 +2717,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -2783,7 +2761,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C123" s="4">
         <v>1</v>
@@ -2805,7 +2783,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1279</v>
+        <v>1319</v>
       </c>
       <c r="C125" s="4">
         <v>32</v>
@@ -2827,7 +2805,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2838,7 +2816,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2849,7 +2827,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2860,7 +2838,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -2871,7 +2849,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C131" s="4">
         <v>4</v>
@@ -2981,7 +2959,7 @@
         <v>142</v>
       </c>
       <c r="B141" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C141" s="4">
         <v>0</v>
@@ -2992,7 +2970,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C142" s="4">
         <v>12</v>
@@ -3003,7 +2981,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -3014,7 +2992,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -3036,10 +3014,10 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C146" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3047,7 +3025,7 @@
         <v>148</v>
       </c>
       <c r="B147" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3058,7 +3036,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3069,7 +3047,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3124,7 +3102,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>894</v>
+        <v>955</v>
       </c>
       <c r="C154" s="4">
         <v>51</v>
@@ -3146,7 +3124,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3190,7 +3168,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3201,7 +3179,7 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="C161" s="4">
         <v>2</v>
@@ -3223,7 +3201,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="C163" s="4">
         <v>4</v>
@@ -3245,7 +3223,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3278,7 +3256,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3322,7 +3300,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>1300</v>
+        <v>1359</v>
       </c>
       <c r="C172" s="4">
         <v>33</v>
@@ -3366,7 +3344,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C176" s="4">
         <v>25</v>
@@ -3410,7 +3388,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="C180" s="4">
         <v>4</v>
@@ -3443,10 +3421,10 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C183" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3465,7 +3443,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C185" s="4">
         <v>23</v>
@@ -3476,7 +3454,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3487,7 +3465,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C187" s="4">
         <v>0</v>
@@ -3498,7 +3476,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -3509,7 +3487,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3520,10 +3498,10 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2789</v>
+        <v>2798</v>
       </c>
       <c r="C190" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3531,7 +3509,7 @@
         <v>192</v>
       </c>
       <c r="B191" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
@@ -3542,7 +3520,7 @@
         <v>193</v>
       </c>
       <c r="B192" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -3553,7 +3531,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="C193" s="4">
         <v>7</v>
@@ -3641,7 +3619,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C201" s="4">
         <v>15</v>
@@ -3663,7 +3641,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3685,10 +3663,10 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C205" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3696,7 +3674,7 @@
         <v>207</v>
       </c>
       <c r="B206" s="4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -3729,7 +3707,7 @@
         <v>210</v>
       </c>
       <c r="B209" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
@@ -3784,7 +3762,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3806,7 +3784,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3861,7 +3839,7 @@
         <v>222</v>
       </c>
       <c r="B221" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C221" s="4">
         <v>1</v>
@@ -3872,10 +3850,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>7498</v>
+        <v>7642</v>
       </c>
       <c r="C222" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3883,7 +3861,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3927,10 +3905,10 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C227" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3938,7 +3916,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3949,7 +3927,7 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>4664</v>
+        <v>4771</v>
       </c>
       <c r="C229" s="4">
         <v>106</v>
@@ -3960,7 +3938,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -3982,7 +3960,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -4004,7 +3982,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4026,7 +4004,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C236" s="4">
         <v>1</v>
@@ -4037,7 +4015,7 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C237" s="4">
         <v>8</v>
@@ -4048,7 +4026,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1873</v>
+        <v>1879</v>
       </c>
       <c r="C238" s="4">
         <v>27</v>
@@ -4059,7 +4037,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4081,7 +4059,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C241" s="4">
         <v>26</v>
@@ -4092,10 +4070,10 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>718</v>
+        <v>756</v>
       </c>
       <c r="C242" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4114,7 +4092,7 @@
         <v>245</v>
       </c>
       <c r="B244" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C244" s="4">
         <v>0</v>
@@ -4125,7 +4103,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -4147,7 +4125,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4158,7 +4136,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>960</v>
+        <v>1021</v>
       </c>
       <c r="C248" s="4">
         <v>30</v>
@@ -4191,7 +4169,7 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C251" s="4">
         <v>5</v>
@@ -4202,7 +4180,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
@@ -4235,7 +4213,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4257,10 +4235,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>93206</v>
+        <v>96335</v>
       </c>
       <c r="C257" s="4">
-        <v>2029</v>
+        <v>2062</v>
       </c>
     </row>
   </sheetData>
@@ -4286,19 +4264,19 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>295</v>
@@ -4309,38 +4287,38 @@
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B3" s="8">
-        <v>7006</v>
-      </c>
-      <c r="C3" s="27">
+        <v>9039</v>
+      </c>
+      <c r="C3" s="26">
         <f>B3/B$6</f>
-        <v>0.44649799247976546</v>
+        <v>0.49269595552163958</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B4" s="8">
-        <v>8395</v>
-      </c>
-      <c r="C4" s="27">
+        <v>9141</v>
+      </c>
+      <c r="C4" s="26">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.53502007520234529</v>
+        <v>0.49825575057233185</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B5" s="8">
-        <v>290</v>
-      </c>
-      <c r="C5" s="27">
+        <v>166</v>
+      </c>
+      <c r="C5" s="26">
         <f t="shared" si="0"/>
-        <v>1.8481932317889235E-2</v>
+        <v>9.0482939060285619E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4348,26 +4326,26 @@
         <v>258</v>
       </c>
       <c r="B6" s="8">
-        <v>15691</v>
-      </c>
-      <c r="C6" s="27">
+        <v>18346</v>
+      </c>
+      <c r="C6" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4394,19 +4372,19 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>295</v>
@@ -4417,68 +4395,74 @@
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="8">
-        <v>519</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>320</v>
+        <v>563</v>
+      </c>
+      <c r="C3" s="26">
+        <f>B3/B$9</f>
+        <v>3.0687888368036629E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4" s="8">
-        <v>2555</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>301</v>
+        <v>2182</v>
+      </c>
+      <c r="C4" s="26">
+        <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
+        <v>0.11893600784912242</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B5" s="8">
-        <v>6287</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>323</v>
+        <v>6382</v>
+      </c>
+      <c r="C5" s="26">
+        <f t="shared" si="0"/>
+        <v>0.34786874523056799</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B6" s="8">
-        <v>99</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>325</v>
+        <v>109</v>
+      </c>
+      <c r="C6" s="26">
+        <f t="shared" si="0"/>
+        <v>5.9413496129946579E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B7" s="8">
-        <v>4262</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>327</v>
+        <v>5027</v>
+      </c>
+      <c r="C7" s="26">
+        <f t="shared" si="0"/>
+        <v>0.27401068352774449</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B8" s="8">
-        <v>1969</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>328</v>
+        <v>4083</v>
+      </c>
+      <c r="C8" s="26">
+        <f t="shared" si="0"/>
+        <v>0.22255532541153386</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4486,25 +4470,26 @@
         <v>258</v>
       </c>
       <c r="B9" s="8">
-        <v>15691</v>
-      </c>
-      <c r="C9" s="10">
-        <v>100</v>
+        <v>18346</v>
+      </c>
+      <c r="C9" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4531,15 +4516,15 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -4556,10 +4541,10 @@
       <c r="A3" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26">
         <f>B3/B$16</f>
         <v>0</v>
       </c>
@@ -4568,10 +4553,10 @@
       <c r="A4" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
@@ -4580,10 +4565,10 @@
       <c r="A5" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <f t="shared" si="0"/>
         <v>3.0120481927710845E-3</v>
       </c>
@@ -4592,118 +4577,118 @@
       <c r="A6" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>11</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <f t="shared" si="0"/>
         <v>1.6566265060240965E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B7" s="11">
+        <v>301</v>
+      </c>
+      <c r="B7" s="10">
         <v>13</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <f t="shared" si="0"/>
         <v>1.9578313253012049E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B8" s="11">
+        <v>302</v>
+      </c>
+      <c r="B8" s="10">
         <v>26</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <f t="shared" si="0"/>
         <v>3.9156626506024098E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B9" s="11">
+        <v>303</v>
+      </c>
+      <c r="B9" s="10">
         <v>72</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <f t="shared" si="0"/>
         <v>0.10843373493975904</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B10" s="11">
+        <v>304</v>
+      </c>
+      <c r="B10" s="10">
         <v>60</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <f t="shared" si="0"/>
         <v>9.036144578313253E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B11" s="11">
+        <v>305</v>
+      </c>
+      <c r="B11" s="10">
         <v>74</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <f t="shared" si="0"/>
         <v>0.11144578313253012</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" s="11">
+        <v>306</v>
+      </c>
+      <c r="B12" s="10">
         <v>69</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="26">
         <f t="shared" si="0"/>
         <v>0.10391566265060241</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B13" s="11">
+        <v>307</v>
+      </c>
+      <c r="B13" s="10">
         <v>70</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <f t="shared" si="0"/>
         <v>0.10542168674698796</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B14" s="11">
+        <v>308</v>
+      </c>
+      <c r="B14" s="10">
         <v>265</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <f t="shared" si="0"/>
         <v>0.3990963855421687</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B15" s="11">
+        <v>309</v>
+      </c>
+      <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <f t="shared" si="0"/>
         <v>3.0120481927710845E-3</v>
       </c>
@@ -4712,27 +4697,27 @@
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>664</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4759,19 +4744,19 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>295</v>
@@ -4782,36 +4767,36 @@
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3" s="11">
+        <v>314</v>
+      </c>
+      <c r="B3" s="10">
         <v>272</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <f>B3/B$6</f>
         <v>0.40963855421686746</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B4" s="11">
+        <v>315</v>
+      </c>
+      <c r="B4" s="10">
         <v>364</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
         <v>0.54819277108433739</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B5" s="11">
+        <v>309</v>
+      </c>
+      <c r="B5" s="10">
         <v>28</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <f t="shared" si="0"/>
         <v>4.2168674698795178E-2</v>
       </c>
@@ -4820,27 +4805,27 @@
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>664</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4871,15 +4856,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>295</v>
@@ -4890,72 +4875,72 @@
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="11">
+        <v>318</v>
+      </c>
+      <c r="B3" s="10">
         <v>13</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <f>B3/B$9</f>
         <v>1.9578313253012049E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" s="11">
+        <v>319</v>
+      </c>
+      <c r="B4" s="10">
         <v>85</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
         <v>0.12801204819277109</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B5" s="11">
+        <v>320</v>
+      </c>
+      <c r="B5" s="10">
         <v>171</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <f t="shared" si="0"/>
         <v>0.25753012048192769</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B6" s="11">
+        <v>321</v>
+      </c>
+      <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <f t="shared" si="0"/>
         <v>7.5301204819277108E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B7" s="11">
+        <v>322</v>
+      </c>
+      <c r="B7" s="10">
         <v>269</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <f t="shared" si="0"/>
         <v>0.40512048192771083</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" s="11">
+        <v>309</v>
+      </c>
+      <c r="B8" s="10">
         <v>121</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <f t="shared" si="0"/>
         <v>0.18222891566265059</v>
       </c>
@@ -4964,27 +4949,27 @@
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>664</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4993,13 +4978,13 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -5016,22 +5001,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6459,6 +6444,23 @@
       </c>
       <c r="E86" s="4">
         <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>43999</v>
+      </c>
+      <c r="B87" s="4">
+        <v>96335</v>
+      </c>
+      <c r="C87" s="4">
+        <v>2062</v>
+      </c>
+      <c r="D87" s="4">
+        <v>3129</v>
+      </c>
+      <c r="E87" s="4">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6488,10 +6490,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6503,17 +6505,17 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>60681</v>
+        <v>62368</v>
       </c>
       <c r="B3" s="7">
-        <v>30496</v>
+        <v>31905</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6527,10 +6529,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
@@ -6543,42 +6545,42 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" ht="92" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>273</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>336</v>
+      <c r="E2" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6594,7 +6596,7 @@
       <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>0.1056</v>
       </c>
       <c r="F3" s="8"/>
@@ -6614,7 +6616,7 @@
       <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="F4" s="8"/>
@@ -6634,7 +6636,7 @@
       <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>8.8909998585200004E-2</v>
       </c>
       <c r="F5" s="8"/>
@@ -6654,7 +6656,7 @@
       <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>0.1094</v>
       </c>
       <c r="F6" s="8"/>
@@ -6674,7 +6676,7 @@
       <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>0.11070000000000001</v>
       </c>
       <c r="F7" s="8"/>
@@ -6694,7 +6696,7 @@
       <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>0.100351636462</v>
       </c>
       <c r="F8" s="8"/>
@@ -6714,7 +6716,7 @@
       <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>0.1055125178708</v>
       </c>
       <c r="F9" s="8"/>
@@ -6734,7 +6736,7 @@
       <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>0.11360000000000001</v>
       </c>
       <c r="F10" s="8"/>
@@ -6754,7 +6756,7 @@
       <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>0.12479999999999999</v>
       </c>
       <c r="F11" s="8"/>
@@ -6774,7 +6776,7 @@
       <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>0.1386</v>
       </c>
       <c r="F12" s="8"/>
@@ -6794,7 +6796,7 @@
       <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <v>0.1101</v>
       </c>
       <c r="F13" s="8"/>
@@ -6814,7 +6816,7 @@
       <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>0.1105</v>
       </c>
       <c r="F14" s="8"/>
@@ -6834,7 +6836,7 @@
       <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>0.1188</v>
       </c>
       <c r="F15" s="8"/>
@@ -6854,7 +6856,7 @@
       <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>0.10630000000000001</v>
       </c>
       <c r="F16" s="8"/>
@@ -6874,7 +6876,7 @@
       <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="16">
         <v>0.1023</v>
       </c>
       <c r="F17" s="8"/>
@@ -6894,7 +6896,7 @@
       <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>9.35E-2</v>
       </c>
       <c r="F18" s="8"/>
@@ -6914,7 +6916,7 @@
       <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="16">
         <v>9.7117268401900006E-2</v>
       </c>
       <c r="F19" s="8"/>
@@ -6934,7 +6936,7 @@
       <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="F20" s="8"/>
@@ -6954,7 +6956,7 @@
       <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="16">
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="F21" s="8"/>
@@ -6974,7 +6976,7 @@
       <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="F22" s="8"/>
@@ -6994,7 +6996,7 @@
       <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="16">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="F23" s="8"/>
@@ -7014,7 +7016,7 @@
       <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="16">
         <v>6.3700000000000007E-2</v>
       </c>
       <c r="F24" s="8"/>
@@ -7034,7 +7036,7 @@
       <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="16">
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="F25" s="8"/>
@@ -7054,7 +7056,7 @@
       <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="F26" s="8"/>
@@ -7074,7 +7076,7 @@
       <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="16">
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="F27" s="8"/>
@@ -7094,7 +7096,7 @@
       <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="16">
         <v>6.10670666381E-2</v>
       </c>
       <c r="F28" s="8"/>
@@ -7114,7 +7116,7 @@
       <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="16">
         <v>5.8381327098900003E-2</v>
       </c>
       <c r="F29" s="8"/>
@@ -7134,7 +7136,7 @@
       <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="F30" s="8"/>
@@ -7154,7 +7156,7 @@
       <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="16">
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="F31" s="8"/>
@@ -7174,7 +7176,7 @@
       <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="16">
         <v>6.0400000000000002E-2</v>
       </c>
       <c r="F32" s="8"/>
@@ -7194,7 +7196,7 @@
       <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="16">
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="F33" s="8"/>
@@ -7214,7 +7216,7 @@
       <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="16">
         <v>5.6754924069199998E-2</v>
       </c>
       <c r="F34" s="8"/>
@@ -7234,7 +7236,7 @@
       <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="16">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F35" s="8"/>
@@ -7254,7 +7256,7 @@
       <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="16">
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="F36" s="8"/>
@@ -7274,7 +7276,7 @@
       <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="16">
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="F37" s="8"/>
@@ -7294,7 +7296,7 @@
       <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="16">
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F38" s="8"/>
@@ -7314,7 +7316,7 @@
       <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="16">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F39" s="8"/>
@@ -7334,7 +7336,7 @@
       <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="16">
         <v>6.3711443038399998E-2</v>
       </c>
       <c r="F40" s="8"/>
@@ -7354,7 +7356,7 @@
       <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="16">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F41" s="8"/>
@@ -7374,7 +7376,7 @@
       <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="16">
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="F42" s="8"/>
@@ -7394,7 +7396,7 @@
       <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="16">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="F43" s="8"/>
@@ -7414,7 +7416,7 @@
       <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="16">
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="F44" s="8"/>
@@ -7434,7 +7436,7 @@
       <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="16">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="F45" s="8">
@@ -7460,7 +7462,7 @@
       <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="16">
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="F46" s="8">
@@ -7486,7 +7488,7 @@
       <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="16">
         <v>4.4720144337000001E-2</v>
       </c>
       <c r="F47" s="8">
@@ -7512,7 +7514,7 @@
       <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="16">
         <v>4.7E-2</v>
       </c>
       <c r="F48" s="8">
@@ -7538,7 +7540,7 @@
       <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="16">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="F49" s="8">
@@ -7564,7 +7566,7 @@
       <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="16">
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="F50" s="8">
@@ -7590,7 +7592,7 @@
       <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="16">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="F51" s="8">
@@ -7616,7 +7618,7 @@
       <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="16" t="s">
         <v>274</v>
       </c>
       <c r="F52" s="8"/>
@@ -7638,7 +7640,7 @@
       <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="16">
         <v>4.87E-2</v>
       </c>
       <c r="F53" s="8">
@@ -7664,7 +7666,7 @@
       <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="16">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F54" s="8">
@@ -7690,7 +7692,7 @@
       <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="16">
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="F55" s="8">
@@ -7716,7 +7718,7 @@
       <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="16">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="F56" s="8">
@@ -7742,7 +7744,7 @@
       <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="16">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F57" s="8">
@@ -7768,7 +7770,7 @@
       <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="16">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="F58" s="8">
@@ -7794,7 +7796,7 @@
       <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="16" t="s">
         <v>274</v>
       </c>
       <c r="F59" s="8"/>
@@ -7816,7 +7818,7 @@
       <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="16">
         <v>5.43810873784E-2</v>
       </c>
       <c r="F60" s="8">
@@ -7842,7 +7844,7 @@
       <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="16">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F61" s="8">
@@ -7868,7 +7870,7 @@
       <c r="D62" s="8">
         <v>1117274</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="16">
         <v>6.6236912120931343E-2</v>
       </c>
       <c r="F62" s="8">
@@ -7894,7 +7896,7 @@
       <c r="D63" s="8">
         <v>1150868</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="16">
         <v>6.2599418158065037E-2</v>
       </c>
       <c r="F63" s="8">
@@ -7920,7 +7922,7 @@
       <c r="D64" s="8">
         <v>1174948</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="16">
         <v>6.0272963321667726E-2</v>
       </c>
       <c r="F64" s="8">
@@ -7946,7 +7948,7 @@
       <c r="D65" s="8">
         <v>1209187</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="16">
         <v>6.4378489924739019E-2</v>
       </c>
       <c r="F65" s="8">
@@ -7972,7 +7974,7 @@
       <c r="D66" s="8">
         <v>1218955</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="16">
         <v>8.00231185826311E-2</v>
       </c>
       <c r="F66" s="8">
@@ -7998,7 +8000,7 @@
       <c r="D67" s="8">
         <v>1255899</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="16">
         <v>7.1138170808796614E-2</v>
       </c>
       <c r="F67" s="8">
@@ -8024,7 +8026,7 @@
       <c r="D68" s="8">
         <v>1286139</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="16">
         <v>6.6629016142145212E-2</v>
       </c>
       <c r="F68" s="8">
@@ -8050,7 +8052,7 @@
       <c r="D69" s="8">
         <v>1302049</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="16">
         <v>6.9239691807230483E-2</v>
       </c>
       <c r="F69" s="8">
@@ -8076,7 +8078,7 @@
       <c r="D70" s="8">
         <v>1348893</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="16">
         <v>6.8464816856912941E-2</v>
       </c>
       <c r="F70" s="8">
@@ -8102,7 +8104,7 @@
       <c r="D71" s="8">
         <v>1370131</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="16">
         <v>7.0522006760147776E-2</v>
       </c>
       <c r="F71" s="8">
@@ -8128,7 +8130,7 @@
       <c r="D72" s="8">
         <v>1404369</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="16">
         <v>7.2239317057985419E-2</v>
       </c>
       <c r="F72" s="8">
@@ -8154,7 +8156,7 @@
       <c r="D73" s="8">
         <v>1442950</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="16">
         <v>6.1077310009756289E-2</v>
       </c>
       <c r="F73" s="8">
@@ -8180,7 +8182,7 @@
       <c r="D74" s="8">
         <v>1463851</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="16">
         <v>6.6219239373601788E-2</v>
       </c>
       <c r="F74" s="8">
@@ -8206,7 +8208,7 @@
       <c r="D75" s="8">
         <v>1499015</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="16">
         <v>6.7095336844251494E-2</v>
       </c>
       <c r="F75" s="8">
@@ -8223,31 +8225,57 @@
       <c r="A76" s="6">
         <v>43998</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>274</v>
+      <c r="B76" s="8">
+        <v>1369638</v>
+      </c>
+      <c r="C76" s="8">
+        <v>152796</v>
       </c>
       <c r="D76" s="8">
         <v>1522434</v>
       </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-    </row>
-    <row r="78" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+      <c r="E76" s="16">
+        <v>6.9417073042085622E-2</v>
+      </c>
+      <c r="F76" s="8">
+        <v>29793</v>
+      </c>
+      <c r="G76" s="8">
+        <v>1691</v>
+      </c>
+      <c r="H76" s="8">
+        <v>31484</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>43999</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D77" s="8">
+        <v>1560537</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+    </row>
+    <row r="79" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -8262,7 +8290,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8272,10 +8300,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8290,7 +8318,7 @@
         <v>279</v>
       </c>
       <c r="B3" s="7">
-        <v>64302</v>
+        <v>65565</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8298,7 +8326,7 @@
         <v>280</v>
       </c>
       <c r="B4" s="7">
-        <v>1458132</v>
+        <v>1494972</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8306,14 +8334,14 @@
         <v>281</v>
       </c>
       <c r="B5" s="7">
-        <v>1522434</v>
+        <v>1560537</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8326,55 +8354,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BED0331-BE52-41C3-9971-0D15F6BEAFBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642878A5-4465-4884-B835-3145CFE1E2E9}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="20"/>
+    <col min="1" max="1" width="55.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="B1" s="19"/>
+      <c r="A1" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="B3" s="24">
-        <v>150573</v>
+      <c r="A3" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="23">
+        <v>152796</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="B4" s="24">
-        <v>6189</v>
+      <c r="A4" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="23">
+        <v>6258</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8403,10 +8431,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8421,7 +8449,7 @@
         <v>285</v>
       </c>
       <c r="B3" s="7">
-        <v>2518</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8429,7 +8457,7 @@
         <v>286</v>
       </c>
       <c r="B4" s="7">
-        <v>54844</v>
+        <v>56194</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8437,7 +8465,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="7">
-        <v>14993</v>
+        <v>13815</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8445,7 +8473,7 @@
         <v>288</v>
       </c>
       <c r="B6" s="7">
-        <v>1675</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8453,14 +8481,14 @@
         <v>289</v>
       </c>
       <c r="B7" s="7">
-        <v>5869</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8474,7 +8502,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -8490,11 +8518,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -9321,17 +9349,28 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+    <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>75</v>
+      </c>
+      <c r="B77" s="6">
+        <v>43999</v>
+      </c>
+      <c r="C77" s="7">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9356,11 +9395,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -9378,11 +9417,11 @@
         <v>297</v>
       </c>
       <c r="B3" s="8">
-        <v>41</v>
-      </c>
-      <c r="C3" s="27">
+        <v>70</v>
+      </c>
+      <c r="C3" s="26">
         <f>B3/B$16</f>
-        <v>2.612962844942961E-3</v>
+        <v>3.8155456230240924E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9390,11 +9429,11 @@
         <v>298</v>
       </c>
       <c r="B4" s="8">
-        <v>180</v>
-      </c>
-      <c r="C4" s="27">
+        <v>295</v>
+      </c>
+      <c r="C4" s="26">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.147154419731056E-2</v>
+        <v>1.6079799411315817E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9402,11 +9441,11 @@
         <v>299</v>
       </c>
       <c r="B5" s="8">
-        <v>471</v>
-      </c>
-      <c r="C5" s="27">
+        <v>761</v>
+      </c>
+      <c r="C5" s="26">
         <f t="shared" si="0"/>
-        <v>3.0017207316295966E-2</v>
+        <v>4.148043170173335E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9414,119 +9453,119 @@
         <v>300</v>
       </c>
       <c r="B6" s="8">
-        <v>2436</v>
-      </c>
-      <c r="C6" s="27">
+        <v>2986</v>
+      </c>
+      <c r="C6" s="26">
         <f t="shared" si="0"/>
-        <v>0.15524823147026959</v>
+        <v>0.16276027471928486</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B7" s="8">
-        <v>2869</v>
-      </c>
-      <c r="C7" s="27">
+        <v>3374</v>
+      </c>
+      <c r="C7" s="26">
         <f t="shared" si="0"/>
-        <v>0.18284366834491109</v>
+        <v>0.18390929902976125</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B8" s="8">
-        <v>2935</v>
-      </c>
-      <c r="C8" s="27">
+        <v>3355</v>
+      </c>
+      <c r="C8" s="26">
         <f t="shared" si="0"/>
-        <v>0.18704990121725831</v>
+        <v>0.1828736509320833</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B9" s="8">
-        <v>2873</v>
-      </c>
-      <c r="C9" s="27">
+        <v>3244</v>
+      </c>
+      <c r="C9" s="26">
         <f t="shared" si="0"/>
-        <v>0.18309859154929578</v>
+        <v>0.17682328572985936</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B10" s="8">
-        <v>1226</v>
-      </c>
-      <c r="C10" s="27">
+        <v>1303</v>
+      </c>
+      <c r="C10" s="26">
         <f t="shared" si="0"/>
-        <v>7.8133962143904154E-2</v>
+        <v>7.1023656382862746E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B11" s="8">
-        <v>887</v>
-      </c>
-      <c r="C11" s="27">
+        <v>971</v>
+      </c>
+      <c r="C11" s="26">
         <f t="shared" si="0"/>
-        <v>5.6529220572302592E-2</v>
+        <v>5.2927068570805626E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B12" s="8">
-        <v>593</v>
-      </c>
-      <c r="C12" s="27">
+        <v>609</v>
+      </c>
+      <c r="C12" s="26">
         <f t="shared" si="0"/>
-        <v>3.7792365050028677E-2</v>
+        <v>3.3195246920309604E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B13" s="8">
-        <v>392</v>
-      </c>
-      <c r="C13" s="27">
+        <v>461</v>
+      </c>
+      <c r="C13" s="26">
         <f t="shared" si="0"/>
-        <v>2.4982474029698554E-2</v>
+        <v>2.5128093317344381E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B14" s="8">
-        <v>665</v>
-      </c>
-      <c r="C14" s="27">
+        <v>904</v>
+      </c>
+      <c r="C14" s="26">
         <f t="shared" si="0"/>
-        <v>4.2380982728952903E-2</v>
+        <v>4.9275046331625424E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B15" s="8">
-        <v>123</v>
-      </c>
-      <c r="C15" s="27">
+        <v>13</v>
+      </c>
+      <c r="C15" s="26">
         <f t="shared" si="0"/>
-        <v>7.838888534828883E-3</v>
+        <v>7.086013299901886E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9534,26 +9573,26 @@
         <v>258</v>
       </c>
       <c r="B16" s="8">
-        <v>15691</v>
-      </c>
-      <c r="C16" s="27">
+        <v>18346</v>
+      </c>
+      <c r="C16" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9562,6 +9601,6 @@
     <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1880BE0B-003C-4DF1-8C08-7AC5F64A48D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A361559-6729-4BFB-A983-4F20203401BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,14 @@
     <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="334">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/17 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="335">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 6/18 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,10 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/17 at 10:45AM CST</t>
-  </si>
-  <si>
-    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/18 at 10:45AM CST</t>
   </si>
   <si>
     <t>Date</t>
@@ -839,7 +836,10 @@
 Fatalities</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/17 at 3:00PM CST</t>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/18 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -851,7 +851,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/17 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/18 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -864,13 +864,10 @@
     <t>Antibody Tests</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/17 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/18 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -891,7 +888,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/17 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/18 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -912,7 +909,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/17 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/18 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -921,7 +918,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/17 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/18 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -976,10 +973,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          18,346</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/17 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          18,763</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/18 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -991,7 +988,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/17 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/18 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1012,16 +1009,22 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/17 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/18 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Completed investigations received by DSHS =          664</t>
   </si>
   <si>
-    <t>Gender of Confirmed Fatalities as of 6/17 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/17 at 9:30 AM CST</t>
+    <t>Gender of Confirmed Fatalities as of 6/18 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/18 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>06/16/2020 - TDCJ*</t>
+  </si>
+  <si>
+    <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
   </si>
   <si>
     <t>COVID-19
@@ -1044,20 +1047,21 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/16 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/17 at 3:00PM CST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="###,##0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="166" formatCode="##,###,##0"/>
-    <numFmt numFmtId="167" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="169" formatCode="##0"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="#########0"/>
+    <numFmt numFmtId="167" formatCode="##,###,##0"/>
+    <numFmt numFmtId="168" formatCode="###,###,###,###,##0"/>
+    <numFmt numFmtId="170" formatCode="##0"/>
+    <numFmt numFmtId="175" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1083,7 +1087,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
@@ -1097,13 +1100,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9.5"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1187,7 +1191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1209,16 +1213,16 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1230,16 +1234,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1248,31 +1261,28 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B8EA7250-9E87-41D4-AB5E-D4953F082366}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E053C216-644A-403C-B64A-D912F10AB95F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1407,7 +1417,6 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1441,7 +1450,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>990</v>
+        <v>1003</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -1452,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -1466,7 +1475,7 @@
         <v>352</v>
       </c>
       <c r="C5" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1507,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1518,7 +1527,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1529,7 +1538,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1540,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -1551,7 +1560,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C13" s="4">
         <v>4</v>
@@ -1584,10 +1593,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>672</v>
+        <v>722</v>
       </c>
       <c r="C16" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1595,10 +1604,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>4876</v>
+        <v>5142</v>
       </c>
       <c r="C17" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1606,7 +1615,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1639,7 +1648,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C21" s="4">
         <v>8</v>
@@ -1650,7 +1659,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>1525</v>
+        <v>1558</v>
       </c>
       <c r="C22" s="4">
         <v>18</v>
@@ -1661,7 +1670,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>880</v>
+        <v>1025</v>
       </c>
       <c r="C23" s="4">
         <v>25</v>
@@ -1672,7 +1681,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -1716,7 +1725,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1727,10 +1736,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C29" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1738,7 +1747,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -1771,10 +1780,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>1236</v>
+        <v>1301</v>
       </c>
       <c r="C33" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1804,7 +1813,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
@@ -1815,7 +1824,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1826,7 +1835,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1837,7 +1846,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -1903,7 +1912,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>1866</v>
+        <v>1967</v>
       </c>
       <c r="C45" s="4">
         <v>38</v>
@@ -1925,7 +1934,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1936,7 +1945,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -1969,7 +1978,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -1980,7 +1989,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -2002,7 +2011,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C54" s="4">
         <v>5</v>
@@ -2046,7 +2055,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2057,10 +2066,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>14843</v>
+        <v>15256</v>
       </c>
       <c r="C59" s="4">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2079,7 +2088,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="4">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -2090,7 +2099,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C62" s="4">
         <v>16</v>
@@ -2112,7 +2121,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1812</v>
+        <v>1893</v>
       </c>
       <c r="C64" s="4">
         <v>36</v>
@@ -2178,7 +2187,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C70" s="4">
         <v>7</v>
@@ -2200,10 +2209,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>3999</v>
+        <v>4088</v>
       </c>
       <c r="C72" s="4">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2211,7 +2220,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="C73" s="4">
         <v>19</v>
@@ -2222,7 +2231,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -2233,7 +2242,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2244,7 +2253,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C76" s="4">
         <v>6</v>
@@ -2255,7 +2264,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2277,7 +2286,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
@@ -2299,7 +2308,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>2496</v>
+        <v>2667</v>
       </c>
       <c r="C81" s="4">
         <v>50</v>
@@ -2310,7 +2319,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2321,7 +2330,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2332,7 +2341,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2354,7 +2363,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>1378</v>
+        <v>1486</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
@@ -2376,7 +2385,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -2387,7 +2396,7 @@
         <v>90</v>
       </c>
       <c r="B89" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C89" s="4">
         <v>0</v>
@@ -2409,7 +2418,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
@@ -2420,7 +2429,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C92" s="4">
         <v>4</v>
@@ -2431,7 +2440,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C93" s="4">
         <v>4</v>
@@ -2442,7 +2451,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C94" s="4">
         <v>12</v>
@@ -2453,7 +2462,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2464,7 +2473,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
@@ -2530,7 +2539,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2541,10 +2550,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>17707</v>
+        <v>18157</v>
       </c>
       <c r="C103" s="4">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2552,10 +2561,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C104" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2585,7 +2594,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>1093</v>
+        <v>1238</v>
       </c>
       <c r="C107" s="4">
         <v>5</v>
@@ -2607,7 +2616,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C109" s="4">
         <v>3</v>
@@ -2618,10 +2627,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>1255</v>
+        <v>1347</v>
       </c>
       <c r="C110" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2629,7 +2638,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -2673,7 +2682,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2695,7 +2704,7 @@
         <v>118</v>
       </c>
       <c r="B117" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C117" s="4">
         <v>0</v>
@@ -2706,7 +2715,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C118" s="4">
         <v>5</v>
@@ -2783,7 +2792,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1319</v>
+        <v>1340</v>
       </c>
       <c r="C125" s="4">
         <v>32</v>
@@ -2794,7 +2803,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -2805,7 +2814,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2816,7 +2825,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2827,7 +2836,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2849,7 +2858,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C131" s="4">
         <v>4</v>
@@ -2937,7 +2946,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
@@ -2981,7 +2990,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -3014,7 +3023,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C146" s="4">
         <v>3</v>
@@ -3036,7 +3045,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3047,7 +3056,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3102,7 +3111,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>955</v>
+        <v>1031</v>
       </c>
       <c r="C154" s="4">
         <v>51</v>
@@ -3124,7 +3133,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3168,7 +3177,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3179,7 +3188,7 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C161" s="4">
         <v>2</v>
@@ -3201,7 +3210,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="C163" s="4">
         <v>4</v>
@@ -3223,7 +3232,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3245,7 +3254,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="C167" s="4">
         <v>13</v>
@@ -3256,7 +3265,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3300,7 +3309,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>1359</v>
+        <v>1428</v>
       </c>
       <c r="C172" s="4">
         <v>33</v>
@@ -3311,7 +3320,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="C173" s="4">
         <v>14</v>
@@ -3344,7 +3353,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C176" s="4">
         <v>25</v>
@@ -3355,7 +3364,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C177" s="4">
         <v>4</v>
@@ -3377,7 +3386,7 @@
         <v>180</v>
       </c>
       <c r="B179" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -3388,7 +3397,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="C180" s="4">
         <v>4</v>
@@ -3421,7 +3430,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
@@ -3443,7 +3452,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C185" s="4">
         <v>23</v>
@@ -3454,7 +3463,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3465,7 +3474,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C187" s="4">
         <v>0</v>
@@ -3487,7 +3496,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3498,10 +3507,10 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2798</v>
+        <v>2811</v>
       </c>
       <c r="C190" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3531,7 +3540,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="C193" s="4">
         <v>7</v>
@@ -3608,7 +3617,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3619,7 +3628,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C201" s="4">
         <v>15</v>
@@ -3641,7 +3650,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3663,10 +3672,10 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C205" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3685,7 +3694,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -3718,7 +3727,7 @@
         <v>211</v>
       </c>
       <c r="B210" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C210" s="4">
         <v>0</v>
@@ -3740,7 +3749,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C212" s="4">
         <v>8</v>
@@ -3751,7 +3760,7 @@
         <v>214</v>
       </c>
       <c r="B213" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C213" s="4">
         <v>0</v>
@@ -3762,7 +3771,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3784,7 +3793,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3850,10 +3859,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>7642</v>
+        <v>7822</v>
       </c>
       <c r="C222" s="4">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3861,7 +3870,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3883,7 +3892,7 @@
         <v>226</v>
       </c>
       <c r="B225" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
@@ -3905,7 +3914,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C227" s="4">
         <v>4</v>
@@ -3916,7 +3925,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3927,10 +3936,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>4771</v>
+        <v>4991</v>
       </c>
       <c r="C229" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3938,7 +3947,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -3960,7 +3969,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -3982,7 +3991,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -3993,7 +4002,7 @@
         <v>236</v>
       </c>
       <c r="B235" s="4">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C235" s="4">
         <v>0</v>
@@ -4004,7 +4013,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C236" s="4">
         <v>1</v>
@@ -4015,7 +4024,7 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C237" s="4">
         <v>8</v>
@@ -4026,10 +4035,10 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1879</v>
+        <v>1885</v>
       </c>
       <c r="C238" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4037,7 +4046,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4059,7 +4068,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C241" s="4">
         <v>26</v>
@@ -4070,10 +4079,10 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>756</v>
+        <v>803</v>
       </c>
       <c r="C242" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4081,7 +4090,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4103,7 +4112,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -4125,7 +4134,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4136,10 +4145,10 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>1021</v>
+        <v>1068</v>
       </c>
       <c r="C248" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4147,7 +4156,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4158,7 +4167,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4169,7 +4178,7 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C251" s="4">
         <v>5</v>
@@ -4180,7 +4189,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
@@ -4191,7 +4200,7 @@
         <v>254</v>
       </c>
       <c r="B253" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4213,7 +4222,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4235,10 +4244,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>96335</v>
+        <v>99851</v>
       </c>
       <c r="C257" s="4">
-        <v>2062</v>
+        <v>2105</v>
       </c>
     </row>
   </sheetData>
@@ -4256,7 +4265,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4264,61 +4273,61 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B3" s="8">
-        <v>9039</v>
-      </c>
-      <c r="C3" s="26">
+        <v>9250</v>
+      </c>
+      <c r="C3" s="28">
         <f>B3/B$6</f>
-        <v>0.49269595552163958</v>
+        <v>0.49299152587539308</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B4" s="8">
-        <v>9141</v>
-      </c>
-      <c r="C4" s="26">
+        <v>9338</v>
+      </c>
+      <c r="C4" s="28">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.49825575057233185</v>
+        <v>0.49768160741885625</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="8">
-        <v>166</v>
-      </c>
-      <c r="C5" s="26">
+        <v>175</v>
+      </c>
+      <c r="C5" s="28">
         <f t="shared" si="0"/>
-        <v>9.0482939060285619E-3</v>
+        <v>9.3268667057506797E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4326,23 +4335,23 @@
         <v>258</v>
       </c>
       <c r="B6" s="8">
-        <v>18346</v>
-      </c>
-      <c r="C6" s="26">
+        <v>18763</v>
+      </c>
+      <c r="C6" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4364,7 +4373,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4372,97 +4381,97 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B3" s="8">
-        <v>563</v>
-      </c>
-      <c r="C3" s="26">
+        <v>570</v>
+      </c>
+      <c r="C3" s="28">
         <f>B3/B$9</f>
-        <v>3.0687888368036629E-2</v>
+        <v>3.0378937270159355E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="8">
-        <v>2182</v>
-      </c>
-      <c r="C4" s="26">
+        <v>2222</v>
+      </c>
+      <c r="C4" s="28">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.11893600784912242</v>
+        <v>0.11842455897244578</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" s="8">
-        <v>6382</v>
-      </c>
-      <c r="C5" s="26">
+        <v>6523</v>
+      </c>
+      <c r="C5" s="28">
         <f t="shared" si="0"/>
-        <v>0.34786874523056799</v>
+        <v>0.34765229440920964</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B6" s="8">
-        <v>109</v>
-      </c>
-      <c r="C6" s="26">
+        <v>112</v>
+      </c>
+      <c r="C6" s="28">
         <f t="shared" si="0"/>
-        <v>5.9413496129946579E-3</v>
+        <v>5.9691946916804349E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="8">
-        <v>5027</v>
-      </c>
-      <c r="C7" s="26">
+        <v>5118</v>
+      </c>
+      <c r="C7" s="28">
         <f t="shared" si="0"/>
-        <v>0.27401068352774449</v>
+        <v>0.27277087885732559</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8" s="8">
-        <v>4083</v>
-      </c>
-      <c r="C8" s="26">
+        <v>4218</v>
+      </c>
+      <c r="C8" s="28">
         <f t="shared" si="0"/>
-        <v>0.22255532541153386</v>
+        <v>0.22480413579917924</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4470,23 +4479,23 @@
         <v>258</v>
       </c>
       <c r="B9" s="8">
-        <v>18346</v>
-      </c>
-      <c r="C9" s="26">
+        <v>18763</v>
+      </c>
+      <c r="C9" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -4508,7 +4517,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4516,179 +4525,179 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="28">
         <f>B3/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="28">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="28">
         <f t="shared" si="0"/>
         <v>3.0120481927710845E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="10">
         <v>11</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="28">
         <f t="shared" si="0"/>
         <v>1.6566265060240965E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" s="10">
         <v>13</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="28">
         <f t="shared" si="0"/>
         <v>1.9578313253012049E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" s="10">
         <v>26</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="28">
         <f t="shared" si="0"/>
         <v>3.9156626506024098E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9" s="10">
         <v>72</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="28">
         <f t="shared" si="0"/>
         <v>0.10843373493975904</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10" s="10">
         <v>60</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="28">
         <f t="shared" si="0"/>
         <v>9.036144578313253E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" s="10">
         <v>74</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="28">
         <f t="shared" si="0"/>
         <v>0.11144578313253012</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B12" s="10">
         <v>69</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="28">
         <f t="shared" si="0"/>
         <v>0.10391566265060241</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B13" s="10">
         <v>70</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="28">
         <f t="shared" si="0"/>
         <v>0.10542168674698796</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" s="10">
         <v>265</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="28">
         <f t="shared" si="0"/>
         <v>0.3990963855421687</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="28">
         <f t="shared" si="0"/>
         <v>3.0120481927710845E-3</v>
       </c>
@@ -4700,21 +4709,21 @@
       <c r="B16" s="10">
         <v>664</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -4736,7 +4745,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4744,59 +4753,59 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B3" s="10">
         <v>272</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="28">
         <f>B3/B$6</f>
         <v>0.40963855421686746</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B4" s="10">
         <v>364</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="28">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
         <v>0.54819277108433739</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="10">
         <v>28</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="28">
         <f t="shared" si="0"/>
         <v>4.2168674698795178E-2</v>
       </c>
@@ -4808,21 +4817,21 @@
       <c r="B6" s="10">
         <v>664</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4844,7 +4853,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4857,90 +4866,90 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B3" s="10">
         <v>13</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="28">
         <f>B3/B$9</f>
         <v>1.9578313253012049E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="10">
         <v>85</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="28">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
         <v>0.12801204819277109</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" s="10">
         <v>171</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="28">
         <f t="shared" si="0"/>
         <v>0.25753012048192769</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="28">
         <f t="shared" si="0"/>
         <v>7.5301204819277108E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="10">
         <v>269</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="28">
         <f t="shared" si="0"/>
         <v>0.40512048192771083</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8" s="10">
         <v>121</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="28">
         <f t="shared" si="0"/>
         <v>0.18222891566265059</v>
       </c>
@@ -4952,21 +4961,21 @@
       <c r="B9" s="10">
         <v>664</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -4978,23 +4987,23 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -5009,231 +5018,239 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>265</v>
+    </row>
+    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>43916</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1394</v>
+      </c>
+      <c r="C3" s="4">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4">
+        <v>419</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B4" s="4">
-        <v>1394</v>
+        <v>1731</v>
       </c>
       <c r="C4" s="4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4">
-        <v>419</v>
+        <v>337</v>
       </c>
       <c r="E4" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B5" s="4">
-        <v>1731</v>
+        <v>2048</v>
       </c>
       <c r="C5" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="E5" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B6" s="4">
-        <v>2048</v>
+        <v>2552</v>
       </c>
       <c r="C6" s="4">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4">
-        <v>317</v>
+        <v>504</v>
       </c>
       <c r="E6" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B7" s="4">
-        <v>2552</v>
+        <v>2874</v>
       </c>
       <c r="C7" s="4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4">
-        <v>504</v>
+        <v>322</v>
       </c>
       <c r="E7" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B8" s="4">
-        <v>2874</v>
+        <v>3266</v>
       </c>
       <c r="C8" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4">
-        <v>322</v>
+        <v>392</v>
       </c>
       <c r="E8" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B9" s="4">
-        <v>3266</v>
+        <v>3996</v>
       </c>
       <c r="C9" s="4">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4">
-        <v>392</v>
+        <v>730</v>
       </c>
       <c r="E9" s="4">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B10" s="4">
-        <v>3996</v>
+        <v>4665</v>
       </c>
       <c r="C10" s="4">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4">
-        <v>730</v>
+        <v>669</v>
       </c>
       <c r="E10" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B11" s="4">
-        <v>4665</v>
+        <v>5324</v>
       </c>
       <c r="C11" s="4">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="E11" s="4">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B12" s="4">
-        <v>5324</v>
+        <v>6112</v>
       </c>
       <c r="C12" s="4">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4">
-        <v>659</v>
+        <v>788</v>
       </c>
       <c r="E12" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B13" s="4">
-        <v>6112</v>
+        <v>6793</v>
       </c>
       <c r="C13" s="4">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D13" s="4">
-        <v>788</v>
+        <v>681</v>
       </c>
       <c r="E13" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B14" s="4">
-        <v>6793</v>
+        <v>7273</v>
       </c>
       <c r="C14" s="4">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D14" s="4">
-        <v>681</v>
+        <v>480</v>
       </c>
       <c r="E14" s="4">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B15" s="4">
-        <v>7273</v>
+        <v>8261</v>
       </c>
       <c r="C15" s="4">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D15" s="4">
-        <v>480</v>
+        <v>988</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -5241,1197 +5258,1197 @@
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B16" s="4">
-        <v>8261</v>
+        <v>9353</v>
       </c>
       <c r="C16" s="4">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D16" s="4">
-        <v>988</v>
+        <v>1092</v>
       </c>
       <c r="E16" s="4">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B17" s="4">
-        <v>9353</v>
+        <v>10230</v>
       </c>
       <c r="C17" s="4">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="D17" s="4">
-        <v>1092</v>
+        <v>877</v>
       </c>
       <c r="E17" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B18" s="4">
-        <v>10230</v>
+        <v>11671</v>
       </c>
       <c r="C18" s="4">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D18" s="4">
-        <v>877</v>
+        <v>1441</v>
       </c>
       <c r="E18" s="4">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B19" s="4">
-        <v>11671</v>
+        <v>12561</v>
       </c>
       <c r="C19" s="4">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="D19" s="4">
-        <v>1441</v>
+        <v>890</v>
       </c>
       <c r="E19" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B20" s="4">
-        <v>12561</v>
+        <v>13484</v>
       </c>
       <c r="C20" s="4">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="D20" s="4">
-        <v>890</v>
+        <v>923</v>
       </c>
       <c r="E20" s="4">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B21" s="4">
-        <v>13484</v>
+        <v>13906</v>
       </c>
       <c r="C21" s="4">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="D21" s="4">
-        <v>923</v>
+        <v>422</v>
       </c>
       <c r="E21" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B22" s="4">
-        <v>13906</v>
+        <v>14624</v>
       </c>
       <c r="C22" s="4">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="D22" s="4">
-        <v>422</v>
+        <v>718</v>
       </c>
       <c r="E22" s="4">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B23" s="4">
-        <v>14624</v>
+        <v>15492</v>
       </c>
       <c r="C23" s="4">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="D23" s="4">
-        <v>718</v>
+        <v>868</v>
       </c>
       <c r="E23" s="4">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B24" s="4">
-        <v>15492</v>
+        <v>16455</v>
       </c>
       <c r="C24" s="4">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="D24" s="4">
-        <v>868</v>
+        <v>963</v>
       </c>
       <c r="E24" s="4">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B25" s="4">
-        <v>16455</v>
+        <v>17371</v>
       </c>
       <c r="C25" s="4">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="D25" s="4">
-        <v>963</v>
+        <v>916</v>
       </c>
       <c r="E25" s="4">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B26" s="4">
-        <v>17371</v>
+        <v>18260</v>
       </c>
       <c r="C26" s="4">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="D26" s="4">
-        <v>916</v>
+        <v>889</v>
       </c>
       <c r="E26" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B27" s="4">
-        <v>18260</v>
+        <v>18923</v>
       </c>
       <c r="C27" s="4">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="D27" s="4">
-        <v>889</v>
+        <v>663</v>
       </c>
       <c r="E27" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B28" s="4">
-        <v>18923</v>
+        <v>19458</v>
       </c>
       <c r="C28" s="4">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="D28" s="4">
-        <v>663</v>
+        <v>535</v>
       </c>
       <c r="E28" s="4">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B29" s="4">
-        <v>19458</v>
+        <v>20196</v>
       </c>
       <c r="C29" s="4">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="D29" s="4">
-        <v>535</v>
+        <v>738</v>
       </c>
       <c r="E29" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B30" s="4">
-        <v>20196</v>
+        <v>21069</v>
       </c>
       <c r="C30" s="4">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="D30" s="4">
-        <v>738</v>
+        <v>873</v>
       </c>
       <c r="E30" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B31" s="4">
-        <v>21069</v>
+        <v>21944</v>
       </c>
       <c r="C31" s="4">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="D31" s="4">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E31" s="4">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B32" s="4">
-        <v>21944</v>
+        <v>22806</v>
       </c>
       <c r="C32" s="4">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="D32" s="4">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="E32" s="4">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B33" s="4">
-        <v>22806</v>
+        <v>23773</v>
       </c>
       <c r="C33" s="4">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="D33" s="4">
-        <v>862</v>
+        <v>967</v>
       </c>
       <c r="E33" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B34" s="4">
-        <v>23773</v>
+        <v>24631</v>
       </c>
       <c r="C34" s="4">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="D34" s="4">
-        <v>967</v>
+        <v>858</v>
       </c>
       <c r="E34" s="4">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B35" s="4">
-        <v>24631</v>
+        <v>25297</v>
       </c>
       <c r="C35" s="4">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="D35" s="4">
-        <v>858</v>
+        <v>666</v>
       </c>
       <c r="E35" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B36" s="4">
-        <v>25297</v>
+        <v>26171</v>
       </c>
       <c r="C36" s="4">
-        <v>663</v>
+        <v>690</v>
       </c>
       <c r="D36" s="4">
-        <v>666</v>
+        <v>874</v>
       </c>
       <c r="E36" s="4">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B37" s="4">
-        <v>26171</v>
+        <v>27054</v>
       </c>
       <c r="C37" s="4">
-        <v>690</v>
+        <v>732</v>
       </c>
       <c r="D37" s="4">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="E37" s="4">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B38" s="4">
-        <v>27054</v>
+        <v>28087</v>
       </c>
       <c r="C38" s="4">
-        <v>732</v>
+        <v>782</v>
       </c>
       <c r="D38" s="4">
-        <v>883</v>
+        <v>1033</v>
       </c>
       <c r="E38" s="4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B39" s="4">
-        <v>28087</v>
+        <v>29229</v>
       </c>
       <c r="C39" s="4">
-        <v>782</v>
+        <v>816</v>
       </c>
       <c r="D39" s="4">
-        <v>1033</v>
+        <v>1142</v>
       </c>
       <c r="E39" s="4">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B40" s="4">
-        <v>29229</v>
+        <v>30522</v>
       </c>
       <c r="C40" s="4">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="D40" s="4">
-        <v>1142</v>
+        <v>1293</v>
       </c>
       <c r="E40" s="4">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B41" s="4">
-        <v>30522</v>
+        <v>31548</v>
       </c>
       <c r="C41" s="4">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="D41" s="4">
-        <v>1293</v>
+        <v>1026</v>
       </c>
       <c r="E41" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B42" s="4">
-        <v>31548</v>
+        <v>32332</v>
       </c>
       <c r="C42" s="4">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="D42" s="4">
-        <v>1026</v>
+        <v>784</v>
       </c>
       <c r="E42" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B43" s="4">
-        <v>32332</v>
+        <v>33369</v>
       </c>
       <c r="C43" s="4">
-        <v>884</v>
+        <v>906</v>
       </c>
       <c r="D43" s="4">
-        <v>784</v>
+        <v>1037</v>
       </c>
       <c r="E43" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B44" s="4">
-        <v>33369</v>
+        <v>34422</v>
       </c>
       <c r="C44" s="4">
-        <v>906</v>
+        <v>948</v>
       </c>
       <c r="D44" s="4">
-        <v>1037</v>
+        <v>1053</v>
       </c>
       <c r="E44" s="4">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B45" s="4">
-        <v>34422</v>
+        <v>35390</v>
       </c>
       <c r="C45" s="4">
-        <v>948</v>
+        <v>973</v>
       </c>
       <c r="D45" s="4">
-        <v>1053</v>
+        <v>968</v>
       </c>
       <c r="E45" s="4">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B46" s="4">
-        <v>35390</v>
+        <v>36609</v>
       </c>
       <c r="C46" s="4">
-        <v>973</v>
+        <v>1004</v>
       </c>
       <c r="D46" s="4">
-        <v>968</v>
+        <v>1219</v>
       </c>
       <c r="E46" s="4">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B47" s="4">
-        <v>36609</v>
+        <v>37860</v>
       </c>
       <c r="C47" s="4">
-        <v>1004</v>
+        <v>1049</v>
       </c>
       <c r="D47" s="4">
-        <v>1219</v>
+        <v>1251</v>
       </c>
       <c r="E47" s="4">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B48" s="4">
-        <v>37860</v>
+        <v>38869</v>
       </c>
       <c r="C48" s="4">
-        <v>1049</v>
+        <v>1088</v>
       </c>
       <c r="D48" s="4">
-        <v>1251</v>
+        <v>1009</v>
       </c>
       <c r="E48" s="4">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B49" s="4">
-        <v>38869</v>
+        <v>39869</v>
       </c>
       <c r="C49" s="4">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="D49" s="4">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="4">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B50" s="4">
-        <v>39869</v>
+        <v>41048</v>
       </c>
       <c r="C50" s="4">
-        <v>1100</v>
+        <v>1133</v>
       </c>
       <c r="D50" s="4">
-        <v>1000</v>
+        <v>1179</v>
       </c>
       <c r="E50" s="4">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B51" s="4">
-        <v>41048</v>
+        <v>42403</v>
       </c>
       <c r="C51" s="4">
-        <v>1133</v>
+        <v>1158</v>
       </c>
       <c r="D51" s="4">
-        <v>1179</v>
+        <v>1355</v>
       </c>
       <c r="E51" s="4">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B52" s="4">
-        <v>42403</v>
+        <v>43851</v>
       </c>
       <c r="C52" s="4">
-        <v>1158</v>
+        <v>1216</v>
       </c>
       <c r="D52" s="4">
-        <v>1355</v>
+        <v>1448</v>
       </c>
       <c r="E52" s="4">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B53" s="4">
-        <v>43851</v>
+        <v>45198</v>
       </c>
       <c r="C53" s="4">
-        <v>1216</v>
+        <v>1272</v>
       </c>
       <c r="D53" s="4">
-        <v>1448</v>
+        <v>1347</v>
       </c>
       <c r="E53" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B54" s="4">
-        <v>45198</v>
+        <v>46999</v>
       </c>
       <c r="C54" s="4">
-        <v>1272</v>
+        <v>1305</v>
       </c>
       <c r="D54" s="4">
-        <v>1347</v>
+        <v>1801</v>
       </c>
       <c r="E54" s="4">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B55" s="4">
-        <v>46999</v>
+        <v>47784</v>
       </c>
       <c r="C55" s="4">
-        <v>1305</v>
+        <v>1336</v>
       </c>
       <c r="D55" s="4">
-        <v>1801</v>
+        <v>785</v>
       </c>
       <c r="E55" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B56" s="4">
-        <v>47784</v>
+        <v>48693</v>
       </c>
       <c r="C56" s="4">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D56" s="4">
-        <v>785</v>
+        <v>909</v>
       </c>
       <c r="E56" s="4">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B57" s="4">
-        <v>48693</v>
+        <v>49912</v>
       </c>
       <c r="C57" s="4">
-        <v>1347</v>
+        <v>1369</v>
       </c>
       <c r="D57" s="4">
-        <v>909</v>
+        <v>1219</v>
       </c>
       <c r="E57" s="4">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B58" s="4">
-        <v>49912</v>
+        <v>51323</v>
       </c>
       <c r="C58" s="4">
-        <v>1369</v>
+        <v>1419</v>
       </c>
       <c r="D58" s="4">
-        <v>1219</v>
+        <v>1411</v>
       </c>
       <c r="E58" s="4">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B59" s="4">
-        <v>51323</v>
+        <v>52268</v>
       </c>
       <c r="C59" s="4">
-        <v>1419</v>
+        <v>1440</v>
       </c>
       <c r="D59" s="4">
-        <v>1411</v>
+        <v>945</v>
       </c>
       <c r="E59" s="4">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B60" s="4">
-        <v>52268</v>
+        <v>53449</v>
       </c>
       <c r="C60" s="4">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="D60" s="4">
-        <v>945</v>
+        <v>1181</v>
       </c>
       <c r="E60" s="4">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B61" s="4">
-        <v>53449</v>
+        <v>54509</v>
       </c>
       <c r="C61" s="4">
-        <v>1480</v>
+        <v>1506</v>
       </c>
       <c r="D61" s="4">
-        <v>1181</v>
+        <v>1060</v>
       </c>
       <c r="E61" s="4">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B62" s="4">
-        <v>54509</v>
+        <v>55348</v>
       </c>
       <c r="C62" s="4">
-        <v>1506</v>
+        <v>1519</v>
       </c>
       <c r="D62" s="4">
-        <v>1060</v>
+        <v>839</v>
       </c>
       <c r="E62" s="4">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B63" s="4">
-        <v>55348</v>
+        <v>55971</v>
       </c>
       <c r="C63" s="4">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="D63" s="4">
-        <v>839</v>
+        <v>623</v>
       </c>
       <c r="E63" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B64" s="4">
-        <v>55971</v>
+        <v>56560</v>
       </c>
       <c r="C64" s="4">
-        <v>1527</v>
+        <v>1536</v>
       </c>
       <c r="D64" s="4">
-        <v>623</v>
+        <v>589</v>
       </c>
       <c r="E64" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B65" s="4">
-        <v>56560</v>
+        <v>57921</v>
       </c>
       <c r="C65" s="4">
-        <v>1536</v>
+        <v>1562</v>
       </c>
       <c r="D65" s="4">
-        <v>589</v>
+        <v>1361</v>
       </c>
       <c r="E65" s="4">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B66" s="4">
-        <v>57921</v>
+        <v>59776</v>
       </c>
       <c r="C66" s="4">
-        <v>1562</v>
+        <v>1601</v>
       </c>
       <c r="D66" s="4">
-        <v>1361</v>
+        <v>1855</v>
       </c>
       <c r="E66" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B67" s="4">
-        <v>59776</v>
+        <v>61006</v>
       </c>
       <c r="C67" s="4">
-        <v>1601</v>
+        <v>1626</v>
       </c>
       <c r="D67" s="4">
-        <v>1855</v>
+        <v>1230</v>
       </c>
       <c r="E67" s="4">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B68" s="4">
-        <v>61006</v>
+        <v>62338</v>
       </c>
       <c r="C68" s="4">
-        <v>1626</v>
+        <v>1648</v>
       </c>
       <c r="D68" s="4">
-        <v>1230</v>
+        <v>1332</v>
       </c>
       <c r="E68" s="4">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B69" s="4">
-        <v>62338</v>
+        <v>64287</v>
       </c>
       <c r="C69" s="4">
-        <v>1648</v>
+        <v>1672</v>
       </c>
       <c r="D69" s="4">
-        <v>1332</v>
+        <v>1949</v>
       </c>
       <c r="E69" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B70" s="4">
-        <v>64287</v>
+        <v>64880</v>
       </c>
       <c r="C70" s="4">
-        <v>1672</v>
+        <v>1678</v>
       </c>
       <c r="D70" s="4">
-        <v>1949</v>
+        <v>593</v>
       </c>
       <c r="E70" s="4">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B71" s="4">
-        <v>64880</v>
+        <v>66568</v>
       </c>
       <c r="C71" s="4">
-        <v>1678</v>
+        <v>1698</v>
       </c>
       <c r="D71" s="4">
-        <v>593</v>
+        <v>1688</v>
       </c>
       <c r="E71" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B72" s="4">
-        <v>66568</v>
+        <v>68271</v>
       </c>
       <c r="C72" s="4">
-        <v>1698</v>
+        <v>1734</v>
       </c>
       <c r="D72" s="4">
-        <v>1688</v>
+        <v>1703</v>
       </c>
       <c r="E72" s="4">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B73" s="4">
-        <v>68271</v>
+        <v>69920</v>
       </c>
       <c r="C73" s="4">
-        <v>1734</v>
+        <v>1767</v>
       </c>
       <c r="D73" s="4">
-        <v>1703</v>
+        <v>1649</v>
       </c>
       <c r="E73" s="4">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B74" s="4">
-        <v>69920</v>
+        <v>71613</v>
       </c>
       <c r="C74" s="4">
-        <v>1767</v>
+        <v>1788</v>
       </c>
       <c r="D74" s="4">
-        <v>1649</v>
+        <v>1693</v>
       </c>
       <c r="E74" s="4">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B75" s="4">
-        <v>71613</v>
+        <v>73553</v>
       </c>
       <c r="C75" s="4">
-        <v>1788</v>
+        <v>1819</v>
       </c>
       <c r="D75" s="4">
-        <v>1693</v>
+        <v>1940</v>
       </c>
       <c r="E75" s="4">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B76" s="4">
-        <v>73553</v>
+        <v>74978</v>
       </c>
       <c r="C76" s="4">
-        <v>1819</v>
+        <v>1830</v>
       </c>
       <c r="D76" s="4">
-        <v>1940</v>
+        <v>1425</v>
       </c>
       <c r="E76" s="4">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B77" s="4">
-        <v>74978</v>
+        <v>75616</v>
       </c>
       <c r="C77" s="4">
-        <v>1830</v>
+        <v>1836</v>
       </c>
       <c r="D77" s="4">
-        <v>1425</v>
+        <v>638</v>
       </c>
       <c r="E77" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B78" s="4">
-        <v>75616</v>
+        <v>77253</v>
       </c>
       <c r="C78" s="4">
-        <v>1836</v>
+        <v>1853</v>
       </c>
       <c r="D78" s="4">
-        <v>638</v>
+        <v>1637</v>
       </c>
       <c r="E78" s="4">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B79" s="4">
-        <v>77253</v>
+        <v>79757</v>
       </c>
       <c r="C79" s="4">
-        <v>1853</v>
+        <v>1885</v>
       </c>
       <c r="D79" s="4">
-        <v>1637</v>
+        <v>2504</v>
       </c>
       <c r="E79" s="4">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B80" s="4">
-        <v>79757</v>
+        <v>81583</v>
       </c>
       <c r="C80" s="4">
-        <v>1885</v>
+        <v>1920</v>
       </c>
       <c r="D80" s="4">
-        <v>2504</v>
+        <v>1826</v>
       </c>
       <c r="E80" s="4">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B81" s="4">
-        <v>81583</v>
+        <v>83680</v>
       </c>
       <c r="C81" s="4">
-        <v>1920</v>
+        <v>1939</v>
       </c>
       <c r="D81" s="4">
-        <v>1826</v>
+        <v>2097</v>
       </c>
       <c r="E81" s="4">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B82" s="4">
-        <v>83680</v>
+        <v>86011</v>
       </c>
       <c r="C82" s="4">
-        <v>1939</v>
+        <v>1957</v>
       </c>
       <c r="D82" s="4">
-        <v>2097</v>
+        <v>2331</v>
       </c>
       <c r="E82" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B83" s="4">
-        <v>86011</v>
+        <v>87854</v>
       </c>
       <c r="C83" s="4">
-        <v>1957</v>
+        <v>1976</v>
       </c>
       <c r="D83" s="4">
-        <v>2331</v>
+        <v>1843</v>
       </c>
       <c r="E83" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B84" s="4">
-        <v>87854</v>
+        <v>89108</v>
       </c>
       <c r="C84" s="4">
-        <v>1976</v>
+        <v>1983</v>
       </c>
       <c r="D84" s="4">
-        <v>1843</v>
+        <v>1254</v>
       </c>
       <c r="E84" s="4">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B85" s="4">
-        <v>89108</v>
+        <v>91730</v>
       </c>
       <c r="C85" s="4">
-        <v>1983</v>
+        <v>2029</v>
       </c>
       <c r="D85" s="4">
-        <v>1254</v>
+        <v>2622</v>
       </c>
       <c r="E85" s="4">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
-        <v>43998</v>
+      <c r="A86" s="15" t="s">
+        <v>326</v>
       </c>
       <c r="B86" s="4">
         <v>93206</v>
@@ -6440,10 +6457,10 @@
         <v>2029</v>
       </c>
       <c r="D86" s="4">
-        <v>4098</v>
+        <v>1476</v>
       </c>
       <c r="E86" s="4">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6463,13 +6480,39 @@
         <v>33</v>
       </c>
     </row>
+    <row r="88" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>44000</v>
+      </c>
+      <c r="B88" s="4">
+        <v>99851</v>
+      </c>
+      <c r="C88" s="4">
+        <v>2105</v>
+      </c>
+      <c r="D88" s="4">
+        <v>3516</v>
+      </c>
+      <c r="E88" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A90:E90"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6479,7 +6522,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -6505,10 +6548,10 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>62368</v>
+        <v>63812</v>
       </c>
       <c r="B3" s="7">
-        <v>31905</v>
+        <v>33934</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
@@ -6529,11 +6572,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <pane ySplit="2" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -6546,41 +6589,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="77.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>273</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>330</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6588,15 +6631,15 @@
         <v>43925</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="18">
         <v>0.1056</v>
       </c>
       <c r="F3" s="8"/>
@@ -6608,15 +6651,15 @@
         <v>43926</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="18">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="F4" s="8"/>
@@ -6628,15 +6671,15 @@
         <v>43927</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="18">
         <v>8.8909998585200004E-2</v>
       </c>
       <c r="F5" s="8"/>
@@ -6648,15 +6691,15 @@
         <v>43928</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="18">
         <v>0.1094</v>
       </c>
       <c r="F6" s="8"/>
@@ -6668,15 +6711,15 @@
         <v>43929</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="18">
         <v>0.11070000000000001</v>
       </c>
       <c r="F7" s="8"/>
@@ -6688,15 +6731,15 @@
         <v>43930</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="18">
         <v>0.100351636462</v>
       </c>
       <c r="F8" s="8"/>
@@ -6708,15 +6751,15 @@
         <v>43931</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="18">
         <v>0.1055125178708</v>
       </c>
       <c r="F9" s="8"/>
@@ -6728,15 +6771,15 @@
         <v>43932</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="18">
         <v>0.11360000000000001</v>
       </c>
       <c r="F10" s="8"/>
@@ -6748,15 +6791,15 @@
         <v>43933</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="18">
         <v>0.12479999999999999</v>
       </c>
       <c r="F11" s="8"/>
@@ -6768,15 +6811,15 @@
         <v>43934</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="18">
         <v>0.1386</v>
       </c>
       <c r="F12" s="8"/>
@@ -6788,15 +6831,15 @@
         <v>43935</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="18">
         <v>0.1101</v>
       </c>
       <c r="F13" s="8"/>
@@ -6808,15 +6851,15 @@
         <v>43936</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="18">
         <v>0.1105</v>
       </c>
       <c r="F14" s="8"/>
@@ -6828,15 +6871,15 @@
         <v>43937</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="18">
         <v>0.1188</v>
       </c>
       <c r="F15" s="8"/>
@@ -6848,15 +6891,15 @@
         <v>43938</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="18">
         <v>0.10630000000000001</v>
       </c>
       <c r="F16" s="8"/>
@@ -6868,15 +6911,15 @@
         <v>43939</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="18">
         <v>0.1023</v>
       </c>
       <c r="F17" s="8"/>
@@ -6888,15 +6931,15 @@
         <v>43940</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="18">
         <v>9.35E-2</v>
       </c>
       <c r="F18" s="8"/>
@@ -6908,15 +6951,15 @@
         <v>43941</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="18">
         <v>9.7117268401900006E-2</v>
       </c>
       <c r="F19" s="8"/>
@@ -6928,15 +6971,15 @@
         <v>43942</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="18">
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="F20" s="8"/>
@@ -6948,15 +6991,15 @@
         <v>43943</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="18">
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="F21" s="8"/>
@@ -6968,15 +7011,15 @@
         <v>43944</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="18">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="F22" s="8"/>
@@ -6988,15 +7031,15 @@
         <v>43945</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="18">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="F23" s="8"/>
@@ -7008,15 +7051,15 @@
         <v>43946</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="18">
         <v>6.3700000000000007E-2</v>
       </c>
       <c r="F24" s="8"/>
@@ -7028,15 +7071,15 @@
         <v>43947</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="18">
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="F25" s="8"/>
@@ -7048,15 +7091,15 @@
         <v>43948</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="18">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="F26" s="8"/>
@@ -7068,15 +7111,15 @@
         <v>43949</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="18">
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="F27" s="8"/>
@@ -7088,15 +7131,15 @@
         <v>43950</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="18">
         <v>6.10670666381E-2</v>
       </c>
       <c r="F28" s="8"/>
@@ -7108,15 +7151,15 @@
         <v>43951</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="18">
         <v>5.8381327098900003E-2</v>
       </c>
       <c r="F29" s="8"/>
@@ -7128,15 +7171,15 @@
         <v>43952</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="18">
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="F30" s="8"/>
@@ -7148,15 +7191,15 @@
         <v>43953</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="18">
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="F31" s="8"/>
@@ -7168,15 +7211,15 @@
         <v>43954</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="18">
         <v>6.0400000000000002E-2</v>
       </c>
       <c r="F32" s="8"/>
@@ -7188,15 +7231,15 @@
         <v>43955</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="18">
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="F33" s="8"/>
@@ -7208,15 +7251,15 @@
         <v>43956</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="18">
         <v>5.6754924069199998E-2</v>
       </c>
       <c r="F34" s="8"/>
@@ -7228,15 +7271,15 @@
         <v>43957</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="18">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F35" s="8"/>
@@ -7248,15 +7291,15 @@
         <v>43958</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="18">
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="F36" s="8"/>
@@ -7268,15 +7311,15 @@
         <v>43959</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="18">
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="F37" s="8"/>
@@ -7296,7 +7339,7 @@
       <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="18">
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F38" s="8"/>
@@ -7316,7 +7359,7 @@
       <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="18">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F39" s="8"/>
@@ -7336,7 +7379,7 @@
       <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="18">
         <v>6.3711443038399998E-2</v>
       </c>
       <c r="F40" s="8"/>
@@ -7356,7 +7399,7 @@
       <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="18">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F41" s="8"/>
@@ -7376,7 +7419,7 @@
       <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="18">
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="F42" s="8"/>
@@ -7396,7 +7439,7 @@
       <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="18">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="F43" s="8"/>
@@ -7416,7 +7459,7 @@
       <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="18">
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="F44" s="8"/>
@@ -7436,7 +7479,7 @@
       <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="18">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="F45" s="8">
@@ -7462,7 +7505,7 @@
       <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="18">
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="F46" s="8">
@@ -7488,7 +7531,7 @@
       <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="18">
         <v>4.4720144337000001E-2</v>
       </c>
       <c r="F47" s="8">
@@ -7514,7 +7557,7 @@
       <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="18">
         <v>4.7E-2</v>
       </c>
       <c r="F48" s="8">
@@ -7540,7 +7583,7 @@
       <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="18">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="F49" s="8">
@@ -7566,7 +7609,7 @@
       <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="18">
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="F50" s="8">
@@ -7592,7 +7635,7 @@
       <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="18">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="F51" s="8">
@@ -7610,16 +7653,16 @@
         <v>43974</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="16" t="s">
-        <v>274</v>
+      <c r="E52" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -7640,7 +7683,7 @@
       <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="18">
         <v>4.87E-2</v>
       </c>
       <c r="F53" s="8">
@@ -7666,7 +7709,7 @@
       <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="18">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F54" s="8">
@@ -7692,7 +7735,7 @@
       <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="18">
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="F55" s="8">
@@ -7718,7 +7761,7 @@
       <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="18">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="F56" s="8">
@@ -7744,7 +7787,7 @@
       <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="18">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F57" s="8">
@@ -7770,7 +7813,7 @@
       <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="18">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="F58" s="8">
@@ -7796,8 +7839,8 @@
       <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>274</v>
+      <c r="E59" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -7818,7 +7861,7 @@
       <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="18">
         <v>5.43810873784E-2</v>
       </c>
       <c r="F60" s="8">
@@ -7844,7 +7887,7 @@
       <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="18">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F61" s="8">
@@ -7870,7 +7913,7 @@
       <c r="D62" s="8">
         <v>1117274</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="18">
         <v>6.6236912120931343E-2</v>
       </c>
       <c r="F62" s="8">
@@ -7896,7 +7939,7 @@
       <c r="D63" s="8">
         <v>1150868</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="18">
         <v>6.2599418158065037E-2</v>
       </c>
       <c r="F63" s="8">
@@ -7922,7 +7965,7 @@
       <c r="D64" s="8">
         <v>1174948</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="18">
         <v>6.0272963321667726E-2</v>
       </c>
       <c r="F64" s="8">
@@ -7948,7 +7991,7 @@
       <c r="D65" s="8">
         <v>1209187</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="18">
         <v>6.4378489924739019E-2</v>
       </c>
       <c r="F65" s="8">
@@ -7974,7 +8017,7 @@
       <c r="D66" s="8">
         <v>1218955</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="18">
         <v>8.00231185826311E-2</v>
       </c>
       <c r="F66" s="8">
@@ -8000,7 +8043,7 @@
       <c r="D67" s="8">
         <v>1255899</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E67" s="18">
         <v>7.1138170808796614E-2</v>
       </c>
       <c r="F67" s="8">
@@ -8026,7 +8069,7 @@
       <c r="D68" s="8">
         <v>1286139</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="18">
         <v>6.6629016142145212E-2</v>
       </c>
       <c r="F68" s="8">
@@ -8052,7 +8095,7 @@
       <c r="D69" s="8">
         <v>1302049</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="18">
         <v>6.9239691807230483E-2</v>
       </c>
       <c r="F69" s="8">
@@ -8078,7 +8121,7 @@
       <c r="D70" s="8">
         <v>1348893</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="18">
         <v>6.8464816856912941E-2</v>
       </c>
       <c r="F70" s="8">
@@ -8104,7 +8147,7 @@
       <c r="D71" s="8">
         <v>1370131</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="18">
         <v>7.0522006760147776E-2</v>
       </c>
       <c r="F71" s="8">
@@ -8130,7 +8173,7 @@
       <c r="D72" s="8">
         <v>1404369</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="18">
         <v>7.2239317057985419E-2</v>
       </c>
       <c r="F72" s="8">
@@ -8156,7 +8199,7 @@
       <c r="D73" s="8">
         <v>1442950</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73" s="18">
         <v>6.1077310009756289E-2</v>
       </c>
       <c r="F73" s="8">
@@ -8182,7 +8225,7 @@
       <c r="D74" s="8">
         <v>1463851</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="18">
         <v>6.6219239373601788E-2</v>
       </c>
       <c r="F74" s="8">
@@ -8208,7 +8251,7 @@
       <c r="D75" s="8">
         <v>1499015</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="18">
         <v>6.7095336844251494E-2</v>
       </c>
       <c r="F75" s="8">
@@ -8234,7 +8277,7 @@
       <c r="D76" s="8">
         <v>1522434</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76" s="18">
         <v>6.9417073042085622E-2</v>
       </c>
       <c r="F76" s="8">
@@ -8251,31 +8294,57 @@
       <c r="A77" s="6">
         <v>43999</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>274</v>
+      <c r="B77" s="8">
+        <v>1407741</v>
+      </c>
+      <c r="C77" s="8">
+        <v>152796</v>
       </c>
       <c r="D77" s="8">
         <v>1560537</v>
       </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-    </row>
-    <row r="79" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
+      <c r="E77" s="18">
+        <v>7.4977286380268196E-2</v>
+      </c>
+      <c r="F77" s="8">
+        <v>28774</v>
+      </c>
+      <c r="G77" s="8">
+        <v>1460</v>
+      </c>
+      <c r="H77" s="8">
+        <v>30235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>44000</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D78" s="8">
+        <v>1576925</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="80" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -8289,8 +8358,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8301,45 +8370,45 @@
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" s="7">
-        <v>65565</v>
+        <v>67518</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B4" s="7">
-        <v>1494972</v>
+        <v>1509407</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5" s="7">
-        <v>1560537</v>
+        <v>1576925</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B7" s="12"/>
     </row>
@@ -8354,7 +8423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642878A5-4465-4884-B835-3145CFE1E2E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1357AC6E-DB61-42E6-8A2A-CF4952C1CE30}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8363,46 +8432,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="19"/>
+    <col min="1" max="1" width="55.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="26">
+        <v>152796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="18"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="B3" s="23">
-        <v>152796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="B4" s="23">
+      <c r="B4" s="26">
         <v>6258</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" s="18"/>
+      <c r="A6" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8420,7 +8489,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -8432,61 +8501,61 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3" s="7">
-        <v>2793</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" s="7">
-        <v>56194</v>
+        <v>57513</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5" s="7">
-        <v>13815</v>
+        <v>13472</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" s="7">
-        <v>1473</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B7" s="7">
-        <v>5844</v>
+        <v>5834</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B9" s="12"/>
     </row>
@@ -8502,11 +8571,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -8519,20 +8588,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8964,7 +9033,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -9360,17 +9429,28 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
+    <row r="78" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>76</v>
+      </c>
+      <c r="B78" s="6">
+        <v>44000</v>
+      </c>
+      <c r="C78" s="7">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9383,7 +9463,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -9391,181 +9471,181 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" s="8">
-        <v>70</v>
-      </c>
-      <c r="C3" s="26">
+        <v>72</v>
+      </c>
+      <c r="C3" s="28">
         <f>B3/B$16</f>
-        <v>3.8155456230240924E-3</v>
+        <v>3.8373394446517082E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B4" s="8">
-        <v>295</v>
-      </c>
-      <c r="C4" s="26">
+        <v>301</v>
+      </c>
+      <c r="C4" s="28">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.6079799411315817E-2</v>
+        <v>1.6042210733891168E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" s="8">
-        <v>761</v>
-      </c>
-      <c r="C5" s="26">
+        <v>775</v>
+      </c>
+      <c r="C5" s="28">
         <f t="shared" si="0"/>
-        <v>4.148043170173335E-2</v>
+        <v>4.1304695411181584E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="8">
-        <v>2986</v>
-      </c>
-      <c r="C6" s="26">
+        <v>3057</v>
+      </c>
+      <c r="C6" s="28">
         <f t="shared" si="0"/>
-        <v>0.16276027471928486</v>
+        <v>0.16292703725417043</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" s="8">
-        <v>3374</v>
-      </c>
-      <c r="C7" s="26">
+        <v>3457</v>
+      </c>
+      <c r="C7" s="28">
         <f t="shared" si="0"/>
-        <v>0.18390929902976125</v>
+        <v>0.1842455897244577</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" s="8">
-        <v>3355</v>
-      </c>
-      <c r="C8" s="26">
+        <v>3405</v>
+      </c>
+      <c r="C8" s="28">
         <f t="shared" si="0"/>
-        <v>0.1828736509320833</v>
+        <v>0.18147417790332038</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9" s="8">
-        <v>3244</v>
-      </c>
-      <c r="C9" s="26">
+        <v>3310</v>
+      </c>
+      <c r="C9" s="28">
         <f t="shared" si="0"/>
-        <v>0.17682328572985936</v>
+        <v>0.17641102169162715</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10" s="8">
-        <v>1303</v>
-      </c>
-      <c r="C10" s="26">
+        <v>1330</v>
+      </c>
+      <c r="C10" s="28">
         <f t="shared" si="0"/>
-        <v>7.1023656382862746E-2</v>
+        <v>7.0884186963705159E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" s="8">
-        <v>971</v>
-      </c>
-      <c r="C11" s="26">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="28">
         <f t="shared" si="0"/>
-        <v>5.2927068570805626E-2</v>
+        <v>5.3296381175718166E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B12" s="8">
-        <v>609</v>
-      </c>
-      <c r="C12" s="26">
+        <v>633</v>
+      </c>
+      <c r="C12" s="28">
         <f t="shared" si="0"/>
-        <v>3.3195246920309604E-2</v>
+        <v>3.3736609284229599E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B13" s="8">
-        <v>461</v>
-      </c>
-      <c r="C13" s="26">
+        <v>469</v>
+      </c>
+      <c r="C13" s="28">
         <f t="shared" si="0"/>
-        <v>2.5128093317344381E-2</v>
+        <v>2.499600277141182E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" s="8">
-        <v>904</v>
-      </c>
-      <c r="C14" s="26">
+        <v>941</v>
+      </c>
+      <c r="C14" s="28">
         <f t="shared" si="0"/>
-        <v>4.9275046331625424E-2</v>
+        <v>5.0151894686350798E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B15" s="8">
         <v>13</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="28">
         <f t="shared" si="0"/>
-        <v>7.086013299901886E-4</v>
+        <v>6.9285295528433621E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9573,23 +9653,23 @@
         <v>258</v>
       </c>
       <c r="B16" s="8">
-        <v>18346</v>
-      </c>
-      <c r="C16" s="26">
+        <v>18763</v>
+      </c>
+      <c r="C16" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>

--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A361559-6729-4BFB-A983-4F20203401BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4E5FF4C-54FE-4E10-93C3-E3BD52633FD1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,14 @@
     <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="335">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/18 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="336">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 6/19 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/18 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/19 at 10:45AM CST</t>
+  </si>
+  <si>
+    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
   </si>
   <si>
     <t>Date</t>
@@ -839,7 +842,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/18 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/19 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -851,7 +854,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/18 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/19 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -867,7 +870,7 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/18 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/19 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -888,7 +891,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/18 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/19 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -909,7 +912,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/18 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/19 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -918,7 +921,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/18 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/19 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -973,10 +976,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          18,763</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/18 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          19,052</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/19 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -988,7 +991,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/18 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/19 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1009,22 +1012,16 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/18 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/19 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Completed investigations received by DSHS =          664</t>
   </si>
   <si>
-    <t>Gender of Confirmed Fatalities as of 6/18 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/18 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>06/16/2020 - TDCJ*</t>
-  </si>
-  <si>
-    <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
+    <t>Gender of Confirmed Fatalities as of 6/19 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/19 at 9:30 AM CST</t>
   </si>
   <si>
     <t>COVID-19
@@ -1047,7 +1044,13 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/17 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/18 at 3:00PM CST</t>
+  </si>
+  <si>
+    <t>06/16/20-TDCJ*</t>
+  </si>
+  <si>
+    <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1064,7 @@
     <numFmt numFmtId="167" formatCode="##,###,##0"/>
     <numFmt numFmtId="168" formatCode="###,###,###,###,##0"/>
     <numFmt numFmtId="170" formatCode="##0"/>
-    <numFmt numFmtId="175" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1087,6 +1090,7 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
@@ -1100,14 +1104,13 @@
     </font>
     <font>
       <b/>
-      <sz val="9.5"/>
+      <sz val="11"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1139,7 +1142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1177,21 +1180,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB0B7BB"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1211,6 +1205,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1234,25 +1231,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1261,10 +1249,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1273,16 +1261,19 @@
     <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E053C216-644A-403C-B64A-D912F10AB95F}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B58E1420-9395-4179-937E-272FF6CD991E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1417,22 +1408,23 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1450,7 +1442,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -1461,7 +1453,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -1472,7 +1464,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C5" s="4">
         <v>6</v>
@@ -1516,7 +1508,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1549,7 +1541,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -1560,7 +1552,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C13" s="4">
         <v>4</v>
@@ -1582,7 +1574,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1593,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>722</v>
+        <v>769</v>
       </c>
       <c r="C16" s="4">
         <v>9</v>
@@ -1604,10 +1596,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>5142</v>
+        <v>5550</v>
       </c>
       <c r="C17" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1615,7 +1607,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1648,10 +1640,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C21" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1659,7 +1651,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>1558</v>
+        <v>1609</v>
       </c>
       <c r="C22" s="4">
         <v>18</v>
@@ -1670,7 +1662,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>1025</v>
+        <v>1095</v>
       </c>
       <c r="C23" s="4">
         <v>25</v>
@@ -1681,7 +1673,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -1714,7 +1706,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
@@ -1736,10 +1728,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C29" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1747,7 +1739,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -1758,7 +1750,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -1780,10 +1772,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>1301</v>
+        <v>1371</v>
       </c>
       <c r="C33" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1824,7 +1816,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1835,7 +1827,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1846,7 +1838,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -1912,7 +1904,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>1967</v>
+        <v>2026</v>
       </c>
       <c r="C45" s="4">
         <v>38</v>
@@ -1934,7 +1926,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1945,7 +1937,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -1989,7 +1981,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -2055,7 +2047,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2066,10 +2058,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>15256</v>
+        <v>15648</v>
       </c>
       <c r="C59" s="4">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2099,7 +2091,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C62" s="4">
         <v>16</v>
@@ -2110,7 +2102,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -2121,7 +2113,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1893</v>
+        <v>1980</v>
       </c>
       <c r="C64" s="4">
         <v>36</v>
@@ -2143,7 +2135,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
@@ -2187,7 +2179,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C70" s="4">
         <v>7</v>
@@ -2209,7 +2201,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>4088</v>
+        <v>4178</v>
       </c>
       <c r="C72" s="4">
         <v>119</v>
@@ -2220,7 +2212,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="C73" s="4">
         <v>19</v>
@@ -2231,7 +2223,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -2242,7 +2234,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2264,7 +2256,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2286,7 +2278,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
@@ -2308,7 +2300,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>2667</v>
+        <v>2726</v>
       </c>
       <c r="C81" s="4">
         <v>50</v>
@@ -2330,7 +2322,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2341,7 +2333,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2363,7 +2355,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>1486</v>
+        <v>1535</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
@@ -2385,7 +2377,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -2418,7 +2410,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
@@ -2429,7 +2421,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C92" s="4">
         <v>4</v>
@@ -2440,10 +2432,10 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="C93" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2451,7 +2443,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C94" s="4">
         <v>12</v>
@@ -2462,7 +2454,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2473,10 +2465,10 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="C96" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2484,7 +2476,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C97" s="4">
         <v>5</v>
@@ -2539,7 +2531,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2550,10 +2542,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>18157</v>
+        <v>18552</v>
       </c>
       <c r="C103" s="4">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2564,7 +2556,7 @@
         <v>268</v>
       </c>
       <c r="C104" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2594,7 +2586,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>1238</v>
+        <v>1448</v>
       </c>
       <c r="C107" s="4">
         <v>5</v>
@@ -2616,7 +2608,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C109" s="4">
         <v>3</v>
@@ -2627,10 +2619,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>1347</v>
+        <v>1447</v>
       </c>
       <c r="C110" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2638,7 +2630,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -2671,10 +2663,10 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C114" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2715,7 +2707,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C118" s="4">
         <v>5</v>
@@ -2726,7 +2718,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -2759,7 +2751,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
@@ -2792,7 +2784,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1340</v>
+        <v>1356</v>
       </c>
       <c r="C125" s="4">
         <v>32</v>
@@ -2825,7 +2817,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2836,7 +2828,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2847,7 +2839,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -2858,7 +2850,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C131" s="4">
         <v>4</v>
@@ -2869,7 +2861,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -2902,7 +2894,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C135" s="4">
         <v>1</v>
@@ -2946,7 +2938,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
@@ -2968,7 +2960,7 @@
         <v>142</v>
       </c>
       <c r="B141" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C141" s="4">
         <v>0</v>
@@ -2979,10 +2971,10 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C142" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2990,7 +2982,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -3001,7 +2993,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -3012,7 +3004,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -3023,7 +3015,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C146" s="4">
         <v>3</v>
@@ -3045,7 +3037,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3111,7 +3103,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>1031</v>
+        <v>1136</v>
       </c>
       <c r="C154" s="4">
         <v>51</v>
@@ -3133,7 +3125,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3155,7 +3147,7 @@
         <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
@@ -3177,7 +3169,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3188,7 +3180,7 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C161" s="4">
         <v>2</v>
@@ -3210,10 +3202,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="C163" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3232,7 +3224,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3254,7 +3246,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="C167" s="4">
         <v>13</v>
@@ -3265,7 +3257,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3298,7 +3290,7 @@
         <v>172</v>
       </c>
       <c r="B171" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C171" s="4">
         <v>1</v>
@@ -3309,7 +3301,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>1428</v>
+        <v>1484</v>
       </c>
       <c r="C172" s="4">
         <v>33</v>
@@ -3320,7 +3312,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C173" s="4">
         <v>14</v>
@@ -3353,7 +3345,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C176" s="4">
         <v>25</v>
@@ -3364,7 +3356,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C177" s="4">
         <v>4</v>
@@ -3397,10 +3389,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="C180" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3430,7 +3422,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
@@ -3463,7 +3455,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3474,7 +3466,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C187" s="4">
         <v>0</v>
@@ -3485,7 +3477,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -3507,10 +3499,10 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2811</v>
+        <v>2819</v>
       </c>
       <c r="C190" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3529,7 +3521,7 @@
         <v>193</v>
       </c>
       <c r="B192" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -3540,10 +3532,10 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C193" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3573,7 +3565,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C196" s="4">
         <v>8</v>
@@ -3617,7 +3609,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3628,10 +3620,10 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C201" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3639,7 +3631,7 @@
         <v>203</v>
       </c>
       <c r="B202" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -3650,7 +3642,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3683,7 +3675,7 @@
         <v>207</v>
       </c>
       <c r="B206" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -3694,7 +3686,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -3716,7 +3708,7 @@
         <v>210</v>
       </c>
       <c r="B209" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
@@ -3749,7 +3741,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C212" s="4">
         <v>8</v>
@@ -3771,7 +3763,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3793,7 +3785,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3837,7 +3829,7 @@
         <v>221</v>
       </c>
       <c r="B220" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
@@ -3859,10 +3851,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>7822</v>
+        <v>8099</v>
       </c>
       <c r="C222" s="4">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3870,7 +3862,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3914,7 +3906,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="C227" s="4">
         <v>4</v>
@@ -3925,7 +3917,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3980,7 +3972,7 @@
         <v>234</v>
       </c>
       <c r="B233" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" s="4">
         <v>0</v>
@@ -3991,7 +3983,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4013,10 +4005,10 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C236" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4024,7 +4016,7 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="C237" s="4">
         <v>8</v>
@@ -4035,7 +4027,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1885</v>
+        <v>1890</v>
       </c>
       <c r="C238" s="4">
         <v>28</v>
@@ -4046,7 +4038,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4079,7 +4071,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>803</v>
+        <v>854</v>
       </c>
       <c r="C242" s="4">
         <v>22</v>
@@ -4090,7 +4082,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4112,7 +4104,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -4134,7 +4126,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4145,7 +4137,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>1068</v>
+        <v>1114</v>
       </c>
       <c r="C248" s="4">
         <v>32</v>
@@ -4156,7 +4148,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4167,7 +4159,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4189,7 +4181,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
@@ -4211,7 +4203,7 @@
         <v>255</v>
       </c>
       <c r="B254" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C254" s="4">
         <v>1</v>
@@ -4244,10 +4236,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>99851</v>
+        <v>103305</v>
       </c>
       <c r="C257" s="4">
-        <v>2105</v>
+        <v>2140</v>
       </c>
     </row>
   </sheetData>
@@ -4265,7 +4257,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4273,88 +4265,88 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B3" s="8">
-        <v>9250</v>
-      </c>
-      <c r="C3" s="28">
+        <v>314</v>
+      </c>
+      <c r="B3" s="9">
+        <v>9400</v>
+      </c>
+      <c r="C3" s="27">
         <f>B3/B$6</f>
-        <v>0.49299152587539308</v>
+        <v>0.49338652110014697</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" s="8">
-        <v>9338</v>
-      </c>
-      <c r="C4" s="28">
+        <v>315</v>
+      </c>
+      <c r="B4" s="9">
+        <v>9477</v>
+      </c>
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.49768160741885625</v>
+        <v>0.49742809153894602</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B5" s="8">
+        <v>309</v>
+      </c>
+      <c r="B5" s="9">
         <v>175</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
-        <v>9.3268667057506797E-3</v>
+        <v>9.1853873609069915E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="8">
-        <v>18763</v>
-      </c>
-      <c r="C6" s="28">
+      <c r="B6" s="9">
+        <v>19052</v>
+      </c>
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4373,7 +4365,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4381,124 +4373,124 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B3" s="8">
-        <v>570</v>
-      </c>
-      <c r="C3" s="28">
+        <v>318</v>
+      </c>
+      <c r="B3" s="9">
+        <v>580</v>
+      </c>
+      <c r="C3" s="27">
         <f>B3/B$9</f>
-        <v>3.0378937270159355E-2</v>
+        <v>3.0442998110434601E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B4" s="8">
-        <v>2222</v>
-      </c>
-      <c r="C4" s="28">
+        <v>319</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2263</v>
+      </c>
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.11842455897244578</v>
+        <v>0.11878018055847155</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B5" s="8">
-        <v>6523</v>
-      </c>
-      <c r="C5" s="28">
+        <v>320</v>
+      </c>
+      <c r="B5" s="9">
+        <v>6613</v>
+      </c>
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
-        <v>0.34765229440920964</v>
+        <v>0.34710266638673104</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B6" s="8">
+        <v>321</v>
+      </c>
+      <c r="B6" s="9">
         <v>112</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
-        <v>5.9691946916804349E-3</v>
+        <v>5.8786479109804741E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B7" s="8">
-        <v>5118</v>
-      </c>
-      <c r="C7" s="28">
+        <v>322</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5183</v>
+      </c>
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
-        <v>0.27277087885732559</v>
+        <v>0.27204492966617677</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B8" s="8">
-        <v>4218</v>
-      </c>
-      <c r="C8" s="28">
+        <v>309</v>
+      </c>
+      <c r="B8" s="9">
+        <v>4301</v>
+      </c>
+      <c r="C8" s="27">
         <f t="shared" si="0"/>
-        <v>0.22480413579917924</v>
+        <v>0.22575057736720555</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="8">
-        <v>18763</v>
-      </c>
-      <c r="C9" s="28">
+      <c r="B9" s="9">
+        <v>19052</v>
+      </c>
+      <c r="C9" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4517,7 +4509,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4529,175 +4521,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>293</v>
+      <c r="A2" s="10" t="s">
+        <v>294</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="28">
+        <v>297</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27">
         <f>B3/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4" s="28">
+        <v>298</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B5" s="10">
+        <v>299</v>
+      </c>
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
         <v>3.0120481927710845E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6" s="10">
+        <v>300</v>
+      </c>
+      <c r="B6" s="11">
         <v>11</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
         <v>1.6566265060240965E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B7" s="10">
+        <v>301</v>
+      </c>
+      <c r="B7" s="11">
         <v>13</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
         <v>1.9578313253012049E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B8" s="10">
+        <v>302</v>
+      </c>
+      <c r="B8" s="11">
         <v>26</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <f t="shared" si="0"/>
         <v>3.9156626506024098E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B9" s="10">
+        <v>303</v>
+      </c>
+      <c r="B9" s="11">
         <v>72</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <f t="shared" si="0"/>
         <v>0.10843373493975904</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B10" s="10">
+        <v>304</v>
+      </c>
+      <c r="B10" s="11">
         <v>60</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <f t="shared" si="0"/>
         <v>9.036144578313253E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B11" s="10">
+        <v>305</v>
+      </c>
+      <c r="B11" s="11">
         <v>74</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <f t="shared" si="0"/>
         <v>0.11144578313253012</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B12" s="10">
+        <v>306</v>
+      </c>
+      <c r="B12" s="11">
         <v>69</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="27">
         <f t="shared" si="0"/>
         <v>0.10391566265060241</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B13" s="10">
+        <v>307</v>
+      </c>
+      <c r="B13" s="11">
         <v>70</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="27">
         <f t="shared" si="0"/>
         <v>0.10542168674698796</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B14" s="10">
+        <v>308</v>
+      </c>
+      <c r="B14" s="11">
         <v>265</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <f t="shared" si="0"/>
         <v>0.3990963855421687</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B15" s="10">
+        <v>309</v>
+      </c>
+      <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="27">
         <f t="shared" si="0"/>
         <v>3.0120481927710845E-3</v>
       </c>
@@ -4706,27 +4698,27 @@
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="11">
         <v>664</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4745,7 +4737,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4753,59 +4745,59 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B3" s="10">
+        <v>314</v>
+      </c>
+      <c r="B3" s="11">
         <v>272</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <f>B3/B$6</f>
         <v>0.40963855421686746</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" s="10">
+        <v>315</v>
+      </c>
+      <c r="B4" s="11">
         <v>364</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
         <v>0.54819277108433739</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B5" s="10">
+        <v>309</v>
+      </c>
+      <c r="B5" s="11">
         <v>28</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
         <v>4.2168674698795178E-2</v>
       </c>
@@ -4814,27 +4806,27 @@
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>664</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4853,7 +4845,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4865,91 +4857,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B3" s="10">
+        <v>318</v>
+      </c>
+      <c r="B3" s="11">
         <v>13</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <f>B3/B$9</f>
         <v>1.9578313253012049E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B4" s="10">
+        <v>319</v>
+      </c>
+      <c r="B4" s="11">
         <v>85</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
         <v>0.12801204819277109</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B5" s="10">
+        <v>320</v>
+      </c>
+      <c r="B5" s="11">
         <v>171</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
         <v>0.25753012048192769</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B6" s="10">
+        <v>321</v>
+      </c>
+      <c r="B6" s="11">
         <v>5</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
         <v>7.5301204819277108E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B7" s="10">
+        <v>322</v>
+      </c>
+      <c r="B7" s="11">
         <v>269</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
         <v>0.40512048192771083</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B8" s="10">
+        <v>309</v>
+      </c>
+      <c r="B8" s="11">
         <v>121</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <f t="shared" si="0"/>
         <v>0.18222891566265059</v>
       </c>
@@ -4958,27 +4950,27 @@
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>664</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4987,270 +4979,262 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>43916</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1394</v>
-      </c>
-      <c r="C3" s="4">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4">
-        <v>419</v>
-      </c>
-      <c r="E3" s="4">
-        <v>6</v>
+      <c r="E3" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B4" s="4">
-        <v>1731</v>
+        <v>1394</v>
       </c>
       <c r="C4" s="4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="E4" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B5" s="4">
-        <v>2048</v>
+        <v>1731</v>
       </c>
       <c r="C5" s="4">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="E5" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B6" s="4">
-        <v>2552</v>
+        <v>2048</v>
       </c>
       <c r="C6" s="4">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4">
-        <v>504</v>
+        <v>317</v>
       </c>
       <c r="E6" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B7" s="4">
-        <v>2874</v>
+        <v>2552</v>
       </c>
       <c r="C7" s="4">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4">
-        <v>322</v>
+        <v>504</v>
       </c>
       <c r="E7" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B8" s="4">
-        <v>3266</v>
+        <v>2874</v>
       </c>
       <c r="C8" s="4">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4">
-        <v>392</v>
+        <v>322</v>
       </c>
       <c r="E8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B9" s="4">
-        <v>3996</v>
+        <v>3266</v>
       </c>
       <c r="C9" s="4">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4">
-        <v>730</v>
+        <v>392</v>
       </c>
       <c r="E9" s="4">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B10" s="4">
-        <v>4665</v>
+        <v>3996</v>
       </c>
       <c r="C10" s="4">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4">
-        <v>669</v>
+        <v>730</v>
       </c>
       <c r="E10" s="4">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B11" s="4">
-        <v>5324</v>
+        <v>4665</v>
       </c>
       <c r="C11" s="4">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D11" s="4">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="E11" s="4">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B12" s="4">
-        <v>6112</v>
+        <v>5324</v>
       </c>
       <c r="C12" s="4">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D12" s="4">
-        <v>788</v>
+        <v>659</v>
       </c>
       <c r="E12" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B13" s="4">
-        <v>6793</v>
+        <v>6112</v>
       </c>
       <c r="C13" s="4">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D13" s="4">
-        <v>681</v>
+        <v>788</v>
       </c>
       <c r="E13" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B14" s="4">
-        <v>7273</v>
+        <v>6793</v>
       </c>
       <c r="C14" s="4">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D14" s="4">
-        <v>480</v>
+        <v>681</v>
       </c>
       <c r="E14" s="4">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B15" s="4">
-        <v>8261</v>
+        <v>7273</v>
       </c>
       <c r="C15" s="4">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D15" s="4">
-        <v>988</v>
+        <v>480</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -5258,1261 +5242,1296 @@
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B16" s="4">
-        <v>9353</v>
+        <v>8261</v>
       </c>
       <c r="C16" s="4">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D16" s="4">
-        <v>1092</v>
+        <v>988</v>
       </c>
       <c r="E16" s="4">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B17" s="4">
-        <v>10230</v>
+        <v>9353</v>
       </c>
       <c r="C17" s="4">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="D17" s="4">
-        <v>877</v>
+        <v>1092</v>
       </c>
       <c r="E17" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B18" s="4">
-        <v>11671</v>
+        <v>10230</v>
       </c>
       <c r="C18" s="4">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="D18" s="4">
-        <v>1441</v>
+        <v>877</v>
       </c>
       <c r="E18" s="4">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B19" s="4">
-        <v>12561</v>
+        <v>11671</v>
       </c>
       <c r="C19" s="4">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="D19" s="4">
-        <v>890</v>
+        <v>1441</v>
       </c>
       <c r="E19" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B20" s="4">
-        <v>13484</v>
+        <v>12561</v>
       </c>
       <c r="C20" s="4">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="D20" s="4">
-        <v>923</v>
+        <v>890</v>
       </c>
       <c r="E20" s="4">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B21" s="4">
-        <v>13906</v>
+        <v>13484</v>
       </c>
       <c r="C21" s="4">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="D21" s="4">
-        <v>422</v>
+        <v>923</v>
       </c>
       <c r="E21" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B22" s="4">
-        <v>14624</v>
+        <v>13906</v>
       </c>
       <c r="C22" s="4">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="D22" s="4">
-        <v>718</v>
+        <v>422</v>
       </c>
       <c r="E22" s="4">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B23" s="4">
-        <v>15492</v>
+        <v>14624</v>
       </c>
       <c r="C23" s="4">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="D23" s="4">
-        <v>868</v>
+        <v>718</v>
       </c>
       <c r="E23" s="4">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B24" s="4">
-        <v>16455</v>
+        <v>15492</v>
       </c>
       <c r="C24" s="4">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="D24" s="4">
-        <v>963</v>
+        <v>868</v>
       </c>
       <c r="E24" s="4">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B25" s="4">
-        <v>17371</v>
+        <v>16455</v>
       </c>
       <c r="C25" s="4">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="D25" s="4">
-        <v>916</v>
+        <v>963</v>
       </c>
       <c r="E25" s="4">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B26" s="4">
-        <v>18260</v>
+        <v>17371</v>
       </c>
       <c r="C26" s="4">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="D26" s="4">
-        <v>889</v>
+        <v>916</v>
       </c>
       <c r="E26" s="4">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B27" s="4">
-        <v>18923</v>
+        <v>18260</v>
       </c>
       <c r="C27" s="4">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="D27" s="4">
-        <v>663</v>
+        <v>889</v>
       </c>
       <c r="E27" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B28" s="4">
-        <v>19458</v>
+        <v>18923</v>
       </c>
       <c r="C28" s="4">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="D28" s="4">
-        <v>535</v>
+        <v>663</v>
       </c>
       <c r="E28" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B29" s="4">
-        <v>20196</v>
+        <v>19458</v>
       </c>
       <c r="C29" s="4">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="D29" s="4">
-        <v>738</v>
+        <v>535</v>
       </c>
       <c r="E29" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B30" s="4">
-        <v>21069</v>
+        <v>20196</v>
       </c>
       <c r="C30" s="4">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="D30" s="4">
-        <v>873</v>
+        <v>738</v>
       </c>
       <c r="E30" s="4">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B31" s="4">
-        <v>21944</v>
+        <v>21069</v>
       </c>
       <c r="C31" s="4">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="D31" s="4">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E31" s="4">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B32" s="4">
-        <v>22806</v>
+        <v>21944</v>
       </c>
       <c r="C32" s="4">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="D32" s="4">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="E32" s="4">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B33" s="4">
-        <v>23773</v>
+        <v>22806</v>
       </c>
       <c r="C33" s="4">
-        <v>623</v>
+        <v>593</v>
       </c>
       <c r="D33" s="4">
-        <v>967</v>
+        <v>862</v>
       </c>
       <c r="E33" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B34" s="4">
-        <v>24631</v>
+        <v>23773</v>
       </c>
       <c r="C34" s="4">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="D34" s="4">
-        <v>858</v>
+        <v>967</v>
       </c>
       <c r="E34" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B35" s="4">
-        <v>25297</v>
+        <v>24631</v>
       </c>
       <c r="C35" s="4">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="D35" s="4">
-        <v>666</v>
+        <v>858</v>
       </c>
       <c r="E35" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B36" s="4">
-        <v>26171</v>
+        <v>25297</v>
       </c>
       <c r="C36" s="4">
-        <v>690</v>
+        <v>663</v>
       </c>
       <c r="D36" s="4">
-        <v>874</v>
+        <v>666</v>
       </c>
       <c r="E36" s="4">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B37" s="4">
-        <v>27054</v>
+        <v>26171</v>
       </c>
       <c r="C37" s="4">
-        <v>732</v>
+        <v>690</v>
       </c>
       <c r="D37" s="4">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="E37" s="4">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B38" s="4">
+        <v>27054</v>
+      </c>
+      <c r="C38" s="4">
+        <v>732</v>
+      </c>
+      <c r="D38" s="4">
+        <v>883</v>
+      </c>
+      <c r="E38" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
         <v>43951</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B39" s="4">
         <v>28087</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C39" s="4">
         <v>782</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D39" s="4">
         <v>1033</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E39" s="4">
         <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <v>43952</v>
-      </c>
-      <c r="B39" s="4">
-        <v>29229</v>
-      </c>
-      <c r="C39" s="4">
-        <v>816</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1142</v>
-      </c>
-      <c r="E39" s="4">
-        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B40" s="4">
-        <v>30522</v>
+        <v>29229</v>
       </c>
       <c r="C40" s="4">
-        <v>847</v>
+        <v>816</v>
       </c>
       <c r="D40" s="4">
-        <v>1293</v>
+        <v>1142</v>
       </c>
       <c r="E40" s="4">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B41" s="4">
-        <v>31548</v>
+        <v>30522</v>
       </c>
       <c r="C41" s="4">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="D41" s="4">
-        <v>1026</v>
+        <v>1293</v>
       </c>
       <c r="E41" s="4">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B42" s="4">
-        <v>32332</v>
+        <v>31548</v>
       </c>
       <c r="C42" s="4">
-        <v>884</v>
+        <v>867</v>
       </c>
       <c r="D42" s="4">
-        <v>784</v>
+        <v>1026</v>
       </c>
       <c r="E42" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B43" s="4">
-        <v>33369</v>
+        <v>32332</v>
       </c>
       <c r="C43" s="4">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="D43" s="4">
-        <v>1037</v>
+        <v>784</v>
       </c>
       <c r="E43" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B44" s="4">
-        <v>34422</v>
+        <v>33369</v>
       </c>
       <c r="C44" s="4">
-        <v>948</v>
+        <v>906</v>
       </c>
       <c r="D44" s="4">
-        <v>1053</v>
+        <v>1037</v>
       </c>
       <c r="E44" s="4">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B45" s="4">
-        <v>35390</v>
+        <v>34422</v>
       </c>
       <c r="C45" s="4">
-        <v>973</v>
+        <v>948</v>
       </c>
       <c r="D45" s="4">
-        <v>968</v>
+        <v>1053</v>
       </c>
       <c r="E45" s="4">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B46" s="4">
-        <v>36609</v>
+        <v>35390</v>
       </c>
       <c r="C46" s="4">
-        <v>1004</v>
+        <v>973</v>
       </c>
       <c r="D46" s="4">
-        <v>1219</v>
+        <v>968</v>
       </c>
       <c r="E46" s="4">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B47" s="4">
-        <v>37860</v>
+        <v>36609</v>
       </c>
       <c r="C47" s="4">
-        <v>1049</v>
+        <v>1004</v>
       </c>
       <c r="D47" s="4">
-        <v>1251</v>
+        <v>1219</v>
       </c>
       <c r="E47" s="4">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B48" s="4">
-        <v>38869</v>
+        <v>37860</v>
       </c>
       <c r="C48" s="4">
-        <v>1088</v>
+        <v>1049</v>
       </c>
       <c r="D48" s="4">
-        <v>1009</v>
+        <v>1251</v>
       </c>
       <c r="E48" s="4">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B49" s="4">
-        <v>39869</v>
+        <v>38869</v>
       </c>
       <c r="C49" s="4">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="D49" s="4">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="E49" s="4">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B50" s="4">
-        <v>41048</v>
+        <v>39869</v>
       </c>
       <c r="C50" s="4">
-        <v>1133</v>
+        <v>1100</v>
       </c>
       <c r="D50" s="4">
-        <v>1179</v>
+        <v>1000</v>
       </c>
       <c r="E50" s="4">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B51" s="4">
-        <v>42403</v>
+        <v>41048</v>
       </c>
       <c r="C51" s="4">
-        <v>1158</v>
+        <v>1133</v>
       </c>
       <c r="D51" s="4">
-        <v>1355</v>
+        <v>1179</v>
       </c>
       <c r="E51" s="4">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B52" s="4">
-        <v>43851</v>
+        <v>42403</v>
       </c>
       <c r="C52" s="4">
-        <v>1216</v>
+        <v>1158</v>
       </c>
       <c r="D52" s="4">
-        <v>1448</v>
+        <v>1355</v>
       </c>
       <c r="E52" s="4">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B53" s="4">
-        <v>45198</v>
+        <v>43851</v>
       </c>
       <c r="C53" s="4">
-        <v>1272</v>
+        <v>1216</v>
       </c>
       <c r="D53" s="4">
-        <v>1347</v>
+        <v>1448</v>
       </c>
       <c r="E53" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B54" s="4">
-        <v>46999</v>
+        <v>45198</v>
       </c>
       <c r="C54" s="4">
-        <v>1305</v>
+        <v>1272</v>
       </c>
       <c r="D54" s="4">
-        <v>1801</v>
+        <v>1347</v>
       </c>
       <c r="E54" s="4">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B55" s="4">
-        <v>47784</v>
+        <v>46999</v>
       </c>
       <c r="C55" s="4">
-        <v>1336</v>
+        <v>1305</v>
       </c>
       <c r="D55" s="4">
-        <v>785</v>
+        <v>1801</v>
       </c>
       <c r="E55" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B56" s="4">
-        <v>48693</v>
+        <v>47784</v>
       </c>
       <c r="C56" s="4">
-        <v>1347</v>
+        <v>1336</v>
       </c>
       <c r="D56" s="4">
-        <v>909</v>
+        <v>785</v>
       </c>
       <c r="E56" s="4">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B57" s="4">
-        <v>49912</v>
+        <v>48693</v>
       </c>
       <c r="C57" s="4">
-        <v>1369</v>
+        <v>1347</v>
       </c>
       <c r="D57" s="4">
-        <v>1219</v>
+        <v>909</v>
       </c>
       <c r="E57" s="4">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B58" s="4">
-        <v>51323</v>
+        <v>49912</v>
       </c>
       <c r="C58" s="4">
-        <v>1419</v>
+        <v>1369</v>
       </c>
       <c r="D58" s="4">
-        <v>1411</v>
+        <v>1219</v>
       </c>
       <c r="E58" s="4">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B59" s="4">
-        <v>52268</v>
+        <v>51323</v>
       </c>
       <c r="C59" s="4">
-        <v>1440</v>
+        <v>1419</v>
       </c>
       <c r="D59" s="4">
-        <v>945</v>
+        <v>1411</v>
       </c>
       <c r="E59" s="4">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B60" s="4">
-        <v>53449</v>
+        <v>52268</v>
       </c>
       <c r="C60" s="4">
-        <v>1480</v>
+        <v>1440</v>
       </c>
       <c r="D60" s="4">
-        <v>1181</v>
+        <v>945</v>
       </c>
       <c r="E60" s="4">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B61" s="4">
-        <v>54509</v>
+        <v>53449</v>
       </c>
       <c r="C61" s="4">
-        <v>1506</v>
+        <v>1480</v>
       </c>
       <c r="D61" s="4">
-        <v>1060</v>
+        <v>1181</v>
       </c>
       <c r="E61" s="4">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B62" s="4">
-        <v>55348</v>
+        <v>54509</v>
       </c>
       <c r="C62" s="4">
-        <v>1519</v>
+        <v>1506</v>
       </c>
       <c r="D62" s="4">
-        <v>839</v>
+        <v>1060</v>
       </c>
       <c r="E62" s="4">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B63" s="4">
-        <v>55971</v>
+        <v>55348</v>
       </c>
       <c r="C63" s="4">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="D63" s="4">
-        <v>623</v>
+        <v>839</v>
       </c>
       <c r="E63" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B64" s="4">
-        <v>56560</v>
+        <v>55971</v>
       </c>
       <c r="C64" s="4">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="D64" s="4">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="E64" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B65" s="4">
-        <v>57921</v>
+        <v>56560</v>
       </c>
       <c r="C65" s="4">
-        <v>1562</v>
+        <v>1536</v>
       </c>
       <c r="D65" s="4">
-        <v>1361</v>
+        <v>589</v>
       </c>
       <c r="E65" s="4">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B66" s="4">
-        <v>59776</v>
+        <v>57921</v>
       </c>
       <c r="C66" s="4">
-        <v>1601</v>
+        <v>1562</v>
       </c>
       <c r="D66" s="4">
-        <v>1855</v>
+        <v>1361</v>
       </c>
       <c r="E66" s="4">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B67" s="4">
-        <v>61006</v>
+        <v>59776</v>
       </c>
       <c r="C67" s="4">
-        <v>1626</v>
+        <v>1601</v>
       </c>
       <c r="D67" s="4">
-        <v>1230</v>
+        <v>1855</v>
       </c>
       <c r="E67" s="4">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B68" s="4">
-        <v>62338</v>
+        <v>61006</v>
       </c>
       <c r="C68" s="4">
-        <v>1648</v>
+        <v>1626</v>
       </c>
       <c r="D68" s="4">
-        <v>1332</v>
+        <v>1230</v>
       </c>
       <c r="E68" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B69" s="4">
-        <v>64287</v>
+        <v>62338</v>
       </c>
       <c r="C69" s="4">
-        <v>1672</v>
+        <v>1648</v>
       </c>
       <c r="D69" s="4">
-        <v>1949</v>
+        <v>1332</v>
       </c>
       <c r="E69" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B70" s="4">
-        <v>64880</v>
+        <v>64287</v>
       </c>
       <c r="C70" s="4">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="D70" s="4">
-        <v>593</v>
+        <v>1949</v>
       </c>
       <c r="E70" s="4">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B71" s="4">
-        <v>66568</v>
+        <v>64880</v>
       </c>
       <c r="C71" s="4">
-        <v>1698</v>
+        <v>1678</v>
       </c>
       <c r="D71" s="4">
-        <v>1688</v>
+        <v>593</v>
       </c>
       <c r="E71" s="4">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B72" s="4">
-        <v>68271</v>
+        <v>66568</v>
       </c>
       <c r="C72" s="4">
-        <v>1734</v>
+        <v>1698</v>
       </c>
       <c r="D72" s="4">
-        <v>1703</v>
+        <v>1688</v>
       </c>
       <c r="E72" s="4">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B73" s="4">
-        <v>69920</v>
+        <v>68271</v>
       </c>
       <c r="C73" s="4">
-        <v>1767</v>
+        <v>1734</v>
       </c>
       <c r="D73" s="4">
-        <v>1649</v>
+        <v>1703</v>
       </c>
       <c r="E73" s="4">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B74" s="4">
-        <v>71613</v>
+        <v>69920</v>
       </c>
       <c r="C74" s="4">
-        <v>1788</v>
+        <v>1767</v>
       </c>
       <c r="D74" s="4">
-        <v>1693</v>
+        <v>1649</v>
       </c>
       <c r="E74" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B75" s="4">
-        <v>73553</v>
+        <v>71613</v>
       </c>
       <c r="C75" s="4">
-        <v>1819</v>
+        <v>1788</v>
       </c>
       <c r="D75" s="4">
-        <v>1940</v>
+        <v>1693</v>
       </c>
       <c r="E75" s="4">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B76" s="4">
-        <v>74978</v>
+        <v>73553</v>
       </c>
       <c r="C76" s="4">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="D76" s="4">
-        <v>1425</v>
+        <v>1940</v>
       </c>
       <c r="E76" s="4">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B77" s="4">
-        <v>75616</v>
+        <v>74978</v>
       </c>
       <c r="C77" s="4">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="D77" s="4">
-        <v>638</v>
+        <v>1425</v>
       </c>
       <c r="E77" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B78" s="4">
-        <v>77253</v>
+        <v>75616</v>
       </c>
       <c r="C78" s="4">
-        <v>1853</v>
+        <v>1836</v>
       </c>
       <c r="D78" s="4">
-        <v>1637</v>
+        <v>638</v>
       </c>
       <c r="E78" s="4">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B79" s="4">
-        <v>79757</v>
+        <v>77253</v>
       </c>
       <c r="C79" s="4">
-        <v>1885</v>
+        <v>1853</v>
       </c>
       <c r="D79" s="4">
-        <v>2504</v>
+        <v>1637</v>
       </c>
       <c r="E79" s="4">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B80" s="4">
-        <v>81583</v>
+        <v>79757</v>
       </c>
       <c r="C80" s="4">
-        <v>1920</v>
+        <v>1885</v>
       </c>
       <c r="D80" s="4">
-        <v>1826</v>
+        <v>2504</v>
       </c>
       <c r="E80" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B81" s="4">
-        <v>83680</v>
+        <v>81583</v>
       </c>
       <c r="C81" s="4">
-        <v>1939</v>
+        <v>1920</v>
       </c>
       <c r="D81" s="4">
-        <v>2097</v>
+        <v>1826</v>
       </c>
       <c r="E81" s="4">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B82" s="4">
-        <v>86011</v>
+        <v>83680</v>
       </c>
       <c r="C82" s="4">
-        <v>1957</v>
+        <v>1939</v>
       </c>
       <c r="D82" s="4">
-        <v>2331</v>
+        <v>2097</v>
       </c>
       <c r="E82" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="B83" s="4">
-        <v>87854</v>
+        <v>86011</v>
       </c>
       <c r="C83" s="4">
-        <v>1976</v>
+        <v>1957</v>
       </c>
       <c r="D83" s="4">
-        <v>1843</v>
+        <v>2331</v>
       </c>
       <c r="E83" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B84" s="4">
-        <v>89108</v>
+        <v>87854</v>
       </c>
       <c r="C84" s="4">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="D84" s="4">
-        <v>1254</v>
+        <v>1843</v>
       </c>
       <c r="E84" s="4">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
+        <v>43997</v>
+      </c>
+      <c r="B85" s="4">
+        <v>89108</v>
+      </c>
+      <c r="C85" s="4">
+        <v>1983</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1254</v>
+      </c>
+      <c r="E85" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
         <v>43998</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B86" s="4">
         <v>91730</v>
-      </c>
-      <c r="C85" s="4">
-        <v>2029</v>
-      </c>
-      <c r="D85" s="4">
-        <v>2622</v>
-      </c>
-      <c r="E85" s="4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="B86" s="4">
-        <v>93206</v>
       </c>
       <c r="C86" s="4">
         <v>2029</v>
       </c>
       <c r="D86" s="4">
+        <v>2622</v>
+      </c>
+      <c r="E86" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B87" s="4">
+        <v>93206</v>
+      </c>
+      <c r="C87" s="4">
+        <v>2029</v>
+      </c>
+      <c r="D87" s="4">
         <v>1476</v>
       </c>
-      <c r="E86" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
-        <v>43999</v>
-      </c>
-      <c r="B87" s="4">
-        <v>96335</v>
-      </c>
-      <c r="C87" s="4">
-        <v>2062</v>
-      </c>
-      <c r="D87" s="4">
-        <v>3129</v>
-      </c>
       <c r="E87" s="4">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
+        <v>43999</v>
+      </c>
+      <c r="B88" s="4">
+        <v>96335</v>
+      </c>
+      <c r="C88" s="4">
+        <v>2062</v>
+      </c>
+      <c r="D88" s="4">
+        <v>3129</v>
+      </c>
+      <c r="E88" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
         <v>44000</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B89" s="4">
         <v>99851</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C89" s="4">
         <v>2105</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D89" s="4">
         <v>3516</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E89" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
+    <row r="90" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>44001</v>
+      </c>
+      <c r="B90" s="4">
+        <v>103305</v>
+      </c>
+      <c r="C90" s="4">
+        <v>2140</v>
+      </c>
+      <c r="D90" s="4">
+        <v>3454</v>
+      </c>
+      <c r="E90" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A92:E92"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -6522,7 +6541,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -6533,32 +6552,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>63812</v>
-      </c>
-      <c r="B3" s="7">
-        <v>33934</v>
+      <c r="A3" s="8">
+        <v>65329</v>
+      </c>
+      <c r="B3" s="8">
+        <v>35836</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="12"/>
+      <c r="A5" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6572,11 +6591,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -6589,906 +6608,906 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" ht="77.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>330</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43925</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="B3" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="9">
         <v>63751</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>0.1056</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43926</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="B4" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="9">
         <v>70938</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43927</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="B5" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="9">
         <v>85357</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>8.8909998585200004E-2</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43928</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="B6" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="9">
         <v>88649</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>0.1094</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43929</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="B7" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="9">
         <v>96258</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>0.11070000000000001</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43930</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="B8" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="9">
         <v>106134</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>0.100351636462</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43931</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="B9" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="9">
         <v>115918</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>0.1055125178708</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43932</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="B10" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="9">
         <v>120533</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>0.11360000000000001</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43933</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="B11" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="9">
         <v>124553</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>0.12479999999999999</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43934</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="B12" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="9">
         <v>133226</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>0.1386</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43935</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="B13" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="9">
         <v>146467</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>0.1101</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43936</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="B14" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="9">
         <v>151810</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>0.1105</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43937</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="B15" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="9">
         <v>158547</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>0.1188</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43938</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="B16" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="9">
         <v>169536</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>0.10630000000000001</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43939</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="B17" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="9">
         <v>176239</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>0.1023</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43940</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="B18" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="9">
         <v>182710</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>9.35E-2</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43941</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="B19" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="9">
         <v>190394</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>9.7117268401900006E-2</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43942</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="B20" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="9">
         <v>205399</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43943</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="B21" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="9">
         <v>216783</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43944</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="B22" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" s="9">
         <v>225078</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43945</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="B23" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23" s="9">
         <v>242547</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="17">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43946</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D24" s="8">
+      <c r="B24" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="9">
         <v>262816</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="17">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>43947</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="B25" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" s="9">
         <v>276021</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43948</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="B26" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="9">
         <v>290517</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="17">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43949</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="B27" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="9">
         <v>300384</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="17">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43950</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D28" s="8">
+      <c r="B28" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28" s="9">
         <v>314790</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="17">
         <v>6.10670666381E-2</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43951</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="B29" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="9">
         <v>330300</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="17">
         <v>5.8381327098900003E-2</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43952</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="B30" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="9">
         <v>351775</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="17">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>43953</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="B31" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D31" s="9">
         <v>380648</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="17">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43954</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32" s="8">
+      <c r="B32" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" s="9">
         <v>390560</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="17">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43955</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="B33" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D33" s="9">
         <v>407398</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="17">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43956</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D34" s="8">
+      <c r="B34" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="9">
         <v>427210</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="17">
         <v>5.6754924069199998E-2</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43957</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D35" s="8">
+      <c r="B35" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D35" s="9">
         <v>438938</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="17">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43958</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D36" s="8">
+      <c r="B36" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="9">
         <v>455162</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="17">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>43959</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D37" s="8">
+      <c r="B37" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D37" s="9">
         <v>477118</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="17">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>43960</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="9">
         <v>472782</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="9">
         <v>16512</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="9">
         <v>489294</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="17">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>43961</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="9">
         <v>496328</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="9">
         <v>17650</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="9">
         <v>513978</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="17">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43962</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="9">
         <v>506771</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="9">
         <v>18926</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <v>525697</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="17">
         <v>6.3711443038399998E-2</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>43963</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="9">
         <v>511385</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="9">
         <v>26787</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="9">
         <v>538172</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="17">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43964</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="9">
         <v>556776</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="9">
         <v>30655</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="9">
         <v>587431</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="17">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43965</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="9">
         <v>587313</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="9">
         <v>35971</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="9">
         <v>623284</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="17">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43966</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="9">
         <v>609630</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="9">
         <v>36362</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="9">
         <v>645992</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="17">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43967</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="9">
         <v>638739</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="9">
         <v>39732</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="9">
         <v>678471</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="17">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="9">
         <v>23708</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="9">
         <v>3317</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="9">
         <v>27025</v>
       </c>
     </row>
@@ -7496,25 +7515,25 @@
       <c r="A46" s="6">
         <v>43968</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="9">
         <v>650355</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="9">
         <v>42921</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="9">
         <v>693276</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="17">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="9">
         <v>22004</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="9">
         <v>3610</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="9">
         <v>25614</v>
       </c>
     </row>
@@ -7522,25 +7541,25 @@
       <c r="A47" s="6">
         <v>43969</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="9">
         <v>679845</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="9">
         <v>43168</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="9">
         <v>723013</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="17">
         <v>4.4720144337000001E-2</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="9">
         <v>24725</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="9">
         <v>3463</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="9">
         <v>28188</v>
       </c>
     </row>
@@ -7548,25 +7567,25 @@
       <c r="A48" s="6">
         <v>43970</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="9">
         <v>700146</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="9">
         <v>44791</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="9">
         <v>744937</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="17">
         <v>4.7E-2</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="9">
         <v>26966</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="9">
         <v>2572</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="9">
         <v>29538</v>
       </c>
     </row>
@@ -7574,25 +7593,25 @@
       <c r="A49" s="6">
         <v>43971</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="9">
         <v>720928</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="9">
         <v>49313</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="9">
         <v>770241</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="17">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="9">
         <v>23450</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="9">
         <v>2665</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="9">
         <v>26116</v>
       </c>
     </row>
@@ -7600,25 +7619,25 @@
       <c r="A50" s="6">
         <v>43972</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="9">
         <v>740181</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="9">
         <v>60252</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="9">
         <v>800433</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="17">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="9">
         <v>21838</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="9">
         <v>3469</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="9">
         <v>25307</v>
       </c>
     </row>
@@ -7626,25 +7645,25 @@
       <c r="A51" s="6">
         <v>43973</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="9">
         <v>762706</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="9">
         <v>71731</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="9">
         <v>834437</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="17">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="9">
         <v>21868</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="9">
         <v>5053</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="9">
         <v>26921</v>
       </c>
     </row>
@@ -7652,21 +7671,21 @@
       <c r="A52" s="6">
         <v>43974</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D52" s="8">
+      <c r="B52" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" s="9">
         <v>870935</v>
       </c>
-      <c r="E52" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8">
+      <c r="E52" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9">
         <v>27495</v>
       </c>
     </row>
@@ -7674,25 +7693,25 @@
       <c r="A53" s="6">
         <v>43975</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="9">
         <v>805654</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="9">
         <v>80700</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="9">
         <v>886354</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="17">
         <v>4.87E-2</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="9">
         <v>22186</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="9">
         <v>5397</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="9">
         <v>27583</v>
       </c>
     </row>
@@ -7700,25 +7719,25 @@
       <c r="A54" s="6">
         <v>43976</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="9">
         <v>821233</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="9">
         <v>84841</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="9">
         <v>906074</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="17">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="9">
         <v>20198</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="9">
         <v>5953</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="9">
         <v>26152</v>
       </c>
     </row>
@@ -7726,25 +7745,25 @@
       <c r="A55" s="6">
         <v>43977</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="9">
         <v>855674</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="9">
         <v>87565</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="9">
         <v>943239</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="17">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="9">
         <v>22218</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="9">
         <v>6111</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="9">
         <v>28329</v>
       </c>
     </row>
@@ -7752,25 +7771,25 @@
       <c r="A56" s="6">
         <v>43978</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="9">
         <v>873218</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="9">
         <v>88643</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="9">
         <v>961861</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="17">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="9">
         <v>21756</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="9">
         <v>5619</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="9">
         <v>27374</v>
       </c>
     </row>
@@ -7778,25 +7797,25 @@
       <c r="A57" s="6">
         <v>43979</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="9">
         <v>893275</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="9">
         <v>96719</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="9">
         <v>989994</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="17">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="9">
         <v>21871</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="9">
         <v>5210</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="9">
         <v>27080</v>
       </c>
     </row>
@@ -7804,25 +7823,25 @@
       <c r="A58" s="6">
         <v>43980</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="9">
         <v>928517</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="9">
         <v>98932</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="9">
         <v>1027449</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="17">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="9">
         <v>23687</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="9">
         <v>3886</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="9">
         <v>27573</v>
       </c>
     </row>
@@ -7830,21 +7849,21 @@
       <c r="A59" s="6">
         <v>43981</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="9">
         <v>951865</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="9">
         <v>102928</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="9">
         <v>1054793</v>
       </c>
-      <c r="E59" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8">
+      <c r="E59" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9">
         <v>26265</v>
       </c>
     </row>
@@ -7852,25 +7871,25 @@
       <c r="A60" s="6">
         <v>43982</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="9">
         <v>970031</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="9">
         <v>103460</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="9">
         <v>1073491</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="17">
         <v>5.43810873784E-2</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F60" s="9">
         <v>23482</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="9">
         <v>3251</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="9">
         <v>26734</v>
       </c>
     </row>
@@ -7878,25 +7897,25 @@
       <c r="A61" s="6">
         <v>43983</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="9">
         <v>986224</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="9">
         <v>107452</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="9">
         <v>1093676</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F61" s="9">
         <v>23570</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="9">
         <v>3230</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="9">
         <v>26800</v>
       </c>
     </row>
@@ -7904,25 +7923,25 @@
       <c r="A62" s="6">
         <v>43984</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="9">
         <v>1006768</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="9">
         <v>110506</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="9">
         <v>1117274</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="17">
         <v>6.6236912120931343E-2</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="9">
         <v>21585</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="9">
         <v>3277</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="9">
         <v>24862</v>
       </c>
     </row>
@@ -7930,25 +7949,25 @@
       <c r="A63" s="6">
         <v>43985</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="9">
         <v>1038555</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="9">
         <v>112313</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="9">
         <v>1150868</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="17">
         <v>6.2599418158065037E-2</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="9">
         <v>23620</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="9">
         <v>3381</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="9">
         <v>27001</v>
       </c>
     </row>
@@ -7956,25 +7975,25 @@
       <c r="A64" s="6">
         <v>43986</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="9">
         <v>1061576</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="9">
         <v>113372</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="9">
         <v>1174948</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="17">
         <v>6.0272963321667726E-2</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="9">
         <v>24043</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="9">
         <v>2379</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="9">
         <v>26422</v>
       </c>
     </row>
@@ -7982,25 +8001,25 @@
       <c r="A65" s="6">
         <v>43987</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="9">
         <v>1093277</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="9">
         <v>115910</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="9">
         <v>1209187</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="17">
         <v>6.4378489924739019E-2</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="9">
         <v>23537</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="9">
         <v>2425</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="9">
         <v>25963</v>
       </c>
     </row>
@@ -8008,25 +8027,25 @@
       <c r="A66" s="6">
         <v>43988</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="9">
         <v>1092012</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="9">
         <v>126943</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="9">
         <v>1218955</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="17">
         <v>8.00231185826311E-2</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="9">
         <v>20021</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="9">
         <v>3431</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="9">
         <v>23452</v>
       </c>
     </row>
@@ -8034,25 +8053,25 @@
       <c r="A67" s="6">
         <v>43989</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="9">
         <v>1120316</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="9">
         <v>135583</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="9">
         <v>1255899</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="17">
         <v>7.1138170808796614E-2</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F67" s="9">
         <v>21469</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="9">
         <v>4589</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="9">
         <v>26058</v>
       </c>
     </row>
@@ -8060,25 +8079,25 @@
       <c r="A68" s="6">
         <v>43990</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="9">
         <v>1147355</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="9">
         <v>138784</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="9">
         <v>1286139</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E68" s="17">
         <v>6.6629016142145212E-2</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F68" s="9">
         <v>23019</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="9">
         <v>4476</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="9">
         <v>27495</v>
       </c>
     </row>
@@ -8086,25 +8105,25 @@
       <c r="A69" s="6">
         <v>43991</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="9">
         <v>1161087</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="9">
         <v>140962</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="9">
         <v>1302049</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="17">
         <v>6.9239691807230483E-2</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F69" s="9">
         <v>22046</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="9">
         <v>4351</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H69" s="9">
         <v>26396</v>
       </c>
     </row>
@@ -8112,25 +8131,25 @@
       <c r="A70" s="6">
         <v>43992</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="9">
         <v>1206320</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="9">
         <v>142573</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="9">
         <v>1348893</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="17">
         <v>6.8464816856912941E-2</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F70" s="9">
         <v>23966</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="9">
         <v>4323</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="9">
         <v>28289</v>
       </c>
     </row>
@@ -8138,25 +8157,25 @@
       <c r="A71" s="6">
         <v>43993</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="9">
         <v>1226957</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="9">
         <v>143174</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="9">
         <v>1370131</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="17">
         <v>7.0522006760147776E-2</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71" s="9">
         <v>23626</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="9">
         <v>4257</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="9">
         <v>27883</v>
       </c>
     </row>
@@ -8164,25 +8183,25 @@
       <c r="A72" s="6">
         <v>43994</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="9">
         <v>1260319</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="9">
         <v>144050</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="9">
         <v>1404369</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="17">
         <v>7.2239317057985419E-2</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F72" s="9">
         <v>23863</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="9">
         <v>4020</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="9">
         <v>27883</v>
       </c>
     </row>
@@ -8190,25 +8209,25 @@
       <c r="A73" s="6">
         <v>43995</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="9">
         <v>1295983</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="9">
         <v>146967</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="9">
         <v>1442950</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="17">
         <v>6.1077310009756289E-2</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F73" s="9">
         <v>29139</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="9">
         <v>2861</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73" s="9">
         <v>31999</v>
       </c>
     </row>
@@ -8216,25 +8235,25 @@
       <c r="A74" s="6">
         <v>43996</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="9">
         <v>1314761</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="9">
         <v>149090</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="9">
         <v>1463851</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E74" s="17">
         <v>6.6219239373601788E-2</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="9">
         <v>27778</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="9">
         <v>1930</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="9">
         <v>29707</v>
       </c>
     </row>
@@ -8242,25 +8261,25 @@
       <c r="A75" s="6">
         <v>43997</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="9">
         <v>1348442</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="9">
         <v>150573</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="9">
         <v>1499015</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="17">
         <v>6.7095336844251494E-2</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F75" s="9">
         <v>28727</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="9">
         <v>1684</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H75" s="9">
         <v>30411</v>
       </c>
     </row>
@@ -8268,25 +8287,25 @@
       <c r="A76" s="6">
         <v>43998</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="9">
         <v>1369638</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="9">
         <v>152796</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="9">
         <v>1522434</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E76" s="17">
         <v>6.9417073042085622E-2</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F76" s="9">
         <v>29793</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="9">
         <v>1691</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H76" s="9">
         <v>31484</v>
       </c>
     </row>
@@ -8294,25 +8313,25 @@
       <c r="A77" s="6">
         <v>43999</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="9">
         <v>1407741</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="9">
         <v>152796</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="9">
         <v>1560537</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E77" s="17">
         <v>7.4977286380268196E-2</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="9">
         <v>28774</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="9">
         <v>1460</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="9">
         <v>30235</v>
       </c>
     </row>
@@ -8320,31 +8339,57 @@
       <c r="A78" s="6">
         <v>44000</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D78" s="8">
+      <c r="B78" s="9">
+        <v>1423914</v>
+      </c>
+      <c r="C78" s="9">
+        <v>153011</v>
+      </c>
+      <c r="D78" s="9">
         <v>1576925</v>
       </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-    </row>
-    <row r="80" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
+      <c r="E78" s="17">
+        <v>8.5257188117203245E-2</v>
+      </c>
+      <c r="F78" s="9">
+        <v>28137</v>
+      </c>
+      <c r="G78" s="9">
+        <v>1405</v>
+      </c>
+      <c r="H78" s="9">
+        <v>29542</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>44001</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79" s="9">
+        <v>1622851</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+    </row>
+    <row r="81" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:D81"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -8358,7 +8403,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -8369,48 +8414,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B3" s="7">
-        <v>67518</v>
+        <v>279</v>
+      </c>
+      <c r="B3" s="8">
+        <v>69042</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1509407</v>
+        <v>280</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1553809</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1576925</v>
+        <v>281</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1622851</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="12"/>
+      <c r="A7" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8423,7 +8468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1357AC6E-DB61-42E6-8A2A-CF4952C1CE30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22B7E61-E2D8-4C40-892C-23F4CCC249D2}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8432,46 +8477,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="22"/>
+    <col min="1" max="1" width="55.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>277</v>
       </c>
+      <c r="B2" s="22" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="24">
+        <v>153011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="26">
-        <v>152796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="B4" s="26">
-        <v>6258</v>
+      <c r="B4" s="24">
+        <v>6262</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" s="21"/>
+      <c r="A6" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8489,7 +8534,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -8500,64 +8545,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B3" s="7">
-        <v>2947</v>
+        <v>285</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3148</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" s="7">
-        <v>57513</v>
+        <v>286</v>
+      </c>
+      <c r="B4" s="8">
+        <v>59823</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B5" s="7">
-        <v>13472</v>
+        <v>287</v>
+      </c>
+      <c r="B5" s="8">
+        <v>13591</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1453</v>
+        <v>288</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1443</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="7">
-        <v>5834</v>
+        <v>289</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5835</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" s="12"/>
+      <c r="A9" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8571,11 +8616,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -8587,21 +8632,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8611,7 +8656,7 @@
       <c r="B3" s="6">
         <v>43925</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>827</v>
       </c>
     </row>
@@ -8622,7 +8667,7 @@
       <c r="B4" s="6">
         <v>43926</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>1132</v>
       </c>
     </row>
@@ -8633,7 +8678,7 @@
       <c r="B5" s="6">
         <v>43927</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>1153</v>
       </c>
     </row>
@@ -8644,7 +8689,7 @@
       <c r="B6" s="6">
         <v>43928</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>1252</v>
       </c>
     </row>
@@ -8655,7 +8700,7 @@
       <c r="B7" s="6">
         <v>43929</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>1491</v>
       </c>
     </row>
@@ -8666,7 +8711,7 @@
       <c r="B8" s="6">
         <v>43930</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>1439</v>
       </c>
     </row>
@@ -8677,7 +8722,7 @@
       <c r="B9" s="6">
         <v>43931</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>1532</v>
       </c>
     </row>
@@ -8688,7 +8733,7 @@
       <c r="B10" s="6">
         <v>43932</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>1514</v>
       </c>
     </row>
@@ -8699,7 +8744,7 @@
       <c r="B11" s="6">
         <v>43933</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>1338</v>
       </c>
     </row>
@@ -8710,7 +8755,7 @@
       <c r="B12" s="6">
         <v>43934</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>1176</v>
       </c>
     </row>
@@ -8721,7 +8766,7 @@
       <c r="B13" s="6">
         <v>43935</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>1409</v>
       </c>
     </row>
@@ -8732,7 +8777,7 @@
       <c r="B14" s="6">
         <v>43936</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>1538</v>
       </c>
     </row>
@@ -8743,7 +8788,7 @@
       <c r="B15" s="6">
         <v>43937</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>1459</v>
       </c>
     </row>
@@ -8754,7 +8799,7 @@
       <c r="B16" s="6">
         <v>43938</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>1522</v>
       </c>
     </row>
@@ -8765,7 +8810,7 @@
       <c r="B17" s="6">
         <v>43939</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>1321</v>
       </c>
     </row>
@@ -8776,7 +8821,7 @@
       <c r="B18" s="6">
         <v>43940</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <v>1471</v>
       </c>
     </row>
@@ -8787,7 +8832,7 @@
       <c r="B19" s="6">
         <v>43941</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <v>1411</v>
       </c>
     </row>
@@ -8798,7 +8843,7 @@
       <c r="B20" s="6">
         <v>43942</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <v>1419</v>
       </c>
     </row>
@@ -8809,7 +8854,7 @@
       <c r="B21" s="6">
         <v>43943</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <v>1678</v>
       </c>
     </row>
@@ -8820,7 +8865,7 @@
       <c r="B22" s="6">
         <v>43944</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <v>1649</v>
       </c>
     </row>
@@ -8831,7 +8876,7 @@
       <c r="B23" s="6">
         <v>43945</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <v>1674</v>
       </c>
     </row>
@@ -8842,7 +8887,7 @@
       <c r="B24" s="6">
         <v>43946</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <v>1597</v>
       </c>
     </row>
@@ -8853,7 +8898,7 @@
       <c r="B25" s="6">
         <v>43947</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <v>1542</v>
       </c>
     </row>
@@ -8864,7 +8909,7 @@
       <c r="B26" s="6">
         <v>43948</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <v>1563</v>
       </c>
     </row>
@@ -8875,7 +8920,7 @@
       <c r="B27" s="6">
         <v>43949</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <v>1682</v>
       </c>
     </row>
@@ -8886,7 +8931,7 @@
       <c r="B28" s="6">
         <v>43950</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <v>1702</v>
       </c>
     </row>
@@ -8897,7 +8942,7 @@
       <c r="B29" s="6">
         <v>43951</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <v>1686</v>
       </c>
     </row>
@@ -8908,7 +8953,7 @@
       <c r="B30" s="6">
         <v>43952</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <v>1778</v>
       </c>
     </row>
@@ -8919,7 +8964,7 @@
       <c r="B31" s="6">
         <v>43953</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <v>1725</v>
       </c>
     </row>
@@ -8930,7 +8975,7 @@
       <c r="B32" s="6">
         <v>43954</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8">
         <v>1540</v>
       </c>
     </row>
@@ -8941,7 +8986,7 @@
       <c r="B33" s="6">
         <v>43955</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="8">
         <v>1533</v>
       </c>
     </row>
@@ -8952,7 +8997,7 @@
       <c r="B34" s="6">
         <v>43956</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="8">
         <v>1888</v>
       </c>
     </row>
@@ -8963,7 +9008,7 @@
       <c r="B35" s="6">
         <v>43957</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="8">
         <v>1812</v>
       </c>
     </row>
@@ -8974,7 +9019,7 @@
       <c r="B36" s="6">
         <v>43958</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="8">
         <v>1750</v>
       </c>
     </row>
@@ -8985,7 +9030,7 @@
       <c r="B37" s="6">
         <v>43959</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="8">
         <v>1734</v>
       </c>
     </row>
@@ -8996,7 +9041,7 @@
       <c r="B38" s="6">
         <v>43960</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="8">
         <v>1735</v>
       </c>
     </row>
@@ -9007,7 +9052,7 @@
       <c r="B39" s="6">
         <v>43961</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="8">
         <v>1626</v>
       </c>
     </row>
@@ -9018,7 +9063,7 @@
       <c r="B40" s="6">
         <v>43962</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="8">
         <v>1525</v>
       </c>
     </row>
@@ -9029,18 +9074,18 @@
       <c r="B41" s="6">
         <v>43963</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="8">
         <v>1725</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="6">
         <v>43964</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="8">
         <v>1676</v>
       </c>
     </row>
@@ -9051,7 +9096,7 @@
       <c r="B43" s="6">
         <v>43965</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="8">
         <v>1648</v>
       </c>
     </row>
@@ -9062,7 +9107,7 @@
       <c r="B44" s="6">
         <v>43966</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="8">
         <v>1716</v>
       </c>
     </row>
@@ -9073,7 +9118,7 @@
       <c r="B45" s="6">
         <v>43967</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="8">
         <v>1791</v>
       </c>
     </row>
@@ -9084,7 +9129,7 @@
       <c r="B46" s="6">
         <v>43968</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="8">
         <v>1512</v>
       </c>
     </row>
@@ -9095,7 +9140,7 @@
       <c r="B47" s="6">
         <v>43969</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="8">
         <v>1551</v>
       </c>
     </row>
@@ -9106,7 +9151,7 @@
       <c r="B48" s="6">
         <v>43970</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="8">
         <v>1732</v>
       </c>
     </row>
@@ -9117,7 +9162,7 @@
       <c r="B49" s="6">
         <v>43971</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="8">
         <v>1791</v>
       </c>
     </row>
@@ -9128,7 +9173,7 @@
       <c r="B50" s="6">
         <v>43972</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="8">
         <v>1680</v>
       </c>
     </row>
@@ -9139,7 +9184,7 @@
       <c r="B51" s="6">
         <v>43973</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="8">
         <v>1578</v>
       </c>
     </row>
@@ -9150,7 +9195,7 @@
       <c r="B52" s="6">
         <v>43974</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="8">
         <v>1688</v>
       </c>
     </row>
@@ -9161,7 +9206,7 @@
       <c r="B53" s="6">
         <v>43975</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="8">
         <v>1572</v>
       </c>
     </row>
@@ -9172,7 +9217,7 @@
       <c r="B54" s="6">
         <v>43976</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="8">
         <v>1511</v>
       </c>
     </row>
@@ -9183,7 +9228,7 @@
       <c r="B55" s="6">
         <v>43977</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="8">
         <v>1534</v>
       </c>
     </row>
@@ -9194,7 +9239,7 @@
       <c r="B56" s="6">
         <v>43978</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="8">
         <v>1645</v>
       </c>
     </row>
@@ -9205,7 +9250,7 @@
       <c r="B57" s="6">
         <v>43979</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="8">
         <v>1692</v>
       </c>
     </row>
@@ -9216,7 +9261,7 @@
       <c r="B58" s="6">
         <v>43980</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="8">
         <v>1701</v>
       </c>
     </row>
@@ -9227,7 +9272,7 @@
       <c r="B59" s="6">
         <v>43981</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="8">
         <v>1752</v>
       </c>
     </row>
@@ -9238,7 +9283,7 @@
       <c r="B60" s="6">
         <v>43982</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="8">
         <v>1684</v>
       </c>
     </row>
@@ -9249,7 +9294,7 @@
       <c r="B61" s="6">
         <v>43983</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="8">
         <v>1756</v>
       </c>
     </row>
@@ -9260,7 +9305,7 @@
       <c r="B62" s="6">
         <v>43984</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="8">
         <v>1773</v>
       </c>
     </row>
@@ -9271,7 +9316,7 @@
       <c r="B63" s="6">
         <v>43985</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="8">
         <v>1799</v>
       </c>
     </row>
@@ -9282,7 +9327,7 @@
       <c r="B64" s="6">
         <v>43986</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="8">
         <v>1796</v>
       </c>
     </row>
@@ -9293,7 +9338,7 @@
       <c r="B65" s="6">
         <v>43987</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="8">
         <v>1855</v>
       </c>
     </row>
@@ -9304,7 +9349,7 @@
       <c r="B66" s="6">
         <v>43988</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="8">
         <v>1822</v>
       </c>
     </row>
@@ -9315,7 +9360,7 @@
       <c r="B67" s="6">
         <v>43989</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="8">
         <v>1878</v>
       </c>
     </row>
@@ -9326,7 +9371,7 @@
       <c r="B68" s="6">
         <v>43990</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="8">
         <v>1935</v>
       </c>
     </row>
@@ -9337,7 +9382,7 @@
       <c r="B69" s="6">
         <v>43991</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="8">
         <v>2056</v>
       </c>
     </row>
@@ -9348,7 +9393,7 @@
       <c r="B70" s="6">
         <v>43992</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="8">
         <v>2153</v>
       </c>
     </row>
@@ -9359,7 +9404,7 @@
       <c r="B71" s="6">
         <v>43993</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="8">
         <v>2008</v>
       </c>
     </row>
@@ -9370,7 +9415,7 @@
       <c r="B72" s="6">
         <v>43994</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="8">
         <v>2166</v>
       </c>
     </row>
@@ -9381,7 +9426,7 @@
       <c r="B73" s="6">
         <v>43995</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="8">
         <v>2242</v>
       </c>
     </row>
@@ -9392,7 +9437,7 @@
       <c r="B74" s="6">
         <v>43996</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="8">
         <v>2287</v>
       </c>
     </row>
@@ -9403,7 +9448,7 @@
       <c r="B75" s="6">
         <v>43997</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="8">
         <v>2326</v>
       </c>
     </row>
@@ -9414,7 +9459,7 @@
       <c r="B76" s="6">
         <v>43998</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="8">
         <v>2518</v>
       </c>
     </row>
@@ -9425,7 +9470,7 @@
       <c r="B77" s="6">
         <v>43999</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="8">
         <v>2793</v>
       </c>
     </row>
@@ -9436,21 +9481,32 @@
       <c r="B78" s="6">
         <v>44000</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="8">
         <v>2947</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
+    <row r="79" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>77</v>
+      </c>
+      <c r="B79" s="6">
+        <v>44001</v>
+      </c>
+      <c r="C79" s="8">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9463,7 +9519,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -9471,208 +9527,208 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>293</v>
+      <c r="A2" s="10" t="s">
+        <v>294</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="8">
-        <v>72</v>
-      </c>
-      <c r="C3" s="28">
+        <v>297</v>
+      </c>
+      <c r="B3" s="9">
+        <v>73</v>
+      </c>
+      <c r="C3" s="27">
         <f>B3/B$16</f>
-        <v>3.8373394446517082E-3</v>
+        <v>3.8316187276926307E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="8">
-        <v>301</v>
-      </c>
-      <c r="C4" s="28">
+        <v>298</v>
+      </c>
+      <c r="B4" s="9">
+        <v>304</v>
+      </c>
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.6042210733891168E-2</v>
+        <v>1.5956330044089858E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B5" s="8">
-        <v>775</v>
-      </c>
-      <c r="C5" s="28">
+        <v>299</v>
+      </c>
+      <c r="B5" s="9">
+        <v>790</v>
+      </c>
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
-        <v>4.1304695411181584E-2</v>
+        <v>4.146546294352299E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6" s="8">
-        <v>3057</v>
-      </c>
-      <c r="C6" s="28">
+        <v>300</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3117</v>
+      </c>
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
-        <v>0.16292703725417043</v>
+        <v>0.16360487087969766</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B7" s="8">
-        <v>3457</v>
-      </c>
-      <c r="C7" s="28">
+        <v>301</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3510</v>
+      </c>
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
-        <v>0.1842455897244577</v>
+        <v>0.18423262649590594</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B8" s="8">
-        <v>3405</v>
-      </c>
-      <c r="C8" s="28">
+        <v>302</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3461</v>
+      </c>
+      <c r="C8" s="27">
         <f t="shared" si="0"/>
-        <v>0.18147417790332038</v>
+        <v>0.18166071803485198</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B9" s="8">
-        <v>3310</v>
-      </c>
-      <c r="C9" s="28">
+        <v>303</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3344</v>
+      </c>
+      <c r="C9" s="27">
         <f t="shared" si="0"/>
-        <v>0.17641102169162715</v>
+        <v>0.17551963048498845</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1330</v>
-      </c>
-      <c r="C10" s="28">
+        <v>304</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1343</v>
+      </c>
+      <c r="C10" s="27">
         <f t="shared" si="0"/>
-        <v>7.0884186963705159E-2</v>
+        <v>7.0491287003989087E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1000</v>
-      </c>
-      <c r="C11" s="28">
+        <v>305</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1015</v>
+      </c>
+      <c r="C11" s="27">
         <f t="shared" si="0"/>
-        <v>5.3296381175718166E-2</v>
+        <v>5.3275246693260551E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B12" s="8">
-        <v>633</v>
-      </c>
-      <c r="C12" s="28">
+        <v>306</v>
+      </c>
+      <c r="B12" s="9">
+        <v>646</v>
+      </c>
+      <c r="C12" s="27">
         <f t="shared" si="0"/>
-        <v>3.3736609284229599E-2</v>
+        <v>3.3907201343690949E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B13" s="8">
-        <v>469</v>
-      </c>
-      <c r="C13" s="28">
+        <v>307</v>
+      </c>
+      <c r="B13" s="9">
+        <v>473</v>
+      </c>
+      <c r="C13" s="27">
         <f t="shared" si="0"/>
-        <v>2.499600277141182E-2</v>
+        <v>2.4826789838337183E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B14" s="8">
-        <v>941</v>
-      </c>
-      <c r="C14" s="28">
+        <v>308</v>
+      </c>
+      <c r="B14" s="9">
+        <v>962</v>
+      </c>
+      <c r="C14" s="27">
         <f t="shared" si="0"/>
-        <v>5.0151894686350798E-2</v>
+        <v>5.049338652110015E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B15" s="8">
-        <v>13</v>
-      </c>
-      <c r="C15" s="28">
+        <v>309</v>
+      </c>
+      <c r="B15" s="9">
+        <v>14</v>
+      </c>
+      <c r="C15" s="27">
         <f t="shared" si="0"/>
-        <v>6.9285295528433621E-4</v>
+        <v>7.3483098887255926E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="8">
-        <v>18763</v>
-      </c>
-      <c r="C16" s="28">
+      <c r="B16" s="9">
+        <v>19052</v>
+      </c>
+      <c r="C16" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4E5FF4C-54FE-4E10-93C3-E3BD52633FD1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F279AAC8-F427-4840-9438-E656A16ED197}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,14 @@
     <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="336">
   <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/19 at 10:45AM CST</t>
+    <t>COVID-19 Cases and Fatalities by County as of 6/20 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/19 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/20 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -842,7 +842,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/19 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/20 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -854,7 +854,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/19 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/20 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -870,7 +870,7 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/19 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/20 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -891,7 +891,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/19 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/20 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -912,7 +912,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/19 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/20 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -921,7 +921,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/19 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -976,10 +976,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          19,052</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/19 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          19,339</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -991,7 +991,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/19 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1012,16 +1012,25 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/19 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =          664</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 6/19 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/19 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/20 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =          662</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 6/20 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/20 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Number of Antibody Tests Reported (included in total test numbers)</t>
+  </si>
+  <si>
+    <t>Number of Positive Antibody Tests Reported</t>
+  </si>
+  <si>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/19 at 3:00PM CST</t>
   </si>
   <si>
     <t>COVID-19
@@ -1038,16 +1047,7 @@
     <t>New Total Tests Reported* (Average of previous 7 days)</t>
   </si>
   <si>
-    <t>Number of Antibody Tests Reported (included in total test numbers)</t>
-  </si>
-  <si>
-    <t>Number of Positive Antibody Tests Reported</t>
-  </si>
-  <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/18 at 3:00PM CST</t>
-  </si>
-  <si>
-    <t>06/16/20-TDCJ*</t>
+    <t>06/16/2020-TDCJ*</t>
   </si>
   <si>
     <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
@@ -1090,13 +1090,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.5"/>
-      <color rgb="FF112277"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1105,6 +1098,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF112277"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1142,7 +1142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1180,10 +1180,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB0B7BB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1207,9 +1216,6 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1231,49 +1237,52 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B58E1420-9395-4179-937E-272FF6CD991E}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{62C65D8B-FE5D-42DF-8967-23399DD5657B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1420,11 +1429,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1442,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -1453,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -1464,7 +1473,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C5" s="4">
         <v>6</v>
@@ -1508,7 +1517,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1519,7 +1528,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1541,7 +1550,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -1552,7 +1561,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C13" s="4">
         <v>4</v>
@@ -1574,7 +1583,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1585,10 +1594,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>769</v>
+        <v>818</v>
       </c>
       <c r="C16" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,10 +1605,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>5550</v>
+        <v>5962</v>
       </c>
       <c r="C17" s="4">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1640,10 +1649,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C21" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1651,10 +1660,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>1609</v>
+        <v>1669</v>
       </c>
       <c r="C22" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1662,7 +1671,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>1095</v>
+        <v>1163</v>
       </c>
       <c r="C23" s="4">
         <v>25</v>
@@ -1717,7 +1726,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1728,7 +1737,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
@@ -1739,7 +1748,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -1750,7 +1759,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -1772,7 +1781,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>1371</v>
+        <v>1454</v>
       </c>
       <c r="C33" s="4">
         <v>48</v>
@@ -1783,7 +1792,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -1827,7 +1836,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1904,7 +1913,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>2026</v>
+        <v>2064</v>
       </c>
       <c r="C45" s="4">
         <v>38</v>
@@ -1926,7 +1935,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1937,7 +1946,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -1959,7 +1968,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -2003,7 +2012,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C54" s="4">
         <v>5</v>
@@ -2036,7 +2045,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
@@ -2058,10 +2067,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>15648</v>
+        <v>16042</v>
       </c>
       <c r="C59" s="4">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2080,7 +2089,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -2113,7 +2122,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1980</v>
+        <v>2054</v>
       </c>
       <c r="C64" s="4">
         <v>36</v>
@@ -2179,7 +2188,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="C70" s="4">
         <v>7</v>
@@ -2201,10 +2210,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>4178</v>
+        <v>4340</v>
       </c>
       <c r="C72" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2256,7 +2265,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2300,7 +2309,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>2726</v>
+        <v>2882</v>
       </c>
       <c r="C81" s="4">
         <v>50</v>
@@ -2311,7 +2320,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2333,7 +2342,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2355,7 +2364,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>1535</v>
+        <v>1642</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
@@ -2377,7 +2386,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -2410,7 +2419,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
@@ -2443,7 +2452,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C94" s="4">
         <v>12</v>
@@ -2454,7 +2463,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2465,7 +2474,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -2476,7 +2485,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C97" s="4">
         <v>5</v>
@@ -2531,7 +2540,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2542,10 +2551,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>18552</v>
+        <v>19739</v>
       </c>
       <c r="C103" s="4">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2553,10 +2562,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C104" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2586,7 +2595,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>1448</v>
+        <v>1551</v>
       </c>
       <c r="C107" s="4">
         <v>5</v>
@@ -2608,7 +2617,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C109" s="4">
         <v>3</v>
@@ -2619,10 +2628,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>1447</v>
+        <v>1556</v>
       </c>
       <c r="C110" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2630,7 +2639,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -2674,7 +2683,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2685,7 +2694,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -2707,7 +2716,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C118" s="4">
         <v>5</v>
@@ -2751,7 +2760,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
@@ -2762,7 +2771,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C123" s="4">
         <v>1</v>
@@ -2784,7 +2793,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1356</v>
+        <v>1388</v>
       </c>
       <c r="C125" s="4">
         <v>32</v>
@@ -2795,7 +2804,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -2806,7 +2815,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2828,7 +2837,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2839,7 +2848,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -2894,7 +2903,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C135" s="4">
         <v>1</v>
@@ -2927,7 +2936,7 @@
         <v>139</v>
       </c>
       <c r="B138" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" s="4">
         <v>0</v>
@@ -2938,7 +2947,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
@@ -2993,7 +3002,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -3004,7 +3013,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -3015,7 +3024,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C146" s="4">
         <v>3</v>
@@ -3026,7 +3035,7 @@
         <v>148</v>
       </c>
       <c r="B147" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3037,7 +3046,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3048,7 +3057,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3103,7 +3112,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>1136</v>
+        <v>1208</v>
       </c>
       <c r="C154" s="4">
         <v>51</v>
@@ -3125,7 +3134,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3147,7 +3156,7 @@
         <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
@@ -3169,7 +3178,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3180,7 +3189,7 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C161" s="4">
         <v>2</v>
@@ -3191,7 +3200,7 @@
         <v>163</v>
       </c>
       <c r="B162" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C162" s="4">
         <v>0</v>
@@ -3202,7 +3211,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="C163" s="4">
         <v>5</v>
@@ -3224,7 +3233,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3246,7 +3255,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="C167" s="4">
         <v>13</v>
@@ -3257,7 +3266,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3301,10 +3310,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>1484</v>
+        <v>1555</v>
       </c>
       <c r="C172" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3323,7 +3332,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3345,7 +3354,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C176" s="4">
         <v>25</v>
@@ -3356,7 +3365,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C177" s="4">
         <v>4</v>
@@ -3378,7 +3387,7 @@
         <v>180</v>
       </c>
       <c r="B179" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -3389,10 +3398,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>485</v>
+        <v>548</v>
       </c>
       <c r="C180" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3422,7 +3431,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
@@ -3444,7 +3453,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C185" s="4">
         <v>23</v>
@@ -3488,7 +3497,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3499,7 +3508,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="C190" s="4">
         <v>39</v>
@@ -3521,7 +3530,7 @@
         <v>193</v>
       </c>
       <c r="B192" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -3532,7 +3541,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C193" s="4">
         <v>6</v>
@@ -3565,7 +3574,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C196" s="4">
         <v>8</v>
@@ -3609,7 +3618,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3642,7 +3651,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3653,7 +3662,7 @@
         <v>205</v>
       </c>
       <c r="B204" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C204" s="4">
         <v>1</v>
@@ -3664,7 +3673,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C205" s="4">
         <v>6</v>
@@ -3708,7 +3717,7 @@
         <v>210</v>
       </c>
       <c r="B209" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
@@ -3741,7 +3750,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C212" s="4">
         <v>8</v>
@@ -3763,7 +3772,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3785,7 +3794,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3851,10 +3860,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>8099</v>
+        <v>8331</v>
       </c>
       <c r="C222" s="4">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3862,7 +3871,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3906,7 +3915,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="C227" s="4">
         <v>4</v>
@@ -3917,7 +3926,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3928,7 +3937,7 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>4991</v>
+        <v>5286</v>
       </c>
       <c r="C229" s="4">
         <v>108</v>
@@ -3939,7 +3948,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -3950,7 +3959,7 @@
         <v>232</v>
       </c>
       <c r="B231" s="4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
@@ -3983,7 +3992,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -3994,7 +4003,7 @@
         <v>236</v>
       </c>
       <c r="B235" s="4">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C235" s="4">
         <v>0</v>
@@ -4027,7 +4036,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1890</v>
+        <v>1905</v>
       </c>
       <c r="C238" s="4">
         <v>28</v>
@@ -4038,7 +4047,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4049,7 +4058,7 @@
         <v>241</v>
       </c>
       <c r="B240" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4060,7 +4069,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C241" s="4">
         <v>26</v>
@@ -4071,7 +4080,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>854</v>
+        <v>874</v>
       </c>
       <c r="C242" s="4">
         <v>22</v>
@@ -4082,7 +4091,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4104,7 +4113,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -4126,7 +4135,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4137,7 +4146,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>1114</v>
+        <v>1159</v>
       </c>
       <c r="C248" s="4">
         <v>32</v>
@@ -4148,7 +4157,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4181,7 +4190,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
@@ -4192,7 +4201,7 @@
         <v>254</v>
       </c>
       <c r="B253" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4214,7 +4223,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4236,10 +4245,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>103305</v>
+        <v>107735</v>
       </c>
       <c r="C257" s="4">
-        <v>2140</v>
+        <v>2165</v>
       </c>
     </row>
   </sheetData>
@@ -4265,15 +4274,15 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4290,63 +4299,63 @@
       <c r="A3" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="9">
-        <v>9400</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="B3" s="8">
+        <v>9535</v>
+      </c>
+      <c r="C3" s="24">
         <f>B3/B$6</f>
-        <v>0.49338652110014697</v>
+        <v>0.49304514194115517</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B4" s="9">
-        <v>9477</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="8">
+        <v>9626</v>
+      </c>
+      <c r="C4" s="24">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.49742809153894602</v>
+        <v>0.49775065928951862</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="9">
-        <v>175</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="B5" s="8">
+        <v>178</v>
+      </c>
+      <c r="C5" s="24">
         <f t="shared" si="0"/>
-        <v>9.1853873609069915E-3</v>
+        <v>9.2041987693262314E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="9">
-        <v>19052</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" s="8">
+        <v>19339</v>
+      </c>
+      <c r="C6" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4373,15 +4382,15 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4398,99 +4407,99 @@
       <c r="A3" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="9">
-        <v>580</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="B3" s="8">
+        <v>583</v>
+      </c>
+      <c r="C3" s="24">
         <f>B3/B$9</f>
-        <v>3.0442998110434601E-2</v>
+        <v>3.0146336418635917E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B4" s="9">
-        <v>2263</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="8">
+        <v>2293</v>
+      </c>
+      <c r="C4" s="24">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.11878018055847155</v>
+        <v>0.11856869538238791</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B5" s="9">
-        <v>6613</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="B5" s="8">
+        <v>6728</v>
+      </c>
+      <c r="C5" s="24">
         <f t="shared" si="0"/>
-        <v>0.34710266638673104</v>
+        <v>0.3478980298877915</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="9">
-        <v>112</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" s="8">
+        <v>113</v>
+      </c>
+      <c r="C6" s="24">
         <f t="shared" si="0"/>
-        <v>5.8786479109804741E-3</v>
+        <v>5.8431149490666525E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="9">
-        <v>5183</v>
-      </c>
-      <c r="C7" s="27">
+      <c r="B7" s="8">
+        <v>5248</v>
+      </c>
+      <c r="C7" s="24">
         <f t="shared" si="0"/>
-        <v>0.27204492966617677</v>
+        <v>0.2713687367495734</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="9">
-        <v>4301</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="8">
+        <v>4374</v>
+      </c>
+      <c r="C8" s="24">
         <f t="shared" si="0"/>
-        <v>0.22575057736720555</v>
+        <v>0.2261750866125446</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="9">
-        <v>19052</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="B9" s="8">
+        <v>19339</v>
+      </c>
+      <c r="C9" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4517,18 +4526,18 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>294</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4542,10 +4551,10 @@
       <c r="A3" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24">
         <f>B3/B$16</f>
         <v>0</v>
       </c>
@@ -4554,10 +4563,10 @@
       <c r="A4" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
@@ -4566,159 +4575,159 @@
       <c r="A5" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="24">
         <f t="shared" si="0"/>
-        <v>3.0120481927710845E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>11</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="24">
         <f t="shared" si="0"/>
-        <v>1.6566265060240965E-2</v>
+        <v>1.6616314199395771E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>13</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="24">
         <f t="shared" si="0"/>
-        <v>1.9578313253012049E-2</v>
+        <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>26</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="24">
         <f t="shared" si="0"/>
-        <v>3.9156626506024098E-2</v>
+        <v>3.9274924471299093E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>72</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="24">
         <f t="shared" si="0"/>
-        <v>0.10843373493975904</v>
+        <v>0.10876132930513595</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>60</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="24">
         <f t="shared" si="0"/>
-        <v>9.036144578313253E-2</v>
+        <v>9.0634441087613288E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>74</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="24">
         <f t="shared" si="0"/>
-        <v>0.11144578313253012</v>
+        <v>0.11178247734138973</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>69</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="24">
         <f t="shared" si="0"/>
-        <v>0.10391566265060241</v>
+        <v>0.10422960725075529</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>70</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="24">
         <f t="shared" si="0"/>
-        <v>0.10542168674698796</v>
+        <v>0.10574018126888217</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>265</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="24">
         <f t="shared" si="0"/>
-        <v>0.3990963855421687</v>
+        <v>0.40030211480362538</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="24">
         <f t="shared" si="0"/>
-        <v>3.0120481927710845E-3</v>
+        <v>3.0211480362537764E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="11">
-        <v>664</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="B16" s="10">
+        <v>662</v>
+      </c>
+      <c r="C16" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4745,15 +4754,15 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4770,63 +4779,63 @@
       <c r="A3" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="11">
-        <v>272</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="B3" s="10">
+        <v>271</v>
+      </c>
+      <c r="C3" s="24">
         <f>B3/B$6</f>
-        <v>0.40963855421686746</v>
+        <v>0.40936555891238668</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B4" s="11">
-        <v>364</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="10">
+        <v>363</v>
+      </c>
+      <c r="C4" s="24">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.54819277108433739</v>
+        <v>0.54833836858006046</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>28</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="24">
         <f t="shared" si="0"/>
-        <v>4.2168674698795178E-2</v>
+        <v>4.2296072507552872E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="11">
-        <v>664</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" s="10">
+        <v>662</v>
+      </c>
+      <c r="C6" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4853,15 +4862,15 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4878,99 +4887,99 @@
       <c r="A3" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>13</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="24">
         <f>B3/B$9</f>
-        <v>1.9578313253012049E-2</v>
+        <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>85</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="24">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.12801204819277109</v>
+        <v>0.12839879154078551</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>171</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="24">
         <f t="shared" si="0"/>
-        <v>0.25753012048192769</v>
+        <v>0.2583081570996979</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="24">
         <f t="shared" si="0"/>
-        <v>7.5301204819277108E-3</v>
+        <v>7.5528700906344415E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>269</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="24">
         <f t="shared" si="0"/>
-        <v>0.40512048192771083</v>
+        <v>0.40634441087613293</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="11">
-        <v>121</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="10">
+        <v>119</v>
+      </c>
+      <c r="C8" s="24">
         <f t="shared" si="0"/>
-        <v>0.18222891566265059</v>
+        <v>0.1797583081570997</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="11">
-        <v>664</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="B9" s="10">
+        <v>662</v>
+      </c>
+      <c r="C9" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4979,45 +4988,45 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93:E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6448,7 +6457,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="26" t="s">
         <v>334</v>
       </c>
       <c r="B87" s="4">
@@ -6515,20 +6524,37 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
+    <row r="91" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>44002</v>
+      </c>
+      <c r="B91" s="4">
+        <v>107735</v>
+      </c>
+      <c r="C91" s="4">
+        <v>2165</v>
+      </c>
+      <c r="D91" s="4">
+        <v>4430</v>
+      </c>
+      <c r="E91" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A93:E93"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6542,7 +6568,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6552,10 +6578,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6566,18 +6592,18 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>65329</v>
-      </c>
-      <c r="B3" s="8">
-        <v>35836</v>
+      <c r="A3" s="7">
+        <v>67096</v>
+      </c>
+      <c r="B3" s="7">
+        <v>38474</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6591,10 +6617,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
@@ -6607,907 +6633,907 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="60.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="E2" s="5" t="s">
         <v>330</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43925</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="23">
         <v>0.1056</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43926</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="23">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43927</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="23">
         <v>8.8909998585200004E-2</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43928</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="23">
         <v>0.1094</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43929</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="23">
         <v>0.11070000000000001</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43930</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="23">
         <v>0.100351636462</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43931</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="23">
         <v>0.1055125178708</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43932</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="23">
         <v>0.11360000000000001</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43933</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="23">
         <v>0.12479999999999999</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43934</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="23">
         <v>0.1386</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43935</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="23">
         <v>0.1101</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43936</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="23">
         <v>0.1105</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43937</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="23">
         <v>0.1188</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43938</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="23">
         <v>0.10630000000000001</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43939</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="23">
         <v>0.1023</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43940</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="23">
         <v>9.35E-2</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43941</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="23">
         <v>9.7117268401900006E-2</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43942</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="23">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43943</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="23">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43944</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="23">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43945</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="23">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43946</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="23">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>43947</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="23">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43948</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="23">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43949</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="23">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43950</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="23">
         <v>6.10670666381E-2</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43951</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="23">
         <v>5.8381327098900003E-2</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43952</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="23">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>43953</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="23">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43954</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="23">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43955</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="23">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43956</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="23">
         <v>5.6754924069199998E-2</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43957</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="23">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43958</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="23">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>43959</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="23">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>43960</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>472782</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>16512</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="23">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>43961</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>496328</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>17650</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="23">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43962</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>506771</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>18926</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="23">
         <v>6.3711443038399998E-2</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>43963</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>511385</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>26787</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="23">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43964</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>556776</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>30655</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="23">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43965</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>587313</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>35971</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="23">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43966</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>609630</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>36362</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="23">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43967</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>638739</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>39732</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="23">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <v>23708</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="8">
         <v>3317</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="8">
         <v>27025</v>
       </c>
     </row>
@@ -7515,25 +7541,25 @@
       <c r="A46" s="6">
         <v>43968</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>650355</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>42921</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="23">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <v>22004</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <v>3610</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="8">
         <v>25614</v>
       </c>
     </row>
@@ -7541,25 +7567,25 @@
       <c r="A47" s="6">
         <v>43969</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>679845</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>43168</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="23">
         <v>4.4720144337000001E-2</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="8">
         <v>24725</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="8">
         <v>3463</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="8">
         <v>28188</v>
       </c>
     </row>
@@ -7567,25 +7593,25 @@
       <c r="A48" s="6">
         <v>43970</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>700146</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>44791</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="23">
         <v>4.7E-2</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="8">
         <v>26966</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="8">
         <v>2572</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="8">
         <v>29538</v>
       </c>
     </row>
@@ -7593,25 +7619,25 @@
       <c r="A49" s="6">
         <v>43971</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <v>720928</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>49313</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="23">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="8">
         <v>23450</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="8">
         <v>2665</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="8">
         <v>26116</v>
       </c>
     </row>
@@ -7619,25 +7645,25 @@
       <c r="A50" s="6">
         <v>43972</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>740181</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>60252</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="23">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="8">
         <v>21838</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="8">
         <v>3469</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="8">
         <v>25307</v>
       </c>
     </row>
@@ -7645,25 +7671,25 @@
       <c r="A51" s="6">
         <v>43973</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>762706</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>71731</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="23">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="8">
         <v>21868</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="8">
         <v>5053</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="8">
         <v>26921</v>
       </c>
     </row>
@@ -7671,21 +7697,21 @@
       <c r="A52" s="6">
         <v>43974</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9">
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8">
         <v>27495</v>
       </c>
     </row>
@@ -7693,25 +7719,25 @@
       <c r="A53" s="6">
         <v>43975</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="8">
         <v>805654</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>80700</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="23">
         <v>4.87E-2</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="8">
         <v>22186</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="8">
         <v>5397</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="8">
         <v>27583</v>
       </c>
     </row>
@@ -7719,25 +7745,25 @@
       <c r="A54" s="6">
         <v>43976</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <v>821233</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>84841</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="23">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="8">
         <v>20198</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="8">
         <v>5953</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="8">
         <v>26152</v>
       </c>
     </row>
@@ -7745,25 +7771,25 @@
       <c r="A55" s="6">
         <v>43977</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="8">
         <v>855674</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>87565</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="23">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="8">
         <v>22218</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="8">
         <v>6111</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="8">
         <v>28329</v>
       </c>
     </row>
@@ -7771,25 +7797,25 @@
       <c r="A56" s="6">
         <v>43978</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>873218</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>88643</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="23">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="8">
         <v>21756</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="8">
         <v>5619</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="8">
         <v>27374</v>
       </c>
     </row>
@@ -7797,25 +7823,25 @@
       <c r="A57" s="6">
         <v>43979</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="8">
         <v>893275</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>96719</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="23">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="8">
         <v>21871</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="8">
         <v>5210</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="8">
         <v>27080</v>
       </c>
     </row>
@@ -7823,25 +7849,25 @@
       <c r="A58" s="6">
         <v>43980</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="8">
         <v>928517</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>98932</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="23">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="8">
         <v>23687</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="8">
         <v>3886</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="8">
         <v>27573</v>
       </c>
     </row>
@@ -7849,21 +7875,21 @@
       <c r="A59" s="6">
         <v>43981</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="8">
         <v>951865</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>102928</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9">
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8">
         <v>26265</v>
       </c>
     </row>
@@ -7871,25 +7897,25 @@
       <c r="A60" s="6">
         <v>43982</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="8">
         <v>970031</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>103460</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="23">
         <v>5.43810873784E-2</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="8">
         <v>23482</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="8">
         <v>3251</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="8">
         <v>26734</v>
       </c>
     </row>
@@ -7897,25 +7923,25 @@
       <c r="A61" s="6">
         <v>43983</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="8">
         <v>986224</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <v>107452</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="23">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="8">
         <v>23570</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="8">
         <v>3230</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="8">
         <v>26800</v>
       </c>
     </row>
@@ -7923,25 +7949,25 @@
       <c r="A62" s="6">
         <v>43984</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="8">
         <v>1006768</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>110506</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="8">
         <v>1117274</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="23">
         <v>6.6236912120931343E-2</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="8">
         <v>21585</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="8">
         <v>3277</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="8">
         <v>24862</v>
       </c>
     </row>
@@ -7949,25 +7975,25 @@
       <c r="A63" s="6">
         <v>43985</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="8">
         <v>1038555</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>112313</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="8">
         <v>1150868</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="23">
         <v>6.2599418158065037E-2</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="8">
         <v>23620</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="8">
         <v>3381</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="8">
         <v>27001</v>
       </c>
     </row>
@@ -7975,25 +8001,25 @@
       <c r="A64" s="6">
         <v>43986</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="8">
         <v>1061576</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>113372</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="8">
         <v>1174948</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="23">
         <v>6.0272963321667726E-2</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="8">
         <v>24043</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="8">
         <v>2379</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="8">
         <v>26422</v>
       </c>
     </row>
@@ -8001,25 +8027,25 @@
       <c r="A65" s="6">
         <v>43987</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="8">
         <v>1093277</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="8">
         <v>115910</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="8">
         <v>1209187</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="23">
         <v>6.4378489924739019E-2</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="8">
         <v>23537</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="8">
         <v>2425</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="8">
         <v>25963</v>
       </c>
     </row>
@@ -8027,25 +8053,25 @@
       <c r="A66" s="6">
         <v>43988</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="8">
         <v>1092012</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <v>126943</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="8">
         <v>1218955</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="23">
         <v>8.00231185826311E-2</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="8">
         <v>20021</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="8">
         <v>3431</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="8">
         <v>23452</v>
       </c>
     </row>
@@ -8053,25 +8079,25 @@
       <c r="A67" s="6">
         <v>43989</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="8">
         <v>1120316</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="8">
         <v>135583</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="8">
         <v>1255899</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="23">
         <v>7.1138170808796614E-2</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="8">
         <v>21469</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="8">
         <v>4589</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="8">
         <v>26058</v>
       </c>
     </row>
@@ -8079,25 +8105,25 @@
       <c r="A68" s="6">
         <v>43990</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="8">
         <v>1147355</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <v>138784</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="8">
         <v>1286139</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="23">
         <v>6.6629016142145212E-2</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="8">
         <v>23019</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="8">
         <v>4476</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="8">
         <v>27495</v>
       </c>
     </row>
@@ -8105,25 +8131,25 @@
       <c r="A69" s="6">
         <v>43991</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="8">
         <v>1161087</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="8">
         <v>140962</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="8">
         <v>1302049</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="23">
         <v>6.9239691807230483E-2</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="8">
         <v>22046</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="8">
         <v>4351</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="8">
         <v>26396</v>
       </c>
     </row>
@@ -8131,25 +8157,25 @@
       <c r="A70" s="6">
         <v>43992</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="8">
         <v>1206320</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <v>142573</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="8">
         <v>1348893</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="23">
         <v>6.8464816856912941E-2</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="8">
         <v>23966</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="8">
         <v>4323</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="8">
         <v>28289</v>
       </c>
     </row>
@@ -8157,25 +8183,25 @@
       <c r="A71" s="6">
         <v>43993</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="8">
         <v>1226957</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>143174</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="8">
         <v>1370131</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="23">
         <v>7.0522006760147776E-2</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="8">
         <v>23626</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G71" s="8">
         <v>4257</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="8">
         <v>27883</v>
       </c>
     </row>
@@ -8183,25 +8209,25 @@
       <c r="A72" s="6">
         <v>43994</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="8">
         <v>1260319</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="8">
         <v>144050</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="8">
         <v>1404369</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="23">
         <v>7.2239317057985419E-2</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="8">
         <v>23863</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="8">
         <v>4020</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="8">
         <v>27883</v>
       </c>
     </row>
@@ -8209,25 +8235,25 @@
       <c r="A73" s="6">
         <v>43995</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="8">
         <v>1295983</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="8">
         <v>146967</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="8">
         <v>1442950</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="23">
         <v>6.1077310009756289E-2</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="8">
         <v>29139</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="8">
         <v>2861</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="8">
         <v>31999</v>
       </c>
     </row>
@@ -8235,25 +8261,25 @@
       <c r="A74" s="6">
         <v>43996</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="8">
         <v>1314761</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>149090</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="8">
         <v>1463851</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="23">
         <v>6.6219239373601788E-2</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="8">
         <v>27778</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="8">
         <v>1930</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="8">
         <v>29707</v>
       </c>
     </row>
@@ -8261,25 +8287,25 @@
       <c r="A75" s="6">
         <v>43997</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="8">
         <v>1348442</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="8">
         <v>150573</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="8">
         <v>1499015</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="23">
         <v>6.7095336844251494E-2</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="8">
         <v>28727</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="8">
         <v>1684</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="8">
         <v>30411</v>
       </c>
     </row>
@@ -8287,25 +8313,25 @@
       <c r="A76" s="6">
         <v>43998</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="8">
         <v>1369638</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <v>152796</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="8">
         <v>1522434</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="23">
         <v>6.9417073042085622E-2</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="8">
         <v>29793</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="8">
         <v>1691</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="8">
         <v>31484</v>
       </c>
     </row>
@@ -8313,25 +8339,25 @@
       <c r="A77" s="6">
         <v>43999</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="8">
         <v>1407741</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>152796</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="8">
         <v>1560537</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="23">
         <v>7.4977286380268196E-2</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="8">
         <v>28774</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="8">
         <v>1460</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="8">
         <v>30235</v>
       </c>
     </row>
@@ -8339,25 +8365,25 @@
       <c r="A78" s="6">
         <v>44000</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="8">
         <v>1423914</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="8">
         <v>153011</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="8">
         <v>1576925</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="23">
         <v>8.5257188117203245E-2</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="8">
         <v>28137</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="8">
         <v>1405</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H78" s="8">
         <v>29542</v>
       </c>
     </row>
@@ -8365,31 +8391,57 @@
       <c r="A79" s="6">
         <v>44001</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8">
+        <v>1463398</v>
+      </c>
+      <c r="C79" s="8">
+        <v>159453</v>
+      </c>
+      <c r="D79" s="8">
+        <v>1622851</v>
+      </c>
+      <c r="E79" s="23">
+        <v>8.9369161754785084E-2</v>
+      </c>
+      <c r="F79" s="8">
+        <v>29011</v>
+      </c>
+      <c r="G79" s="8">
+        <v>2200</v>
+      </c>
+      <c r="H79" s="8">
+        <v>31212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>44002</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D79" s="9">
-        <v>1622851</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-    </row>
-    <row r="81" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+      <c r="D80" s="8">
+        <v>1690124</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="82" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -8414,10 +8466,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8431,31 +8483,31 @@
       <c r="A3" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="8">
-        <v>69042</v>
+      <c r="B3" s="7">
+        <v>71577</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="8">
-        <v>1553809</v>
+      <c r="B4" s="7">
+        <v>1618547</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B5" s="8">
-        <v>1622851</v>
+      <c r="B5" s="7">
+        <v>1690124</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8468,7 +8520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22B7E61-E2D8-4C40-892C-23F4CCC249D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EF4A43-B464-473C-B108-8DA75E847B59}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8477,46 +8529,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="20"/>
+    <col min="1" max="1" width="55.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="19"/>
+      <c r="A1" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="B3" s="24">
-        <v>153011</v>
+      <c r="A3" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="20">
+        <v>159453</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="B4" s="24">
-        <v>6262</v>
+      <c r="A4" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="20">
+        <v>6431</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8545,10 +8597,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8562,47 +8614,47 @@
       <c r="A3" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="8">
-        <v>3148</v>
+      <c r="B3" s="7">
+        <v>3247</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B4" s="8">
-        <v>59823</v>
+      <c r="B4" s="7">
+        <v>57994</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B5" s="8">
-        <v>13591</v>
+      <c r="B5" s="7">
+        <v>13701</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B6" s="8">
-        <v>1443</v>
+      <c r="B6" s="7">
+        <v>1449</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B7" s="8">
-        <v>5835</v>
+      <c r="B7" s="7">
+        <v>5924</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8616,7 +8668,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -8632,11 +8684,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8656,7 +8708,7 @@
       <c r="B3" s="6">
         <v>43925</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>827</v>
       </c>
     </row>
@@ -8667,7 +8719,7 @@
       <c r="B4" s="6">
         <v>43926</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>1132</v>
       </c>
     </row>
@@ -8678,7 +8730,7 @@
       <c r="B5" s="6">
         <v>43927</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1153</v>
       </c>
     </row>
@@ -8689,7 +8741,7 @@
       <c r="B6" s="6">
         <v>43928</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>1252</v>
       </c>
     </row>
@@ -8700,7 +8752,7 @@
       <c r="B7" s="6">
         <v>43929</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>1491</v>
       </c>
     </row>
@@ -8711,7 +8763,7 @@
       <c r="B8" s="6">
         <v>43930</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>1439</v>
       </c>
     </row>
@@ -8722,7 +8774,7 @@
       <c r="B9" s="6">
         <v>43931</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>1532</v>
       </c>
     </row>
@@ -8733,7 +8785,7 @@
       <c r="B10" s="6">
         <v>43932</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>1514</v>
       </c>
     </row>
@@ -8744,7 +8796,7 @@
       <c r="B11" s="6">
         <v>43933</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>1338</v>
       </c>
     </row>
@@ -8755,7 +8807,7 @@
       <c r="B12" s="6">
         <v>43934</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>1176</v>
       </c>
     </row>
@@ -8766,7 +8818,7 @@
       <c r="B13" s="6">
         <v>43935</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>1409</v>
       </c>
     </row>
@@ -8777,7 +8829,7 @@
       <c r="B14" s="6">
         <v>43936</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>1538</v>
       </c>
     </row>
@@ -8788,7 +8840,7 @@
       <c r="B15" s="6">
         <v>43937</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>1459</v>
       </c>
     </row>
@@ -8799,7 +8851,7 @@
       <c r="B16" s="6">
         <v>43938</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>1522</v>
       </c>
     </row>
@@ -8810,7 +8862,7 @@
       <c r="B17" s="6">
         <v>43939</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>1321</v>
       </c>
     </row>
@@ -8821,7 +8873,7 @@
       <c r="B18" s="6">
         <v>43940</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>1471</v>
       </c>
     </row>
@@ -8832,7 +8884,7 @@
       <c r="B19" s="6">
         <v>43941</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>1411</v>
       </c>
     </row>
@@ -8843,7 +8895,7 @@
       <c r="B20" s="6">
         <v>43942</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>1419</v>
       </c>
     </row>
@@ -8854,7 +8906,7 @@
       <c r="B21" s="6">
         <v>43943</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>1678</v>
       </c>
     </row>
@@ -8865,7 +8917,7 @@
       <c r="B22" s="6">
         <v>43944</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>1649</v>
       </c>
     </row>
@@ -8876,7 +8928,7 @@
       <c r="B23" s="6">
         <v>43945</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>1674</v>
       </c>
     </row>
@@ -8887,7 +8939,7 @@
       <c r="B24" s="6">
         <v>43946</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>1597</v>
       </c>
     </row>
@@ -8898,7 +8950,7 @@
       <c r="B25" s="6">
         <v>43947</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>1542</v>
       </c>
     </row>
@@ -8909,7 +8961,7 @@
       <c r="B26" s="6">
         <v>43948</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>1563</v>
       </c>
     </row>
@@ -8920,7 +8972,7 @@
       <c r="B27" s="6">
         <v>43949</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>1682</v>
       </c>
     </row>
@@ -8931,7 +8983,7 @@
       <c r="B28" s="6">
         <v>43950</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>1702</v>
       </c>
     </row>
@@ -8942,7 +8994,7 @@
       <c r="B29" s="6">
         <v>43951</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>1686</v>
       </c>
     </row>
@@ -8953,7 +9005,7 @@
       <c r="B30" s="6">
         <v>43952</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>1778</v>
       </c>
     </row>
@@ -8964,7 +9016,7 @@
       <c r="B31" s="6">
         <v>43953</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>1725</v>
       </c>
     </row>
@@ -8975,7 +9027,7 @@
       <c r="B32" s="6">
         <v>43954</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>1540</v>
       </c>
     </row>
@@ -8986,7 +9038,7 @@
       <c r="B33" s="6">
         <v>43955</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>1533</v>
       </c>
     </row>
@@ -8997,7 +9049,7 @@
       <c r="B34" s="6">
         <v>43956</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>1888</v>
       </c>
     </row>
@@ -9008,7 +9060,7 @@
       <c r="B35" s="6">
         <v>43957</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>1812</v>
       </c>
     </row>
@@ -9019,7 +9071,7 @@
       <c r="B36" s="6">
         <v>43958</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>1750</v>
       </c>
     </row>
@@ -9030,7 +9082,7 @@
       <c r="B37" s="6">
         <v>43959</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>1734</v>
       </c>
     </row>
@@ -9041,7 +9093,7 @@
       <c r="B38" s="6">
         <v>43960</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>1735</v>
       </c>
     </row>
@@ -9052,7 +9104,7 @@
       <c r="B39" s="6">
         <v>43961</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>1626</v>
       </c>
     </row>
@@ -9063,7 +9115,7 @@
       <c r="B40" s="6">
         <v>43962</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>1525</v>
       </c>
     </row>
@@ -9074,7 +9126,7 @@
       <c r="B41" s="6">
         <v>43963</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>1725</v>
       </c>
     </row>
@@ -9085,7 +9137,7 @@
       <c r="B42" s="6">
         <v>43964</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>1676</v>
       </c>
     </row>
@@ -9096,7 +9148,7 @@
       <c r="B43" s="6">
         <v>43965</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>1648</v>
       </c>
     </row>
@@ -9107,7 +9159,7 @@
       <c r="B44" s="6">
         <v>43966</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>1716</v>
       </c>
     </row>
@@ -9118,7 +9170,7 @@
       <c r="B45" s="6">
         <v>43967</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>1791</v>
       </c>
     </row>
@@ -9129,7 +9181,7 @@
       <c r="B46" s="6">
         <v>43968</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>1512</v>
       </c>
     </row>
@@ -9140,7 +9192,7 @@
       <c r="B47" s="6">
         <v>43969</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>1551</v>
       </c>
     </row>
@@ -9151,7 +9203,7 @@
       <c r="B48" s="6">
         <v>43970</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>1732</v>
       </c>
     </row>
@@ -9162,7 +9214,7 @@
       <c r="B49" s="6">
         <v>43971</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>1791</v>
       </c>
     </row>
@@ -9173,7 +9225,7 @@
       <c r="B50" s="6">
         <v>43972</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>1680</v>
       </c>
     </row>
@@ -9184,7 +9236,7 @@
       <c r="B51" s="6">
         <v>43973</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>1578</v>
       </c>
     </row>
@@ -9195,7 +9247,7 @@
       <c r="B52" s="6">
         <v>43974</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>1688</v>
       </c>
     </row>
@@ -9206,7 +9258,7 @@
       <c r="B53" s="6">
         <v>43975</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>1572</v>
       </c>
     </row>
@@ -9217,7 +9269,7 @@
       <c r="B54" s="6">
         <v>43976</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <v>1511</v>
       </c>
     </row>
@@ -9228,7 +9280,7 @@
       <c r="B55" s="6">
         <v>43977</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <v>1534</v>
       </c>
     </row>
@@ -9239,7 +9291,7 @@
       <c r="B56" s="6">
         <v>43978</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <v>1645</v>
       </c>
     </row>
@@ -9250,7 +9302,7 @@
       <c r="B57" s="6">
         <v>43979</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>1692</v>
       </c>
     </row>
@@ -9261,7 +9313,7 @@
       <c r="B58" s="6">
         <v>43980</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>1701</v>
       </c>
     </row>
@@ -9272,7 +9324,7 @@
       <c r="B59" s="6">
         <v>43981</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7">
         <v>1752</v>
       </c>
     </row>
@@ -9283,7 +9335,7 @@
       <c r="B60" s="6">
         <v>43982</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>1684</v>
       </c>
     </row>
@@ -9294,7 +9346,7 @@
       <c r="B61" s="6">
         <v>43983</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <v>1756</v>
       </c>
     </row>
@@ -9305,7 +9357,7 @@
       <c r="B62" s="6">
         <v>43984</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="7">
         <v>1773</v>
       </c>
     </row>
@@ -9316,7 +9368,7 @@
       <c r="B63" s="6">
         <v>43985</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="7">
         <v>1799</v>
       </c>
     </row>
@@ -9327,7 +9379,7 @@
       <c r="B64" s="6">
         <v>43986</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7">
         <v>1796</v>
       </c>
     </row>
@@ -9338,7 +9390,7 @@
       <c r="B65" s="6">
         <v>43987</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <v>1855</v>
       </c>
     </row>
@@ -9349,7 +9401,7 @@
       <c r="B66" s="6">
         <v>43988</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="7">
         <v>1822</v>
       </c>
     </row>
@@ -9360,7 +9412,7 @@
       <c r="B67" s="6">
         <v>43989</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="7">
         <v>1878</v>
       </c>
     </row>
@@ -9371,7 +9423,7 @@
       <c r="B68" s="6">
         <v>43990</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="7">
         <v>1935</v>
       </c>
     </row>
@@ -9382,7 +9434,7 @@
       <c r="B69" s="6">
         <v>43991</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <v>2056</v>
       </c>
     </row>
@@ -9393,7 +9445,7 @@
       <c r="B70" s="6">
         <v>43992</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="7">
         <v>2153</v>
       </c>
     </row>
@@ -9404,7 +9456,7 @@
       <c r="B71" s="6">
         <v>43993</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="7">
         <v>2008</v>
       </c>
     </row>
@@ -9415,7 +9467,7 @@
       <c r="B72" s="6">
         <v>43994</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="7">
         <v>2166</v>
       </c>
     </row>
@@ -9426,7 +9478,7 @@
       <c r="B73" s="6">
         <v>43995</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="7">
         <v>2242</v>
       </c>
     </row>
@@ -9437,7 +9489,7 @@
       <c r="B74" s="6">
         <v>43996</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="7">
         <v>2287</v>
       </c>
     </row>
@@ -9448,7 +9500,7 @@
       <c r="B75" s="6">
         <v>43997</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="7">
         <v>2326</v>
       </c>
     </row>
@@ -9459,7 +9511,7 @@
       <c r="B76" s="6">
         <v>43998</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="7">
         <v>2518</v>
       </c>
     </row>
@@ -9470,7 +9522,7 @@
       <c r="B77" s="6">
         <v>43999</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="7">
         <v>2793</v>
       </c>
     </row>
@@ -9481,7 +9533,7 @@
       <c r="B78" s="6">
         <v>44000</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="7">
         <v>2947</v>
       </c>
     </row>
@@ -9492,21 +9544,32 @@
       <c r="B79" s="6">
         <v>44001</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="7">
         <v>3148</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+    <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>78</v>
+      </c>
+      <c r="B80" s="6">
+        <v>44002</v>
+      </c>
+      <c r="C80" s="7">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9527,18 +9590,18 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>294</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -9552,183 +9615,183 @@
       <c r="A3" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>73</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="24">
         <f>B3/B$16</f>
-        <v>3.8316187276926307E-3</v>
+        <v>3.774755675060758E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>304</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="24">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.5956330044089858E-2</v>
+        <v>1.5719530482444802E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="9">
-        <v>790</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="B5" s="8">
+        <v>802</v>
+      </c>
+      <c r="C5" s="24">
         <f t="shared" si="0"/>
-        <v>4.146546294352299E-2</v>
+        <v>4.1470603443818192E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="9">
-        <v>3117</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" s="8">
+        <v>3173</v>
+      </c>
+      <c r="C6" s="24">
         <f t="shared" si="0"/>
-        <v>0.16360487087969766</v>
+        <v>0.16407259941051761</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="9">
-        <v>3510</v>
-      </c>
-      <c r="C7" s="27">
+      <c r="B7" s="8">
+        <v>3553</v>
+      </c>
+      <c r="C7" s="24">
         <f t="shared" si="0"/>
-        <v>0.18423262649590594</v>
+        <v>0.18372201251357362</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="9">
-        <v>3461</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="8">
+        <v>3518</v>
+      </c>
+      <c r="C8" s="24">
         <f t="shared" si="0"/>
-        <v>0.18166071803485198</v>
+        <v>0.18191219814881845</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B9" s="9">
-        <v>3344</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="B9" s="8">
+        <v>3397</v>
+      </c>
+      <c r="C9" s="24">
         <f t="shared" si="0"/>
-        <v>0.17551963048498845</v>
+        <v>0.17565541134495061</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="9">
-        <v>1343</v>
-      </c>
-      <c r="C10" s="27">
+      <c r="B10" s="8">
+        <v>1369</v>
+      </c>
+      <c r="C10" s="24">
         <f t="shared" si="0"/>
-        <v>7.0491287003989087E-2</v>
+        <v>7.0789596152851755E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B11" s="9">
-        <v>1015</v>
-      </c>
-      <c r="C11" s="27">
+      <c r="B11" s="8">
+        <v>1022</v>
+      </c>
+      <c r="C11" s="24">
         <f t="shared" si="0"/>
-        <v>5.3275246693260551E-2</v>
+        <v>5.2846579450850611E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B12" s="9">
-        <v>646</v>
-      </c>
-      <c r="C12" s="27">
+      <c r="B12" s="8">
+        <v>652</v>
+      </c>
+      <c r="C12" s="24">
         <f t="shared" si="0"/>
-        <v>3.3907201343690949E-2</v>
+        <v>3.3714256166296086E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B13" s="9">
-        <v>473</v>
-      </c>
-      <c r="C13" s="27">
+      <c r="B13" s="8">
+        <v>485</v>
+      </c>
+      <c r="C13" s="24">
         <f t="shared" si="0"/>
-        <v>2.4826789838337183E-2</v>
+        <v>2.5078856197321475E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B14" s="9">
-        <v>962</v>
-      </c>
-      <c r="C14" s="27">
+      <c r="B14" s="8">
+        <v>977</v>
+      </c>
+      <c r="C14" s="24">
         <f t="shared" si="0"/>
-        <v>5.049338652110015E-2</v>
+        <v>5.0519675267593982E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>14</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="24">
         <f t="shared" si="0"/>
-        <v>7.3483098887255926E-4</v>
+        <v>7.2392574590206314E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="9">
-        <v>19052</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="B16" s="8">
+        <v>19339</v>
+      </c>
+      <c r="C16" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9737,6 +9800,6 @@
     <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F279AAC8-F427-4840-9438-E656A16ED197}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4378691C-CEBA-499B-87FC-B07164597839}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="336">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/20 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="335">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 6/21 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,10 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/20 at 10:45AM CST</t>
-  </si>
-  <si>
-    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/21 at 10:45AM CST</t>
   </si>
   <si>
     <t>Date</t>
@@ -842,7 +839,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/20 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/21 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -854,7 +851,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/20 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/21 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -870,7 +867,7 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/20 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/21 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -891,7 +888,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/20 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/21 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -912,7 +909,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/20 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/21 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -921,7 +918,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/20 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -976,10 +973,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          19,339</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/20 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          19,490</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -991,7 +988,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/20 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1012,25 +1009,22 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/20 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Completed investigations received by DSHS =          662</t>
   </si>
   <si>
-    <t>Gender of Confirmed Fatalities as of 6/20 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/20 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Number of Antibody Tests Reported (included in total test numbers)</t>
-  </si>
-  <si>
-    <t>Number of Positive Antibody Tests Reported</t>
-  </si>
-  <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/19 at 3:00PM CST</t>
+    <t>Gender of Confirmed Fatalities as of 6/21 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/21 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>06/16/2020-TDCJ*</t>
+  </si>
+  <si>
+    <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
   </si>
   <si>
     <t>COVID-19
@@ -1047,10 +1041,13 @@
     <t>New Total Tests Reported* (Average of previous 7 days)</t>
   </si>
   <si>
-    <t>06/16/2020-TDCJ*</t>
-  </si>
-  <si>
-    <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
+    <t>Number of Antibody Tests Reported (included in total test numbers)</t>
+  </si>
+  <si>
+    <t>Number of Positive Antibody Tests Reported</t>
+  </si>
+  <si>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/20 at 3:00PM CST</t>
   </si>
 </sst>
 </file>
@@ -1091,13 +1088,6 @@
     </font>
     <font>
       <sz val="9.5"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1111,6 +1101,13 @@
     </font>
     <font>
       <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1192,7 +1189,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1216,6 +1213,9 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1237,52 +1237,49 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{62C65D8B-FE5D-42DF-8967-23399DD5657B}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9F607E9E-A177-49EE-8A82-22E4A46B63B3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1417,7 +1414,6 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1429,11 +1425,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1462,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -1517,7 +1513,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1528,7 +1524,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1583,7 +1579,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1594,7 +1590,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C16" s="4">
         <v>10</v>
@@ -1605,7 +1601,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>5962</v>
+        <v>6344</v>
       </c>
       <c r="C17" s="4">
         <v>96</v>
@@ -1638,7 +1634,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -1649,7 +1645,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C21" s="4">
         <v>12</v>
@@ -1660,7 +1656,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>1669</v>
+        <v>1728</v>
       </c>
       <c r="C22" s="4">
         <v>19</v>
@@ -1671,7 +1667,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>1163</v>
+        <v>1225</v>
       </c>
       <c r="C23" s="4">
         <v>25</v>
@@ -1704,7 +1700,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -1726,7 +1722,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1748,7 +1744,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -1781,7 +1777,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>1454</v>
+        <v>1546</v>
       </c>
       <c r="C33" s="4">
         <v>48</v>
@@ -1836,7 +1832,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1913,7 +1909,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>2064</v>
+        <v>2189</v>
       </c>
       <c r="C45" s="4">
         <v>38</v>
@@ -1946,7 +1942,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -1990,7 +1986,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -2067,10 +2063,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>16042</v>
+        <v>16437</v>
       </c>
       <c r="C59" s="4">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2122,7 +2118,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>2054</v>
+        <v>2113</v>
       </c>
       <c r="C64" s="4">
         <v>36</v>
@@ -2210,7 +2206,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>4340</v>
+        <v>4488</v>
       </c>
       <c r="C72" s="4">
         <v>120</v>
@@ -2265,7 +2261,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2309,7 +2305,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>2882</v>
+        <v>2951</v>
       </c>
       <c r="C81" s="4">
         <v>50</v>
@@ -2320,7 +2316,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2331,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2342,7 +2338,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2364,7 +2360,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>1642</v>
+        <v>1784</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
@@ -2419,7 +2415,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
@@ -2441,7 +2437,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="C93" s="4">
         <v>5</v>
@@ -2463,7 +2459,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2474,7 +2470,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -2485,7 +2481,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C97" s="4">
         <v>5</v>
@@ -2551,10 +2547,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>19739</v>
+        <v>20874</v>
       </c>
       <c r="C103" s="4">
-        <v>311</v>
+        <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2562,7 +2558,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C104" s="4">
         <v>32</v>
@@ -2595,7 +2591,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>1551</v>
+        <v>1608</v>
       </c>
       <c r="C107" s="4">
         <v>5</v>
@@ -2672,10 +2668,10 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C114" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2716,7 +2712,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C118" s="4">
         <v>5</v>
@@ -2771,7 +2767,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C123" s="4">
         <v>1</v>
@@ -2793,7 +2789,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="C125" s="4">
         <v>32</v>
@@ -2804,7 +2800,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -2815,7 +2811,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2947,7 +2943,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
@@ -2980,7 +2976,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C142" s="4">
         <v>13</v>
@@ -3002,7 +2998,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -3013,7 +3009,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -3024,7 +3020,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C146" s="4">
         <v>3</v>
@@ -3035,7 +3031,7 @@
         <v>148</v>
       </c>
       <c r="B147" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3046,7 +3042,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3112,7 +3108,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>1208</v>
+        <v>1288</v>
       </c>
       <c r="C154" s="4">
         <v>51</v>
@@ -3134,7 +3130,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3178,7 +3174,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3211,7 +3207,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="C163" s="4">
         <v>5</v>
@@ -3233,7 +3229,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3332,7 +3328,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3354,7 +3350,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C176" s="4">
         <v>25</v>
@@ -3376,7 +3372,7 @@
         <v>179</v>
       </c>
       <c r="B178" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C178" s="4">
         <v>0</v>
@@ -3398,7 +3394,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>548</v>
+        <v>597</v>
       </c>
       <c r="C180" s="4">
         <v>6</v>
@@ -3618,7 +3614,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3662,7 +3658,7 @@
         <v>205</v>
       </c>
       <c r="B204" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C204" s="4">
         <v>1</v>
@@ -3750,10 +3746,10 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C212" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3794,7 +3790,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3860,10 +3856,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>8331</v>
+        <v>8511</v>
       </c>
       <c r="C222" s="4">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3871,7 +3867,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3915,7 +3911,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C227" s="4">
         <v>4</v>
@@ -3926,7 +3922,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3937,10 +3933,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>5286</v>
+        <v>5704</v>
       </c>
       <c r="C229" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3948,7 +3944,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -3970,7 +3966,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -3992,7 +3988,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4036,7 +4032,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1905</v>
+        <v>1912</v>
       </c>
       <c r="C238" s="4">
         <v>28</v>
@@ -4047,7 +4043,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4069,7 +4065,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C241" s="4">
         <v>26</v>
@@ -4091,7 +4087,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4135,7 +4131,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4146,7 +4142,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>1159</v>
+        <v>1237</v>
       </c>
       <c r="C248" s="4">
         <v>32</v>
@@ -4157,7 +4153,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4223,7 +4219,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4245,10 +4241,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>107735</v>
+        <v>111601</v>
       </c>
       <c r="C257" s="4">
-        <v>2165</v>
+        <v>2182</v>
       </c>
     </row>
   </sheetData>
@@ -4266,7 +4262,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4274,88 +4270,88 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B3" s="8">
-        <v>9535</v>
-      </c>
-      <c r="C3" s="24">
+        <v>313</v>
+      </c>
+      <c r="B3" s="9">
+        <v>9599</v>
+      </c>
+      <c r="C3" s="27">
         <f>B3/B$6</f>
-        <v>0.49304514194115517</v>
+        <v>0.49250897896357104</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B4" s="8">
-        <v>9626</v>
-      </c>
-      <c r="C4" s="24">
+        <v>314</v>
+      </c>
+      <c r="B4" s="9">
+        <v>9709</v>
+      </c>
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.49775065928951862</v>
+        <v>0.49815289892252435</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="8">
-        <v>178</v>
-      </c>
-      <c r="C5" s="24">
+        <v>308</v>
+      </c>
+      <c r="B5" s="9">
+        <v>182</v>
+      </c>
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
-        <v>9.2041987693262314E-3</v>
+        <v>9.3381221139045671E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="8">
-        <v>19339</v>
-      </c>
-      <c r="C6" s="24">
+      <c r="B6" s="9">
+        <v>19490</v>
+      </c>
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4374,7 +4370,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4382,124 +4378,124 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="8">
-        <v>583</v>
-      </c>
-      <c r="C3" s="24">
+        <v>317</v>
+      </c>
+      <c r="B3" s="9">
+        <v>373</v>
+      </c>
+      <c r="C3" s="27">
         <f>B3/B$9</f>
-        <v>3.0146336418635917E-2</v>
+        <v>1.9138019497178041E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B4" s="8">
-        <v>2293</v>
-      </c>
-      <c r="C4" s="24">
+        <v>318</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1516</v>
+      </c>
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.11856869538238791</v>
+        <v>7.7783478707029244E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B5" s="8">
-        <v>6728</v>
-      </c>
-      <c r="C5" s="24">
+        <v>319</v>
+      </c>
+      <c r="B5" s="9">
+        <v>6809</v>
+      </c>
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
-        <v>0.3478980298877915</v>
+        <v>0.34935864545920986</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" s="8">
-        <v>113</v>
-      </c>
-      <c r="C6" s="24">
+        <v>320</v>
+      </c>
+      <c r="B6" s="9">
+        <v>82</v>
+      </c>
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
-        <v>5.8431149490666525E-3</v>
+        <v>4.207285787583376E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B7" s="8">
-        <v>5248</v>
-      </c>
-      <c r="C7" s="24">
+        <v>321</v>
+      </c>
+      <c r="B7" s="9">
+        <v>7239</v>
+      </c>
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
-        <v>0.2713687367495734</v>
+        <v>0.37142124166239099</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" s="8">
-        <v>4374</v>
-      </c>
-      <c r="C8" s="24">
+        <v>308</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3471</v>
+      </c>
+      <c r="C8" s="27">
         <f t="shared" si="0"/>
-        <v>0.2261750866125446</v>
+        <v>0.17809132888660853</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="8">
-        <v>19339</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="B9" s="9">
+        <v>19490</v>
+      </c>
+      <c r="C9" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4518,7 +4514,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4530,175 +4526,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="24">
+        <v>296</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27">
         <f>B3/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4" s="24">
+        <v>297</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5" s="24">
+        <v>298</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B6" s="10">
+        <v>299</v>
+      </c>
+      <c r="B6" s="11">
         <v>11</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
         <v>1.6616314199395771E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7" s="10">
+        <v>300</v>
+      </c>
+      <c r="B7" s="11">
         <v>13</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
         <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" s="10">
+        <v>301</v>
+      </c>
+      <c r="B8" s="11">
         <v>26</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="27">
         <f t="shared" si="0"/>
         <v>3.9274924471299093E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9" s="10">
+        <v>302</v>
+      </c>
+      <c r="B9" s="11">
         <v>72</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="27">
         <f t="shared" si="0"/>
         <v>0.10876132930513595</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10" s="10">
+        <v>303</v>
+      </c>
+      <c r="B10" s="11">
         <v>60</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="27">
         <f t="shared" si="0"/>
         <v>9.0634441087613288E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" s="10">
+        <v>304</v>
+      </c>
+      <c r="B11" s="11">
         <v>74</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="27">
         <f t="shared" si="0"/>
         <v>0.11178247734138973</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B12" s="10">
+        <v>305</v>
+      </c>
+      <c r="B12" s="11">
         <v>69</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="27">
         <f t="shared" si="0"/>
         <v>0.10422960725075529</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13" s="10">
+        <v>306</v>
+      </c>
+      <c r="B13" s="11">
         <v>70</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="27">
         <f t="shared" si="0"/>
         <v>0.10574018126888217</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" s="10">
+        <v>307</v>
+      </c>
+      <c r="B14" s="11">
         <v>265</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="27">
         <f t="shared" si="0"/>
         <v>0.40030211480362538</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="10">
+        <v>308</v>
+      </c>
+      <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="27">
         <f t="shared" si="0"/>
         <v>3.0211480362537764E-3</v>
       </c>
@@ -4707,27 +4703,27 @@
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="11">
         <v>662</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4746,7 +4742,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4754,59 +4750,59 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B3" s="10">
+        <v>313</v>
+      </c>
+      <c r="B3" s="11">
         <v>271</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="27">
         <f>B3/B$6</f>
         <v>0.40936555891238668</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B4" s="10">
+        <v>314</v>
+      </c>
+      <c r="B4" s="11">
         <v>363</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
         <v>0.54833836858006046</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="10">
+        <v>308</v>
+      </c>
+      <c r="B5" s="11">
         <v>28</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
         <v>4.2296072507552872E-2</v>
       </c>
@@ -4815,27 +4811,27 @@
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>662</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4854,7 +4850,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4862,95 +4858,95 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="10">
+        <v>317</v>
+      </c>
+      <c r="B3" s="11">
         <v>13</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="27">
         <f>B3/B$9</f>
         <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B4" s="10">
+        <v>318</v>
+      </c>
+      <c r="B4" s="11">
         <v>85</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
         <v>0.12839879154078551</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B5" s="10">
+        <v>319</v>
+      </c>
+      <c r="B5" s="11">
         <v>171</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
         <v>0.2583081570996979</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" s="10">
+        <v>320</v>
+      </c>
+      <c r="B6" s="11">
         <v>5</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
         <v>7.5528700906344415E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B7" s="10">
+        <v>321</v>
+      </c>
+      <c r="B7" s="11">
         <v>269</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
         <v>0.40634441087613293</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" s="10">
+        <v>308</v>
+      </c>
+      <c r="B8" s="11">
         <v>119</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="27">
         <f t="shared" si="0"/>
         <v>0.1797583081570997</v>
       </c>
@@ -4959,27 +4955,27 @@
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>662</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4997,253 +4993,261 @@
   <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93:E93"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>265</v>
+    </row>
+    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>43916</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1394</v>
+      </c>
+      <c r="C3" s="4">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4">
+        <v>419</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B4" s="4">
-        <v>1394</v>
+        <v>1731</v>
       </c>
       <c r="C4" s="4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4">
-        <v>419</v>
+        <v>337</v>
       </c>
       <c r="E4" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B5" s="4">
-        <v>1731</v>
+        <v>2048</v>
       </c>
       <c r="C5" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="E5" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B6" s="4">
-        <v>2048</v>
+        <v>2552</v>
       </c>
       <c r="C6" s="4">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4">
-        <v>317</v>
+        <v>504</v>
       </c>
       <c r="E6" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B7" s="4">
-        <v>2552</v>
+        <v>2874</v>
       </c>
       <c r="C7" s="4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4">
-        <v>504</v>
+        <v>322</v>
       </c>
       <c r="E7" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B8" s="4">
-        <v>2874</v>
+        <v>3266</v>
       </c>
       <c r="C8" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4">
-        <v>322</v>
+        <v>392</v>
       </c>
       <c r="E8" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B9" s="4">
-        <v>3266</v>
+        <v>3996</v>
       </c>
       <c r="C9" s="4">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4">
-        <v>392</v>
+        <v>730</v>
       </c>
       <c r="E9" s="4">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B10" s="4">
-        <v>3996</v>
+        <v>4665</v>
       </c>
       <c r="C10" s="4">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4">
-        <v>730</v>
+        <v>669</v>
       </c>
       <c r="E10" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B11" s="4">
-        <v>4665</v>
+        <v>5324</v>
       </c>
       <c r="C11" s="4">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="E11" s="4">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B12" s="4">
-        <v>5324</v>
+        <v>6112</v>
       </c>
       <c r="C12" s="4">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4">
-        <v>659</v>
+        <v>788</v>
       </c>
       <c r="E12" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B13" s="4">
-        <v>6112</v>
+        <v>6793</v>
       </c>
       <c r="C13" s="4">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D13" s="4">
-        <v>788</v>
+        <v>681</v>
       </c>
       <c r="E13" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B14" s="4">
-        <v>6793</v>
+        <v>7273</v>
       </c>
       <c r="C14" s="4">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D14" s="4">
-        <v>681</v>
+        <v>480</v>
       </c>
       <c r="E14" s="4">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B15" s="4">
-        <v>7273</v>
+        <v>8261</v>
       </c>
       <c r="C15" s="4">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D15" s="4">
-        <v>480</v>
+        <v>988</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -5251,1309 +5255,1308 @@
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B16" s="4">
-        <v>8261</v>
+        <v>9353</v>
       </c>
       <c r="C16" s="4">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D16" s="4">
-        <v>988</v>
+        <v>1092</v>
       </c>
       <c r="E16" s="4">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B17" s="4">
-        <v>9353</v>
+        <v>10230</v>
       </c>
       <c r="C17" s="4">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="D17" s="4">
-        <v>1092</v>
+        <v>877</v>
       </c>
       <c r="E17" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B18" s="4">
-        <v>10230</v>
+        <v>11671</v>
       </c>
       <c r="C18" s="4">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D18" s="4">
-        <v>877</v>
+        <v>1441</v>
       </c>
       <c r="E18" s="4">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B19" s="4">
-        <v>11671</v>
+        <v>12561</v>
       </c>
       <c r="C19" s="4">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="D19" s="4">
-        <v>1441</v>
+        <v>890</v>
       </c>
       <c r="E19" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B20" s="4">
-        <v>12561</v>
+        <v>13484</v>
       </c>
       <c r="C20" s="4">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="D20" s="4">
-        <v>890</v>
+        <v>923</v>
       </c>
       <c r="E20" s="4">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B21" s="4">
-        <v>13484</v>
+        <v>13906</v>
       </c>
       <c r="C21" s="4">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="D21" s="4">
-        <v>923</v>
+        <v>422</v>
       </c>
       <c r="E21" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B22" s="4">
-        <v>13906</v>
+        <v>14624</v>
       </c>
       <c r="C22" s="4">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="D22" s="4">
-        <v>422</v>
+        <v>718</v>
       </c>
       <c r="E22" s="4">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B23" s="4">
-        <v>14624</v>
+        <v>15492</v>
       </c>
       <c r="C23" s="4">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="D23" s="4">
-        <v>718</v>
+        <v>868</v>
       </c>
       <c r="E23" s="4">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B24" s="4">
-        <v>15492</v>
+        <v>16455</v>
       </c>
       <c r="C24" s="4">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="D24" s="4">
-        <v>868</v>
+        <v>963</v>
       </c>
       <c r="E24" s="4">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B25" s="4">
-        <v>16455</v>
+        <v>17371</v>
       </c>
       <c r="C25" s="4">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="D25" s="4">
-        <v>963</v>
+        <v>916</v>
       </c>
       <c r="E25" s="4">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B26" s="4">
-        <v>17371</v>
+        <v>18260</v>
       </c>
       <c r="C26" s="4">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="D26" s="4">
-        <v>916</v>
+        <v>889</v>
       </c>
       <c r="E26" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B27" s="4">
-        <v>18260</v>
+        <v>18923</v>
       </c>
       <c r="C27" s="4">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="D27" s="4">
-        <v>889</v>
+        <v>663</v>
       </c>
       <c r="E27" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B28" s="4">
-        <v>18923</v>
+        <v>19458</v>
       </c>
       <c r="C28" s="4">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="D28" s="4">
-        <v>663</v>
+        <v>535</v>
       </c>
       <c r="E28" s="4">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B29" s="4">
-        <v>19458</v>
+        <v>20196</v>
       </c>
       <c r="C29" s="4">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="D29" s="4">
-        <v>535</v>
+        <v>738</v>
       </c>
       <c r="E29" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B30" s="4">
-        <v>20196</v>
+        <v>21069</v>
       </c>
       <c r="C30" s="4">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="D30" s="4">
-        <v>738</v>
+        <v>873</v>
       </c>
       <c r="E30" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B31" s="4">
-        <v>21069</v>
+        <v>21944</v>
       </c>
       <c r="C31" s="4">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="D31" s="4">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E31" s="4">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B32" s="4">
-        <v>21944</v>
+        <v>22806</v>
       </c>
       <c r="C32" s="4">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="D32" s="4">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="E32" s="4">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B33" s="4">
-        <v>22806</v>
+        <v>23773</v>
       </c>
       <c r="C33" s="4">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="D33" s="4">
-        <v>862</v>
+        <v>967</v>
       </c>
       <c r="E33" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B34" s="4">
-        <v>23773</v>
+        <v>24631</v>
       </c>
       <c r="C34" s="4">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="D34" s="4">
-        <v>967</v>
+        <v>858</v>
       </c>
       <c r="E34" s="4">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B35" s="4">
-        <v>24631</v>
+        <v>25297</v>
       </c>
       <c r="C35" s="4">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="D35" s="4">
-        <v>858</v>
+        <v>666</v>
       </c>
       <c r="E35" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B36" s="4">
-        <v>25297</v>
+        <v>26171</v>
       </c>
       <c r="C36" s="4">
-        <v>663</v>
+        <v>690</v>
       </c>
       <c r="D36" s="4">
-        <v>666</v>
+        <v>874</v>
       </c>
       <c r="E36" s="4">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B37" s="4">
-        <v>26171</v>
+        <v>27054</v>
       </c>
       <c r="C37" s="4">
-        <v>690</v>
+        <v>732</v>
       </c>
       <c r="D37" s="4">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="E37" s="4">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B38" s="4">
-        <v>27054</v>
+        <v>28087</v>
       </c>
       <c r="C38" s="4">
-        <v>732</v>
+        <v>782</v>
       </c>
       <c r="D38" s="4">
-        <v>883</v>
+        <v>1033</v>
       </c>
       <c r="E38" s="4">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B39" s="4">
-        <v>28087</v>
+        <v>29229</v>
       </c>
       <c r="C39" s="4">
-        <v>782</v>
+        <v>816</v>
       </c>
       <c r="D39" s="4">
-        <v>1033</v>
+        <v>1142</v>
       </c>
       <c r="E39" s="4">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B40" s="4">
-        <v>29229</v>
+        <v>30522</v>
       </c>
       <c r="C40" s="4">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="D40" s="4">
-        <v>1142</v>
+        <v>1293</v>
       </c>
       <c r="E40" s="4">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B41" s="4">
-        <v>30522</v>
+        <v>31548</v>
       </c>
       <c r="C41" s="4">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="D41" s="4">
-        <v>1293</v>
+        <v>1026</v>
       </c>
       <c r="E41" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B42" s="4">
-        <v>31548</v>
+        <v>32332</v>
       </c>
       <c r="C42" s="4">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="D42" s="4">
-        <v>1026</v>
+        <v>784</v>
       </c>
       <c r="E42" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B43" s="4">
-        <v>32332</v>
+        <v>33369</v>
       </c>
       <c r="C43" s="4">
-        <v>884</v>
+        <v>906</v>
       </c>
       <c r="D43" s="4">
-        <v>784</v>
+        <v>1037</v>
       </c>
       <c r="E43" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B44" s="4">
-        <v>33369</v>
+        <v>34422</v>
       </c>
       <c r="C44" s="4">
-        <v>906</v>
+        <v>948</v>
       </c>
       <c r="D44" s="4">
-        <v>1037</v>
+        <v>1053</v>
       </c>
       <c r="E44" s="4">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B45" s="4">
-        <v>34422</v>
+        <v>35390</v>
       </c>
       <c r="C45" s="4">
-        <v>948</v>
+        <v>973</v>
       </c>
       <c r="D45" s="4">
-        <v>1053</v>
+        <v>968</v>
       </c>
       <c r="E45" s="4">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B46" s="4">
-        <v>35390</v>
+        <v>36609</v>
       </c>
       <c r="C46" s="4">
-        <v>973</v>
+        <v>1004</v>
       </c>
       <c r="D46" s="4">
-        <v>968</v>
+        <v>1219</v>
       </c>
       <c r="E46" s="4">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B47" s="4">
-        <v>36609</v>
+        <v>37860</v>
       </c>
       <c r="C47" s="4">
-        <v>1004</v>
+        <v>1049</v>
       </c>
       <c r="D47" s="4">
-        <v>1219</v>
+        <v>1251</v>
       </c>
       <c r="E47" s="4">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B48" s="4">
-        <v>37860</v>
+        <v>38869</v>
       </c>
       <c r="C48" s="4">
-        <v>1049</v>
+        <v>1088</v>
       </c>
       <c r="D48" s="4">
-        <v>1251</v>
+        <v>1009</v>
       </c>
       <c r="E48" s="4">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B49" s="4">
-        <v>38869</v>
+        <v>39869</v>
       </c>
       <c r="C49" s="4">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="D49" s="4">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="4">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B50" s="4">
-        <v>39869</v>
+        <v>41048</v>
       </c>
       <c r="C50" s="4">
-        <v>1100</v>
+        <v>1133</v>
       </c>
       <c r="D50" s="4">
-        <v>1000</v>
+        <v>1179</v>
       </c>
       <c r="E50" s="4">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B51" s="4">
-        <v>41048</v>
+        <v>42403</v>
       </c>
       <c r="C51" s="4">
-        <v>1133</v>
+        <v>1158</v>
       </c>
       <c r="D51" s="4">
-        <v>1179</v>
+        <v>1355</v>
       </c>
       <c r="E51" s="4">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B52" s="4">
-        <v>42403</v>
+        <v>43851</v>
       </c>
       <c r="C52" s="4">
-        <v>1158</v>
+        <v>1216</v>
       </c>
       <c r="D52" s="4">
-        <v>1355</v>
+        <v>1448</v>
       </c>
       <c r="E52" s="4">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B53" s="4">
-        <v>43851</v>
+        <v>45198</v>
       </c>
       <c r="C53" s="4">
-        <v>1216</v>
+        <v>1272</v>
       </c>
       <c r="D53" s="4">
-        <v>1448</v>
+        <v>1347</v>
       </c>
       <c r="E53" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B54" s="4">
-        <v>45198</v>
+        <v>46999</v>
       </c>
       <c r="C54" s="4">
-        <v>1272</v>
+        <v>1305</v>
       </c>
       <c r="D54" s="4">
-        <v>1347</v>
+        <v>1801</v>
       </c>
       <c r="E54" s="4">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B55" s="4">
-        <v>46999</v>
+        <v>47784</v>
       </c>
       <c r="C55" s="4">
-        <v>1305</v>
+        <v>1336</v>
       </c>
       <c r="D55" s="4">
-        <v>1801</v>
+        <v>785</v>
       </c>
       <c r="E55" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B56" s="4">
-        <v>47784</v>
+        <v>48693</v>
       </c>
       <c r="C56" s="4">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D56" s="4">
-        <v>785</v>
+        <v>909</v>
       </c>
       <c r="E56" s="4">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B57" s="4">
-        <v>48693</v>
+        <v>49912</v>
       </c>
       <c r="C57" s="4">
-        <v>1347</v>
+        <v>1369</v>
       </c>
       <c r="D57" s="4">
-        <v>909</v>
+        <v>1219</v>
       </c>
       <c r="E57" s="4">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B58" s="4">
-        <v>49912</v>
+        <v>51323</v>
       </c>
       <c r="C58" s="4">
-        <v>1369</v>
+        <v>1419</v>
       </c>
       <c r="D58" s="4">
-        <v>1219</v>
+        <v>1411</v>
       </c>
       <c r="E58" s="4">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B59" s="4">
-        <v>51323</v>
+        <v>52268</v>
       </c>
       <c r="C59" s="4">
-        <v>1419</v>
+        <v>1440</v>
       </c>
       <c r="D59" s="4">
-        <v>1411</v>
+        <v>945</v>
       </c>
       <c r="E59" s="4">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B60" s="4">
-        <v>52268</v>
+        <v>53449</v>
       </c>
       <c r="C60" s="4">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="D60" s="4">
-        <v>945</v>
+        <v>1181</v>
       </c>
       <c r="E60" s="4">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B61" s="4">
-        <v>53449</v>
+        <v>54509</v>
       </c>
       <c r="C61" s="4">
-        <v>1480</v>
+        <v>1506</v>
       </c>
       <c r="D61" s="4">
-        <v>1181</v>
+        <v>1060</v>
       </c>
       <c r="E61" s="4">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B62" s="4">
-        <v>54509</v>
+        <v>55348</v>
       </c>
       <c r="C62" s="4">
-        <v>1506</v>
+        <v>1519</v>
       </c>
       <c r="D62" s="4">
-        <v>1060</v>
+        <v>839</v>
       </c>
       <c r="E62" s="4">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B63" s="4">
-        <v>55348</v>
+        <v>55971</v>
       </c>
       <c r="C63" s="4">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="D63" s="4">
-        <v>839</v>
+        <v>623</v>
       </c>
       <c r="E63" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B64" s="4">
-        <v>55971</v>
+        <v>56560</v>
       </c>
       <c r="C64" s="4">
-        <v>1527</v>
+        <v>1536</v>
       </c>
       <c r="D64" s="4">
-        <v>623</v>
+        <v>589</v>
       </c>
       <c r="E64" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B65" s="4">
-        <v>56560</v>
+        <v>57921</v>
       </c>
       <c r="C65" s="4">
-        <v>1536</v>
+        <v>1562</v>
       </c>
       <c r="D65" s="4">
-        <v>589</v>
+        <v>1361</v>
       </c>
       <c r="E65" s="4">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B66" s="4">
-        <v>57921</v>
+        <v>59776</v>
       </c>
       <c r="C66" s="4">
-        <v>1562</v>
+        <v>1601</v>
       </c>
       <c r="D66" s="4">
-        <v>1361</v>
+        <v>1855</v>
       </c>
       <c r="E66" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B67" s="4">
-        <v>59776</v>
+        <v>61006</v>
       </c>
       <c r="C67" s="4">
-        <v>1601</v>
+        <v>1626</v>
       </c>
       <c r="D67" s="4">
-        <v>1855</v>
+        <v>1230</v>
       </c>
       <c r="E67" s="4">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B68" s="4">
-        <v>61006</v>
+        <v>62338</v>
       </c>
       <c r="C68" s="4">
-        <v>1626</v>
+        <v>1648</v>
       </c>
       <c r="D68" s="4">
-        <v>1230</v>
+        <v>1332</v>
       </c>
       <c r="E68" s="4">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B69" s="4">
-        <v>62338</v>
+        <v>64287</v>
       </c>
       <c r="C69" s="4">
-        <v>1648</v>
+        <v>1672</v>
       </c>
       <c r="D69" s="4">
-        <v>1332</v>
+        <v>1949</v>
       </c>
       <c r="E69" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B70" s="4">
-        <v>64287</v>
+        <v>64880</v>
       </c>
       <c r="C70" s="4">
-        <v>1672</v>
+        <v>1678</v>
       </c>
       <c r="D70" s="4">
-        <v>1949</v>
+        <v>593</v>
       </c>
       <c r="E70" s="4">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B71" s="4">
-        <v>64880</v>
+        <v>66568</v>
       </c>
       <c r="C71" s="4">
-        <v>1678</v>
+        <v>1698</v>
       </c>
       <c r="D71" s="4">
-        <v>593</v>
+        <v>1688</v>
       </c>
       <c r="E71" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B72" s="4">
-        <v>66568</v>
+        <v>68271</v>
       </c>
       <c r="C72" s="4">
-        <v>1698</v>
+        <v>1734</v>
       </c>
       <c r="D72" s="4">
-        <v>1688</v>
+        <v>1703</v>
       </c>
       <c r="E72" s="4">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B73" s="4">
-        <v>68271</v>
+        <v>69920</v>
       </c>
       <c r="C73" s="4">
-        <v>1734</v>
+        <v>1767</v>
       </c>
       <c r="D73" s="4">
-        <v>1703</v>
+        <v>1649</v>
       </c>
       <c r="E73" s="4">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B74" s="4">
-        <v>69920</v>
+        <v>71613</v>
       </c>
       <c r="C74" s="4">
-        <v>1767</v>
+        <v>1788</v>
       </c>
       <c r="D74" s="4">
-        <v>1649</v>
+        <v>1693</v>
       </c>
       <c r="E74" s="4">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B75" s="4">
-        <v>71613</v>
+        <v>73553</v>
       </c>
       <c r="C75" s="4">
-        <v>1788</v>
+        <v>1819</v>
       </c>
       <c r="D75" s="4">
-        <v>1693</v>
+        <v>1940</v>
       </c>
       <c r="E75" s="4">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B76" s="4">
-        <v>73553</v>
+        <v>74978</v>
       </c>
       <c r="C76" s="4">
-        <v>1819</v>
+        <v>1830</v>
       </c>
       <c r="D76" s="4">
-        <v>1940</v>
+        <v>1425</v>
       </c>
       <c r="E76" s="4">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B77" s="4">
-        <v>74978</v>
+        <v>75616</v>
       </c>
       <c r="C77" s="4">
-        <v>1830</v>
+        <v>1836</v>
       </c>
       <c r="D77" s="4">
-        <v>1425</v>
+        <v>638</v>
       </c>
       <c r="E77" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B78" s="4">
-        <v>75616</v>
+        <v>77253</v>
       </c>
       <c r="C78" s="4">
-        <v>1836</v>
+        <v>1853</v>
       </c>
       <c r="D78" s="4">
-        <v>638</v>
+        <v>1637</v>
       </c>
       <c r="E78" s="4">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B79" s="4">
-        <v>77253</v>
+        <v>79757</v>
       </c>
       <c r="C79" s="4">
-        <v>1853</v>
+        <v>1885</v>
       </c>
       <c r="D79" s="4">
-        <v>1637</v>
+        <v>2504</v>
       </c>
       <c r="E79" s="4">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B80" s="4">
-        <v>79757</v>
+        <v>81583</v>
       </c>
       <c r="C80" s="4">
-        <v>1885</v>
+        <v>1920</v>
       </c>
       <c r="D80" s="4">
-        <v>2504</v>
+        <v>1826</v>
       </c>
       <c r="E80" s="4">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B81" s="4">
-        <v>81583</v>
+        <v>83680</v>
       </c>
       <c r="C81" s="4">
-        <v>1920</v>
+        <v>1939</v>
       </c>
       <c r="D81" s="4">
-        <v>1826</v>
+        <v>2097</v>
       </c>
       <c r="E81" s="4">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B82" s="4">
-        <v>83680</v>
+        <v>86011</v>
       </c>
       <c r="C82" s="4">
-        <v>1939</v>
+        <v>1957</v>
       </c>
       <c r="D82" s="4">
-        <v>2097</v>
+        <v>2331</v>
       </c>
       <c r="E82" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B83" s="4">
-        <v>86011</v>
+        <v>87854</v>
       </c>
       <c r="C83" s="4">
-        <v>1957</v>
+        <v>1976</v>
       </c>
       <c r="D83" s="4">
-        <v>2331</v>
+        <v>1843</v>
       </c>
       <c r="E83" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B84" s="4">
-        <v>87854</v>
+        <v>89108</v>
       </c>
       <c r="C84" s="4">
-        <v>1976</v>
+        <v>1983</v>
       </c>
       <c r="D84" s="4">
-        <v>1843</v>
+        <v>1254</v>
       </c>
       <c r="E84" s="4">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B85" s="4">
-        <v>89108</v>
+        <v>91730</v>
       </c>
       <c r="C85" s="4">
-        <v>1983</v>
+        <v>2029</v>
       </c>
       <c r="D85" s="4">
-        <v>1254</v>
+        <v>2622</v>
       </c>
       <c r="E85" s="4">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
-        <v>43998</v>
+      <c r="A86" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="B86" s="4">
-        <v>91730</v>
+        <v>93206</v>
       </c>
       <c r="C86" s="4">
         <v>2029</v>
       </c>
       <c r="D86" s="4">
-        <v>2622</v>
+        <v>1476</v>
       </c>
       <c r="E86" s="4">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="26" t="s">
-        <v>334</v>
+      <c r="A87" s="6">
+        <v>43999</v>
       </c>
       <c r="B87" s="4">
-        <v>93206</v>
+        <v>96335</v>
       </c>
       <c r="C87" s="4">
-        <v>2029</v>
+        <v>2062</v>
       </c>
       <c r="D87" s="4">
-        <v>1476</v>
+        <v>3129</v>
       </c>
       <c r="E87" s="4">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B88" s="4">
-        <v>96335</v>
+        <v>99851</v>
       </c>
       <c r="C88" s="4">
-        <v>2062</v>
+        <v>2105</v>
       </c>
       <c r="D88" s="4">
-        <v>3129</v>
+        <v>3516</v>
       </c>
       <c r="E88" s="4">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B89" s="4">
-        <v>99851</v>
+        <v>103305</v>
       </c>
       <c r="C89" s="4">
-        <v>2105</v>
+        <v>2140</v>
       </c>
       <c r="D89" s="4">
-        <v>3516</v>
+        <v>3454</v>
       </c>
       <c r="E89" s="4">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B90" s="4">
-        <v>103305</v>
+        <v>107735</v>
       </c>
       <c r="C90" s="4">
-        <v>2140</v>
+        <v>2165</v>
       </c>
       <c r="D90" s="4">
-        <v>3454</v>
+        <v>4430</v>
       </c>
       <c r="E90" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B91" s="4">
-        <v>107735</v>
+        <v>111601</v>
       </c>
       <c r="C91" s="4">
-        <v>2165</v>
+        <v>2182</v>
       </c>
       <c r="D91" s="4">
-        <v>4430</v>
+        <v>3866</v>
       </c>
       <c r="E91" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A93:E93"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -6567,8 +6570,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6578,32 +6581,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>68499</v>
+      </c>
+      <c r="B3" s="8">
+        <v>40920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>67096</v>
-      </c>
-      <c r="B3" s="7">
-        <v>38474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6617,11 +6620,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -6634,906 +6637,906 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="60.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>272</v>
-      </c>
       <c r="E2" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="16" t="s">
         <v>331</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43925</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="B3" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="9">
         <v>63751</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="17">
         <v>0.1056</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43926</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="B4" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="9">
         <v>70938</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="17">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43927</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="B5" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="9">
         <v>85357</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="17">
         <v>8.8909998585200004E-2</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43928</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="B6" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="9">
         <v>88649</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="17">
         <v>0.1094</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43929</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="B7" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="9">
         <v>96258</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="17">
         <v>0.11070000000000001</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43930</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="B8" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="9">
         <v>106134</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="17">
         <v>0.100351636462</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43931</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="B9" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="9">
         <v>115918</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="17">
         <v>0.1055125178708</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43932</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="B10" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="9">
         <v>120533</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="17">
         <v>0.11360000000000001</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43933</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="B11" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="9">
         <v>124553</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="17">
         <v>0.12479999999999999</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43934</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="B12" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="9">
         <v>133226</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="17">
         <v>0.1386</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43935</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="B13" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="9">
         <v>146467</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="17">
         <v>0.1101</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43936</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="B14" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="9">
         <v>151810</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="17">
         <v>0.1105</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43937</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="B15" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="9">
         <v>158547</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="17">
         <v>0.1188</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43938</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="B16" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="9">
         <v>169536</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="17">
         <v>0.10630000000000001</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43939</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="B17" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="9">
         <v>176239</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="17">
         <v>0.1023</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43940</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="B18" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="9">
         <v>182710</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="17">
         <v>9.35E-2</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43941</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="B19" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="9">
         <v>190394</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="17">
         <v>9.7117268401900006E-2</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43942</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="B20" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="9">
         <v>205399</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="17">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43943</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="B21" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D21" s="9">
         <v>216783</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="17">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43944</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="B22" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="9">
         <v>225078</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="17">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43945</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="B23" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D23" s="9">
         <v>242547</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="17">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43946</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D24" s="8">
+      <c r="B24" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" s="9">
         <v>262816</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="17">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>43947</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="B25" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D25" s="9">
         <v>276021</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="17">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43948</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="B26" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D26" s="9">
         <v>290517</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="17">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43949</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="B27" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="9">
         <v>300384</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="17">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43950</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D28" s="8">
+      <c r="B28" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D28" s="9">
         <v>314790</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="17">
         <v>6.10670666381E-2</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43951</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="B29" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" s="9">
         <v>330300</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="17">
         <v>5.8381327098900003E-2</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43952</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="B30" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" s="9">
         <v>351775</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="17">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>43953</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="B31" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D31" s="9">
         <v>380648</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="17">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43954</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D32" s="8">
+      <c r="B32" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32" s="9">
         <v>390560</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="17">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43955</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="B33" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D33" s="9">
         <v>407398</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="17">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43956</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D34" s="8">
+      <c r="B34" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" s="9">
         <v>427210</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="17">
         <v>5.6754924069199998E-2</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43957</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D35" s="8">
+      <c r="B35" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" s="9">
         <v>438938</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="17">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43958</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D36" s="8">
+      <c r="B36" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="9">
         <v>455162</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="17">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>43959</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D37" s="8">
+      <c r="B37" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="9">
         <v>477118</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="17">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>43960</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="9">
         <v>472782</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="9">
         <v>16512</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="9">
         <v>489294</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="17">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>43961</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="9">
         <v>496328</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="9">
         <v>17650</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="9">
         <v>513978</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="17">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43962</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="9">
         <v>506771</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="9">
         <v>18926</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <v>525697</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="17">
         <v>6.3711443038399998E-2</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>43963</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="9">
         <v>511385</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="9">
         <v>26787</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="9">
         <v>538172</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="17">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43964</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="9">
         <v>556776</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="9">
         <v>30655</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="9">
         <v>587431</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="17">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43965</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="9">
         <v>587313</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="9">
         <v>35971</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="9">
         <v>623284</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="17">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43966</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="9">
         <v>609630</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="9">
         <v>36362</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="9">
         <v>645992</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="17">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43967</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="9">
         <v>638739</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="9">
         <v>39732</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="9">
         <v>678471</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="17">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="9">
         <v>23708</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="9">
         <v>3317</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="9">
         <v>27025</v>
       </c>
     </row>
@@ -7541,25 +7544,25 @@
       <c r="A46" s="6">
         <v>43968</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="9">
         <v>650355</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="9">
         <v>42921</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="9">
         <v>693276</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="17">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="9">
         <v>22004</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="9">
         <v>3610</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="9">
         <v>25614</v>
       </c>
     </row>
@@ -7567,25 +7570,25 @@
       <c r="A47" s="6">
         <v>43969</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="9">
         <v>679845</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="9">
         <v>43168</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="9">
         <v>723013</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="17">
         <v>4.4720144337000001E-2</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="9">
         <v>24725</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="9">
         <v>3463</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="9">
         <v>28188</v>
       </c>
     </row>
@@ -7593,25 +7596,25 @@
       <c r="A48" s="6">
         <v>43970</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="9">
         <v>700146</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="9">
         <v>44791</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="9">
         <v>744937</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="17">
         <v>4.7E-2</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="9">
         <v>26966</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="9">
         <v>2572</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="9">
         <v>29538</v>
       </c>
     </row>
@@ -7619,25 +7622,25 @@
       <c r="A49" s="6">
         <v>43971</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="9">
         <v>720928</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="9">
         <v>49313</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="9">
         <v>770241</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="17">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="9">
         <v>23450</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="9">
         <v>2665</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="9">
         <v>26116</v>
       </c>
     </row>
@@ -7645,25 +7648,25 @@
       <c r="A50" s="6">
         <v>43972</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="9">
         <v>740181</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="9">
         <v>60252</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="9">
         <v>800433</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="17">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="9">
         <v>21838</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="9">
         <v>3469</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="9">
         <v>25307</v>
       </c>
     </row>
@@ -7671,25 +7674,25 @@
       <c r="A51" s="6">
         <v>43973</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="9">
         <v>762706</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="9">
         <v>71731</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="9">
         <v>834437</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="17">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="9">
         <v>21868</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="9">
         <v>5053</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="9">
         <v>26921</v>
       </c>
     </row>
@@ -7697,21 +7700,21 @@
       <c r="A52" s="6">
         <v>43974</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D52" s="8">
+      <c r="B52" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="9">
         <v>870935</v>
       </c>
-      <c r="E52" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8">
+      <c r="E52" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9">
         <v>27495</v>
       </c>
     </row>
@@ -7719,25 +7722,25 @@
       <c r="A53" s="6">
         <v>43975</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="9">
         <v>805654</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="9">
         <v>80700</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="9">
         <v>886354</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="17">
         <v>4.87E-2</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="9">
         <v>22186</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="9">
         <v>5397</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="9">
         <v>27583</v>
       </c>
     </row>
@@ -7745,25 +7748,25 @@
       <c r="A54" s="6">
         <v>43976</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="9">
         <v>821233</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="9">
         <v>84841</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="9">
         <v>906074</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="17">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="9">
         <v>20198</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="9">
         <v>5953</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="9">
         <v>26152</v>
       </c>
     </row>
@@ -7771,25 +7774,25 @@
       <c r="A55" s="6">
         <v>43977</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="9">
         <v>855674</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="9">
         <v>87565</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="9">
         <v>943239</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="17">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="9">
         <v>22218</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="9">
         <v>6111</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="9">
         <v>28329</v>
       </c>
     </row>
@@ -7797,25 +7800,25 @@
       <c r="A56" s="6">
         <v>43978</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="9">
         <v>873218</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="9">
         <v>88643</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="9">
         <v>961861</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="17">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="9">
         <v>21756</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="9">
         <v>5619</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="9">
         <v>27374</v>
       </c>
     </row>
@@ -7823,25 +7826,25 @@
       <c r="A57" s="6">
         <v>43979</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="9">
         <v>893275</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="9">
         <v>96719</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="9">
         <v>989994</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="17">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="9">
         <v>21871</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="9">
         <v>5210</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="9">
         <v>27080</v>
       </c>
     </row>
@@ -7849,25 +7852,25 @@
       <c r="A58" s="6">
         <v>43980</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="9">
         <v>928517</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="9">
         <v>98932</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="9">
         <v>1027449</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="17">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="9">
         <v>23687</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="9">
         <v>3886</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="9">
         <v>27573</v>
       </c>
     </row>
@@ -7875,21 +7878,21 @@
       <c r="A59" s="6">
         <v>43981</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="9">
         <v>951865</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="9">
         <v>102928</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="9">
         <v>1054793</v>
       </c>
-      <c r="E59" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8">
+      <c r="E59" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9">
         <v>26265</v>
       </c>
     </row>
@@ -7897,25 +7900,25 @@
       <c r="A60" s="6">
         <v>43982</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="9">
         <v>970031</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="9">
         <v>103460</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="9">
         <v>1073491</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="17">
         <v>5.43810873784E-2</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F60" s="9">
         <v>23482</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="9">
         <v>3251</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="9">
         <v>26734</v>
       </c>
     </row>
@@ -7923,25 +7926,25 @@
       <c r="A61" s="6">
         <v>43983</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="9">
         <v>986224</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="9">
         <v>107452</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="9">
         <v>1093676</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F61" s="9">
         <v>23570</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="9">
         <v>3230</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="9">
         <v>26800</v>
       </c>
     </row>
@@ -7949,25 +7952,25 @@
       <c r="A62" s="6">
         <v>43984</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="9">
         <v>1006768</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="9">
         <v>110506</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="9">
         <v>1117274</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="17">
         <v>6.6236912120931343E-2</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="9">
         <v>21585</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="9">
         <v>3277</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="9">
         <v>24862</v>
       </c>
     </row>
@@ -7975,25 +7978,25 @@
       <c r="A63" s="6">
         <v>43985</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="9">
         <v>1038555</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="9">
         <v>112313</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="9">
         <v>1150868</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="17">
         <v>6.2599418158065037E-2</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="9">
         <v>23620</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="9">
         <v>3381</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="9">
         <v>27001</v>
       </c>
     </row>
@@ -8001,25 +8004,25 @@
       <c r="A64" s="6">
         <v>43986</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="9">
         <v>1061576</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="9">
         <v>113372</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="9">
         <v>1174948</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E64" s="17">
         <v>6.0272963321667726E-2</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="9">
         <v>24043</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="9">
         <v>2379</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="9">
         <v>26422</v>
       </c>
     </row>
@@ -8027,25 +8030,25 @@
       <c r="A65" s="6">
         <v>43987</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="9">
         <v>1093277</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="9">
         <v>115910</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="9">
         <v>1209187</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="17">
         <v>6.4378489924739019E-2</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="9">
         <v>23537</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="9">
         <v>2425</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="9">
         <v>25963</v>
       </c>
     </row>
@@ -8053,25 +8056,25 @@
       <c r="A66" s="6">
         <v>43988</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="9">
         <v>1092012</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="9">
         <v>126943</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="9">
         <v>1218955</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E66" s="17">
         <v>8.00231185826311E-2</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="9">
         <v>20021</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="9">
         <v>3431</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="9">
         <v>23452</v>
       </c>
     </row>
@@ -8079,25 +8082,25 @@
       <c r="A67" s="6">
         <v>43989</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="9">
         <v>1120316</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="9">
         <v>135583</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="9">
         <v>1255899</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="17">
         <v>7.1138170808796614E-2</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F67" s="9">
         <v>21469</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="9">
         <v>4589</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="9">
         <v>26058</v>
       </c>
     </row>
@@ -8105,25 +8108,25 @@
       <c r="A68" s="6">
         <v>43990</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="9">
         <v>1147355</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="9">
         <v>138784</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="9">
         <v>1286139</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="17">
         <v>6.6629016142145212E-2</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F68" s="9">
         <v>23019</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="9">
         <v>4476</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="9">
         <v>27495</v>
       </c>
     </row>
@@ -8131,25 +8134,25 @@
       <c r="A69" s="6">
         <v>43991</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="9">
         <v>1161087</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="9">
         <v>140962</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="9">
         <v>1302049</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="17">
         <v>6.9239691807230483E-2</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F69" s="9">
         <v>22046</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="9">
         <v>4351</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H69" s="9">
         <v>26396</v>
       </c>
     </row>
@@ -8157,25 +8160,25 @@
       <c r="A70" s="6">
         <v>43992</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="9">
         <v>1206320</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="9">
         <v>142573</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="9">
         <v>1348893</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="17">
         <v>6.8464816856912941E-2</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F70" s="9">
         <v>23966</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="9">
         <v>4323</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="9">
         <v>28289</v>
       </c>
     </row>
@@ -8183,25 +8186,25 @@
       <c r="A71" s="6">
         <v>43993</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="9">
         <v>1226957</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="9">
         <v>143174</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="9">
         <v>1370131</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="17">
         <v>7.0522006760147776E-2</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71" s="9">
         <v>23626</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="9">
         <v>4257</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="9">
         <v>27883</v>
       </c>
     </row>
@@ -8209,25 +8212,25 @@
       <c r="A72" s="6">
         <v>43994</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="9">
         <v>1260319</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="9">
         <v>144050</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="9">
         <v>1404369</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="17">
         <v>7.2239317057985419E-2</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F72" s="9">
         <v>23863</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="9">
         <v>4020</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="9">
         <v>27883</v>
       </c>
     </row>
@@ -8235,25 +8238,25 @@
       <c r="A73" s="6">
         <v>43995</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="9">
         <v>1295983</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="9">
         <v>146967</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="9">
         <v>1442950</v>
       </c>
-      <c r="E73" s="23">
+      <c r="E73" s="17">
         <v>6.1077310009756289E-2</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F73" s="9">
         <v>29139</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="9">
         <v>2861</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73" s="9">
         <v>31999</v>
       </c>
     </row>
@@ -8261,25 +8264,25 @@
       <c r="A74" s="6">
         <v>43996</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="9">
         <v>1314761</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="9">
         <v>149090</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="9">
         <v>1463851</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="17">
         <v>6.6219239373601788E-2</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="9">
         <v>27778</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="9">
         <v>1930</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="9">
         <v>29707</v>
       </c>
     </row>
@@ -8287,25 +8290,25 @@
       <c r="A75" s="6">
         <v>43997</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="9">
         <v>1348442</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="9">
         <v>150573</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="9">
         <v>1499015</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="17">
         <v>6.7095336844251494E-2</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F75" s="9">
         <v>28727</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="9">
         <v>1684</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H75" s="9">
         <v>30411</v>
       </c>
     </row>
@@ -8313,25 +8316,25 @@
       <c r="A76" s="6">
         <v>43998</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="9">
         <v>1369638</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="9">
         <v>152796</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="9">
         <v>1522434</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="17">
         <v>6.9417073042085622E-2</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F76" s="9">
         <v>29793</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="9">
         <v>1691</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H76" s="9">
         <v>31484</v>
       </c>
     </row>
@@ -8339,25 +8342,25 @@
       <c r="A77" s="6">
         <v>43999</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="9">
         <v>1407741</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="9">
         <v>152796</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="9">
         <v>1560537</v>
       </c>
-      <c r="E77" s="23">
+      <c r="E77" s="17">
         <v>7.4977286380268196E-2</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="9">
         <v>28774</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="9">
         <v>1460</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="9">
         <v>30235</v>
       </c>
     </row>
@@ -8365,25 +8368,25 @@
       <c r="A78" s="6">
         <v>44000</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="9">
         <v>1423914</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="9">
         <v>153011</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="9">
         <v>1576925</v>
       </c>
-      <c r="E78" s="23">
+      <c r="E78" s="17">
         <v>8.5257188117203245E-2</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F78" s="9">
         <v>28137</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="9">
         <v>1405</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H78" s="9">
         <v>29542</v>
       </c>
     </row>
@@ -8391,25 +8394,25 @@
       <c r="A79" s="6">
         <v>44001</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="9">
         <v>1463398</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="9">
         <v>159453</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="9">
         <v>1622851</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79" s="17">
         <v>8.9369161754785084E-2</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F79" s="9">
         <v>29011</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="9">
         <v>2200</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H79" s="9">
         <v>31212</v>
       </c>
     </row>
@@ -8417,31 +8420,57 @@
       <c r="A80" s="6">
         <v>44002</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D80" s="8">
+      <c r="B80" s="9">
+        <v>1526180</v>
+      </c>
+      <c r="C80" s="9">
+        <v>163944</v>
+      </c>
+      <c r="D80" s="9">
         <v>1690124</v>
       </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-    </row>
-    <row r="82" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
+      <c r="E80" s="17">
+        <v>8.7959443433233281E-2</v>
+      </c>
+      <c r="F80" s="9">
+        <v>32885</v>
+      </c>
+      <c r="G80" s="9">
+        <v>2425</v>
+      </c>
+      <c r="H80" s="9">
+        <v>35311</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>44003</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D81" s="9">
+        <v>1715177</v>
+      </c>
+      <c r="E81" s="17"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+    </row>
+    <row r="83" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A83:D83"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -8455,7 +8484,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -8466,48 +8495,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" s="7">
-        <v>71577</v>
+        <v>278</v>
+      </c>
+      <c r="B3" s="8">
+        <v>73876</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1618547</v>
+        <v>279</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1641301</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1715177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B5" s="7">
-        <v>1690124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8520,7 +8549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EF4A43-B464-473C-B108-8DA75E847B59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBC13E4-C1CE-4CE4-8AC4-821B06B05822}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8529,46 +8558,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="16"/>
+    <col min="1" max="1" width="55.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="B1" s="15"/>
+      <c r="A1" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="B3" s="20">
-        <v>159453</v>
+      <c r="A3" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="25">
+        <v>163944</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="B4" s="20">
-        <v>6431</v>
+      <c r="A4" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B4" s="25">
+        <v>6493</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" s="15"/>
+      <c r="A6" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8586,7 +8615,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -8597,64 +8626,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" s="7">
-        <v>3247</v>
+        <v>284</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3409</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B4" s="7">
-        <v>57994</v>
+        <v>285</v>
+      </c>
+      <c r="B4" s="8">
+        <v>57131</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B5" s="7">
-        <v>13701</v>
+        <v>286</v>
+      </c>
+      <c r="B5" s="8">
+        <v>14316</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1449</v>
+        <v>287</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1493</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B7" s="7">
-        <v>5924</v>
+        <v>288</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5890</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="12"/>
+      <c r="A9" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8668,11 +8697,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -8684,21 +8713,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8708,7 +8737,7 @@
       <c r="B3" s="6">
         <v>43925</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>827</v>
       </c>
     </row>
@@ -8719,7 +8748,7 @@
       <c r="B4" s="6">
         <v>43926</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>1132</v>
       </c>
     </row>
@@ -8730,7 +8759,7 @@
       <c r="B5" s="6">
         <v>43927</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>1153</v>
       </c>
     </row>
@@ -8741,7 +8770,7 @@
       <c r="B6" s="6">
         <v>43928</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>1252</v>
       </c>
     </row>
@@ -8752,7 +8781,7 @@
       <c r="B7" s="6">
         <v>43929</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>1491</v>
       </c>
     </row>
@@ -8763,7 +8792,7 @@
       <c r="B8" s="6">
         <v>43930</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>1439</v>
       </c>
     </row>
@@ -8774,7 +8803,7 @@
       <c r="B9" s="6">
         <v>43931</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>1532</v>
       </c>
     </row>
@@ -8785,7 +8814,7 @@
       <c r="B10" s="6">
         <v>43932</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>1514</v>
       </c>
     </row>
@@ -8796,7 +8825,7 @@
       <c r="B11" s="6">
         <v>43933</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>1338</v>
       </c>
     </row>
@@ -8807,7 +8836,7 @@
       <c r="B12" s="6">
         <v>43934</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>1176</v>
       </c>
     </row>
@@ -8818,7 +8847,7 @@
       <c r="B13" s="6">
         <v>43935</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>1409</v>
       </c>
     </row>
@@ -8829,7 +8858,7 @@
       <c r="B14" s="6">
         <v>43936</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>1538</v>
       </c>
     </row>
@@ -8840,7 +8869,7 @@
       <c r="B15" s="6">
         <v>43937</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>1459</v>
       </c>
     </row>
@@ -8851,7 +8880,7 @@
       <c r="B16" s="6">
         <v>43938</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>1522</v>
       </c>
     </row>
@@ -8862,7 +8891,7 @@
       <c r="B17" s="6">
         <v>43939</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>1321</v>
       </c>
     </row>
@@ -8873,7 +8902,7 @@
       <c r="B18" s="6">
         <v>43940</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <v>1471</v>
       </c>
     </row>
@@ -8884,7 +8913,7 @@
       <c r="B19" s="6">
         <v>43941</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <v>1411</v>
       </c>
     </row>
@@ -8895,7 +8924,7 @@
       <c r="B20" s="6">
         <v>43942</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <v>1419</v>
       </c>
     </row>
@@ -8906,7 +8935,7 @@
       <c r="B21" s="6">
         <v>43943</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <v>1678</v>
       </c>
     </row>
@@ -8917,7 +8946,7 @@
       <c r="B22" s="6">
         <v>43944</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <v>1649</v>
       </c>
     </row>
@@ -8928,7 +8957,7 @@
       <c r="B23" s="6">
         <v>43945</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <v>1674</v>
       </c>
     </row>
@@ -8939,7 +8968,7 @@
       <c r="B24" s="6">
         <v>43946</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <v>1597</v>
       </c>
     </row>
@@ -8950,7 +8979,7 @@
       <c r="B25" s="6">
         <v>43947</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <v>1542</v>
       </c>
     </row>
@@ -8961,7 +8990,7 @@
       <c r="B26" s="6">
         <v>43948</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <v>1563</v>
       </c>
     </row>
@@ -8972,7 +9001,7 @@
       <c r="B27" s="6">
         <v>43949</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <v>1682</v>
       </c>
     </row>
@@ -8983,7 +9012,7 @@
       <c r="B28" s="6">
         <v>43950</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <v>1702</v>
       </c>
     </row>
@@ -8994,7 +9023,7 @@
       <c r="B29" s="6">
         <v>43951</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <v>1686</v>
       </c>
     </row>
@@ -9005,7 +9034,7 @@
       <c r="B30" s="6">
         <v>43952</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <v>1778</v>
       </c>
     </row>
@@ -9016,7 +9045,7 @@
       <c r="B31" s="6">
         <v>43953</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <v>1725</v>
       </c>
     </row>
@@ -9027,7 +9056,7 @@
       <c r="B32" s="6">
         <v>43954</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8">
         <v>1540</v>
       </c>
     </row>
@@ -9038,7 +9067,7 @@
       <c r="B33" s="6">
         <v>43955</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="8">
         <v>1533</v>
       </c>
     </row>
@@ -9049,7 +9078,7 @@
       <c r="B34" s="6">
         <v>43956</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="8">
         <v>1888</v>
       </c>
     </row>
@@ -9060,7 +9089,7 @@
       <c r="B35" s="6">
         <v>43957</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="8">
         <v>1812</v>
       </c>
     </row>
@@ -9071,7 +9100,7 @@
       <c r="B36" s="6">
         <v>43958</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="8">
         <v>1750</v>
       </c>
     </row>
@@ -9082,7 +9111,7 @@
       <c r="B37" s="6">
         <v>43959</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="8">
         <v>1734</v>
       </c>
     </row>
@@ -9093,7 +9122,7 @@
       <c r="B38" s="6">
         <v>43960</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="8">
         <v>1735</v>
       </c>
     </row>
@@ -9104,7 +9133,7 @@
       <c r="B39" s="6">
         <v>43961</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="8">
         <v>1626</v>
       </c>
     </row>
@@ -9115,7 +9144,7 @@
       <c r="B40" s="6">
         <v>43962</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="8">
         <v>1525</v>
       </c>
     </row>
@@ -9126,7 +9155,7 @@
       <c r="B41" s="6">
         <v>43963</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="8">
         <v>1725</v>
       </c>
     </row>
@@ -9137,7 +9166,7 @@
       <c r="B42" s="6">
         <v>43964</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="8">
         <v>1676</v>
       </c>
     </row>
@@ -9148,7 +9177,7 @@
       <c r="B43" s="6">
         <v>43965</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="8">
         <v>1648</v>
       </c>
     </row>
@@ -9159,7 +9188,7 @@
       <c r="B44" s="6">
         <v>43966</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="8">
         <v>1716</v>
       </c>
     </row>
@@ -9170,7 +9199,7 @@
       <c r="B45" s="6">
         <v>43967</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="8">
         <v>1791</v>
       </c>
     </row>
@@ -9181,7 +9210,7 @@
       <c r="B46" s="6">
         <v>43968</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="8">
         <v>1512</v>
       </c>
     </row>
@@ -9192,7 +9221,7 @@
       <c r="B47" s="6">
         <v>43969</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="8">
         <v>1551</v>
       </c>
     </row>
@@ -9203,7 +9232,7 @@
       <c r="B48" s="6">
         <v>43970</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="8">
         <v>1732</v>
       </c>
     </row>
@@ -9214,7 +9243,7 @@
       <c r="B49" s="6">
         <v>43971</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="8">
         <v>1791</v>
       </c>
     </row>
@@ -9225,7 +9254,7 @@
       <c r="B50" s="6">
         <v>43972</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="8">
         <v>1680</v>
       </c>
     </row>
@@ -9236,7 +9265,7 @@
       <c r="B51" s="6">
         <v>43973</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="8">
         <v>1578</v>
       </c>
     </row>
@@ -9247,7 +9276,7 @@
       <c r="B52" s="6">
         <v>43974</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="8">
         <v>1688</v>
       </c>
     </row>
@@ -9258,7 +9287,7 @@
       <c r="B53" s="6">
         <v>43975</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="8">
         <v>1572</v>
       </c>
     </row>
@@ -9269,7 +9298,7 @@
       <c r="B54" s="6">
         <v>43976</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="8">
         <v>1511</v>
       </c>
     </row>
@@ -9280,7 +9309,7 @@
       <c r="B55" s="6">
         <v>43977</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="8">
         <v>1534</v>
       </c>
     </row>
@@ -9291,7 +9320,7 @@
       <c r="B56" s="6">
         <v>43978</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="8">
         <v>1645</v>
       </c>
     </row>
@@ -9302,7 +9331,7 @@
       <c r="B57" s="6">
         <v>43979</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="8">
         <v>1692</v>
       </c>
     </row>
@@ -9313,7 +9342,7 @@
       <c r="B58" s="6">
         <v>43980</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="8">
         <v>1701</v>
       </c>
     </row>
@@ -9324,7 +9353,7 @@
       <c r="B59" s="6">
         <v>43981</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="8">
         <v>1752</v>
       </c>
     </row>
@@ -9335,7 +9364,7 @@
       <c r="B60" s="6">
         <v>43982</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="8">
         <v>1684</v>
       </c>
     </row>
@@ -9346,7 +9375,7 @@
       <c r="B61" s="6">
         <v>43983</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="8">
         <v>1756</v>
       </c>
     </row>
@@ -9357,7 +9386,7 @@
       <c r="B62" s="6">
         <v>43984</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="8">
         <v>1773</v>
       </c>
     </row>
@@ -9368,7 +9397,7 @@
       <c r="B63" s="6">
         <v>43985</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="8">
         <v>1799</v>
       </c>
     </row>
@@ -9379,7 +9408,7 @@
       <c r="B64" s="6">
         <v>43986</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="8">
         <v>1796</v>
       </c>
     </row>
@@ -9390,7 +9419,7 @@
       <c r="B65" s="6">
         <v>43987</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="8">
         <v>1855</v>
       </c>
     </row>
@@ -9401,7 +9430,7 @@
       <c r="B66" s="6">
         <v>43988</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="8">
         <v>1822</v>
       </c>
     </row>
@@ -9412,7 +9441,7 @@
       <c r="B67" s="6">
         <v>43989</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="8">
         <v>1878</v>
       </c>
     </row>
@@ -9423,7 +9452,7 @@
       <c r="B68" s="6">
         <v>43990</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="8">
         <v>1935</v>
       </c>
     </row>
@@ -9434,7 +9463,7 @@
       <c r="B69" s="6">
         <v>43991</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="8">
         <v>2056</v>
       </c>
     </row>
@@ -9445,7 +9474,7 @@
       <c r="B70" s="6">
         <v>43992</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="8">
         <v>2153</v>
       </c>
     </row>
@@ -9456,7 +9485,7 @@
       <c r="B71" s="6">
         <v>43993</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="8">
         <v>2008</v>
       </c>
     </row>
@@ -9467,7 +9496,7 @@
       <c r="B72" s="6">
         <v>43994</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="8">
         <v>2166</v>
       </c>
     </row>
@@ -9478,7 +9507,7 @@
       <c r="B73" s="6">
         <v>43995</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="8">
         <v>2242</v>
       </c>
     </row>
@@ -9489,7 +9518,7 @@
       <c r="B74" s="6">
         <v>43996</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="8">
         <v>2287</v>
       </c>
     </row>
@@ -9500,7 +9529,7 @@
       <c r="B75" s="6">
         <v>43997</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="8">
         <v>2326</v>
       </c>
     </row>
@@ -9511,7 +9540,7 @@
       <c r="B76" s="6">
         <v>43998</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="8">
         <v>2518</v>
       </c>
     </row>
@@ -9522,7 +9551,7 @@
       <c r="B77" s="6">
         <v>43999</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="8">
         <v>2793</v>
       </c>
     </row>
@@ -9533,7 +9562,7 @@
       <c r="B78" s="6">
         <v>44000</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="8">
         <v>2947</v>
       </c>
     </row>
@@ -9544,7 +9573,7 @@
       <c r="B79" s="6">
         <v>44001</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="8">
         <v>3148</v>
       </c>
     </row>
@@ -9555,21 +9584,32 @@
       <c r="B80" s="6">
         <v>44002</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="8">
         <v>3247</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
+    <row r="81" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>79</v>
+      </c>
+      <c r="B81" s="6">
+        <v>44003</v>
+      </c>
+      <c r="C81" s="8">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9582,7 +9622,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -9594,204 +9634,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" s="8">
-        <v>73</v>
-      </c>
-      <c r="C3" s="24">
+        <v>296</v>
+      </c>
+      <c r="B3" s="9">
+        <v>74</v>
+      </c>
+      <c r="C3" s="27">
         <f>B3/B$16</f>
-        <v>3.774755675060758E-3</v>
+        <v>3.7968188814776808E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" s="8">
-        <v>304</v>
-      </c>
-      <c r="C4" s="24">
+        <v>297</v>
+      </c>
+      <c r="B4" s="9">
+        <v>306</v>
+      </c>
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.5719530482444802E-2</v>
+        <v>1.5700359158542843E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="8">
-        <v>802</v>
-      </c>
-      <c r="C5" s="24">
+        <v>298</v>
+      </c>
+      <c r="B5" s="9">
+        <v>812</v>
+      </c>
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
-        <v>4.1470603443818192E-2</v>
+        <v>4.1662390969728062E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B6" s="8">
-        <v>3173</v>
-      </c>
-      <c r="C6" s="24">
+        <v>299</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3208</v>
+      </c>
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
-        <v>0.16407259941051761</v>
+        <v>0.16459722934838378</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7" s="8">
-        <v>3553</v>
-      </c>
-      <c r="C7" s="24">
+        <v>300</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3575</v>
+      </c>
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
-        <v>0.18372201251357362</v>
+        <v>0.18342739866598257</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" s="8">
-        <v>3518</v>
-      </c>
-      <c r="C8" s="24">
+        <v>301</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3544</v>
+      </c>
+      <c r="C8" s="27">
         <f t="shared" si="0"/>
-        <v>0.18191219814881845</v>
+        <v>0.18183683940482298</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9" s="8">
-        <v>3397</v>
-      </c>
-      <c r="C9" s="24">
+        <v>302</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3431</v>
+      </c>
+      <c r="C9" s="27">
         <f t="shared" si="0"/>
-        <v>0.17565541134495061</v>
+        <v>0.17603899435608003</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1369</v>
-      </c>
-      <c r="C10" s="24">
+        <v>303</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1377</v>
+      </c>
+      <c r="C10" s="27">
         <f t="shared" si="0"/>
-        <v>7.0789596152851755E-2</v>
+        <v>7.0651616213442792E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1022</v>
-      </c>
-      <c r="C11" s="24">
+        <v>304</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1030</v>
+      </c>
+      <c r="C11" s="27">
         <f t="shared" si="0"/>
-        <v>5.2846579450850611E-2</v>
+        <v>5.284761416110826E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B12" s="8">
-        <v>652</v>
-      </c>
-      <c r="C12" s="24">
+        <v>305</v>
+      </c>
+      <c r="B12" s="9">
+        <v>655</v>
+      </c>
+      <c r="C12" s="27">
         <f t="shared" si="0"/>
-        <v>3.3714256166296086E-2</v>
+        <v>3.3606977937403797E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13" s="8">
-        <v>485</v>
-      </c>
-      <c r="C13" s="24">
+        <v>306</v>
+      </c>
+      <c r="B13" s="9">
+        <v>488</v>
+      </c>
+      <c r="C13" s="27">
         <f t="shared" si="0"/>
-        <v>2.5078856197321475E-2</v>
+        <v>2.503848127244741E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" s="8">
-        <v>977</v>
-      </c>
-      <c r="C14" s="24">
+        <v>307</v>
+      </c>
+      <c r="B14" s="9">
+        <v>990</v>
+      </c>
+      <c r="C14" s="27">
         <f t="shared" si="0"/>
-        <v>5.0519675267593982E-2</v>
+        <v>5.0795279630579782E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="8">
-        <v>14</v>
-      </c>
-      <c r="C15" s="24">
+        <v>308</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="27">
         <f t="shared" si="0"/>
-        <v>7.2392574590206314E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="8">
-        <v>19339</v>
-      </c>
-      <c r="C16" s="24">
+      <c r="B16" s="9">
+        <v>19490</v>
+      </c>
+      <c r="C16" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-    </row>
-    <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4378691C-CEBA-499B-87FC-B07164597839}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09C2DCDA-AE0D-4C10-B005-2ECDDF8E74F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -1060,8 +1060,8 @@
     <numFmt numFmtId="166" formatCode="#########0"/>
     <numFmt numFmtId="167" formatCode="##,###,##0"/>
     <numFmt numFmtId="168" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="170" formatCode="##0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="##0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1139,7 +1139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1186,12 +1186,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1225,35 +1240,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1270,11 +1264,36 @@
     <xf numFmtId="167" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1425,11 +1444,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4274,11 +4293,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4298,7 +4317,7 @@
       <c r="B3" s="9">
         <v>9599</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="19">
         <f>B3/B$6</f>
         <v>0.49250897896357104</v>
       </c>
@@ -4310,7 +4329,7 @@
       <c r="B4" s="9">
         <v>9709</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="19">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
         <v>0.49815289892252435</v>
       </c>
@@ -4322,7 +4341,7 @@
       <c r="B5" s="9">
         <v>182</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
         <v>9.3381221139045671E-3</v>
       </c>
@@ -4334,24 +4353,24 @@
       <c r="B6" s="9">
         <v>19490</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4366,7 +4385,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -4381,14 +4400,14 @@
     <col min="3" max="3" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>316</v>
       </c>
@@ -4399,103 +4418,116 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B3" s="9">
-        <v>373</v>
-      </c>
-      <c r="C3" s="27">
+        <v>585</v>
+      </c>
+      <c r="C3" s="19">
         <f>B3/B$9</f>
-        <v>1.9138019497178041E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.0015392508978965E-2</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>318</v>
       </c>
       <c r="B4" s="9">
-        <v>1516</v>
-      </c>
-      <c r="C4" s="27">
+        <v>2313</v>
+      </c>
+      <c r="C4" s="19">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>7.7783478707029244E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.11867624422780913</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>319</v>
       </c>
       <c r="B5" s="9">
         <v>6809</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
         <v>0.34935864545920986</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="29"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B6" s="9">
-        <v>82</v>
-      </c>
-      <c r="C6" s="27">
+        <v>114</v>
+      </c>
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
-        <v>4.207285787583376E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.8491534120061568E-3</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>321</v>
       </c>
       <c r="B7" s="9">
-        <v>7239</v>
-      </c>
-      <c r="C7" s="27">
+        <v>5274</v>
+      </c>
+      <c r="C7" s="19">
         <f t="shared" si="0"/>
-        <v>0.37142124166239099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.27060030785017958</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>308</v>
       </c>
       <c r="B8" s="9">
-        <v>3471</v>
-      </c>
-      <c r="C8" s="27">
+        <v>4395</v>
+      </c>
+      <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>0.17809132888660853</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.22550025654181632</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B9" s="9">
+        <f>SUM(B3:B8)</f>
         <v>19490</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4526,11 +4558,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4550,7 +4582,7 @@
       <c r="B3" s="11">
         <v>0</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="19">
         <f>B3/B$16</f>
         <v>0</v>
       </c>
@@ -4562,7 +4594,7 @@
       <c r="B4" s="11">
         <v>0</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="19">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
@@ -4574,7 +4606,7 @@
       <c r="B5" s="11">
         <v>0</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4586,7 +4618,7 @@
       <c r="B6" s="11">
         <v>11</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
         <v>1.6616314199395771E-2</v>
       </c>
@@ -4598,7 +4630,7 @@
       <c r="B7" s="11">
         <v>13</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="19">
         <f t="shared" si="0"/>
         <v>1.9637462235649546E-2</v>
       </c>
@@ -4610,7 +4642,7 @@
       <c r="B8" s="11">
         <v>26</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="19">
         <f t="shared" si="0"/>
         <v>3.9274924471299093E-2</v>
       </c>
@@ -4622,7 +4654,7 @@
       <c r="B9" s="11">
         <v>72</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="19">
         <f t="shared" si="0"/>
         <v>0.10876132930513595</v>
       </c>
@@ -4634,7 +4666,7 @@
       <c r="B10" s="11">
         <v>60</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="19">
         <f t="shared" si="0"/>
         <v>9.0634441087613288E-2</v>
       </c>
@@ -4646,7 +4678,7 @@
       <c r="B11" s="11">
         <v>74</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="19">
         <f t="shared" si="0"/>
         <v>0.11178247734138973</v>
       </c>
@@ -4658,7 +4690,7 @@
       <c r="B12" s="11">
         <v>69</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="19">
         <f t="shared" si="0"/>
         <v>0.10422960725075529</v>
       </c>
@@ -4670,7 +4702,7 @@
       <c r="B13" s="11">
         <v>70</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="19">
         <f t="shared" si="0"/>
         <v>0.10574018126888217</v>
       </c>
@@ -4682,7 +4714,7 @@
       <c r="B14" s="11">
         <v>265</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="19">
         <f t="shared" si="0"/>
         <v>0.40030211480362538</v>
       </c>
@@ -4694,7 +4726,7 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="19">
         <f t="shared" si="0"/>
         <v>3.0211480362537764E-3</v>
       </c>
@@ -4706,24 +4738,24 @@
       <c r="B16" s="11">
         <v>662</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4754,11 +4786,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4778,7 +4810,7 @@
       <c r="B3" s="11">
         <v>271</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="19">
         <f>B3/B$6</f>
         <v>0.40936555891238668</v>
       </c>
@@ -4790,7 +4822,7 @@
       <c r="B4" s="11">
         <v>363</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="19">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
         <v>0.54833836858006046</v>
       </c>
@@ -4802,7 +4834,7 @@
       <c r="B5" s="11">
         <v>28</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
         <v>4.2296072507552872E-2</v>
       </c>
@@ -4814,24 +4846,24 @@
       <c r="B6" s="11">
         <v>662</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4862,11 +4894,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4886,7 +4918,7 @@
       <c r="B3" s="11">
         <v>13</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="19">
         <f>B3/B$9</f>
         <v>1.9637462235649546E-2</v>
       </c>
@@ -4898,7 +4930,7 @@
       <c r="B4" s="11">
         <v>85</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="19">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
         <v>0.12839879154078551</v>
       </c>
@@ -4910,7 +4942,7 @@
       <c r="B5" s="11">
         <v>171</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
         <v>0.2583081570996979</v>
       </c>
@@ -4922,7 +4954,7 @@
       <c r="B6" s="11">
         <v>5</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
         <v>7.5528700906344415E-3</v>
       </c>
@@ -4934,7 +4966,7 @@
       <c r="B7" s="11">
         <v>269</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="19">
         <f t="shared" si="0"/>
         <v>0.40634441087613293</v>
       </c>
@@ -4946,7 +4978,7 @@
       <c r="B8" s="11">
         <v>119</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="19">
         <f t="shared" si="0"/>
         <v>0.1797583081570997</v>
       </c>
@@ -4958,24 +4990,24 @@
       <c r="B9" s="11">
         <v>662</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5007,13 +5039,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6546,13 +6578,13 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6581,10 +6613,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6603,10 +6635,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6637,16 +6669,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -6664,13 +6696,13 @@
       <c r="E2" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="12" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6687,7 +6719,7 @@
       <c r="D3" s="9">
         <v>63751</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="13">
         <v>0.1056</v>
       </c>
       <c r="F3" s="9"/>
@@ -6707,7 +6739,7 @@
       <c r="D4" s="9">
         <v>70938</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="13">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="F4" s="9"/>
@@ -6727,7 +6759,7 @@
       <c r="D5" s="9">
         <v>85357</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="13">
         <v>8.8909998585200004E-2</v>
       </c>
       <c r="F5" s="9"/>
@@ -6747,7 +6779,7 @@
       <c r="D6" s="9">
         <v>88649</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="13">
         <v>0.1094</v>
       </c>
       <c r="F6" s="9"/>
@@ -6767,7 +6799,7 @@
       <c r="D7" s="9">
         <v>96258</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="13">
         <v>0.11070000000000001</v>
       </c>
       <c r="F7" s="9"/>
@@ -6787,7 +6819,7 @@
       <c r="D8" s="9">
         <v>106134</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
         <v>0.100351636462</v>
       </c>
       <c r="F8" s="9"/>
@@ -6807,7 +6839,7 @@
       <c r="D9" s="9">
         <v>115918</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="13">
         <v>0.1055125178708</v>
       </c>
       <c r="F9" s="9"/>
@@ -6827,7 +6859,7 @@
       <c r="D10" s="9">
         <v>120533</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="13">
         <v>0.11360000000000001</v>
       </c>
       <c r="F10" s="9"/>
@@ -6847,7 +6879,7 @@
       <c r="D11" s="9">
         <v>124553</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="13">
         <v>0.12479999999999999</v>
       </c>
       <c r="F11" s="9"/>
@@ -6867,7 +6899,7 @@
       <c r="D12" s="9">
         <v>133226</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="13">
         <v>0.1386</v>
       </c>
       <c r="F12" s="9"/>
@@ -6887,7 +6919,7 @@
       <c r="D13" s="9">
         <v>146467</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="13">
         <v>0.1101</v>
       </c>
       <c r="F13" s="9"/>
@@ -6907,7 +6939,7 @@
       <c r="D14" s="9">
         <v>151810</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="13">
         <v>0.1105</v>
       </c>
       <c r="F14" s="9"/>
@@ -6927,7 +6959,7 @@
       <c r="D15" s="9">
         <v>158547</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="13">
         <v>0.1188</v>
       </c>
       <c r="F15" s="9"/>
@@ -6947,7 +6979,7 @@
       <c r="D16" s="9">
         <v>169536</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="13">
         <v>0.10630000000000001</v>
       </c>
       <c r="F16" s="9"/>
@@ -6967,7 +6999,7 @@
       <c r="D17" s="9">
         <v>176239</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="13">
         <v>0.1023</v>
       </c>
       <c r="F17" s="9"/>
@@ -6987,7 +7019,7 @@
       <c r="D18" s="9">
         <v>182710</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="13">
         <v>9.35E-2</v>
       </c>
       <c r="F18" s="9"/>
@@ -7007,7 +7039,7 @@
       <c r="D19" s="9">
         <v>190394</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="13">
         <v>9.7117268401900006E-2</v>
       </c>
       <c r="F19" s="9"/>
@@ -7027,7 +7059,7 @@
       <c r="D20" s="9">
         <v>205399</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="13">
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="F20" s="9"/>
@@ -7047,7 +7079,7 @@
       <c r="D21" s="9">
         <v>216783</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="13">
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="F21" s="9"/>
@@ -7067,7 +7099,7 @@
       <c r="D22" s="9">
         <v>225078</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="13">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="F22" s="9"/>
@@ -7087,7 +7119,7 @@
       <c r="D23" s="9">
         <v>242547</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="13">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="F23" s="9"/>
@@ -7107,7 +7139,7 @@
       <c r="D24" s="9">
         <v>262816</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="13">
         <v>6.3700000000000007E-2</v>
       </c>
       <c r="F24" s="9"/>
@@ -7127,7 +7159,7 @@
       <c r="D25" s="9">
         <v>276021</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="13">
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="F25" s="9"/>
@@ -7147,7 +7179,7 @@
       <c r="D26" s="9">
         <v>290517</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="13">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="F26" s="9"/>
@@ -7167,7 +7199,7 @@
       <c r="D27" s="9">
         <v>300384</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="13">
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="F27" s="9"/>
@@ -7187,7 +7219,7 @@
       <c r="D28" s="9">
         <v>314790</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="13">
         <v>6.10670666381E-2</v>
       </c>
       <c r="F28" s="9"/>
@@ -7207,7 +7239,7 @@
       <c r="D29" s="9">
         <v>330300</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="13">
         <v>5.8381327098900003E-2</v>
       </c>
       <c r="F29" s="9"/>
@@ -7227,7 +7259,7 @@
       <c r="D30" s="9">
         <v>351775</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="13">
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="F30" s="9"/>
@@ -7247,7 +7279,7 @@
       <c r="D31" s="9">
         <v>380648</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="13">
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="F31" s="9"/>
@@ -7267,7 +7299,7 @@
       <c r="D32" s="9">
         <v>390560</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="13">
         <v>6.0400000000000002E-2</v>
       </c>
       <c r="F32" s="9"/>
@@ -7287,7 +7319,7 @@
       <c r="D33" s="9">
         <v>407398</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="13">
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="F33" s="9"/>
@@ -7307,7 +7339,7 @@
       <c r="D34" s="9">
         <v>427210</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="13">
         <v>5.6754924069199998E-2</v>
       </c>
       <c r="F34" s="9"/>
@@ -7327,7 +7359,7 @@
       <c r="D35" s="9">
         <v>438938</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="13">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F35" s="9"/>
@@ -7347,7 +7379,7 @@
       <c r="D36" s="9">
         <v>455162</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="13">
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="F36" s="9"/>
@@ -7367,7 +7399,7 @@
       <c r="D37" s="9">
         <v>477118</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="13">
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="F37" s="9"/>
@@ -7387,7 +7419,7 @@
       <c r="D38" s="9">
         <v>489294</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="13">
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F38" s="9"/>
@@ -7407,7 +7439,7 @@
       <c r="D39" s="9">
         <v>513978</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="13">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F39" s="9"/>
@@ -7427,7 +7459,7 @@
       <c r="D40" s="9">
         <v>525697</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="13">
         <v>6.3711443038399998E-2</v>
       </c>
       <c r="F40" s="9"/>
@@ -7447,7 +7479,7 @@
       <c r="D41" s="9">
         <v>538172</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="13">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F41" s="9"/>
@@ -7467,7 +7499,7 @@
       <c r="D42" s="9">
         <v>587431</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="13">
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="F42" s="9"/>
@@ -7487,7 +7519,7 @@
       <c r="D43" s="9">
         <v>623284</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="13">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="F43" s="9"/>
@@ -7507,7 +7539,7 @@
       <c r="D44" s="9">
         <v>645992</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="13">
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="F44" s="9"/>
@@ -7527,7 +7559,7 @@
       <c r="D45" s="9">
         <v>678471</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="13">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="F45" s="9">
@@ -7553,7 +7585,7 @@
       <c r="D46" s="9">
         <v>693276</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="13">
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="F46" s="9">
@@ -7579,7 +7611,7 @@
       <c r="D47" s="9">
         <v>723013</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="13">
         <v>4.4720144337000001E-2</v>
       </c>
       <c r="F47" s="9">
@@ -7605,7 +7637,7 @@
       <c r="D48" s="9">
         <v>744937</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="13">
         <v>4.7E-2</v>
       </c>
       <c r="F48" s="9">
@@ -7631,7 +7663,7 @@
       <c r="D49" s="9">
         <v>770241</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="13">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="F49" s="9">
@@ -7657,7 +7689,7 @@
       <c r="D50" s="9">
         <v>800433</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="13">
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="F50" s="9">
@@ -7683,7 +7715,7 @@
       <c r="D51" s="9">
         <v>834437</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="13">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="F51" s="9">
@@ -7709,7 +7741,7 @@
       <c r="D52" s="9">
         <v>870935</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="13" t="s">
         <v>265</v>
       </c>
       <c r="F52" s="9"/>
@@ -7731,7 +7763,7 @@
       <c r="D53" s="9">
         <v>886354</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="13">
         <v>4.87E-2</v>
       </c>
       <c r="F53" s="9">
@@ -7757,7 +7789,7 @@
       <c r="D54" s="9">
         <v>906074</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="13">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F54" s="9">
@@ -7783,7 +7815,7 @@
       <c r="D55" s="9">
         <v>943239</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="13">
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="F55" s="9">
@@ -7809,7 +7841,7 @@
       <c r="D56" s="9">
         <v>961861</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="13">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="F56" s="9">
@@ -7835,7 +7867,7 @@
       <c r="D57" s="9">
         <v>989994</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="13">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F57" s="9">
@@ -7861,7 +7893,7 @@
       <c r="D58" s="9">
         <v>1027449</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="13">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="F58" s="9">
@@ -7887,7 +7919,7 @@
       <c r="D59" s="9">
         <v>1054793</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="13" t="s">
         <v>265</v>
       </c>
       <c r="F59" s="9"/>
@@ -7909,7 +7941,7 @@
       <c r="D60" s="9">
         <v>1073491</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="13">
         <v>5.43810873784E-2</v>
       </c>
       <c r="F60" s="9">
@@ -7935,7 +7967,7 @@
       <c r="D61" s="9">
         <v>1093676</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="13">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F61" s="9">
@@ -7961,7 +7993,7 @@
       <c r="D62" s="9">
         <v>1117274</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="13">
         <v>6.6236912120931343E-2</v>
       </c>
       <c r="F62" s="9">
@@ -7987,7 +8019,7 @@
       <c r="D63" s="9">
         <v>1150868</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="13">
         <v>6.2599418158065037E-2</v>
       </c>
       <c r="F63" s="9">
@@ -8013,7 +8045,7 @@
       <c r="D64" s="9">
         <v>1174948</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="13">
         <v>6.0272963321667726E-2</v>
       </c>
       <c r="F64" s="9">
@@ -8039,7 +8071,7 @@
       <c r="D65" s="9">
         <v>1209187</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="13">
         <v>6.4378489924739019E-2</v>
       </c>
       <c r="F65" s="9">
@@ -8065,7 +8097,7 @@
       <c r="D66" s="9">
         <v>1218955</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="13">
         <v>8.00231185826311E-2</v>
       </c>
       <c r="F66" s="9">
@@ -8091,7 +8123,7 @@
       <c r="D67" s="9">
         <v>1255899</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="13">
         <v>7.1138170808796614E-2</v>
       </c>
       <c r="F67" s="9">
@@ -8117,7 +8149,7 @@
       <c r="D68" s="9">
         <v>1286139</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="13">
         <v>6.6629016142145212E-2</v>
       </c>
       <c r="F68" s="9">
@@ -8143,7 +8175,7 @@
       <c r="D69" s="9">
         <v>1302049</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="13">
         <v>6.9239691807230483E-2</v>
       </c>
       <c r="F69" s="9">
@@ -8169,7 +8201,7 @@
       <c r="D70" s="9">
         <v>1348893</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="13">
         <v>6.8464816856912941E-2</v>
       </c>
       <c r="F70" s="9">
@@ -8195,7 +8227,7 @@
       <c r="D71" s="9">
         <v>1370131</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="13">
         <v>7.0522006760147776E-2</v>
       </c>
       <c r="F71" s="9">
@@ -8221,7 +8253,7 @@
       <c r="D72" s="9">
         <v>1404369</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="13">
         <v>7.2239317057985419E-2</v>
       </c>
       <c r="F72" s="9">
@@ -8247,7 +8279,7 @@
       <c r="D73" s="9">
         <v>1442950</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="13">
         <v>6.1077310009756289E-2</v>
       </c>
       <c r="F73" s="9">
@@ -8273,7 +8305,7 @@
       <c r="D74" s="9">
         <v>1463851</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="13">
         <v>6.6219239373601788E-2</v>
       </c>
       <c r="F74" s="9">
@@ -8299,7 +8331,7 @@
       <c r="D75" s="9">
         <v>1499015</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="13">
         <v>6.7095336844251494E-2</v>
       </c>
       <c r="F75" s="9">
@@ -8325,7 +8357,7 @@
       <c r="D76" s="9">
         <v>1522434</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="13">
         <v>6.9417073042085622E-2</v>
       </c>
       <c r="F76" s="9">
@@ -8351,7 +8383,7 @@
       <c r="D77" s="9">
         <v>1560537</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="13">
         <v>7.4977286380268196E-2</v>
       </c>
       <c r="F77" s="9">
@@ -8377,7 +8409,7 @@
       <c r="D78" s="9">
         <v>1576925</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="13">
         <v>8.5257188117203245E-2</v>
       </c>
       <c r="F78" s="9">
@@ -8403,7 +8435,7 @@
       <c r="D79" s="9">
         <v>1622851</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E79" s="13">
         <v>8.9369161754785084E-2</v>
       </c>
       <c r="F79" s="9">
@@ -8429,7 +8461,7 @@
       <c r="D80" s="9">
         <v>1690124</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E80" s="13">
         <v>8.7959443433233281E-2</v>
       </c>
       <c r="F80" s="9">
@@ -8455,18 +8487,18 @@
       <c r="D81" s="9">
         <v>1715177</v>
       </c>
-      <c r="E81" s="17"/>
+      <c r="E81" s="13"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
     </row>
     <row r="83" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8495,10 +8527,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8533,10 +8565,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8558,46 +8590,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="21"/>
+    <col min="1" max="1" width="55.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="16" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="18">
         <v>163944</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="18">
         <v>6493</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8626,10 +8658,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8680,10 +8712,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8713,11 +8745,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -9600,11 +9632,11 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9634,11 +9666,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -9658,7 +9690,7 @@
       <c r="B3" s="9">
         <v>74</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="19">
         <f>B3/B$16</f>
         <v>3.7968188814776808E-3</v>
       </c>
@@ -9670,7 +9702,7 @@
       <c r="B4" s="9">
         <v>306</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="19">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>1.5700359158542843E-2</v>
       </c>
@@ -9682,7 +9714,7 @@
       <c r="B5" s="9">
         <v>812</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
         <v>4.1662390969728062E-2</v>
       </c>
@@ -9694,7 +9726,7 @@
       <c r="B6" s="9">
         <v>3208</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
         <v>0.16459722934838378</v>
       </c>
@@ -9706,7 +9738,7 @@
       <c r="B7" s="9">
         <v>3575</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="19">
         <f t="shared" si="0"/>
         <v>0.18342739866598257</v>
       </c>
@@ -9718,7 +9750,7 @@
       <c r="B8" s="9">
         <v>3544</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="19">
         <f t="shared" si="0"/>
         <v>0.18183683940482298</v>
       </c>
@@ -9730,7 +9762,7 @@
       <c r="B9" s="9">
         <v>3431</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="19">
         <f t="shared" si="0"/>
         <v>0.17603899435608003</v>
       </c>
@@ -9742,7 +9774,7 @@
       <c r="B10" s="9">
         <v>1377</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="19">
         <f t="shared" si="0"/>
         <v>7.0651616213442792E-2</v>
       </c>
@@ -9754,7 +9786,7 @@
       <c r="B11" s="9">
         <v>1030</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="19">
         <f t="shared" si="0"/>
         <v>5.284761416110826E-2</v>
       </c>
@@ -9766,7 +9798,7 @@
       <c r="B12" s="9">
         <v>655</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="19">
         <f t="shared" si="0"/>
         <v>3.3606977937403797E-2</v>
       </c>
@@ -9778,7 +9810,7 @@
       <c r="B13" s="9">
         <v>488</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="19">
         <f t="shared" si="0"/>
         <v>2.503848127244741E-2</v>
       </c>
@@ -9790,7 +9822,7 @@
       <c r="B14" s="9">
         <v>990</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="19">
         <f t="shared" si="0"/>
         <v>5.0795279630579782E-2</v>
       </c>
@@ -9802,7 +9834,7 @@
       <c r="B15" s="9">
         <v>0</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9814,24 +9846,24 @@
       <c r="B16" s="9">
         <v>19490</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09C2DCDA-AE0D-4C10-B005-2ECDDF8E74F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F655CA04-806C-4E8E-9429-65F11099D094}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,14 @@
     <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="335">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/21 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="336">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 6/22 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/21 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/22 at 10:45AM CST</t>
+  </si>
+  <si>
+    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
   </si>
   <si>
     <t>Date</t>
@@ -839,7 +842,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/21 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/22 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -851,7 +854,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/21 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/22 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -867,7 +870,7 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/21 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/22 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -888,7 +891,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/21 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/22 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -909,7 +912,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/21 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/22 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -918,7 +921,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/21 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/22 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -973,10 +976,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          19,490</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/21 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          19,628</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/22 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -988,7 +991,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/21 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/22 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1009,22 +1012,16 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/21 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/22 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Completed investigations received by DSHS =          662</t>
   </si>
   <si>
-    <t>Gender of Confirmed Fatalities as of 6/21 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/21 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>06/16/2020-TDCJ*</t>
-  </si>
-  <si>
-    <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
+    <t>Gender of Confirmed Fatalities as of 6/22 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/22 at 9:30 AM CST</t>
   </si>
   <si>
     <t>COVID-19
@@ -1047,27 +1044,40 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/20 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/21 at 3:00PM CST</t>
+  </si>
+  <si>
+    <t>06/16/2020-TDCJ*</t>
+  </si>
+  <si>
+    <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###,##0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="#########0"/>
     <numFmt numFmtId="167" formatCode="##,###,##0"/>
     <numFmt numFmtId="168" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="169" formatCode="##0"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="##0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1087,9 +1097,108 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.5"/>
-      <color rgb="FF112277"/>
-      <name val="Arial"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Courier New"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
@@ -1098,6 +1207,20 @@
       <color rgb="FF112277"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Courier New"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.5"/>
@@ -1112,8 +1235,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF112277"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1138,8 +1267,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1181,39 +1483,181 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFB0B7BB"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1222,7 +1666,7 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1237,68 +1681,114 @@
     <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="4" borderId="2" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="172" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="52">
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{9F607E9E-A177-49EE-8A82-22E4A46B63B3}"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 2 3" xfId="48" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 3" xfId="49" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 4 3" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Note 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1433,10 +1923,11 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
@@ -1444,11 +1935,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1543,7 +2034,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1554,7 +2045,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1576,7 +2067,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="C13" s="4">
         <v>4</v>
@@ -1620,10 +2111,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>6344</v>
+        <v>6882</v>
       </c>
       <c r="C17" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1631,7 +2122,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1675,7 +2166,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>1728</v>
+        <v>1762</v>
       </c>
       <c r="C22" s="4">
         <v>19</v>
@@ -1686,7 +2177,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>1225</v>
+        <v>1244</v>
       </c>
       <c r="C23" s="4">
         <v>25</v>
@@ -1697,7 +2188,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -1741,7 +2232,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1752,7 +2243,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
@@ -1763,7 +2254,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -1840,7 +2331,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1928,7 +2419,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>2189</v>
+        <v>2223</v>
       </c>
       <c r="C45" s="4">
         <v>38</v>
@@ -2005,7 +2496,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -2027,7 +2518,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C54" s="4">
         <v>5</v>
@@ -2071,7 +2562,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2082,10 +2573,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>16437</v>
+        <v>16845</v>
       </c>
       <c r="C59" s="4">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2115,7 +2606,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C62" s="4">
         <v>16</v>
@@ -2137,7 +2628,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>2113</v>
+        <v>2163</v>
       </c>
       <c r="C64" s="4">
         <v>36</v>
@@ -2225,7 +2716,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>4488</v>
+        <v>4553</v>
       </c>
       <c r="C72" s="4">
         <v>120</v>
@@ -2258,7 +2749,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2280,7 +2771,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2302,7 +2793,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
@@ -2324,7 +2815,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>2951</v>
+        <v>3069</v>
       </c>
       <c r="C81" s="4">
         <v>50</v>
@@ -2379,7 +2870,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>1784</v>
+        <v>1867</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
@@ -2456,7 +2947,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C93" s="4">
         <v>5</v>
@@ -2478,7 +2969,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2522,7 +3013,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -2566,10 +3057,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>20874</v>
+        <v>21053</v>
       </c>
       <c r="C103" s="4">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2577,7 +3068,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C104" s="4">
         <v>32</v>
@@ -2610,7 +3101,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>1608</v>
+        <v>1711</v>
       </c>
       <c r="C107" s="4">
         <v>5</v>
@@ -2621,7 +3112,7 @@
         <v>109</v>
       </c>
       <c r="B108" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108" s="4">
         <v>0</v>
@@ -2643,10 +3134,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>1556</v>
+        <v>1689</v>
       </c>
       <c r="C110" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2654,7 +3145,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -2665,7 +3156,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -2709,7 +3200,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -2742,7 +3233,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -2830,7 +3321,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2962,7 +3453,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
@@ -3006,7 +3497,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -3017,7 +3508,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -3039,7 +3530,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C146" s="4">
         <v>3</v>
@@ -3050,7 +3541,7 @@
         <v>148</v>
       </c>
       <c r="B147" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3061,7 +3552,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3072,7 +3563,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3094,7 +3585,7 @@
         <v>152</v>
       </c>
       <c r="B151" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C151" s="4">
         <v>0</v>
@@ -3105,7 +3596,7 @@
         <v>153</v>
       </c>
       <c r="B152" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
@@ -3127,7 +3618,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>1288</v>
+        <v>1320</v>
       </c>
       <c r="C154" s="4">
         <v>51</v>
@@ -3149,7 +3640,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3171,7 +3662,7 @@
         <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
@@ -3193,7 +3684,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3226,7 +3717,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="C163" s="4">
         <v>5</v>
@@ -3259,7 +3750,7 @@
         <v>167</v>
       </c>
       <c r="B166" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" s="4">
         <v>0</v>
@@ -3336,7 +3827,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C173" s="4">
         <v>14</v>
@@ -3369,7 +3860,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C176" s="4">
         <v>25</v>
@@ -3391,7 +3882,7 @@
         <v>179</v>
       </c>
       <c r="B178" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C178" s="4">
         <v>0</v>
@@ -3402,7 +3893,7 @@
         <v>180</v>
       </c>
       <c r="B179" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -3413,7 +3904,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>597</v>
+        <v>633</v>
       </c>
       <c r="C180" s="4">
         <v>6</v>
@@ -3468,7 +3959,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C185" s="4">
         <v>23</v>
@@ -3490,10 +3981,10 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C187" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3534,7 +4025,7 @@
         <v>192</v>
       </c>
       <c r="B191" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
@@ -3622,7 +4113,7 @@
         <v>200</v>
       </c>
       <c r="B199" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
@@ -3633,7 +4124,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3699,7 +4190,7 @@
         <v>207</v>
       </c>
       <c r="B206" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -3721,7 +4212,7 @@
         <v>209</v>
       </c>
       <c r="B208" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
@@ -3809,7 +4300,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3875,7 +4366,7 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>8511</v>
+        <v>8955</v>
       </c>
       <c r="C222" s="4">
         <v>208</v>
@@ -3886,7 +4377,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3930,7 +4421,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C227" s="4">
         <v>4</v>
@@ -3941,7 +4432,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3952,10 +4443,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>5704</v>
+        <v>6210</v>
       </c>
       <c r="C229" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4007,7 +4498,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4062,7 +4553,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4084,10 +4575,10 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C241" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4095,7 +4586,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>874</v>
+        <v>929</v>
       </c>
       <c r="C242" s="4">
         <v>22</v>
@@ -4150,7 +4641,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4161,7 +4652,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>1237</v>
+        <v>1337</v>
       </c>
       <c r="C248" s="4">
         <v>32</v>
@@ -4260,10 +4751,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>111601</v>
+        <v>114881</v>
       </c>
       <c r="C257" s="4">
-        <v>2182</v>
+        <v>2192</v>
       </c>
     </row>
   </sheetData>
@@ -4281,69 +4772,69 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B3" s="9">
-        <v>9599</v>
-      </c>
-      <c r="C3" s="19">
+        <v>9649</v>
+      </c>
+      <c r="C3" s="27">
         <f>B3/B$6</f>
-        <v>0.49250897896357104</v>
+        <v>0.49159364173629511</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B4" s="9">
-        <v>9709</v>
-      </c>
-      <c r="C4" s="19">
+        <v>9801</v>
+      </c>
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.49815289892252435</v>
+        <v>0.49933768086407171</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B5" s="9">
-        <v>182</v>
-      </c>
-      <c r="C5" s="19">
+        <v>178</v>
+      </c>
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
-        <v>9.3381221139045671E-3</v>
+        <v>9.0686773996331779E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4351,26 +4842,26 @@
         <v>258</v>
       </c>
       <c r="B6" s="9">
-        <v>19490</v>
-      </c>
-      <c r="C6" s="19">
+        <v>19628</v>
+      </c>
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4385,149 +4876,136 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B3" s="9">
-        <v>585</v>
-      </c>
-      <c r="C3" s="19">
+        <v>588</v>
+      </c>
+      <c r="C3" s="27">
         <f>B3/B$9</f>
-        <v>3.0015392508978965E-2</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.9957203994293864E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" s="9">
-        <v>2313</v>
-      </c>
-      <c r="C4" s="19">
+        <v>2346</v>
+      </c>
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.11867624422780913</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.11952313022213165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B5" s="9">
-        <v>6809</v>
-      </c>
-      <c r="C5" s="19">
+        <v>6884</v>
+      </c>
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
-        <v>0.34935864545920986</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="28"/>
-    </row>
-    <row r="6" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.35072345628693702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B6" s="9">
-        <v>114</v>
-      </c>
-      <c r="C6" s="19">
+        <v>115</v>
+      </c>
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
-        <v>5.8491534120061568E-3</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.8589769716731197E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B7" s="9">
-        <v>5274</v>
-      </c>
-      <c r="C7" s="19">
+        <v>5305</v>
+      </c>
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
-        <v>0.27060030785017958</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="28"/>
-    </row>
-    <row r="8" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.27027715508457306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B8" s="9">
-        <v>4395</v>
-      </c>
-      <c r="C8" s="19">
+        <v>4390</v>
+      </c>
+      <c r="C8" s="27">
         <f t="shared" si="0"/>
-        <v>0.22550025654181632</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.22366007744039126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B9" s="9">
-        <f>SUM(B3:B8)</f>
-        <v>19490</v>
-      </c>
-      <c r="C9" s="19">
+        <v>19628</v>
+      </c>
+      <c r="C9" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-    </row>
-    <row r="12" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+    <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+    </row>
+    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4546,11 +5024,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4558,175 +5036,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B3" s="11">
         <v>0</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="27">
         <f>B3/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B4" s="11">
         <v>0</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B5" s="11">
         <v>0</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B6" s="11">
         <v>11</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
         <v>1.6616314199395771E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B7" s="11">
         <v>13</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
         <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B8" s="11">
         <v>26</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="27">
         <f t="shared" si="0"/>
         <v>3.9274924471299093E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B9" s="11">
         <v>72</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="27">
         <f t="shared" si="0"/>
         <v>0.10876132930513595</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B10" s="11">
         <v>60</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="27">
         <f t="shared" si="0"/>
         <v>9.0634441087613288E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B11" s="11">
         <v>74</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="27">
         <f t="shared" si="0"/>
         <v>0.11178247734138973</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B12" s="11">
         <v>69</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="27">
         <f t="shared" si="0"/>
         <v>0.10422960725075529</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B13" s="11">
         <v>70</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="27">
         <f t="shared" si="0"/>
         <v>0.10574018126888217</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B14" s="11">
         <v>265</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="27">
         <f t="shared" si="0"/>
         <v>0.40030211480362538</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="27">
         <f t="shared" si="0"/>
         <v>3.0211480362537764E-3</v>
       </c>
@@ -4738,24 +5216,24 @@
       <c r="B16" s="11">
         <v>662</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4774,11 +5252,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4786,55 +5264,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B3" s="11">
         <v>271</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="27">
         <f>B3/B$6</f>
         <v>0.40936555891238668</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B4" s="11">
         <v>363</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
         <v>0.54833836858006046</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B5" s="11">
         <v>28</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
         <v>4.2296072507552872E-2</v>
       </c>
@@ -4846,24 +5324,24 @@
       <c r="B6" s="11">
         <v>662</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4882,103 +5360,103 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B3" s="11">
         <v>13</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="27">
         <f>B3/B$9</f>
         <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" s="11">
         <v>85</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
         <v>0.12839879154078551</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B5" s="11">
         <v>171</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
         <v>0.2583081570996979</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B6" s="11">
         <v>5</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
         <v>7.5528700906344415E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B7" s="11">
         <v>269</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
         <v>0.40634441087613293</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B8" s="11">
         <v>119</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="27">
         <f t="shared" si="0"/>
         <v>0.1797583081570997</v>
       </c>
@@ -4990,24 +5468,24 @@
       <c r="B9" s="11">
         <v>662</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="A12" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5022,264 +5500,256 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95:E95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>43916</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1394</v>
-      </c>
-      <c r="C3" s="4">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4">
-        <v>419</v>
-      </c>
-      <c r="E3" s="4">
-        <v>6</v>
+      <c r="E3" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B4" s="4">
-        <v>1731</v>
+        <v>1394</v>
       </c>
       <c r="C4" s="4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="E4" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B5" s="4">
-        <v>2048</v>
+        <v>1731</v>
       </c>
       <c r="C5" s="4">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="E5" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B6" s="4">
-        <v>2552</v>
+        <v>2048</v>
       </c>
       <c r="C6" s="4">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4">
-        <v>504</v>
+        <v>317</v>
       </c>
       <c r="E6" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B7" s="4">
-        <v>2874</v>
+        <v>2552</v>
       </c>
       <c r="C7" s="4">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4">
-        <v>322</v>
+        <v>504</v>
       </c>
       <c r="E7" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B8" s="4">
-        <v>3266</v>
+        <v>2874</v>
       </c>
       <c r="C8" s="4">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4">
-        <v>392</v>
+        <v>322</v>
       </c>
       <c r="E8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B9" s="4">
-        <v>3996</v>
+        <v>3266</v>
       </c>
       <c r="C9" s="4">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4">
-        <v>730</v>
+        <v>392</v>
       </c>
       <c r="E9" s="4">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B10" s="4">
-        <v>4665</v>
+        <v>3996</v>
       </c>
       <c r="C10" s="4">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4">
-        <v>669</v>
+        <v>730</v>
       </c>
       <c r="E10" s="4">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B11" s="4">
-        <v>5324</v>
+        <v>4665</v>
       </c>
       <c r="C11" s="4">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D11" s="4">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="E11" s="4">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B12" s="4">
-        <v>6112</v>
+        <v>5324</v>
       </c>
       <c r="C12" s="4">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D12" s="4">
-        <v>788</v>
+        <v>659</v>
       </c>
       <c r="E12" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B13" s="4">
-        <v>6793</v>
+        <v>6112</v>
       </c>
       <c r="C13" s="4">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D13" s="4">
-        <v>681</v>
+        <v>788</v>
       </c>
       <c r="E13" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B14" s="4">
-        <v>7273</v>
+        <v>6793</v>
       </c>
       <c r="C14" s="4">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D14" s="4">
-        <v>480</v>
+        <v>681</v>
       </c>
       <c r="E14" s="4">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B15" s="4">
-        <v>8261</v>
+        <v>7273</v>
       </c>
       <c r="C15" s="4">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D15" s="4">
-        <v>988</v>
+        <v>480</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -5287,1309 +5757,1344 @@
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B16" s="4">
-        <v>9353</v>
+        <v>8261</v>
       </c>
       <c r="C16" s="4">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D16" s="4">
-        <v>1092</v>
+        <v>988</v>
       </c>
       <c r="E16" s="4">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B17" s="4">
-        <v>10230</v>
+        <v>9353</v>
       </c>
       <c r="C17" s="4">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="D17" s="4">
-        <v>877</v>
+        <v>1092</v>
       </c>
       <c r="E17" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B18" s="4">
-        <v>11671</v>
+        <v>10230</v>
       </c>
       <c r="C18" s="4">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="D18" s="4">
-        <v>1441</v>
+        <v>877</v>
       </c>
       <c r="E18" s="4">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B19" s="4">
-        <v>12561</v>
+        <v>11671</v>
       </c>
       <c r="C19" s="4">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="D19" s="4">
-        <v>890</v>
+        <v>1441</v>
       </c>
       <c r="E19" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B20" s="4">
-        <v>13484</v>
+        <v>12561</v>
       </c>
       <c r="C20" s="4">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="D20" s="4">
-        <v>923</v>
+        <v>890</v>
       </c>
       <c r="E20" s="4">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B21" s="4">
-        <v>13906</v>
+        <v>13484</v>
       </c>
       <c r="C21" s="4">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="D21" s="4">
-        <v>422</v>
+        <v>923</v>
       </c>
       <c r="E21" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B22" s="4">
-        <v>14624</v>
+        <v>13906</v>
       </c>
       <c r="C22" s="4">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="D22" s="4">
-        <v>718</v>
+        <v>422</v>
       </c>
       <c r="E22" s="4">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B23" s="4">
-        <v>15492</v>
+        <v>14624</v>
       </c>
       <c r="C23" s="4">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="D23" s="4">
-        <v>868</v>
+        <v>718</v>
       </c>
       <c r="E23" s="4">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B24" s="4">
-        <v>16455</v>
+        <v>15492</v>
       </c>
       <c r="C24" s="4">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="D24" s="4">
-        <v>963</v>
+        <v>868</v>
       </c>
       <c r="E24" s="4">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B25" s="4">
-        <v>17371</v>
+        <v>16455</v>
       </c>
       <c r="C25" s="4">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="D25" s="4">
-        <v>916</v>
+        <v>963</v>
       </c>
       <c r="E25" s="4">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B26" s="4">
-        <v>18260</v>
+        <v>17371</v>
       </c>
       <c r="C26" s="4">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="D26" s="4">
-        <v>889</v>
+        <v>916</v>
       </c>
       <c r="E26" s="4">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B27" s="4">
-        <v>18923</v>
+        <v>18260</v>
       </c>
       <c r="C27" s="4">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="D27" s="4">
-        <v>663</v>
+        <v>889</v>
       </c>
       <c r="E27" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B28" s="4">
-        <v>19458</v>
+        <v>18923</v>
       </c>
       <c r="C28" s="4">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="D28" s="4">
-        <v>535</v>
+        <v>663</v>
       </c>
       <c r="E28" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B29" s="4">
-        <v>20196</v>
+        <v>19458</v>
       </c>
       <c r="C29" s="4">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="D29" s="4">
-        <v>738</v>
+        <v>535</v>
       </c>
       <c r="E29" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B30" s="4">
-        <v>21069</v>
+        <v>20196</v>
       </c>
       <c r="C30" s="4">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="D30" s="4">
-        <v>873</v>
+        <v>738</v>
       </c>
       <c r="E30" s="4">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B31" s="4">
-        <v>21944</v>
+        <v>21069</v>
       </c>
       <c r="C31" s="4">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="D31" s="4">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E31" s="4">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B32" s="4">
-        <v>22806</v>
+        <v>21944</v>
       </c>
       <c r="C32" s="4">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="D32" s="4">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="E32" s="4">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B33" s="4">
-        <v>23773</v>
+        <v>22806</v>
       </c>
       <c r="C33" s="4">
-        <v>623</v>
+        <v>593</v>
       </c>
       <c r="D33" s="4">
-        <v>967</v>
+        <v>862</v>
       </c>
       <c r="E33" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B34" s="4">
-        <v>24631</v>
+        <v>23773</v>
       </c>
       <c r="C34" s="4">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="D34" s="4">
-        <v>858</v>
+        <v>967</v>
       </c>
       <c r="E34" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B35" s="4">
-        <v>25297</v>
+        <v>24631</v>
       </c>
       <c r="C35" s="4">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="D35" s="4">
-        <v>666</v>
+        <v>858</v>
       </c>
       <c r="E35" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B36" s="4">
-        <v>26171</v>
+        <v>25297</v>
       </c>
       <c r="C36" s="4">
-        <v>690</v>
+        <v>663</v>
       </c>
       <c r="D36" s="4">
-        <v>874</v>
+        <v>666</v>
       </c>
       <c r="E36" s="4">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B37" s="4">
-        <v>27054</v>
+        <v>26171</v>
       </c>
       <c r="C37" s="4">
-        <v>732</v>
+        <v>690</v>
       </c>
       <c r="D37" s="4">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="E37" s="4">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B38" s="4">
-        <v>28087</v>
+        <v>27054</v>
       </c>
       <c r="C38" s="4">
-        <v>782</v>
+        <v>732</v>
       </c>
       <c r="D38" s="4">
-        <v>1033</v>
+        <v>883</v>
       </c>
       <c r="E38" s="4">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B39" s="4">
-        <v>29229</v>
+        <v>28087</v>
       </c>
       <c r="C39" s="4">
-        <v>816</v>
+        <v>782</v>
       </c>
       <c r="D39" s="4">
-        <v>1142</v>
+        <v>1033</v>
       </c>
       <c r="E39" s="4">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B40" s="4">
-        <v>30522</v>
+        <v>29229</v>
       </c>
       <c r="C40" s="4">
-        <v>847</v>
+        <v>816</v>
       </c>
       <c r="D40" s="4">
-        <v>1293</v>
+        <v>1142</v>
       </c>
       <c r="E40" s="4">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B41" s="4">
-        <v>31548</v>
+        <v>30522</v>
       </c>
       <c r="C41" s="4">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="D41" s="4">
-        <v>1026</v>
+        <v>1293</v>
       </c>
       <c r="E41" s="4">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B42" s="4">
-        <v>32332</v>
+        <v>31548</v>
       </c>
       <c r="C42" s="4">
-        <v>884</v>
+        <v>867</v>
       </c>
       <c r="D42" s="4">
-        <v>784</v>
+        <v>1026</v>
       </c>
       <c r="E42" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B43" s="4">
-        <v>33369</v>
+        <v>32332</v>
       </c>
       <c r="C43" s="4">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="D43" s="4">
-        <v>1037</v>
+        <v>784</v>
       </c>
       <c r="E43" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B44" s="4">
-        <v>34422</v>
+        <v>33369</v>
       </c>
       <c r="C44" s="4">
-        <v>948</v>
+        <v>906</v>
       </c>
       <c r="D44" s="4">
-        <v>1053</v>
+        <v>1037</v>
       </c>
       <c r="E44" s="4">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B45" s="4">
-        <v>35390</v>
+        <v>34422</v>
       </c>
       <c r="C45" s="4">
-        <v>973</v>
+        <v>948</v>
       </c>
       <c r="D45" s="4">
-        <v>968</v>
+        <v>1053</v>
       </c>
       <c r="E45" s="4">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B46" s="4">
-        <v>36609</v>
+        <v>35390</v>
       </c>
       <c r="C46" s="4">
-        <v>1004</v>
+        <v>973</v>
       </c>
       <c r="D46" s="4">
-        <v>1219</v>
+        <v>968</v>
       </c>
       <c r="E46" s="4">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B47" s="4">
-        <v>37860</v>
+        <v>36609</v>
       </c>
       <c r="C47" s="4">
-        <v>1049</v>
+        <v>1004</v>
       </c>
       <c r="D47" s="4">
-        <v>1251</v>
+        <v>1219</v>
       </c>
       <c r="E47" s="4">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B48" s="4">
-        <v>38869</v>
+        <v>37860</v>
       </c>
       <c r="C48" s="4">
-        <v>1088</v>
+        <v>1049</v>
       </c>
       <c r="D48" s="4">
-        <v>1009</v>
+        <v>1251</v>
       </c>
       <c r="E48" s="4">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B49" s="4">
-        <v>39869</v>
+        <v>38869</v>
       </c>
       <c r="C49" s="4">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="D49" s="4">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="E49" s="4">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B50" s="4">
-        <v>41048</v>
+        <v>39869</v>
       </c>
       <c r="C50" s="4">
-        <v>1133</v>
+        <v>1100</v>
       </c>
       <c r="D50" s="4">
-        <v>1179</v>
+        <v>1000</v>
       </c>
       <c r="E50" s="4">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B51" s="4">
-        <v>42403</v>
+        <v>41048</v>
       </c>
       <c r="C51" s="4">
-        <v>1158</v>
+        <v>1133</v>
       </c>
       <c r="D51" s="4">
-        <v>1355</v>
+        <v>1179</v>
       </c>
       <c r="E51" s="4">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B52" s="4">
-        <v>43851</v>
+        <v>42403</v>
       </c>
       <c r="C52" s="4">
-        <v>1216</v>
+        <v>1158</v>
       </c>
       <c r="D52" s="4">
-        <v>1448</v>
+        <v>1355</v>
       </c>
       <c r="E52" s="4">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B53" s="4">
-        <v>45198</v>
+        <v>43851</v>
       </c>
       <c r="C53" s="4">
-        <v>1272</v>
+        <v>1216</v>
       </c>
       <c r="D53" s="4">
-        <v>1347</v>
+        <v>1448</v>
       </c>
       <c r="E53" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B54" s="4">
-        <v>46999</v>
+        <v>45198</v>
       </c>
       <c r="C54" s="4">
-        <v>1305</v>
+        <v>1272</v>
       </c>
       <c r="D54" s="4">
-        <v>1801</v>
+        <v>1347</v>
       </c>
       <c r="E54" s="4">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B55" s="4">
-        <v>47784</v>
+        <v>46999</v>
       </c>
       <c r="C55" s="4">
-        <v>1336</v>
+        <v>1305</v>
       </c>
       <c r="D55" s="4">
-        <v>785</v>
+        <v>1801</v>
       </c>
       <c r="E55" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B56" s="4">
-        <v>48693</v>
+        <v>47784</v>
       </c>
       <c r="C56" s="4">
-        <v>1347</v>
+        <v>1336</v>
       </c>
       <c r="D56" s="4">
-        <v>909</v>
+        <v>785</v>
       </c>
       <c r="E56" s="4">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B57" s="4">
-        <v>49912</v>
+        <v>48693</v>
       </c>
       <c r="C57" s="4">
-        <v>1369</v>
+        <v>1347</v>
       </c>
       <c r="D57" s="4">
-        <v>1219</v>
+        <v>909</v>
       </c>
       <c r="E57" s="4">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B58" s="4">
-        <v>51323</v>
+        <v>49912</v>
       </c>
       <c r="C58" s="4">
-        <v>1419</v>
+        <v>1369</v>
       </c>
       <c r="D58" s="4">
-        <v>1411</v>
+        <v>1219</v>
       </c>
       <c r="E58" s="4">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B59" s="4">
-        <v>52268</v>
+        <v>51323</v>
       </c>
       <c r="C59" s="4">
-        <v>1440</v>
+        <v>1419</v>
       </c>
       <c r="D59" s="4">
-        <v>945</v>
+        <v>1411</v>
       </c>
       <c r="E59" s="4">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B60" s="4">
-        <v>53449</v>
+        <v>52268</v>
       </c>
       <c r="C60" s="4">
-        <v>1480</v>
+        <v>1440</v>
       </c>
       <c r="D60" s="4">
-        <v>1181</v>
+        <v>945</v>
       </c>
       <c r="E60" s="4">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B61" s="4">
-        <v>54509</v>
+        <v>53449</v>
       </c>
       <c r="C61" s="4">
-        <v>1506</v>
+        <v>1480</v>
       </c>
       <c r="D61" s="4">
-        <v>1060</v>
+        <v>1181</v>
       </c>
       <c r="E61" s="4">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B62" s="4">
-        <v>55348</v>
+        <v>54509</v>
       </c>
       <c r="C62" s="4">
-        <v>1519</v>
+        <v>1506</v>
       </c>
       <c r="D62" s="4">
-        <v>839</v>
+        <v>1060</v>
       </c>
       <c r="E62" s="4">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B63" s="4">
-        <v>55971</v>
+        <v>55348</v>
       </c>
       <c r="C63" s="4">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="D63" s="4">
-        <v>623</v>
+        <v>839</v>
       </c>
       <c r="E63" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B64" s="4">
-        <v>56560</v>
+        <v>55971</v>
       </c>
       <c r="C64" s="4">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="D64" s="4">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="E64" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B65" s="4">
-        <v>57921</v>
+        <v>56560</v>
       </c>
       <c r="C65" s="4">
-        <v>1562</v>
+        <v>1536</v>
       </c>
       <c r="D65" s="4">
-        <v>1361</v>
+        <v>589</v>
       </c>
       <c r="E65" s="4">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B66" s="4">
-        <v>59776</v>
+        <v>57921</v>
       </c>
       <c r="C66" s="4">
-        <v>1601</v>
+        <v>1562</v>
       </c>
       <c r="D66" s="4">
-        <v>1855</v>
+        <v>1361</v>
       </c>
       <c r="E66" s="4">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B67" s="4">
-        <v>61006</v>
+        <v>59776</v>
       </c>
       <c r="C67" s="4">
-        <v>1626</v>
+        <v>1601</v>
       </c>
       <c r="D67" s="4">
-        <v>1230</v>
+        <v>1855</v>
       </c>
       <c r="E67" s="4">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B68" s="4">
-        <v>62338</v>
+        <v>61006</v>
       </c>
       <c r="C68" s="4">
-        <v>1648</v>
+        <v>1626</v>
       </c>
       <c r="D68" s="4">
-        <v>1332</v>
+        <v>1230</v>
       </c>
       <c r="E68" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B69" s="4">
-        <v>64287</v>
+        <v>62338</v>
       </c>
       <c r="C69" s="4">
-        <v>1672</v>
+        <v>1648</v>
       </c>
       <c r="D69" s="4">
-        <v>1949</v>
+        <v>1332</v>
       </c>
       <c r="E69" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B70" s="4">
-        <v>64880</v>
+        <v>64287</v>
       </c>
       <c r="C70" s="4">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="D70" s="4">
-        <v>593</v>
+        <v>1949</v>
       </c>
       <c r="E70" s="4">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B71" s="4">
-        <v>66568</v>
+        <v>64880</v>
       </c>
       <c r="C71" s="4">
-        <v>1698</v>
+        <v>1678</v>
       </c>
       <c r="D71" s="4">
-        <v>1688</v>
+        <v>593</v>
       </c>
       <c r="E71" s="4">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B72" s="4">
-        <v>68271</v>
+        <v>66568</v>
       </c>
       <c r="C72" s="4">
-        <v>1734</v>
+        <v>1698</v>
       </c>
       <c r="D72" s="4">
-        <v>1703</v>
+        <v>1688</v>
       </c>
       <c r="E72" s="4">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B73" s="4">
-        <v>69920</v>
+        <v>68271</v>
       </c>
       <c r="C73" s="4">
-        <v>1767</v>
+        <v>1734</v>
       </c>
       <c r="D73" s="4">
-        <v>1649</v>
+        <v>1703</v>
       </c>
       <c r="E73" s="4">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B74" s="4">
-        <v>71613</v>
+        <v>69920</v>
       </c>
       <c r="C74" s="4">
-        <v>1788</v>
+        <v>1767</v>
       </c>
       <c r="D74" s="4">
-        <v>1693</v>
+        <v>1649</v>
       </c>
       <c r="E74" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B75" s="4">
-        <v>73553</v>
+        <v>71613</v>
       </c>
       <c r="C75" s="4">
-        <v>1819</v>
+        <v>1788</v>
       </c>
       <c r="D75" s="4">
-        <v>1940</v>
+        <v>1693</v>
       </c>
       <c r="E75" s="4">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B76" s="4">
-        <v>74978</v>
+        <v>73553</v>
       </c>
       <c r="C76" s="4">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="D76" s="4">
-        <v>1425</v>
+        <v>1940</v>
       </c>
       <c r="E76" s="4">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B77" s="4">
-        <v>75616</v>
+        <v>74978</v>
       </c>
       <c r="C77" s="4">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="D77" s="4">
-        <v>638</v>
+        <v>1425</v>
       </c>
       <c r="E77" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B78" s="4">
-        <v>77253</v>
+        <v>75616</v>
       </c>
       <c r="C78" s="4">
-        <v>1853</v>
+        <v>1836</v>
       </c>
       <c r="D78" s="4">
-        <v>1637</v>
+        <v>638</v>
       </c>
       <c r="E78" s="4">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B79" s="4">
-        <v>79757</v>
+        <v>77253</v>
       </c>
       <c r="C79" s="4">
-        <v>1885</v>
+        <v>1853</v>
       </c>
       <c r="D79" s="4">
-        <v>2504</v>
+        <v>1637</v>
       </c>
       <c r="E79" s="4">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B80" s="4">
-        <v>81583</v>
+        <v>79757</v>
       </c>
       <c r="C80" s="4">
-        <v>1920</v>
+        <v>1885</v>
       </c>
       <c r="D80" s="4">
-        <v>1826</v>
+        <v>2504</v>
       </c>
       <c r="E80" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B81" s="4">
-        <v>83680</v>
+        <v>81583</v>
       </c>
       <c r="C81" s="4">
-        <v>1939</v>
+        <v>1920</v>
       </c>
       <c r="D81" s="4">
-        <v>2097</v>
+        <v>1826</v>
       </c>
       <c r="E81" s="4">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B82" s="4">
-        <v>86011</v>
+        <v>83680</v>
       </c>
       <c r="C82" s="4">
-        <v>1957</v>
+        <v>1939</v>
       </c>
       <c r="D82" s="4">
-        <v>2331</v>
+        <v>2097</v>
       </c>
       <c r="E82" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="B83" s="4">
-        <v>87854</v>
+        <v>86011</v>
       </c>
       <c r="C83" s="4">
-        <v>1976</v>
+        <v>1957</v>
       </c>
       <c r="D83" s="4">
-        <v>1843</v>
+        <v>2331</v>
       </c>
       <c r="E83" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B84" s="4">
-        <v>89108</v>
+        <v>87854</v>
       </c>
       <c r="C84" s="4">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="D84" s="4">
-        <v>1254</v>
+        <v>1843</v>
       </c>
       <c r="E84" s="4">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
+        <v>43997</v>
+      </c>
+      <c r="B85" s="4">
+        <v>89108</v>
+      </c>
+      <c r="C85" s="4">
+        <v>1983</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1254</v>
+      </c>
+      <c r="E85" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
         <v>43998</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B86" s="4">
         <v>91730</v>
-      </c>
-      <c r="C85" s="4">
-        <v>2029</v>
-      </c>
-      <c r="D85" s="4">
-        <v>2622</v>
-      </c>
-      <c r="E85" s="4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B86" s="4">
-        <v>93206</v>
       </c>
       <c r="C86" s="4">
         <v>2029</v>
       </c>
       <c r="D86" s="4">
+        <v>2622</v>
+      </c>
+      <c r="E86" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B87" s="4">
+        <v>93206</v>
+      </c>
+      <c r="C87" s="4">
+        <v>2029</v>
+      </c>
+      <c r="D87" s="4">
         <v>1476</v>
       </c>
-      <c r="E86" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
-        <v>43999</v>
-      </c>
-      <c r="B87" s="4">
-        <v>96335</v>
-      </c>
-      <c r="C87" s="4">
-        <v>2062</v>
-      </c>
-      <c r="D87" s="4">
-        <v>3129</v>
-      </c>
       <c r="E87" s="4">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="B88" s="4">
-        <v>99851</v>
+        <v>96335</v>
       </c>
       <c r="C88" s="4">
-        <v>2105</v>
+        <v>2062</v>
       </c>
       <c r="D88" s="4">
-        <v>3516</v>
+        <v>3129</v>
       </c>
       <c r="E88" s="4">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="B89" s="4">
-        <v>103305</v>
+        <v>99851</v>
       </c>
       <c r="C89" s="4">
-        <v>2140</v>
+        <v>2105</v>
       </c>
       <c r="D89" s="4">
-        <v>3454</v>
+        <v>3516</v>
       </c>
       <c r="E89" s="4">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="B90" s="4">
-        <v>107735</v>
+        <v>103305</v>
       </c>
       <c r="C90" s="4">
-        <v>2165</v>
+        <v>2140</v>
       </c>
       <c r="D90" s="4">
-        <v>4430</v>
+        <v>3454</v>
       </c>
       <c r="E90" s="4">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
+        <v>44002</v>
+      </c>
+      <c r="B91" s="4">
+        <v>107735</v>
+      </c>
+      <c r="C91" s="4">
+        <v>2165</v>
+      </c>
+      <c r="D91" s="4">
+        <v>4430</v>
+      </c>
+      <c r="E91" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
         <v>44003</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B92" s="4">
         <v>111601</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C92" s="4">
         <v>2182</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D92" s="4">
         <v>3866</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E92" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
+    <row r="93" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>44004</v>
+      </c>
+      <c r="B93" s="4">
+        <v>114881</v>
+      </c>
+      <c r="C93" s="4">
+        <v>2192</v>
+      </c>
+      <c r="D93" s="4">
+        <v>3280</v>
+      </c>
+      <c r="E93" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A95:E95"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6602,43 +7107,43 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>68499</v>
+        <v>69190</v>
       </c>
       <c r="B3" s="8">
-        <v>40920</v>
+        <v>43499</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="21"/>
+      <c r="A5" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6652,15 +7157,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:H1"/>
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -6669,41 +7174,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A1" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>271</v>
-      </c>
       <c r="E2" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6711,10 +7216,10 @@
         <v>43925</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D3" s="9">
         <v>63751</v>
@@ -6731,10 +7236,10 @@
         <v>43926</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D4" s="9">
         <v>70938</v>
@@ -6751,10 +7256,10 @@
         <v>43927</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D5" s="9">
         <v>85357</v>
@@ -6771,10 +7276,10 @@
         <v>43928</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D6" s="9">
         <v>88649</v>
@@ -6791,10 +7296,10 @@
         <v>43929</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D7" s="9">
         <v>96258</v>
@@ -6811,10 +7316,10 @@
         <v>43930</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D8" s="9">
         <v>106134</v>
@@ -6831,10 +7336,10 @@
         <v>43931</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D9" s="9">
         <v>115918</v>
@@ -6851,10 +7356,10 @@
         <v>43932</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D10" s="9">
         <v>120533</v>
@@ -6871,10 +7376,10 @@
         <v>43933</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D11" s="9">
         <v>124553</v>
@@ -6891,10 +7396,10 @@
         <v>43934</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D12" s="9">
         <v>133226</v>
@@ -6911,10 +7416,10 @@
         <v>43935</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D13" s="9">
         <v>146467</v>
@@ -6931,10 +7436,10 @@
         <v>43936</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D14" s="9">
         <v>151810</v>
@@ -6951,10 +7456,10 @@
         <v>43937</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D15" s="9">
         <v>158547</v>
@@ -6971,10 +7476,10 @@
         <v>43938</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D16" s="9">
         <v>169536</v>
@@ -6991,10 +7496,10 @@
         <v>43939</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D17" s="9">
         <v>176239</v>
@@ -7011,10 +7516,10 @@
         <v>43940</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D18" s="9">
         <v>182710</v>
@@ -7031,10 +7536,10 @@
         <v>43941</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D19" s="9">
         <v>190394</v>
@@ -7051,10 +7556,10 @@
         <v>43942</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D20" s="9">
         <v>205399</v>
@@ -7071,10 +7576,10 @@
         <v>43943</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D21" s="9">
         <v>216783</v>
@@ -7091,10 +7596,10 @@
         <v>43944</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D22" s="9">
         <v>225078</v>
@@ -7111,10 +7616,10 @@
         <v>43945</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D23" s="9">
         <v>242547</v>
@@ -7131,10 +7636,10 @@
         <v>43946</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D24" s="9">
         <v>262816</v>
@@ -7151,10 +7656,10 @@
         <v>43947</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D25" s="9">
         <v>276021</v>
@@ -7171,10 +7676,10 @@
         <v>43948</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D26" s="9">
         <v>290517</v>
@@ -7191,10 +7696,10 @@
         <v>43949</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D27" s="9">
         <v>300384</v>
@@ -7211,10 +7716,10 @@
         <v>43950</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D28" s="9">
         <v>314790</v>
@@ -7231,10 +7736,10 @@
         <v>43951</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D29" s="9">
         <v>330300</v>
@@ -7251,10 +7756,10 @@
         <v>43952</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D30" s="9">
         <v>351775</v>
@@ -7271,10 +7776,10 @@
         <v>43953</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D31" s="9">
         <v>380648</v>
@@ -7291,10 +7796,10 @@
         <v>43954</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D32" s="9">
         <v>390560</v>
@@ -7311,10 +7816,10 @@
         <v>43955</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D33" s="9">
         <v>407398</v>
@@ -7331,10 +7836,10 @@
         <v>43956</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D34" s="9">
         <v>427210</v>
@@ -7351,10 +7856,10 @@
         <v>43957</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D35" s="9">
         <v>438938</v>
@@ -7371,10 +7876,10 @@
         <v>43958</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D36" s="9">
         <v>455162</v>
@@ -7391,10 +7896,10 @@
         <v>43959</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D37" s="9">
         <v>477118</v>
@@ -7733,16 +8238,16 @@
         <v>43974</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D52" s="9">
         <v>870935</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -7920,7 +8425,7 @@
         <v>1054793</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -8465,12 +8970,15 @@
         <v>8.7959443433233281E-2</v>
       </c>
       <c r="F80" s="9">
+        <f>ROUND((B80-B73)/7,0)</f>
         <v>32885</v>
       </c>
       <c r="G80" s="9">
+        <f t="shared" ref="G80:H80" si="0">ROUND((C80-C73)/7,0)</f>
         <v>2425</v>
       </c>
       <c r="H80" s="9">
+        <f t="shared" si="0"/>
         <v>35311</v>
       </c>
     </row>
@@ -8478,31 +8986,60 @@
       <c r="A81" s="6">
         <v>44003</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>265</v>
+      <c r="B81" s="9">
+        <v>1549009</v>
+      </c>
+      <c r="C81" s="9">
+        <v>166168</v>
       </c>
       <c r="D81" s="9">
         <v>1715177</v>
       </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-    </row>
-    <row r="83" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
+      <c r="E81" s="13">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="F81" s="9">
+        <f>ROUND((B81-B74)/7,0)</f>
+        <v>33464</v>
+      </c>
+      <c r="G81" s="9">
+        <f t="shared" ref="G81:H81" si="1">ROUND((C81-C74)/7,0)</f>
+        <v>2440</v>
+      </c>
+      <c r="H81" s="9">
+        <f t="shared" si="1"/>
+        <v>35904</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>44004</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D82" s="9">
+        <v>1767701</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+    </row>
+    <row r="84" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A84:D84"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -8516,59 +9053,59 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B3" s="8">
-        <v>73876</v>
+        <v>74725</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B4" s="8">
-        <v>1641301</v>
+        <v>1692976</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B5" s="8">
-        <v>1715177</v>
+        <v>1767701</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="21"/>
+      <c r="A7" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8581,11 +9118,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBC13E4-C1CE-4CE4-8AC4-821B06B05822}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9606CF8A-3FB9-4334-BA14-7B299E496C8E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -8596,40 +9133,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="B1" s="26"/>
+      <c r="A1" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B3" s="18">
-        <v>163944</v>
+        <v>166168</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B4" s="18">
-        <v>6493</v>
+        <v>6527</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" s="26"/>
+      <c r="A6" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8643,84 +9180,77 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B3" s="8">
-        <v>3409</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B4" s="8">
-        <v>57131</v>
+        <v>55304</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B5" s="8">
-        <v>14316</v>
+        <v>14697</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B6" s="8">
-        <v>1493</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B7" s="8">
-        <v>5890</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" s="21"/>
+        <v>5818</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8729,15 +9259,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -8745,21 +9275,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9631,17 +10161,20 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
+    <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>80</v>
+      </c>
+      <c r="B82" s="6">
+        <v>44004</v>
+      </c>
+      <c r="C82" s="8">
+        <v>3711</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A83:C83"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9654,189 +10187,189 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B3" s="9">
         <v>74</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="27">
         <f>B3/B$16</f>
-        <v>3.7968188814776808E-3</v>
+        <v>3.7701243122070511E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B4" s="9">
-        <v>306</v>
-      </c>
-      <c r="C4" s="19">
+        <v>308</v>
+      </c>
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.5700359158542843E-2</v>
+        <v>1.5691868758915834E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B5" s="9">
-        <v>812</v>
-      </c>
-      <c r="C5" s="19">
+        <v>820</v>
+      </c>
+      <c r="C5" s="27">
         <f t="shared" si="0"/>
-        <v>4.1662390969728062E-2</v>
+        <v>4.177705318932138E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B6" s="9">
-        <v>3208</v>
-      </c>
-      <c r="C6" s="19">
+        <v>3242</v>
+      </c>
+      <c r="C6" s="27">
         <f t="shared" si="0"/>
-        <v>0.16459722934838378</v>
+        <v>0.16517220297534135</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B7" s="9">
-        <v>3575</v>
-      </c>
-      <c r="C7" s="19">
+        <v>3598</v>
+      </c>
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
-        <v>0.18342739866598257</v>
+        <v>0.1833095577746077</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B8" s="9">
-        <v>3544</v>
-      </c>
-      <c r="C8" s="19">
+        <v>3562</v>
+      </c>
+      <c r="C8" s="27">
         <f t="shared" si="0"/>
-        <v>0.18183683940482298</v>
+        <v>0.18147544324434481</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B9" s="9">
-        <v>3431</v>
-      </c>
-      <c r="C9" s="19">
+        <v>3455</v>
+      </c>
+      <c r="C9" s="27">
         <f t="shared" si="0"/>
-        <v>0.17603899435608003</v>
+        <v>0.17602404727939677</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B10" s="9">
-        <v>1377</v>
-      </c>
-      <c r="C10" s="19">
+        <v>1387</v>
+      </c>
+      <c r="C10" s="27">
         <f t="shared" si="0"/>
-        <v>7.0651616213442792E-2</v>
+        <v>7.0664357040961898E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B11" s="9">
-        <v>1030</v>
-      </c>
-      <c r="C11" s="19">
+        <v>1036</v>
+      </c>
+      <c r="C11" s="27">
         <f t="shared" si="0"/>
-        <v>5.284761416110826E-2</v>
+        <v>5.2781740370898715E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B12" s="9">
-        <v>655</v>
-      </c>
-      <c r="C12" s="19">
+        <v>663</v>
+      </c>
+      <c r="C12" s="27">
         <f t="shared" si="0"/>
-        <v>3.3606977937403797E-2</v>
+        <v>3.3778275932341555E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B13" s="9">
-        <v>488</v>
-      </c>
-      <c r="C13" s="19">
+        <v>490</v>
+      </c>
+      <c r="C13" s="27">
         <f t="shared" si="0"/>
-        <v>2.503848127244741E-2</v>
+        <v>2.4964336661911554E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B14" s="9">
-        <v>990</v>
-      </c>
-      <c r="C14" s="19">
+        <v>992</v>
+      </c>
+      <c r="C14" s="27">
         <f t="shared" si="0"/>
-        <v>5.0795279630579782E-2</v>
+        <v>5.0540044833910738E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B15" s="9">
-        <v>0</v>
-      </c>
-      <c r="C15" s="19">
+        <v>1</v>
+      </c>
+      <c r="C15" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.0947625840635824E-5</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9844,26 +10377,26 @@
         <v>258</v>
       </c>
       <c r="B16" s="9">
-        <v>19490</v>
-      </c>
-      <c r="C16" s="19">
+        <v>19628</v>
+      </c>
+      <c r="C16" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F655CA04-806C-4E8E-9429-65F11099D094}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED48B9FC-18B7-4335-B1E2-A5FC9D06C638}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17900" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,14 @@
     <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="336">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/22 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="336">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 6/23 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/22 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/23 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -842,7 +842,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/22 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/23 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -854,174 +854,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/22 at 3:00PM CST</t>
-  </si>
-  <si>
-    <t>Total Tests
-reported</t>
-  </si>
-  <si>
-    <t>Viral Tests</t>
-  </si>
-  <si>
-    <t>Antibody Tests</t>
-  </si>
-  <si>
-    <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
-  </si>
-  <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/22 at 3:00PM CST</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Total People Tested in Texas by Public Health Lab</t>
-  </si>
-  <si>
-    <t>No. Tests by Commercial labs*</t>
-  </si>
-  <si>
-    <t>Total Tests</t>
-  </si>
-  <si>
-    <t>*Unable to deduplicate figures for Commercial labs.</t>
-  </si>
-  <si>
-    <t>Texas Statewide Hospitalization Data as of 6/22 at 9:30AM CST</t>
-  </si>
-  <si>
-    <t>Hospital data</t>
-  </si>
-  <si>
-    <t>Lab Confirmed COVID-19 Patients Currently in Texas Hospitals</t>
-  </si>
-  <si>
-    <t>Total Texas Staffed Hospital Beds</t>
-  </si>
-  <si>
-    <t>Available Texas Hospital Beds</t>
-  </si>
-  <si>
-    <t>Available Texas ICU Beds</t>
-  </si>
-  <si>
-    <t>Available Texas Ventilators</t>
-  </si>
-  <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/22 at 9:30AM CST</t>
-  </si>
-  <si>
-    <t>Obs</t>
-  </si>
-  <si>
-    <t>Hospitalizations</t>
-  </si>
-  <si>
-    <t>Age of Confirmed Cases as of 6/22 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Age
-Groupings</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>&lt;1 year</t>
-  </si>
-  <si>
-    <t>1-9 years</t>
-  </si>
-  <si>
-    <t>10-19 years</t>
-  </si>
-  <si>
-    <t>20-29 years</t>
-  </si>
-  <si>
-    <t>30-39 years</t>
-  </si>
-  <si>
-    <t>40-49 years</t>
-  </si>
-  <si>
-    <t>50-59 years</t>
-  </si>
-  <si>
-    <t>60-64 years</t>
-  </si>
-  <si>
-    <t>65-69 years</t>
-  </si>
-  <si>
-    <t>70-74 years</t>
-  </si>
-  <si>
-    <t>75-79 years</t>
-  </si>
-  <si>
-    <t>80+ years</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
-  </si>
-  <si>
-    <t>Completed case investigations received by DSHS =          19,628</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/22 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/22 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Hispanic</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Age of Confirmed Fatalities as of 6/22 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =          662</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 6/22 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/22 at 9:30 AM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/23 at 3:00PM CST</t>
   </si>
   <si>
     <t>COVID-19
@@ -1029,6 +862,173 @@
 Rate</t>
   </si>
   <si>
+    <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
+  </si>
+  <si>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/23 at 3:00PM CST</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total People Tested in Texas by Public Health Lab</t>
+  </si>
+  <si>
+    <t>No. Tests by Commercial labs*</t>
+  </si>
+  <si>
+    <t>Total Tests</t>
+  </si>
+  <si>
+    <t>*Unable to deduplicate figures for Commercial labs.</t>
+  </si>
+  <si>
+    <t>Texas Statewide Hospitalization Data as of 6/23 at 9:30AM CST</t>
+  </si>
+  <si>
+    <t>Hospital data</t>
+  </si>
+  <si>
+    <t>Lab Confirmed COVID-19 Patients Currently in Texas Hospitals</t>
+  </si>
+  <si>
+    <t>Total Texas Staffed Hospital Beds</t>
+  </si>
+  <si>
+    <t>Available Texas Hospital Beds</t>
+  </si>
+  <si>
+    <t>Available Texas ICU Beds</t>
+  </si>
+  <si>
+    <t>Available Texas Ventilators</t>
+  </si>
+  <si>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/23 at 9:30AM CST</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Hospitalizations</t>
+  </si>
+  <si>
+    <t>Age of Confirmed Cases as of 6/23 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Age
+Groupings</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>&lt;1 year</t>
+  </si>
+  <si>
+    <t>1-9 years</t>
+  </si>
+  <si>
+    <t>10-19 years</t>
+  </si>
+  <si>
+    <t>20-29 years</t>
+  </si>
+  <si>
+    <t>30-39 years</t>
+  </si>
+  <si>
+    <t>40-49 years</t>
+  </si>
+  <si>
+    <t>50-59 years</t>
+  </si>
+  <si>
+    <t>60-64 years</t>
+  </si>
+  <si>
+    <t>65-69 years</t>
+  </si>
+  <si>
+    <t>70-74 years</t>
+  </si>
+  <si>
+    <t>75-79 years</t>
+  </si>
+  <si>
+    <t>80+ years</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
+  </si>
+  <si>
+    <t>Completed case investigations received by DSHS =          19,920</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/23 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/23 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Age of Confirmed Fatalities as of 6/23 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =          662</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 6/23 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/23 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Viral Tests</t>
+  </si>
+  <si>
+    <t>Antibody Tests</t>
+  </si>
+  <si>
+    <t>Total Tests
+reported</t>
+  </si>
+  <si>
     <t>New Viral Tests Reported* (Average of previous 7 days)</t>
   </si>
   <si>
@@ -1038,16 +1038,16 @@
     <t>New Total Tests Reported* (Average of previous 7 days)</t>
   </si>
   <si>
+    <t>06/16/2020-TDCJ*</t>
+  </si>
+  <si>
     <t>Number of Antibody Tests Reported (included in total test numbers)</t>
   </si>
   <si>
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/21 at 3:00PM CST</t>
-  </si>
-  <si>
-    <t>06/16/2020-TDCJ*</t>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/22 at 3:00PM CST</t>
   </si>
   <si>
     <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
@@ -1057,7 +1057,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###,##0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
@@ -1065,19 +1065,14 @@
     <numFmt numFmtId="167" formatCode="##,###,##0"/>
     <numFmt numFmtId="168" formatCode="###,###,###,###,##0"/>
     <numFmt numFmtId="170" formatCode="##0"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1097,130 +1092,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Courier New"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9.5"/>
-      <color rgb="FF112277"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Courier New"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.5"/>
@@ -1236,13 +1110,20 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="9.5"/>
+      <color rgb="FF112277"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1267,181 +1148,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1479,185 +1187,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB0B7BB"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1666,7 +1210,7 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1678,117 +1222,81 @@
     <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="4" borderId="2" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="172" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Normal 2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Normal 2 3" xfId="48" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Normal 3" xfId="49" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Normal 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Normal 4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Normal 4 3" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Normal 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Note 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{EDAA6481-E6FF-44F4-B845-56F6FF5241FC}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1935,11 +1443,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1957,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -1979,7 +1487,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="C5" s="4">
         <v>6</v>
@@ -1990,7 +1498,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -2001,7 +1509,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -2023,7 +1531,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -2034,7 +1542,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -2045,10 +1553,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2056,7 +1564,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -2067,7 +1575,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C13" s="4">
         <v>4</v>
@@ -2100,7 +1608,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>822</v>
+        <v>875</v>
       </c>
       <c r="C16" s="4">
         <v>10</v>
@@ -2111,7 +1619,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>6882</v>
+        <v>7156</v>
       </c>
       <c r="C17" s="4">
         <v>97</v>
@@ -2122,7 +1630,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -2155,10 +1663,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C21" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2166,7 +1674,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>1762</v>
+        <v>1814</v>
       </c>
       <c r="C22" s="4">
         <v>19</v>
@@ -2177,7 +1685,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>1244</v>
+        <v>1260</v>
       </c>
       <c r="C23" s="4">
         <v>25</v>
@@ -2188,7 +1696,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -2221,7 +1729,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
@@ -2232,7 +1740,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -2243,7 +1751,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
@@ -2254,7 +1762,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -2265,7 +1773,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -2287,10 +1795,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>1546</v>
+        <v>1647</v>
       </c>
       <c r="C33" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2331,7 +1839,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -2342,7 +1850,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -2353,7 +1861,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -2397,10 +1905,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2419,7 +1927,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>2223</v>
+        <v>2250</v>
       </c>
       <c r="C45" s="4">
         <v>38</v>
@@ -2485,7 +1993,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -2496,7 +2004,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -2521,7 +2029,7 @@
         <v>47</v>
       </c>
       <c r="C54" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2540,7 +2048,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2551,7 +2059,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
@@ -2562,7 +2070,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2573,10 +2081,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>16845</v>
+        <v>17299</v>
       </c>
       <c r="C59" s="4">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2595,7 +2103,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="4">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -2606,7 +2114,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C62" s="4">
         <v>16</v>
@@ -2628,7 +2136,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>2163</v>
+        <v>2219</v>
       </c>
       <c r="C64" s="4">
         <v>36</v>
@@ -2672,7 +2180,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
@@ -2694,7 +2202,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="C70" s="4">
         <v>7</v>
@@ -2716,10 +2224,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>4553</v>
+        <v>4677</v>
       </c>
       <c r="C72" s="4">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2727,7 +2235,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="C73" s="4">
         <v>19</v>
@@ -2749,7 +2257,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2760,10 +2268,10 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C76" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2771,7 +2279,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2793,7 +2301,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
@@ -2815,7 +2323,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>3069</v>
+        <v>3132</v>
       </c>
       <c r="C81" s="4">
         <v>50</v>
@@ -2826,7 +2334,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2837,7 +2345,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2848,7 +2356,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2870,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>1867</v>
+        <v>1968</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
@@ -2892,7 +2400,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -2925,7 +2433,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
@@ -2947,7 +2455,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C93" s="4">
         <v>5</v>
@@ -2958,7 +2466,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C94" s="4">
         <v>12</v>
@@ -2969,7 +2477,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2980,7 +2488,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>323</v>
+        <v>417</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -2991,10 +2499,10 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="C97" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3024,7 +2532,7 @@
         <v>101</v>
       </c>
       <c r="B100" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C100" s="4">
         <v>2</v>
@@ -3046,7 +2554,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -3057,10 +2565,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>21053</v>
+        <v>23047</v>
       </c>
       <c r="C103" s="4">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3068,10 +2576,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C104" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3101,7 +2609,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>1711</v>
+        <v>1871</v>
       </c>
       <c r="C107" s="4">
         <v>5</v>
@@ -3123,7 +2631,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C109" s="4">
         <v>3</v>
@@ -3134,10 +2642,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>1689</v>
+        <v>1882</v>
       </c>
       <c r="C110" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3145,7 +2653,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -3167,7 +2675,7 @@
         <v>114</v>
       </c>
       <c r="B113" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C113" s="4">
         <v>4</v>
@@ -3178,10 +2686,10 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C114" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3189,7 +2697,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -3200,7 +2708,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -3233,7 +2741,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -3255,7 +2763,7 @@
         <v>122</v>
       </c>
       <c r="B121" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
@@ -3266,7 +2774,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
@@ -3277,7 +2785,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C123" s="4">
         <v>1</v>
@@ -3299,7 +2807,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1393</v>
+        <v>1447</v>
       </c>
       <c r="C125" s="4">
         <v>32</v>
@@ -3321,7 +2829,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -3332,7 +2840,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -3343,7 +2851,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>650</v>
+        <v>604</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -3365,7 +2873,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="C131" s="4">
         <v>4</v>
@@ -3376,7 +2884,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -3409,7 +2917,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C135" s="4">
         <v>1</v>
@@ -3442,7 +2950,7 @@
         <v>139</v>
       </c>
       <c r="B138" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C138" s="4">
         <v>0</v>
@@ -3453,7 +2961,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
@@ -3486,7 +2994,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C142" s="4">
         <v>13</v>
@@ -3497,7 +3005,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -3508,7 +3016,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -3519,7 +3027,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -3541,7 +3049,7 @@
         <v>148</v>
       </c>
       <c r="B147" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3552,7 +3060,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3618,7 +3126,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>1320</v>
+        <v>1407</v>
       </c>
       <c r="C154" s="4">
         <v>51</v>
@@ -3629,7 +3137,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
@@ -3640,7 +3148,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3684,7 +3192,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3706,7 +3214,7 @@
         <v>163</v>
       </c>
       <c r="B162" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" s="4">
         <v>0</v>
@@ -3717,7 +3225,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="C163" s="4">
         <v>5</v>
@@ -3739,7 +3247,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3750,7 +3258,7 @@
         <v>167</v>
       </c>
       <c r="B166" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C166" s="4">
         <v>0</v>
@@ -3761,7 +3269,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>322</v>
+        <v>417</v>
       </c>
       <c r="C167" s="4">
         <v>13</v>
@@ -3772,7 +3280,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3794,7 +3302,7 @@
         <v>171</v>
       </c>
       <c r="B170" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
@@ -3805,7 +3313,7 @@
         <v>172</v>
       </c>
       <c r="B171" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C171" s="4">
         <v>1</v>
@@ -3816,7 +3324,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>1555</v>
+        <v>1647</v>
       </c>
       <c r="C172" s="4">
         <v>34</v>
@@ -3827,7 +3335,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C173" s="4">
         <v>14</v>
@@ -3838,7 +3346,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3860,10 +3368,10 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C176" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3871,7 +3379,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C177" s="4">
         <v>4</v>
@@ -3904,7 +3412,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>633</v>
+        <v>742</v>
       </c>
       <c r="C180" s="4">
         <v>6</v>
@@ -3937,7 +3445,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
@@ -3959,7 +3467,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C185" s="4">
         <v>23</v>
@@ -3970,7 +3478,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3981,7 +3489,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C187" s="4">
         <v>2</v>
@@ -4003,7 +3511,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -4014,7 +3522,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2822</v>
+        <v>2831</v>
       </c>
       <c r="C190" s="4">
         <v>39</v>
@@ -4025,7 +3533,7 @@
         <v>192</v>
       </c>
       <c r="B191" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
@@ -4047,7 +3555,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="C193" s="4">
         <v>6</v>
@@ -4091,7 +3599,7 @@
         <v>198</v>
       </c>
       <c r="B197" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -4124,7 +3632,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -4135,7 +3643,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C201" s="4">
         <v>16</v>
@@ -4157,7 +3665,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -4168,7 +3676,7 @@
         <v>205</v>
       </c>
       <c r="B204" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C204" s="4">
         <v>1</v>
@@ -4179,7 +3687,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C205" s="4">
         <v>6</v>
@@ -4201,7 +3709,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -4212,7 +3720,7 @@
         <v>209</v>
       </c>
       <c r="B208" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
@@ -4256,7 +3764,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C212" s="4">
         <v>9</v>
@@ -4278,7 +3786,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -4300,10 +3808,10 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="C216" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4344,7 +3852,7 @@
         <v>221</v>
       </c>
       <c r="B220" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
@@ -4366,10 +3874,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>8955</v>
+        <v>9126</v>
       </c>
       <c r="C222" s="4">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4377,7 +3885,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -4388,7 +3896,7 @@
         <v>225</v>
       </c>
       <c r="B224" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" s="4">
         <v>0</v>
@@ -4421,7 +3929,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="C227" s="4">
         <v>4</v>
@@ -4432,7 +3940,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -4443,10 +3951,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>6210</v>
+        <v>6339</v>
       </c>
       <c r="C229" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4454,7 +3962,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -4465,7 +3973,7 @@
         <v>232</v>
       </c>
       <c r="B231" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
@@ -4476,7 +3984,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -4487,7 +3995,7 @@
         <v>234</v>
       </c>
       <c r="B233" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C233" s="4">
         <v>0</v>
@@ -4498,7 +4006,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4509,7 +4017,7 @@
         <v>236</v>
       </c>
       <c r="B235" s="4">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C235" s="4">
         <v>0</v>
@@ -4520,7 +4028,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C236" s="4">
         <v>3</v>
@@ -4531,7 +4039,7 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="C237" s="4">
         <v>8</v>
@@ -4542,7 +4050,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1912</v>
+        <v>1928</v>
       </c>
       <c r="C238" s="4">
         <v>28</v>
@@ -4553,7 +4061,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4575,7 +4083,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C241" s="4">
         <v>27</v>
@@ -4586,7 +4094,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>929</v>
+        <v>948</v>
       </c>
       <c r="C242" s="4">
         <v>22</v>
@@ -4597,7 +4105,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4619,7 +4127,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -4630,7 +4138,7 @@
         <v>247</v>
       </c>
       <c r="B246" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
@@ -4641,7 +4149,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4652,7 +4160,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>1337</v>
+        <v>1411</v>
       </c>
       <c r="C248" s="4">
         <v>32</v>
@@ -4663,7 +4171,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4685,7 +4193,7 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C251" s="4">
         <v>5</v>
@@ -4696,7 +4204,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
@@ -4707,7 +4215,7 @@
         <v>254</v>
       </c>
       <c r="B253" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4718,7 +4226,7 @@
         <v>255</v>
       </c>
       <c r="B254" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C254" s="4">
         <v>1</v>
@@ -4729,7 +4237,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4740,7 +4248,7 @@
         <v>257</v>
       </c>
       <c r="B256" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4751,10 +4259,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>114881</v>
+        <v>120370</v>
       </c>
       <c r="C257" s="4">
-        <v>2192</v>
+        <v>2220</v>
       </c>
     </row>
   </sheetData>
@@ -4773,67 +4281,64 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="A1" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B3" s="9">
-        <v>9649</v>
-      </c>
-      <c r="C3" s="27">
-        <f>B3/B$6</f>
+        <v>312</v>
+      </c>
+      <c r="B3" s="10">
+        <v>9757</v>
+      </c>
+      <c r="C3" s="31">
         <v>0.49159364173629511</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B4" s="9">
-        <v>9801</v>
-      </c>
-      <c r="C4" s="27">
-        <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
+        <v>313</v>
+      </c>
+      <c r="B4" s="10">
+        <v>9980</v>
+      </c>
+      <c r="C4" s="31">
         <v>0.49933768086407171</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="9">
-        <v>178</v>
-      </c>
-      <c r="C5" s="27">
-        <f t="shared" si="0"/>
+        <v>307</v>
+      </c>
+      <c r="B5" s="10">
+        <v>183</v>
+      </c>
+      <c r="C5" s="31">
         <v>9.0686773996331779E-3</v>
       </c>
     </row>
@@ -4841,27 +4346,26 @@
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="9">
-        <v>19628</v>
-      </c>
-      <c r="C6" s="27">
-        <f t="shared" si="0"/>
+      <c r="B6" s="10">
+        <v>19920</v>
+      </c>
+      <c r="C6" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4888,124 +4392,124 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="A1" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="9">
-        <v>588</v>
-      </c>
-      <c r="C3" s="27">
+        <v>316</v>
+      </c>
+      <c r="B3" s="10">
+        <v>593</v>
+      </c>
+      <c r="C3" s="31">
         <f>B3/B$9</f>
-        <v>2.9957203994293864E-2</v>
+        <v>2.9769076305220885E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B4" s="9">
-        <v>2346</v>
-      </c>
-      <c r="C4" s="27">
+        <v>317</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2391</v>
+      </c>
+      <c r="C4" s="31">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.11952313022213165</v>
+        <v>0.12003012048192771</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B5" s="9">
-        <v>6884</v>
-      </c>
-      <c r="C5" s="27">
+        <v>318</v>
+      </c>
+      <c r="B5" s="10">
+        <v>7028</v>
+      </c>
+      <c r="C5" s="31">
         <f t="shared" si="0"/>
-        <v>0.35072345628693702</v>
+        <v>0.35281124497991967</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" s="9">
+        <v>319</v>
+      </c>
+      <c r="B6" s="10">
         <v>115</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="31">
         <f t="shared" si="0"/>
-        <v>5.8589769716731197E-3</v>
+        <v>5.7730923694779114E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B7" s="9">
-        <v>5305</v>
-      </c>
-      <c r="C7" s="27">
+        <v>320</v>
+      </c>
+      <c r="B7" s="10">
+        <v>5360</v>
+      </c>
+      <c r="C7" s="31">
         <f t="shared" si="0"/>
-        <v>0.27027715508457306</v>
+        <v>0.26907630522088355</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" s="9">
-        <v>4390</v>
-      </c>
-      <c r="C8" s="27">
+        <v>307</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4433</v>
+      </c>
+      <c r="C8" s="31">
         <f t="shared" si="0"/>
-        <v>0.22366007744039126</v>
+        <v>0.22254016064257029</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="9">
-        <v>19628</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="B9" s="10">
+        <v>19920</v>
+      </c>
+      <c r="C9" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="A11" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="A12" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5032,179 +4536,179 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="A1" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B3" s="11">
         <v>0</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="31">
         <f>B3/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B4" s="11">
         <v>0</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="31">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B5" s="11">
         <v>0</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B6" s="11">
         <v>11</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="31">
         <f t="shared" si="0"/>
         <v>1.6616314199395771E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B7" s="11">
         <v>13</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="31">
         <f t="shared" si="0"/>
         <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B8" s="11">
         <v>26</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="31">
         <f t="shared" si="0"/>
         <v>3.9274924471299093E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B9" s="11">
         <v>72</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="31">
         <f t="shared" si="0"/>
         <v>0.10876132930513595</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B10" s="11">
         <v>60</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="31">
         <f t="shared" si="0"/>
         <v>9.0634441087613288E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B11" s="11">
         <v>74</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="31">
         <f t="shared" si="0"/>
         <v>0.11178247734138973</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B12" s="11">
         <v>69</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="31">
         <f t="shared" si="0"/>
         <v>0.10422960725075529</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B13" s="11">
         <v>70</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="31">
         <f t="shared" si="0"/>
         <v>0.10574018126888217</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B14" s="11">
         <v>265</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="31">
         <f t="shared" si="0"/>
         <v>0.40030211480362538</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="31">
         <f t="shared" si="0"/>
         <v>3.0211480362537764E-3</v>
       </c>
@@ -5216,24 +4720,24 @@
       <c r="B16" s="11">
         <v>662</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5264,55 +4768,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="A1" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B3" s="11">
         <v>271</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="31">
         <f>B3/B$6</f>
         <v>0.40936555891238668</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B4" s="11">
         <v>363</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="31">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
         <v>0.54833836858006046</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B5" s="11">
         <v>28</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="31">
         <f t="shared" si="0"/>
         <v>4.2296072507552872E-2</v>
       </c>
@@ -5324,24 +4828,24 @@
       <c r="B6" s="11">
         <v>662</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5350,7 +4854,7 @@
     <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5368,95 +4872,95 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="A1" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B3" s="11">
         <v>13</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="31">
         <f>B3/B$9</f>
         <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B4" s="11">
         <v>85</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="31">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
         <v>0.12839879154078551</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B5" s="11">
         <v>171</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="31">
         <f t="shared" si="0"/>
         <v>0.2583081570996979</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B6" s="11">
         <v>5</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="31">
         <f t="shared" si="0"/>
         <v>7.5528700906344415E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B7" s="11">
         <v>269</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="31">
         <f t="shared" si="0"/>
         <v>0.40634441087613293</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B8" s="11">
         <v>119</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="31">
         <f t="shared" si="0"/>
         <v>0.1797583081570997</v>
       </c>
@@ -5468,24 +4972,24 @@
       <c r="B9" s="11">
         <v>662</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="A11" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="A12" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5500,39 +5004,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95:E95"/>
+      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6964,7 +6467,7 @@
     </row>
     <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B87" s="4">
         <v>93206</v>
@@ -7081,20 +6584,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="25" t="s">
+    <row r="94" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>44005</v>
+      </c>
+      <c r="B94" s="4">
+        <v>120370</v>
+      </c>
+      <c r="C94" s="4">
+        <v>2220</v>
+      </c>
+      <c r="D94" s="4">
+        <v>5489</v>
+      </c>
+      <c r="E94" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A96:E96"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7118,10 +6638,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -7133,17 +6653,17 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>69190</v>
+        <v>70714</v>
       </c>
       <c r="B3" s="8">
-        <v>43499</v>
+        <v>47436</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7160,54 +6680,56 @@
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="16" t="s">
         <v>330</v>
       </c>
     </row>
@@ -7215,865 +6737,1117 @@
       <c r="A3" s="6">
         <v>43925</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="B3" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="17">
         <v>63751</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="14">
         <v>0.1056</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="F3" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43926</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="B4" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="17">
         <v>70938</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43927</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="B5" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="17">
         <v>85357</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="14">
         <v>8.8909998585200004E-2</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="F5" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43928</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="B6" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="17">
         <v>88649</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="14">
         <v>0.1094</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43929</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="B7" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="17">
         <v>96258</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="14">
         <v>0.11070000000000001</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="F7" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43930</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="B8" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="17">
         <v>106134</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="14">
         <v>0.100351636462</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="F8" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43931</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="B9" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="17">
         <v>115918</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="14">
         <v>0.1055125178708</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="F9" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43932</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="B10" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="17">
         <v>120533</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="14">
         <v>0.11360000000000001</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43933</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="B11" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="17">
         <v>124553</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="14">
         <v>0.12479999999999999</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="F11" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43934</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="B12" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="17">
         <v>133226</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="14">
         <v>0.1386</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="F12" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43935</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="B13" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="17">
         <v>146467</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="14">
         <v>0.1101</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="F13" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43936</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="B14" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="17">
         <v>151810</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="14">
         <v>0.1105</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="F14" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43937</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="B15" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="17">
         <v>158547</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="14">
         <v>0.1188</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="F15" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43938</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="B16" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="17">
         <v>169536</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="14">
         <v>0.10630000000000001</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="F16" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43939</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="B17" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="17">
         <v>176239</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="14">
         <v>0.1023</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="F17" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43940</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="B18" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="17">
         <v>182710</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="14">
         <v>9.35E-2</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="F18" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43941</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D19" s="9">
+      <c r="B19" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="17">
         <v>190394</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="14">
         <v>9.7117268401900006E-2</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="F19" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43942</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="B20" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="17">
         <v>205399</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="14">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="F20" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43943</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D21" s="9">
+      <c r="B21" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="17">
         <v>216783</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="14">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="F21" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43944</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="B22" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" s="17">
         <v>225078</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="14">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="F22" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43945</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="B23" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23" s="17">
         <v>242547</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="14">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="F23" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43946</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="B24" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="17">
         <v>262816</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="14">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="F24" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>43947</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D25" s="9">
+      <c r="B25" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" s="17">
         <v>276021</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="14">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="F25" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43948</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="B26" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="17">
         <v>290517</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="14">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="F26" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43949</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="B27" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="17">
         <v>300384</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="14">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="F27" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43950</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="B28" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28" s="17">
         <v>314790</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="14">
         <v>6.10670666381E-2</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="F28" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43951</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D29" s="9">
+      <c r="B29" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="17">
         <v>330300</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="14">
         <v>5.8381327098900003E-2</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="F29" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43952</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="B30" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="17">
         <v>351775</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="14">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="F30" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>43953</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D31" s="9">
+      <c r="B31" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D31" s="17">
         <v>380648</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="14">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="F31" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43954</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="B32" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" s="17">
         <v>390560</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="14">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="F32" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43955</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D33" s="9">
+      <c r="B33" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D33" s="17">
         <v>407398</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="14">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="F33" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43956</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D34" s="9">
+      <c r="B34" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="17">
         <v>427210</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="14">
         <v>5.6754924069199998E-2</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="F34" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43957</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D35" s="9">
+      <c r="B35" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D35" s="17">
         <v>438938</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="14">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="F35" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43958</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="B36" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="17">
         <v>455162</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="14">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="F36" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>43959</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D37" s="9">
+      <c r="B37" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D37" s="17">
         <v>477118</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="14">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="F37" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>43960</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="17">
         <v>472782</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="17">
         <v>16512</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="17">
         <v>489294</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="14">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="F38" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>43961</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="17">
         <v>496328</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="17">
         <v>17650</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="17">
         <v>513978</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="14">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="F39" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43962</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="17">
         <v>506771</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="17">
         <v>18926</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="17">
         <v>525697</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="14">
         <v>6.3711443038399998E-2</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="F40" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>43963</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="17">
         <v>511385</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="17">
         <v>26787</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="17">
         <v>538172</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="14">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="F41" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43964</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="17">
         <v>556776</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="17">
         <v>30655</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="17">
         <v>587431</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="14">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="F42" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43965</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="17">
         <v>587313</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="17">
         <v>35971</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="17">
         <v>623284</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="14">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+      <c r="F43" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43966</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="17">
         <v>609630</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="17">
         <v>36362</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="17">
         <v>645992</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="14">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="F44" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43967</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="17">
         <v>638739</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="17">
         <v>39732</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="17">
         <v>678471</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="14">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="17">
         <v>23708</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="17">
         <v>3317</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="17">
         <v>27025</v>
       </c>
     </row>
@@ -8081,25 +7855,25 @@
       <c r="A46" s="6">
         <v>43968</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="17">
         <v>650355</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="17">
         <v>42921</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="17">
         <v>693276</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="14">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="17">
         <v>22004</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="17">
         <v>3610</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="17">
         <v>25614</v>
       </c>
     </row>
@@ -8107,25 +7881,25 @@
       <c r="A47" s="6">
         <v>43969</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="17">
         <v>679845</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="17">
         <v>43168</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="17">
         <v>723013</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="14">
         <v>4.4720144337000001E-2</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="17">
         <v>24725</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="17">
         <v>3463</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="17">
         <v>28188</v>
       </c>
     </row>
@@ -8133,25 +7907,25 @@
       <c r="A48" s="6">
         <v>43970</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="17">
         <v>700146</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="17">
         <v>44791</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="17">
         <v>744937</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="14">
         <v>4.7E-2</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="17">
         <v>26966</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="17">
         <v>2572</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="17">
         <v>29538</v>
       </c>
     </row>
@@ -8159,25 +7933,25 @@
       <c r="A49" s="6">
         <v>43971</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="17">
         <v>720928</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="17">
         <v>49313</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="17">
         <v>770241</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="14">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="17">
         <v>23450</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="17">
         <v>2665</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="17">
         <v>26116</v>
       </c>
     </row>
@@ -8185,25 +7959,25 @@
       <c r="A50" s="6">
         <v>43972</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="17">
         <v>740181</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="17">
         <v>60252</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="17">
         <v>800433</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="14">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="17">
         <v>21838</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="17">
         <v>3469</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="17">
         <v>25307</v>
       </c>
     </row>
@@ -8211,25 +7985,25 @@
       <c r="A51" s="6">
         <v>43973</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="17">
         <v>762706</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="17">
         <v>71731</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="17">
         <v>834437</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="14">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="17">
         <v>21868</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="17">
         <v>5053</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="17">
         <v>26921</v>
       </c>
     </row>
@@ -8237,21 +8011,25 @@
       <c r="A52" s="6">
         <v>43974</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D52" s="9">
+      <c r="B52" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" s="17">
         <v>870935</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9">
+      <c r="E52" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H52" s="17">
         <v>27495</v>
       </c>
     </row>
@@ -8259,25 +8037,25 @@
       <c r="A53" s="6">
         <v>43975</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="17">
         <v>805654</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="17">
         <v>80700</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="17">
         <v>886354</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="14">
         <v>4.87E-2</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="17">
         <v>22186</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="17">
         <v>5397</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="17">
         <v>27583</v>
       </c>
     </row>
@@ -8285,25 +8063,25 @@
       <c r="A54" s="6">
         <v>43976</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="17">
         <v>821233</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="17">
         <v>84841</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="17">
         <v>906074</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="14">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="17">
         <v>20198</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="17">
         <v>5953</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="17">
         <v>26152</v>
       </c>
     </row>
@@ -8311,25 +8089,25 @@
       <c r="A55" s="6">
         <v>43977</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="17">
         <v>855674</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="17">
         <v>87565</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="17">
         <v>943239</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="14">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="17">
         <v>22218</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="17">
         <v>6111</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="17">
         <v>28329</v>
       </c>
     </row>
@@ -8337,25 +8115,25 @@
       <c r="A56" s="6">
         <v>43978</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="17">
         <v>873218</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="17">
         <v>88643</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="17">
         <v>961861</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="14">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="17">
         <v>21756</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="17">
         <v>5619</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="17">
         <v>27374</v>
       </c>
     </row>
@@ -8363,25 +8141,25 @@
       <c r="A57" s="6">
         <v>43979</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="17">
         <v>893275</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="17">
         <v>96719</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="17">
         <v>989994</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="14">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="17">
         <v>21871</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="17">
         <v>5210</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="17">
         <v>27080</v>
       </c>
     </row>
@@ -8389,25 +8167,25 @@
       <c r="A58" s="6">
         <v>43980</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="17">
         <v>928517</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="17">
         <v>98932</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="17">
         <v>1027449</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="14">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="17">
         <v>23687</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="17">
         <v>3886</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="17">
         <v>27573</v>
       </c>
     </row>
@@ -8415,21 +8193,25 @@
       <c r="A59" s="6">
         <v>43981</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="17">
         <v>951865</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="17">
         <v>102928</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="17">
         <v>1054793</v>
       </c>
-      <c r="E59" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9">
+      <c r="E59" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H59" s="17">
         <v>26265</v>
       </c>
     </row>
@@ -8437,25 +8219,25 @@
       <c r="A60" s="6">
         <v>43982</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="17">
         <v>970031</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="17">
         <v>103460</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="17">
         <v>1073491</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="14">
         <v>5.43810873784E-2</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="17">
         <v>23482</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="17">
         <v>3251</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="17">
         <v>26734</v>
       </c>
     </row>
@@ -8463,25 +8245,25 @@
       <c r="A61" s="6">
         <v>43983</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="17">
         <v>986224</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="17">
         <v>107452</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="17">
         <v>1093676</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="14">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="17">
         <v>23570</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="17">
         <v>3230</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="17">
         <v>26800</v>
       </c>
     </row>
@@ -8489,25 +8271,25 @@
       <c r="A62" s="6">
         <v>43984</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="17">
         <v>1006768</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="17">
         <v>110506</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="17">
         <v>1117274</v>
       </c>
-      <c r="E62" s="13">
-        <v>6.6236912120931343E-2</v>
-      </c>
-      <c r="F62" s="9">
+      <c r="E62" s="14">
+        <v>6.6236912120929997E-2</v>
+      </c>
+      <c r="F62" s="17">
         <v>21585</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="17">
         <v>3277</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="17">
         <v>24862</v>
       </c>
     </row>
@@ -8515,25 +8297,25 @@
       <c r="A63" s="6">
         <v>43985</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="17">
         <v>1038555</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="17">
         <v>112313</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="17">
         <v>1150868</v>
       </c>
-      <c r="E63" s="13">
-        <v>6.2599418158065037E-2</v>
-      </c>
-      <c r="F63" s="9">
+      <c r="E63" s="14">
+        <v>6.2599418158070005E-2</v>
+      </c>
+      <c r="F63" s="17">
         <v>23620</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="17">
         <v>3381</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="17">
         <v>27001</v>
       </c>
     </row>
@@ -8541,25 +8323,25 @@
       <c r="A64" s="6">
         <v>43986</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="17">
         <v>1061576</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="17">
         <v>113372</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="17">
         <v>1174948</v>
       </c>
-      <c r="E64" s="13">
-        <v>6.0272963321667726E-2</v>
-      </c>
-      <c r="F64" s="9">
+      <c r="E64" s="14">
+        <v>6.0272963321670002E-2</v>
+      </c>
+      <c r="F64" s="17">
         <v>24043</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="17">
         <v>2379</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="17">
         <v>26422</v>
       </c>
     </row>
@@ -8567,25 +8349,25 @@
       <c r="A65" s="6">
         <v>43987</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="17">
         <v>1093277</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="17">
         <v>115910</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="17">
         <v>1209187</v>
       </c>
-      <c r="E65" s="13">
-        <v>6.4378489924739019E-2</v>
-      </c>
-      <c r="F65" s="9">
+      <c r="E65" s="14">
+        <v>6.4378489924740004E-2</v>
+      </c>
+      <c r="F65" s="17">
         <v>23537</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="17">
         <v>2425</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="17">
         <v>25963</v>
       </c>
     </row>
@@ -8593,25 +8375,25 @@
       <c r="A66" s="6">
         <v>43988</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="17">
         <v>1092012</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="17">
         <v>126943</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="17">
         <v>1218955</v>
       </c>
-      <c r="E66" s="13">
-        <v>8.00231185826311E-2</v>
-      </c>
-      <c r="F66" s="9">
+      <c r="E66" s="14">
+        <v>8.0023118582630004E-2</v>
+      </c>
+      <c r="F66" s="17">
         <v>20021</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="17">
         <v>3431</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="17">
         <v>23452</v>
       </c>
     </row>
@@ -8619,25 +8401,25 @@
       <c r="A67" s="6">
         <v>43989</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="17">
         <v>1120316</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="17">
         <v>135583</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="17">
         <v>1255899</v>
       </c>
-      <c r="E67" s="13">
-        <v>7.1138170808796614E-2</v>
-      </c>
-      <c r="F67" s="9">
+      <c r="E67" s="14">
+        <v>7.11381708088E-2</v>
+      </c>
+      <c r="F67" s="17">
         <v>21469</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="17">
         <v>4589</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="17">
         <v>26058</v>
       </c>
     </row>
@@ -8645,25 +8427,25 @@
       <c r="A68" s="6">
         <v>43990</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="17">
         <v>1147355</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="17">
         <v>138784</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="17">
         <v>1286139</v>
       </c>
-      <c r="E68" s="13">
-        <v>6.6629016142145212E-2</v>
-      </c>
-      <c r="F68" s="9">
+      <c r="E68" s="14">
+        <v>6.6629016142149999E-2</v>
+      </c>
+      <c r="F68" s="17">
         <v>23019</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="17">
         <v>4476</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="17">
         <v>27495</v>
       </c>
     </row>
@@ -8671,25 +8453,25 @@
       <c r="A69" s="6">
         <v>43991</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="17">
         <v>1161087</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="17">
         <v>140962</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="17">
         <v>1302049</v>
       </c>
-      <c r="E69" s="13">
-        <v>6.9239691807230483E-2</v>
-      </c>
-      <c r="F69" s="9">
+      <c r="E69" s="14">
+        <v>6.9239691807229997E-2</v>
+      </c>
+      <c r="F69" s="17">
         <v>22046</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="17">
         <v>4351</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="17">
         <v>26396</v>
       </c>
     </row>
@@ -8697,25 +8479,25 @@
       <c r="A70" s="6">
         <v>43992</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="17">
         <v>1206320</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="17">
         <v>142573</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="17">
         <v>1348893</v>
       </c>
-      <c r="E70" s="13">
-        <v>6.8464816856912941E-2</v>
-      </c>
-      <c r="F70" s="9">
+      <c r="E70" s="14">
+        <v>6.8464816856909999E-2</v>
+      </c>
+      <c r="F70" s="17">
         <v>23966</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="17">
         <v>4323</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="17">
         <v>28289</v>
       </c>
     </row>
@@ -8723,25 +8505,25 @@
       <c r="A71" s="6">
         <v>43993</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="17">
         <v>1226957</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="17">
         <v>143174</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="17">
         <v>1370131</v>
       </c>
-      <c r="E71" s="13">
-        <v>7.0522006760147776E-2</v>
-      </c>
-      <c r="F71" s="9">
+      <c r="E71" s="14">
+        <v>7.0522006760149997E-2</v>
+      </c>
+      <c r="F71" s="17">
         <v>23626</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G71" s="17">
         <v>4257</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="17">
         <v>27883</v>
       </c>
     </row>
@@ -8749,25 +8531,25 @@
       <c r="A72" s="6">
         <v>43994</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="17">
         <v>1260319</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="17">
         <v>144050</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="17">
         <v>1404369</v>
       </c>
-      <c r="E72" s="13">
-        <v>7.2239317057985419E-2</v>
-      </c>
-      <c r="F72" s="9">
+      <c r="E72" s="14">
+        <v>7.2239317057989999E-2</v>
+      </c>
+      <c r="F72" s="17">
         <v>23863</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="17">
         <v>4020</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="17">
         <v>27883</v>
       </c>
     </row>
@@ -8775,25 +8557,25 @@
       <c r="A73" s="6">
         <v>43995</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="17">
         <v>1295983</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="17">
         <v>146967</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="17">
         <v>1442950</v>
       </c>
-      <c r="E73" s="13">
-        <v>6.1077310009756289E-2</v>
-      </c>
-      <c r="F73" s="9">
+      <c r="E73" s="14">
+        <v>6.1077310009760001E-2</v>
+      </c>
+      <c r="F73" s="17">
         <v>29139</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="17">
         <v>2861</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="17">
         <v>31999</v>
       </c>
     </row>
@@ -8801,25 +8583,25 @@
       <c r="A74" s="6">
         <v>43996</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="17">
         <v>1314761</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="17">
         <v>149090</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="17">
         <v>1463851</v>
       </c>
-      <c r="E74" s="13">
-        <v>6.6219239373601788E-2</v>
-      </c>
-      <c r="F74" s="9">
+      <c r="E74" s="14">
+        <v>6.6219239373599997E-2</v>
+      </c>
+      <c r="F74" s="17">
         <v>27778</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="17">
         <v>1930</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="17">
         <v>29707</v>
       </c>
     </row>
@@ -8827,25 +8609,25 @@
       <c r="A75" s="6">
         <v>43997</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="17">
         <v>1348442</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="17">
         <v>150573</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="17">
         <v>1499015</v>
       </c>
-      <c r="E75" s="13">
-        <v>6.7095336844251494E-2</v>
-      </c>
-      <c r="F75" s="9">
+      <c r="E75" s="14">
+        <v>6.7095336844249995E-2</v>
+      </c>
+      <c r="F75" s="17">
         <v>28727</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="17">
         <v>1684</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="17">
         <v>30411</v>
       </c>
     </row>
@@ -8853,25 +8635,25 @@
       <c r="A76" s="6">
         <v>43998</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="17">
         <v>1369638</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="17">
         <v>152796</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="17">
         <v>1522434</v>
       </c>
-      <c r="E76" s="13">
-        <v>6.9417073042085622E-2</v>
-      </c>
-      <c r="F76" s="9">
+      <c r="E76" s="14">
+        <v>6.9417073042089994E-2</v>
+      </c>
+      <c r="F76" s="17">
         <v>29793</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="17">
         <v>1691</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="17">
         <v>31484</v>
       </c>
     </row>
@@ -8879,25 +8661,25 @@
       <c r="A77" s="6">
         <v>43999</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="17">
         <v>1407741</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="17">
         <v>152796</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="17">
         <v>1560537</v>
       </c>
-      <c r="E77" s="13">
-        <v>7.4977286380268196E-2</v>
-      </c>
-      <c r="F77" s="9">
+      <c r="E77" s="14">
+        <v>7.497728638027E-2</v>
+      </c>
+      <c r="F77" s="17">
         <v>28774</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="17">
         <v>1460</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="17">
         <v>30235</v>
       </c>
     </row>
@@ -8905,25 +8687,25 @@
       <c r="A78" s="6">
         <v>44000</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="17">
         <v>1423914</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="17">
         <v>153011</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="17">
         <v>1576925</v>
       </c>
-      <c r="E78" s="13">
-        <v>8.5257188117203245E-2</v>
-      </c>
-      <c r="F78" s="9">
+      <c r="E78" s="14">
+        <v>8.5257188117199997E-2</v>
+      </c>
+      <c r="F78" s="17">
         <v>28137</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="17">
         <v>1405</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H78" s="17">
         <v>29542</v>
       </c>
     </row>
@@ -8931,25 +8713,25 @@
       <c r="A79" s="6">
         <v>44001</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="17">
         <v>1463398</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="17">
         <v>159453</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="17">
         <v>1622851</v>
       </c>
-      <c r="E79" s="13">
-        <v>8.9369161754785084E-2</v>
-      </c>
-      <c r="F79" s="9">
+      <c r="E79" s="14">
+        <v>8.9369161754789997E-2</v>
+      </c>
+      <c r="F79" s="17">
         <v>29011</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="17">
         <v>2200</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="17">
         <v>31212</v>
       </c>
     </row>
@@ -8957,28 +8739,25 @@
       <c r="A80" s="6">
         <v>44002</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="17">
         <v>1526180</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="17">
         <v>163944</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="17">
         <v>1690124</v>
       </c>
-      <c r="E80" s="13">
-        <v>8.7959443433233281E-2</v>
-      </c>
-      <c r="F80" s="9">
-        <f>ROUND((B80-B73)/7,0)</f>
+      <c r="E80" s="14">
+        <v>8.7959443433230006E-2</v>
+      </c>
+      <c r="F80" s="17">
         <v>32885</v>
       </c>
-      <c r="G80" s="9">
-        <f t="shared" ref="G80:H80" si="0">ROUND((C80-C73)/7,0)</f>
+      <c r="G80" s="17">
         <v>2425</v>
       </c>
-      <c r="H80" s="9">
-        <f t="shared" si="0"/>
+      <c r="H80" s="17">
         <v>35311</v>
       </c>
     </row>
@@ -8986,28 +8765,25 @@
       <c r="A81" s="6">
         <v>44003</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="17">
         <v>1549009</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="17">
         <v>166168</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="17">
         <v>1715177</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E81" s="14">
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="F81" s="9">
-        <f>ROUND((B81-B74)/7,0)</f>
+      <c r="F81" s="17">
         <v>33464</v>
       </c>
-      <c r="G81" s="9">
-        <f t="shared" ref="G81:H81" si="1">ROUND((C81-C74)/7,0)</f>
+      <c r="G81" s="17">
         <v>2440</v>
       </c>
-      <c r="H81" s="9">
-        <f t="shared" si="1"/>
+      <c r="H81" s="17">
         <v>35904</v>
       </c>
     </row>
@@ -9015,32 +8791,70 @@
       <c r="A82" s="6">
         <v>44004</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D82" s="9">
+      <c r="B82" s="17">
+        <v>1597290</v>
+      </c>
+      <c r="C82" s="17">
+        <v>170411</v>
+      </c>
+      <c r="D82" s="17">
         <v>1767701</v>
       </c>
-      <c r="E82" s="13"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-    </row>
-    <row r="84" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
+      <c r="E82" s="14">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="F82" s="17">
+        <v>35549.714285714283</v>
+      </c>
+      <c r="G82" s="17">
+        <v>2834</v>
+      </c>
+      <c r="H82" s="17">
+        <v>38383.714285714283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>44005</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D83" s="17">
+        <v>1805642</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A84:D84"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A84:H84"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9054,7 +8868,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9064,48 +8878,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" s="23"/>
+      <c r="A1" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B3" s="8">
-        <v>74725</v>
+        <v>76127</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B4" s="8">
-        <v>1692976</v>
+        <v>1729515</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B5" s="8">
-        <v>1767701</v>
+        <v>1805642</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" s="23"/>
+      <c r="A7" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9118,55 +8932,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9606CF8A-3FB9-4334-BA14-7B299E496C8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F42E27-2ADA-4DF7-B4C1-5CADEA9AFA16}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="14"/>
+    <col min="1" max="1" width="55.453125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="23"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="28">
+        <v>170411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="20"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="B3" s="18">
-        <v>166168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="B4" s="18">
-        <v>6527</v>
+      <c r="B4" s="28">
+        <v>6606</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" s="20"/>
+      <c r="A6" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9185,7 +8999,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9195,57 +9009,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" s="23"/>
+      <c r="A1" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B3" s="8">
-        <v>3711</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B4" s="8">
-        <v>55304</v>
+        <v>54642</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B5" s="8">
-        <v>14697</v>
+        <v>14260</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B6" s="8">
-        <v>1517</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B7" s="8">
-        <v>5818</v>
+        <v>5781</v>
       </c>
     </row>
   </sheetData>
@@ -9259,12 +9073,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9275,21 +9089,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="A1" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -10170,6 +9984,17 @@
       </c>
       <c r="C82" s="8">
         <v>3711</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>81</v>
+      </c>
+      <c r="B83" s="6">
+        <v>44005</v>
+      </c>
+      <c r="C83" s="8">
+        <v>4092</v>
       </c>
     </row>
   </sheetData>
@@ -10195,208 +10020,208 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-    </row>
-    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" s="9">
-        <v>74</v>
-      </c>
-      <c r="C3" s="27">
+        <v>295</v>
+      </c>
+      <c r="B3" s="10">
+        <v>76</v>
+      </c>
+      <c r="C3" s="31">
         <f>B3/B$16</f>
-        <v>3.7701243122070511E-3</v>
+        <v>3.8152610441767069E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" s="9">
-        <v>308</v>
-      </c>
-      <c r="C4" s="27">
+        <v>296</v>
+      </c>
+      <c r="B4" s="10">
+        <v>316</v>
+      </c>
+      <c r="C4" s="31">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.5691868758915834E-2</v>
+        <v>1.5863453815261046E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="9">
-        <v>820</v>
-      </c>
-      <c r="C5" s="27">
+        <v>297</v>
+      </c>
+      <c r="B5" s="10">
+        <v>840</v>
+      </c>
+      <c r="C5" s="31">
         <f t="shared" si="0"/>
-        <v>4.177705318932138E-2</v>
+        <v>4.2168674698795178E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B6" s="9">
-        <v>3242</v>
-      </c>
-      <c r="C6" s="27">
+        <v>298</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3301</v>
+      </c>
+      <c r="C6" s="31">
         <f t="shared" si="0"/>
-        <v>0.16517220297534135</v>
+        <v>0.1657128514056225</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7" s="9">
-        <v>3598</v>
-      </c>
-      <c r="C7" s="27">
+        <v>299</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3647</v>
+      </c>
+      <c r="C7" s="31">
         <f t="shared" si="0"/>
-        <v>0.1833095577746077</v>
+        <v>0.18308232931726909</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" s="9">
-        <v>3562</v>
-      </c>
-      <c r="C8" s="27">
+        <v>300</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3624</v>
+      </c>
+      <c r="C8" s="31">
         <f t="shared" si="0"/>
-        <v>0.18147544324434481</v>
+        <v>0.1819277108433735</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9" s="9">
-        <v>3455</v>
-      </c>
-      <c r="C9" s="27">
+        <v>301</v>
+      </c>
+      <c r="B9" s="10">
+        <v>3495</v>
+      </c>
+      <c r="C9" s="31">
         <f t="shared" si="0"/>
-        <v>0.17602404727939677</v>
+        <v>0.17545180722891565</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1387</v>
-      </c>
-      <c r="C10" s="27">
+        <v>302</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1405</v>
+      </c>
+      <c r="C10" s="31">
         <f t="shared" si="0"/>
-        <v>7.0664357040961898E-2</v>
+        <v>7.0532128514056228E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" s="9">
-        <v>1036</v>
-      </c>
-      <c r="C11" s="27">
+        <v>303</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1049</v>
+      </c>
+      <c r="C11" s="31">
         <f t="shared" si="0"/>
-        <v>5.2781740370898715E-2</v>
+        <v>5.2660642570281121E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B12" s="9">
-        <v>663</v>
-      </c>
-      <c r="C12" s="27">
+        <v>304</v>
+      </c>
+      <c r="B12" s="10">
+        <v>669</v>
+      </c>
+      <c r="C12" s="31">
         <f t="shared" si="0"/>
-        <v>3.3778275932341555E-2</v>
+        <v>3.3584337349397593E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13" s="9">
-        <v>490</v>
-      </c>
-      <c r="C13" s="27">
+        <v>305</v>
+      </c>
+      <c r="B13" s="10">
+        <v>497</v>
+      </c>
+      <c r="C13" s="31">
         <f t="shared" si="0"/>
-        <v>2.4964336661911554E-2</v>
+        <v>2.4949799196787147E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" s="9">
-        <v>992</v>
-      </c>
-      <c r="C14" s="27">
+        <v>306</v>
+      </c>
+      <c r="B14" s="10">
+        <v>990</v>
+      </c>
+      <c r="C14" s="31">
         <f t="shared" si="0"/>
-        <v>5.0540044833910738E-2</v>
+        <v>4.9698795180722892E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="27">
+        <v>307</v>
+      </c>
+      <c r="B15" s="10">
+        <v>11</v>
+      </c>
+      <c r="C15" s="31">
         <f t="shared" si="0"/>
-        <v>5.0947625840635824E-5</v>
+        <v>5.5220883534136541E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="9">
-        <v>19628</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="B16" s="10">
+        <v>19920</v>
+      </c>
+      <c r="C16" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10405,6 +10230,6 @@
     <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED48B9FC-18B7-4335-B1E2-A5FC9D06C638}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{82561E7D-F1DA-414A-B55C-E2C2938E03CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17900" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21080" windowHeight="11060" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <sheet name="Recoveries" sheetId="3" r:id="rId3"/>
     <sheet name="Tests by day" sheetId="4" r:id="rId4"/>
     <sheet name="Tests" sheetId="5" r:id="rId5"/>
-    <sheet name="Antibody Tests" sheetId="14" r:id="rId6"/>
-    <sheet name="Hospitalizations" sheetId="6" r:id="rId7"/>
-    <sheet name="Hospitalization by Day" sheetId="7" r:id="rId8"/>
-    <sheet name="Cases by Age Group" sheetId="8" r:id="rId9"/>
-    <sheet name="Cases by Gender" sheetId="9" r:id="rId10"/>
-    <sheet name="Cases by RaceEthnicity" sheetId="10" r:id="rId11"/>
-    <sheet name="Fatalities by Age Group" sheetId="11" r:id="rId12"/>
-    <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
-    <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
+    <sheet name="Antibody Tests" sheetId="6" r:id="rId6"/>
+    <sheet name="Hospitalizations" sheetId="7" r:id="rId7"/>
+    <sheet name="Hospitalization by Day" sheetId="8" r:id="rId8"/>
+    <sheet name="Cases by Age Group" sheetId="9" r:id="rId9"/>
+    <sheet name="Cases by Gender" sheetId="10" r:id="rId10"/>
+    <sheet name="Cases by RaceEthnicity" sheetId="11" r:id="rId11"/>
+    <sheet name="Fatalities by Age Group" sheetId="12" r:id="rId12"/>
+    <sheet name="Fatalities by Gender" sheetId="13" r:id="rId13"/>
+    <sheet name="Fatalities by Race-Ethnicity" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
@@ -35,7 +35,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="336">
   <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/23 at 10:45AM CST</t>
+    <t>COVID-19 Cases and Fatalities by County as of 6/24 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/23 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/24 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -842,7 +842,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/23 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/24 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -854,7 +854,18 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/23 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/24 at 3:00PM CST</t>
+  </si>
+  <si>
+    <t>Viral Tests</t>
+  </si>
+  <si>
+    <t>Antibody
+Tests</t>
+  </si>
+  <si>
+    <t>Total Tests
+reported</t>
   </si>
   <si>
     <t>COVID-19
@@ -862,10 +873,29 @@
 Rate</t>
   </si>
   <si>
+    <t>New Viral
+Tests
+Reported*
+(Avera</t>
+  </si>
+  <si>
+    <t>New
+Antibody
+Tests
+Reported*
+(Av</t>
+  </si>
+  <si>
+    <t>New Total
+Tests
+Reported*
+(Avera</t>
+  </si>
+  <si>
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/23 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/24 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -886,7 +916,10 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/23 at 9:30AM CST</t>
+    <t>Number of COVID-19 Antibody Tests in Texas as of 6/23 at 3:00PM CST</t>
+  </si>
+  <si>
+    <t>Texas Statewide Hospitalization Data as of 6/24 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -907,7 +940,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/23 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/24 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -916,7 +949,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/23 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/24 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -971,10 +1004,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          19,920</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/23 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          20,255</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/24 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -986,7 +1019,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/23 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/24 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1007,68 +1040,45 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/23 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/24 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Completed investigations received by DSHS =          662</t>
   </si>
   <si>
-    <t>Gender of Confirmed Fatalities as of 6/23 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/23 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Viral Tests</t>
-  </si>
-  <si>
-    <t>Antibody Tests</t>
-  </si>
-  <si>
-    <t>Total Tests
-reported</t>
-  </si>
-  <si>
-    <t>New Viral Tests Reported* (Average of previous 7 days)</t>
-  </si>
-  <si>
-    <t>New Antibody Tests Reported* (Average of previous 7 days)</t>
-  </si>
-  <si>
-    <t>New Total Tests Reported* (Average of previous 7 days)</t>
+    <t>Gender of Confirmed Fatalities as of 6/24 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/24 at 9:30 AM CST</t>
   </si>
   <si>
     <t>06/16/2020-TDCJ*</t>
   </si>
   <si>
+    <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
+  </si>
+  <si>
     <t>Number of Antibody Tests Reported (included in total test numbers)</t>
   </si>
   <si>
     <t>Number of Positive Antibody Tests Reported</t>
-  </si>
-  <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/22 at 3:00PM CST</t>
-  </si>
-  <si>
-    <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="###,##0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="#########0"/>
-    <numFmt numFmtId="167" formatCode="##,###,##0"/>
-    <numFmt numFmtId="168" formatCode="###,###,###,###,##0"/>
+    <numFmt numFmtId="167" formatCode="#,###,###,##0"/>
+    <numFmt numFmtId="168" formatCode="##,###,##0"/>
+    <numFmt numFmtId="169" formatCode="###,###,###,###,##0"/>
     <numFmt numFmtId="170" formatCode="##0"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -1099,13 +1109,6 @@
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF112277"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1188,13 +1191,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1222,35 +1224,35 @@
     <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1258,45 +1260,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{EDAA6481-E6FF-44F4-B845-56F6FF5241FC}"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Normal 2 3" xfId="2" xr:uid="{8B1BDA7C-875E-488F-AEF7-417074DEB142}"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1429,9 +1424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1465,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -1476,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -1487,7 +1482,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="C5" s="4">
         <v>6</v>
@@ -1509,7 +1504,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -1531,7 +1526,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1542,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1553,7 +1548,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -1564,7 +1559,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -1575,10 +1570,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C13" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1586,7 +1581,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -1608,10 +1603,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>875</v>
+        <v>925</v>
       </c>
       <c r="C16" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1619,10 +1614,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>7156</v>
+        <v>7467</v>
       </c>
       <c r="C17" s="4">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1630,7 +1625,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1663,7 +1658,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C21" s="4">
         <v>13</v>
@@ -1674,7 +1669,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>1814</v>
+        <v>1838</v>
       </c>
       <c r="C22" s="4">
         <v>19</v>
@@ -1685,7 +1680,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>1260</v>
+        <v>1305</v>
       </c>
       <c r="C23" s="4">
         <v>25</v>
@@ -1696,7 +1691,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -1751,7 +1746,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
@@ -1762,7 +1757,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -1773,7 +1768,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -1784,7 +1779,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
@@ -1795,10 +1790,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>1647</v>
+        <v>1758</v>
       </c>
       <c r="C33" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1806,7 +1801,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -1839,7 +1834,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1850,10 +1845,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1861,7 +1856,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -1872,7 +1867,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" s="4">
         <v>0</v>
@@ -1927,7 +1922,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>2250</v>
+        <v>2359</v>
       </c>
       <c r="C45" s="4">
         <v>38</v>
@@ -1949,7 +1944,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1960,7 +1955,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -2004,7 +1999,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -2026,7 +2021,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C54" s="4">
         <v>6</v>
@@ -2048,7 +2043,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2070,7 +2065,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2081,10 +2076,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>17299</v>
+        <v>17744</v>
       </c>
       <c r="C59" s="4">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2114,7 +2109,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C62" s="4">
         <v>16</v>
@@ -2125,7 +2120,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -2136,7 +2131,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>2219</v>
+        <v>2302</v>
       </c>
       <c r="C64" s="4">
         <v>36</v>
@@ -2180,7 +2175,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
@@ -2191,7 +2186,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" s="4">
         <v>0</v>
@@ -2202,7 +2197,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="C70" s="4">
         <v>7</v>
@@ -2224,7 +2219,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>4677</v>
+        <v>4809</v>
       </c>
       <c r="C72" s="4">
         <v>122</v>
@@ -2235,7 +2230,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>539</v>
+        <v>684</v>
       </c>
       <c r="C73" s="4">
         <v>19</v>
@@ -2246,7 +2241,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -2268,7 +2263,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C76" s="4">
         <v>7</v>
@@ -2279,7 +2274,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2323,7 +2318,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>3132</v>
+        <v>3176</v>
       </c>
       <c r="C81" s="4">
         <v>50</v>
@@ -2356,7 +2351,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2378,7 +2373,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>1968</v>
+        <v>2040</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
@@ -2400,7 +2395,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -2433,7 +2428,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
@@ -2455,7 +2450,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="C93" s="4">
         <v>5</v>
@@ -2466,7 +2461,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C94" s="4">
         <v>12</v>
@@ -2488,7 +2483,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -2499,7 +2494,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C97" s="4">
         <v>6</v>
@@ -2554,7 +2549,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2565,10 +2560,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>23047</v>
+        <v>24421</v>
       </c>
       <c r="C103" s="4">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2576,7 +2571,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C104" s="4">
         <v>33</v>
@@ -2609,7 +2604,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>1871</v>
+        <v>2001</v>
       </c>
       <c r="C107" s="4">
         <v>5</v>
@@ -2631,10 +2626,10 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C109" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2642,10 +2637,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>1882</v>
+        <v>2130</v>
       </c>
       <c r="C110" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2664,7 +2659,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -2675,7 +2670,7 @@
         <v>114</v>
       </c>
       <c r="B113" s="4">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C113" s="4">
         <v>4</v>
@@ -2697,7 +2692,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2708,7 +2703,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -2730,7 +2725,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="C118" s="4">
         <v>5</v>
@@ -2741,7 +2736,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -2763,7 +2758,7 @@
         <v>122</v>
       </c>
       <c r="B121" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
@@ -2785,7 +2780,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C123" s="4">
         <v>1</v>
@@ -2807,7 +2802,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1447</v>
+        <v>1486</v>
       </c>
       <c r="C125" s="4">
         <v>32</v>
@@ -2829,7 +2824,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2840,7 +2835,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2862,7 +2857,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -2873,7 +2868,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>374</v>
+        <v>490</v>
       </c>
       <c r="C131" s="4">
         <v>4</v>
@@ -2884,7 +2879,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -2917,7 +2912,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C135" s="4">
         <v>1</v>
@@ -2950,7 +2945,7 @@
         <v>139</v>
       </c>
       <c r="B138" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138" s="4">
         <v>0</v>
@@ -2983,7 +2978,7 @@
         <v>142</v>
       </c>
       <c r="B141" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" s="4">
         <v>0</v>
@@ -2994,7 +2989,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C142" s="4">
         <v>13</v>
@@ -3027,7 +3022,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -3041,7 +3036,7 @@
         <v>53</v>
       </c>
       <c r="C146" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3060,7 +3055,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3126,7 +3121,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>1407</v>
+        <v>1547</v>
       </c>
       <c r="C154" s="4">
         <v>51</v>
@@ -3148,7 +3143,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3159,7 +3154,7 @@
         <v>158</v>
       </c>
       <c r="B157" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C157" s="4">
         <v>1</v>
@@ -3170,7 +3165,7 @@
         <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
@@ -3192,7 +3187,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3203,7 +3198,7 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="C161" s="4">
         <v>2</v>
@@ -3214,7 +3209,7 @@
         <v>163</v>
       </c>
       <c r="B162" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C162" s="4">
         <v>0</v>
@@ -3225,7 +3220,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="C163" s="4">
         <v>5</v>
@@ -3247,7 +3242,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3258,7 +3253,7 @@
         <v>167</v>
       </c>
       <c r="B166" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C166" s="4">
         <v>0</v>
@@ -3269,10 +3264,10 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="C167" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3280,7 +3275,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3313,7 +3308,7 @@
         <v>172</v>
       </c>
       <c r="B171" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C171" s="4">
         <v>1</v>
@@ -3324,7 +3319,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>1647</v>
+        <v>1737</v>
       </c>
       <c r="C172" s="4">
         <v>34</v>
@@ -3346,7 +3341,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3368,7 +3363,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C176" s="4">
         <v>26</v>
@@ -3379,7 +3374,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C177" s="4">
         <v>4</v>
@@ -3390,7 +3385,7 @@
         <v>179</v>
       </c>
       <c r="B178" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C178" s="4">
         <v>0</v>
@@ -3401,7 +3396,7 @@
         <v>180</v>
       </c>
       <c r="B179" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -3412,7 +3407,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>742</v>
+        <v>813</v>
       </c>
       <c r="C180" s="4">
         <v>6</v>
@@ -3445,7 +3440,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
@@ -3456,7 +3451,7 @@
         <v>185</v>
       </c>
       <c r="B184" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C184" s="4">
         <v>2</v>
@@ -3467,10 +3462,10 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C185" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3478,7 +3473,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3489,10 +3484,10 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C187" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3500,7 +3495,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -3511,7 +3506,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3522,7 +3517,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2831</v>
+        <v>2838</v>
       </c>
       <c r="C190" s="4">
         <v>39</v>
@@ -3555,7 +3550,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C193" s="4">
         <v>6</v>
@@ -3599,7 +3594,7 @@
         <v>198</v>
       </c>
       <c r="B197" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -3610,7 +3605,7 @@
         <v>199</v>
       </c>
       <c r="B198" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -3643,7 +3638,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="C201" s="4">
         <v>16</v>
@@ -3654,7 +3649,7 @@
         <v>203</v>
       </c>
       <c r="B202" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -3687,7 +3682,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C205" s="4">
         <v>6</v>
@@ -3698,7 +3693,7 @@
         <v>207</v>
       </c>
       <c r="B206" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -3709,7 +3704,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -3764,7 +3759,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C212" s="4">
         <v>9</v>
@@ -3786,7 +3781,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3797,7 +3792,7 @@
         <v>216</v>
       </c>
       <c r="B215" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
@@ -3808,7 +3803,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="C216" s="4">
         <v>3</v>
@@ -3819,7 +3814,7 @@
         <v>218</v>
       </c>
       <c r="B217" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C217" s="4">
         <v>0</v>
@@ -3863,7 +3858,7 @@
         <v>222</v>
       </c>
       <c r="B221" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C221" s="4">
         <v>1</v>
@@ -3874,10 +3869,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>9126</v>
+        <v>9386</v>
       </c>
       <c r="C222" s="4">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3885,7 +3880,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3929,7 +3924,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C227" s="4">
         <v>4</v>
@@ -3940,7 +3935,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3951,10 +3946,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>6339</v>
+        <v>6596</v>
       </c>
       <c r="C229" s="4">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3962,7 +3957,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -3973,7 +3968,7 @@
         <v>232</v>
       </c>
       <c r="B231" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
@@ -3984,7 +3979,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -4006,7 +4001,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4039,7 +4034,7 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="C237" s="4">
         <v>8</v>
@@ -4050,7 +4045,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1928</v>
+        <v>1950</v>
       </c>
       <c r="C238" s="4">
         <v>28</v>
@@ -4061,7 +4056,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4072,7 +4067,7 @@
         <v>241</v>
       </c>
       <c r="B240" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4083,7 +4078,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C241" s="4">
         <v>27</v>
@@ -4094,10 +4089,10 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>948</v>
+        <v>1003</v>
       </c>
       <c r="C242" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4105,7 +4100,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4127,7 +4122,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -4138,7 +4133,7 @@
         <v>247</v>
       </c>
       <c r="B246" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
@@ -4149,7 +4144,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4160,7 +4155,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>1411</v>
+        <v>1498</v>
       </c>
       <c r="C248" s="4">
         <v>32</v>
@@ -4171,7 +4166,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4182,7 +4177,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4193,7 +4188,7 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C251" s="4">
         <v>5</v>
@@ -4204,7 +4199,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
@@ -4226,7 +4221,7 @@
         <v>255</v>
       </c>
       <c r="B254" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C254" s="4">
         <v>1</v>
@@ -4248,7 +4243,7 @@
         <v>257</v>
       </c>
       <c r="B256" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4259,10 +4254,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>120370</v>
+        <v>125921</v>
       </c>
       <c r="C257" s="4">
-        <v>2220</v>
+        <v>2249</v>
       </c>
     </row>
   </sheetData>
@@ -4275,94 +4270,98 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B3" s="10">
-        <v>9757</v>
-      </c>
-      <c r="C3" s="31">
-        <v>0.49159364173629511</v>
+        <v>319</v>
+      </c>
+      <c r="B3" s="11">
+        <v>9902</v>
+      </c>
+      <c r="C3" s="18">
+        <f>B3/B$6</f>
+        <v>0.48886694643297951</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B4" s="10">
-        <v>9980</v>
-      </c>
-      <c r="C4" s="31">
-        <v>0.49933768086407171</v>
+        <v>320</v>
+      </c>
+      <c r="B4" s="11">
+        <v>10167</v>
+      </c>
+      <c r="C4" s="18">
+        <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
+        <v>0.50195013576894598</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B5" s="10">
-        <v>183</v>
-      </c>
-      <c r="C5" s="31">
-        <v>9.0686773996331779E-3</v>
+        <v>314</v>
+      </c>
+      <c r="B5" s="11">
+        <v>186</v>
+      </c>
+      <c r="C5" s="18">
+        <f t="shared" si="0"/>
+        <v>9.1829177980745497E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="10">
-        <v>19920</v>
-      </c>
-      <c r="C6" s="31">
+      <c r="B6" s="11">
+        <v>20255</v>
+      </c>
+      <c r="C6" s="18">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>308</v>
+      <c r="A8" s="22" t="s">
+        <v>315</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>309</v>
+      <c r="A9" s="22" t="s">
+        <v>316</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -4379,12 +4378,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4392,121 +4391,121 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B3" s="10">
-        <v>593</v>
-      </c>
-      <c r="C3" s="31">
+        <v>323</v>
+      </c>
+      <c r="B3" s="11">
+        <v>598</v>
+      </c>
+      <c r="C3" s="18">
         <f>B3/B$9</f>
-        <v>2.9769076305220885E-2</v>
+        <v>2.9523574426067636E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B4" s="10">
-        <v>2391</v>
-      </c>
-      <c r="C4" s="31">
+        <v>324</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2431</v>
+      </c>
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.12003012048192771</v>
+        <v>0.12001974821031844</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" s="10">
-        <v>7028</v>
-      </c>
-      <c r="C5" s="31">
+        <v>325</v>
+      </c>
+      <c r="B5" s="11">
+        <v>7186</v>
+      </c>
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
-        <v>0.35281124497991967</v>
+        <v>0.35477659837077263</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B6" s="10">
-        <v>115</v>
-      </c>
-      <c r="C6" s="31">
+        <v>326</v>
+      </c>
+      <c r="B6" s="11">
+        <v>117</v>
+      </c>
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
-        <v>5.7730923694779114E-3</v>
+        <v>5.7763515181436685E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B7" s="10">
-        <v>5360</v>
-      </c>
-      <c r="C7" s="31">
+        <v>327</v>
+      </c>
+      <c r="B7" s="11">
+        <v>5431</v>
+      </c>
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
-        <v>0.26907630522088355</v>
+        <v>0.26813132559861763</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B8" s="10">
-        <v>4433</v>
-      </c>
-      <c r="C8" s="31">
+        <v>314</v>
+      </c>
+      <c r="B8" s="11">
+        <v>4492</v>
+      </c>
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
-        <v>0.22254016064257029</v>
+        <v>0.22177240187607997</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="10">
-        <v>19920</v>
-      </c>
-      <c r="C9" s="31">
+      <c r="B9" s="11">
+        <v>20255</v>
+      </c>
+      <c r="C9" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>308</v>
+      <c r="A11" s="22" t="s">
+        <v>315</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>309</v>
+      <c r="A12" s="22" t="s">
+        <v>316</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -4523,12 +4522,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4536,179 +4535,179 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>292</v>
+      <c r="A2" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="31">
+        <v>302</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18">
         <f>B3/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="31">
+        <v>303</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0</v>
-      </c>
-      <c r="C5" s="31">
+        <v>304</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" s="11">
+        <v>305</v>
+      </c>
+      <c r="B6" s="12">
         <v>11</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>1.6616314199395771E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B7" s="11">
+        <v>306</v>
+      </c>
+      <c r="B7" s="12">
         <v>13</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
         <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B8" s="11">
+        <v>307</v>
+      </c>
+      <c r="B8" s="12">
         <v>26</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
         <v>3.9274924471299093E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B9" s="11">
+        <v>308</v>
+      </c>
+      <c r="B9" s="12">
         <v>72</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="18">
         <f t="shared" si="0"/>
         <v>0.10876132930513595</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B10" s="11">
+        <v>309</v>
+      </c>
+      <c r="B10" s="12">
         <v>60</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="18">
         <f t="shared" si="0"/>
         <v>9.0634441087613288E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B11" s="11">
+        <v>310</v>
+      </c>
+      <c r="B11" s="12">
         <v>74</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="18">
         <f t="shared" si="0"/>
         <v>0.11178247734138973</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B12" s="11">
+        <v>311</v>
+      </c>
+      <c r="B12" s="12">
         <v>69</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="18">
         <f t="shared" si="0"/>
         <v>0.10422960725075529</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B13" s="11">
+        <v>312</v>
+      </c>
+      <c r="B13" s="12">
         <v>70</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="18">
         <f t="shared" si="0"/>
         <v>0.10574018126888217</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B14" s="11">
+        <v>313</v>
+      </c>
+      <c r="B14" s="12">
         <v>265</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="18">
         <f t="shared" si="0"/>
         <v>0.40030211480362538</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B15" s="11">
+        <v>314</v>
+      </c>
+      <c r="B15" s="12">
         <v>2</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="18">
         <f t="shared" si="0"/>
         <v>3.0211480362537764E-3</v>
       </c>
@@ -4717,24 +4716,24 @@
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>662</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>308</v>
+      <c r="A18" s="22" t="s">
+        <v>315</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>322</v>
+      <c r="A19" s="22" t="s">
+        <v>329</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -4751,12 +4750,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4764,59 +4763,59 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B3" s="11">
+        <v>319</v>
+      </c>
+      <c r="B3" s="12">
         <v>271</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="18">
         <f>B3/B$6</f>
         <v>0.40936555891238668</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B4" s="11">
+        <v>320</v>
+      </c>
+      <c r="B4" s="12">
         <v>363</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
         <v>0.54833836858006046</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B5" s="11">
+        <v>314</v>
+      </c>
+      <c r="B5" s="12">
         <v>28</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
         <v>4.2296072507552872E-2</v>
       </c>
@@ -4825,24 +4824,24 @@
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>662</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>308</v>
+      <c r="A8" s="22" t="s">
+        <v>315</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
     </row>
-    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>322</v>
+    <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>329</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -4854,17 +4853,17 @@
     <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4872,95 +4871,95 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B3" s="11">
+        <v>323</v>
+      </c>
+      <c r="B3" s="12">
         <v>13</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="18">
         <f>B3/B$9</f>
         <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B4" s="11">
+        <v>324</v>
+      </c>
+      <c r="B4" s="12">
         <v>85</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
         <v>0.12839879154078551</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" s="11">
+        <v>325</v>
+      </c>
+      <c r="B5" s="12">
         <v>171</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
         <v>0.2583081570996979</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B6" s="11">
+        <v>326</v>
+      </c>
+      <c r="B6" s="12">
         <v>5</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>7.5528700906344415E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B7" s="11">
+        <v>327</v>
+      </c>
+      <c r="B7" s="12">
         <v>269</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
         <v>0.40634441087613293</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B8" s="11">
+        <v>314</v>
+      </c>
+      <c r="B8" s="12">
         <v>119</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
         <v>0.1797583081570997</v>
       </c>
@@ -4969,24 +4968,24 @@
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>662</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>308</v>
+      <c r="A11" s="22" t="s">
+        <v>315</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>322</v>
+      <c r="A12" s="22" t="s">
+        <v>329</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -4998,22 +4997,23 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -6467,7 +6467,7 @@
     </row>
     <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B87" s="4">
         <v>93206</v>
@@ -6601,20 +6601,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
+    <row r="95" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>44006</v>
+      </c>
+      <c r="B95" s="4">
+        <v>125921</v>
+      </c>
+      <c r="C95" s="4">
+        <v>2249</v>
+      </c>
+      <c r="D95" s="4">
+        <v>5551</v>
+      </c>
+      <c r="E95" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A97:E97"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6627,7 +6644,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -6653,14 +6670,14 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>70714</v>
+        <v>72898.2</v>
       </c>
       <c r="B3" s="8">
-        <v>47436</v>
+        <v>50774</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>270</v>
       </c>
       <c r="B5" s="20"/>
@@ -6677,22 +6694,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -6707,55 +6723,55 @@
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>330</v>
+      <c r="C2" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43925</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="B3" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="17">
         <v>0.1056</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="F3" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6763,25 +6779,25 @@
       <c r="A4" s="6">
         <v>43926</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D4" s="17">
+      <c r="B4" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="17">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H4" s="17" t="s">
+      <c r="F4" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6789,25 +6805,25 @@
       <c r="A5" s="6">
         <v>43927</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="B5" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="17">
         <v>8.8909998585200004E-2</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H5" s="17" t="s">
+      <c r="F5" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6815,25 +6831,25 @@
       <c r="A6" s="6">
         <v>43928</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="B6" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="17">
         <v>0.1094</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6841,25 +6857,25 @@
       <c r="A7" s="6">
         <v>43929</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="B7" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="17">
         <v>0.11070000000000001</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H7" s="17" t="s">
+      <c r="F7" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6867,25 +6883,25 @@
       <c r="A8" s="6">
         <v>43930</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="B8" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="17">
         <v>0.100351636462</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H8" s="17" t="s">
+      <c r="F8" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6893,25 +6909,25 @@
       <c r="A9" s="6">
         <v>43931</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="B9" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="17">
         <v>0.1055125178708</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H9" s="17" t="s">
+      <c r="F9" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6919,25 +6935,25 @@
       <c r="A10" s="6">
         <v>43932</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="B10" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="17">
         <v>0.11360000000000001</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" s="17" t="s">
+      <c r="F10" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6945,25 +6961,25 @@
       <c r="A11" s="6">
         <v>43933</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="B11" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="17">
         <v>0.12479999999999999</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="17" t="s">
+      <c r="F11" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6971,25 +6987,25 @@
       <c r="A12" s="6">
         <v>43934</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="B12" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="17">
         <v>0.1386</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="17" t="s">
+      <c r="F12" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6997,25 +7013,25 @@
       <c r="A13" s="6">
         <v>43935</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="B13" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="17">
         <v>0.1101</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="17" t="s">
+      <c r="F13" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7023,25 +7039,25 @@
       <c r="A14" s="6">
         <v>43936</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="B14" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="17">
         <v>0.1105</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H14" s="17" t="s">
+      <c r="F14" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7049,25 +7065,25 @@
       <c r="A15" s="6">
         <v>43937</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D15" s="17">
+      <c r="B15" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="17">
         <v>0.1188</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H15" s="17" t="s">
+      <c r="F15" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7075,25 +7091,25 @@
       <c r="A16" s="6">
         <v>43938</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D16" s="17">
+      <c r="B16" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="17">
         <v>0.10630000000000001</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="17" t="s">
+      <c r="F16" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7101,25 +7117,25 @@
       <c r="A17" s="6">
         <v>43939</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D17" s="17">
+      <c r="B17" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="17">
         <v>0.1023</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="17" t="s">
+      <c r="F17" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7127,25 +7143,25 @@
       <c r="A18" s="6">
         <v>43940</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D18" s="17">
+      <c r="B18" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="17">
         <v>9.35E-2</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H18" s="17" t="s">
+      <c r="F18" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7153,25 +7169,25 @@
       <c r="A19" s="6">
         <v>43941</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D19" s="17">
+      <c r="B19" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="17">
         <v>9.7117268401900006E-2</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H19" s="17" t="s">
+      <c r="F19" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7179,25 +7195,25 @@
       <c r="A20" s="6">
         <v>43942</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20" s="17">
+      <c r="B20" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="17">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H20" s="17" t="s">
+      <c r="F20" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7205,25 +7221,25 @@
       <c r="A21" s="6">
         <v>43943</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D21" s="17">
+      <c r="B21" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="17">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H21" s="17" t="s">
+      <c r="F21" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7231,25 +7247,25 @@
       <c r="A22" s="6">
         <v>43944</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" s="17">
+      <c r="B22" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="17">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H22" s="17" t="s">
+      <c r="F22" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7257,25 +7273,25 @@
       <c r="A23" s="6">
         <v>43945</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23" s="17">
+      <c r="B23" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="17">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H23" s="17" t="s">
+      <c r="F23" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7283,25 +7299,25 @@
       <c r="A24" s="6">
         <v>43946</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D24" s="17">
+      <c r="B24" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="17">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H24" s="17" t="s">
+      <c r="F24" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7309,25 +7325,25 @@
       <c r="A25" s="6">
         <v>43947</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D25" s="17">
+      <c r="B25" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="17">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H25" s="17" t="s">
+      <c r="F25" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7335,25 +7351,25 @@
       <c r="A26" s="6">
         <v>43948</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D26" s="17">
+      <c r="B26" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="17">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H26" s="17" t="s">
+      <c r="F26" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7361,25 +7377,25 @@
       <c r="A27" s="6">
         <v>43949</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D27" s="17">
+      <c r="B27" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="17">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H27" s="17" t="s">
+      <c r="F27" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7387,25 +7403,25 @@
       <c r="A28" s="6">
         <v>43950</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D28" s="17">
+      <c r="B28" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="17">
         <v>6.10670666381E-2</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H28" s="17" t="s">
+      <c r="F28" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7413,25 +7429,25 @@
       <c r="A29" s="6">
         <v>43951</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D29" s="17">
+      <c r="B29" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="17">
         <v>5.8381327098900003E-2</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H29" s="17" t="s">
+      <c r="F29" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7439,25 +7455,25 @@
       <c r="A30" s="6">
         <v>43952</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="17">
+      <c r="B30" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="17">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H30" s="17" t="s">
+      <c r="F30" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7465,25 +7481,25 @@
       <c r="A31" s="6">
         <v>43953</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D31" s="17">
+      <c r="B31" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="17">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H31" s="17" t="s">
+      <c r="F31" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7491,25 +7507,25 @@
       <c r="A32" s="6">
         <v>43954</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D32" s="17">
+      <c r="B32" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="17">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H32" s="17" t="s">
+      <c r="F32" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7517,25 +7533,25 @@
       <c r="A33" s="6">
         <v>43955</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D33" s="17">
+      <c r="B33" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="17">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H33" s="17" t="s">
+      <c r="F33" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7543,25 +7559,25 @@
       <c r="A34" s="6">
         <v>43956</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D34" s="17">
+      <c r="B34" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="17">
         <v>5.6754924069199998E-2</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H34" s="17" t="s">
+      <c r="F34" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7569,25 +7585,25 @@
       <c r="A35" s="6">
         <v>43957</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D35" s="17">
+      <c r="B35" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="17">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H35" s="17" t="s">
+      <c r="F35" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7595,25 +7611,25 @@
       <c r="A36" s="6">
         <v>43958</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D36" s="17">
+      <c r="B36" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="17">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H36" s="17" t="s">
+      <c r="F36" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7621,25 +7637,25 @@
       <c r="A37" s="6">
         <v>43959</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D37" s="17">
+      <c r="B37" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="17">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="F37" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H37" s="17" t="s">
+      <c r="F37" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7647,25 +7663,25 @@
       <c r="A38" s="6">
         <v>43960</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="8">
         <v>472782</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="8">
         <v>16512</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="17">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="F38" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H38" s="17" t="s">
+      <c r="F38" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7673,25 +7689,25 @@
       <c r="A39" s="6">
         <v>43961</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="8">
         <v>496328</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="8">
         <v>17650</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="17">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F39" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H39" s="17" t="s">
+      <c r="F39" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7699,25 +7715,25 @@
       <c r="A40" s="6">
         <v>43962</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="8">
         <v>506771</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="8">
         <v>18926</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="17">
         <v>6.3711443038399998E-2</v>
       </c>
-      <c r="F40" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H40" s="17" t="s">
+      <c r="F40" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7725,25 +7741,25 @@
       <c r="A41" s="6">
         <v>43963</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="8">
         <v>511385</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="8">
         <v>26787</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="17">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="F41" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H41" s="17" t="s">
+      <c r="F41" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7751,25 +7767,25 @@
       <c r="A42" s="6">
         <v>43964</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="8">
         <v>556776</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="8">
         <v>30655</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="17">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="F42" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H42" s="17" t="s">
+      <c r="F42" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7777,25 +7793,25 @@
       <c r="A43" s="6">
         <v>43965</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="8">
         <v>587313</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="8">
         <v>35971</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="17">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H43" s="17" t="s">
+      <c r="F43" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7803,25 +7819,25 @@
       <c r="A44" s="6">
         <v>43966</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="8">
         <v>609630</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="8">
         <v>36362</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="17">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="F44" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H44" s="17" t="s">
+      <c r="F44" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7829,25 +7845,25 @@
       <c r="A45" s="6">
         <v>43967</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="8">
         <v>638739</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="8">
         <v>39732</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="17">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="8">
         <v>23708</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="8">
         <v>3317</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="8">
         <v>27025</v>
       </c>
     </row>
@@ -7855,25 +7871,25 @@
       <c r="A46" s="6">
         <v>43968</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="8">
         <v>650355</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="8">
         <v>42921</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="17">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="8">
         <v>22004</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="8">
         <v>3610</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="8">
         <v>25614</v>
       </c>
     </row>
@@ -7881,25 +7897,25 @@
       <c r="A47" s="6">
         <v>43969</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="8">
         <v>679845</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="8">
         <v>43168</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="17">
         <v>4.4720144337000001E-2</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="8">
         <v>24725</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="8">
         <v>3463</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="8">
         <v>28188</v>
       </c>
     </row>
@@ -7907,25 +7923,25 @@
       <c r="A48" s="6">
         <v>43970</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="8">
         <v>700146</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="8">
         <v>44791</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="17">
         <v>4.7E-2</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="8">
         <v>26966</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="8">
         <v>2572</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="8">
         <v>29538</v>
       </c>
     </row>
@@ -7933,25 +7949,25 @@
       <c r="A49" s="6">
         <v>43971</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="8">
         <v>720928</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="8">
         <v>49313</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="17">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="8">
         <v>23450</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="8">
         <v>2665</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="8">
         <v>26116</v>
       </c>
     </row>
@@ -7959,25 +7975,25 @@
       <c r="A50" s="6">
         <v>43972</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="8">
         <v>740181</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="8">
         <v>60252</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="17">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="8">
         <v>21838</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="8">
         <v>3469</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="8">
         <v>25307</v>
       </c>
     </row>
@@ -7985,25 +8001,25 @@
       <c r="A51" s="6">
         <v>43973</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="8">
         <v>762706</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="8">
         <v>71731</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="17">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="8">
         <v>21868</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="8">
         <v>5053</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="8">
         <v>26921</v>
       </c>
     </row>
@@ -8011,25 +8027,25 @@
       <c r="A52" s="6">
         <v>43974</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D52" s="17">
+      <c r="B52" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H52" s="17">
+      <c r="E52" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H52" s="8">
         <v>27495</v>
       </c>
     </row>
@@ -8037,25 +8053,25 @@
       <c r="A53" s="6">
         <v>43975</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="8">
         <v>805654</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="8">
         <v>80700</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="17">
         <v>4.87E-2</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="8">
         <v>22186</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="8">
         <v>5397</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="8">
         <v>27583</v>
       </c>
     </row>
@@ -8063,25 +8079,25 @@
       <c r="A54" s="6">
         <v>43976</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="8">
         <v>821233</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="8">
         <v>84841</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="17">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="8">
         <v>20198</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="8">
         <v>5953</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="8">
         <v>26152</v>
       </c>
     </row>
@@ -8089,25 +8105,25 @@
       <c r="A55" s="6">
         <v>43977</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="8">
         <v>855674</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="8">
         <v>87565</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="17">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="8">
         <v>22218</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="8">
         <v>6111</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="8">
         <v>28329</v>
       </c>
     </row>
@@ -8115,25 +8131,25 @@
       <c r="A56" s="6">
         <v>43978</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="8">
         <v>873218</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="8">
         <v>88643</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="17">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="8">
         <v>21756</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="8">
         <v>5619</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="8">
         <v>27374</v>
       </c>
     </row>
@@ -8141,25 +8157,25 @@
       <c r="A57" s="6">
         <v>43979</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="8">
         <v>893275</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="8">
         <v>96719</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="17">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="8">
         <v>21871</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="8">
         <v>5210</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="8">
         <v>27080</v>
       </c>
     </row>
@@ -8167,25 +8183,25 @@
       <c r="A58" s="6">
         <v>43980</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="8">
         <v>928517</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="8">
         <v>98932</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="17">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="8">
         <v>23687</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="8">
         <v>3886</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="8">
         <v>27573</v>
       </c>
     </row>
@@ -8193,25 +8209,25 @@
       <c r="A59" s="6">
         <v>43981</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="8">
         <v>951865</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="8">
         <v>102928</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H59" s="17">
+      <c r="E59" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H59" s="8">
         <v>26265</v>
       </c>
     </row>
@@ -8219,25 +8235,25 @@
       <c r="A60" s="6">
         <v>43982</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="8">
         <v>970031</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="8">
         <v>103460</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="17">
         <v>5.43810873784E-2</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="8">
         <v>23482</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="8">
         <v>3251</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="8">
         <v>26734</v>
       </c>
     </row>
@@ -8245,25 +8261,25 @@
       <c r="A61" s="6">
         <v>43983</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="8">
         <v>986224</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="8">
         <v>107452</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="8">
         <v>23570</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G61" s="8">
         <v>3230</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="8">
         <v>26800</v>
       </c>
     </row>
@@ -8271,25 +8287,25 @@
       <c r="A62" s="6">
         <v>43984</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="8">
         <v>1006768</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="8">
         <v>110506</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="8">
         <v>1117274</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="17">
         <v>6.6236912120929997E-2</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="8">
         <v>21585</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="8">
         <v>3277</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="8">
         <v>24862</v>
       </c>
     </row>
@@ -8297,25 +8313,25 @@
       <c r="A63" s="6">
         <v>43985</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="8">
         <v>1038555</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="8">
         <v>112313</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="8">
         <v>1150868</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="17">
         <v>6.2599418158070005E-2</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="8">
         <v>23620</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="8">
         <v>3381</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H63" s="8">
         <v>27001</v>
       </c>
     </row>
@@ -8323,25 +8339,25 @@
       <c r="A64" s="6">
         <v>43986</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B64" s="8">
         <v>1061576</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="8">
         <v>113372</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="8">
         <v>1174948</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="17">
         <v>6.0272963321670002E-2</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="8">
         <v>24043</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="8">
         <v>2379</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="8">
         <v>26422</v>
       </c>
     </row>
@@ -8349,25 +8365,25 @@
       <c r="A65" s="6">
         <v>43987</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="8">
         <v>1093277</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="8">
         <v>115910</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="8">
         <v>1209187</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="17">
         <v>6.4378489924740004E-2</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="8">
         <v>23537</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="8">
         <v>2425</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H65" s="8">
         <v>25963</v>
       </c>
     </row>
@@ -8375,25 +8391,25 @@
       <c r="A66" s="6">
         <v>43988</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="8">
         <v>1092012</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="8">
         <v>126943</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="8">
         <v>1218955</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="17">
         <v>8.0023118582630004E-2</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="8">
         <v>20021</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="8">
         <v>3431</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H66" s="8">
         <v>23452</v>
       </c>
     </row>
@@ -8401,25 +8417,25 @@
       <c r="A67" s="6">
         <v>43989</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="8">
         <v>1120316</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="8">
         <v>135583</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D67" s="8">
         <v>1255899</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="17">
         <v>7.11381708088E-2</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="8">
         <v>21469</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G67" s="8">
         <v>4589</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H67" s="8">
         <v>26058</v>
       </c>
     </row>
@@ -8427,25 +8443,25 @@
       <c r="A68" s="6">
         <v>43990</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B68" s="8">
         <v>1147355</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="8">
         <v>138784</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="8">
         <v>1286139</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="17">
         <v>6.6629016142149999E-2</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="8">
         <v>23019</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G68" s="8">
         <v>4476</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H68" s="8">
         <v>27495</v>
       </c>
     </row>
@@ -8453,25 +8469,25 @@
       <c r="A69" s="6">
         <v>43991</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="8">
         <v>1161087</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="8">
         <v>140962</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="8">
         <v>1302049</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="17">
         <v>6.9239691807229997E-2</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="8">
         <v>22046</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G69" s="8">
         <v>4351</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="8">
         <v>26396</v>
       </c>
     </row>
@@ -8479,25 +8495,25 @@
       <c r="A70" s="6">
         <v>43992</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="8">
         <v>1206320</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="8">
         <v>142573</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D70" s="8">
         <v>1348893</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70" s="17">
         <v>6.8464816856909999E-2</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="8">
         <v>23966</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G70" s="8">
         <v>4323</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H70" s="8">
         <v>28289</v>
       </c>
     </row>
@@ -8505,25 +8521,25 @@
       <c r="A71" s="6">
         <v>43993</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="8">
         <v>1226957</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="8">
         <v>143174</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="8">
         <v>1370131</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="17">
         <v>7.0522006760149997E-2</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="8">
         <v>23626</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="8">
         <v>4257</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H71" s="8">
         <v>27883</v>
       </c>
     </row>
@@ -8531,25 +8547,25 @@
       <c r="A72" s="6">
         <v>43994</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B72" s="8">
         <v>1260319</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C72" s="8">
         <v>144050</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D72" s="8">
         <v>1404369</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E72" s="17">
         <v>7.2239317057989999E-2</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="8">
         <v>23863</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G72" s="8">
         <v>4020</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H72" s="8">
         <v>27883</v>
       </c>
     </row>
@@ -8557,25 +8573,25 @@
       <c r="A73" s="6">
         <v>43995</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="8">
         <v>1295983</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C73" s="8">
         <v>146967</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D73" s="8">
         <v>1442950</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E73" s="17">
         <v>6.1077310009760001E-2</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="8">
         <v>29139</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G73" s="8">
         <v>2861</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H73" s="8">
         <v>31999</v>
       </c>
     </row>
@@ -8583,25 +8599,25 @@
       <c r="A74" s="6">
         <v>43996</v>
       </c>
-      <c r="B74" s="17">
+      <c r="B74" s="8">
         <v>1314761</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="8">
         <v>149090</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D74" s="8">
         <v>1463851</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74" s="17">
         <v>6.6219239373599997E-2</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="8">
         <v>27778</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G74" s="8">
         <v>1930</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H74" s="8">
         <v>29707</v>
       </c>
     </row>
@@ -8609,25 +8625,25 @@
       <c r="A75" s="6">
         <v>43997</v>
       </c>
-      <c r="B75" s="17">
+      <c r="B75" s="8">
         <v>1348442</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C75" s="8">
         <v>150573</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D75" s="8">
         <v>1499015</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="17">
         <v>6.7095336844249995E-2</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="8">
         <v>28727</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G75" s="8">
         <v>1684</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H75" s="8">
         <v>30411</v>
       </c>
     </row>
@@ -8635,25 +8651,25 @@
       <c r="A76" s="6">
         <v>43998</v>
       </c>
-      <c r="B76" s="17">
+      <c r="B76" s="8">
         <v>1369638</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="8">
         <v>152796</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D76" s="8">
         <v>1522434</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E76" s="17">
         <v>6.9417073042089994E-2</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F76" s="8">
         <v>29793</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G76" s="8">
         <v>1691</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H76" s="8">
         <v>31484</v>
       </c>
     </row>
@@ -8661,25 +8677,25 @@
       <c r="A77" s="6">
         <v>43999</v>
       </c>
-      <c r="B77" s="17">
+      <c r="B77" s="8">
         <v>1407741</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="8">
         <v>152796</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D77" s="8">
         <v>1560537</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="17">
         <v>7.497728638027E-2</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="8">
         <v>28774</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G77" s="8">
         <v>1460</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H77" s="8">
         <v>30235</v>
       </c>
     </row>
@@ -8687,25 +8703,25 @@
       <c r="A78" s="6">
         <v>44000</v>
       </c>
-      <c r="B78" s="17">
+      <c r="B78" s="8">
         <v>1423914</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C78" s="8">
         <v>153011</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D78" s="8">
         <v>1576925</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E78" s="17">
         <v>8.5257188117199997E-2</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F78" s="8">
         <v>28137</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G78" s="8">
         <v>1405</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H78" s="8">
         <v>29542</v>
       </c>
     </row>
@@ -8713,25 +8729,25 @@
       <c r="A79" s="6">
         <v>44001</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B79" s="8">
         <v>1463398</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C79" s="8">
         <v>159453</v>
       </c>
-      <c r="D79" s="17">
+      <c r="D79" s="8">
         <v>1622851</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="17">
         <v>8.9369161754789997E-2</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F79" s="8">
         <v>29011</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G79" s="8">
         <v>2200</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H79" s="8">
         <v>31212</v>
       </c>
     </row>
@@ -8739,122 +8755,150 @@
       <c r="A80" s="6">
         <v>44002</v>
       </c>
-      <c r="B80" s="17">
+      <c r="B80" s="8">
         <v>1526180</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C80" s="8">
         <v>163944</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D80" s="8">
         <v>1690124</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E80" s="17">
         <v>8.7959443433230006E-2</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F80" s="8">
         <v>32885</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G80" s="8">
         <v>2425</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H80" s="8">
         <v>35311</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>44003</v>
       </c>
-      <c r="B81" s="17">
+      <c r="B81" s="8">
         <v>1549009</v>
       </c>
-      <c r="C81" s="17">
+      <c r="C81" s="8">
         <v>166168</v>
       </c>
-      <c r="D81" s="17">
+      <c r="D81" s="8">
         <v>1715177</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E81" s="17">
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F81" s="8">
         <v>33464</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G81" s="8">
         <v>2440</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H81" s="8">
         <v>35904</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>44004</v>
       </c>
-      <c r="B82" s="17">
+      <c r="B82" s="8">
         <v>1597290</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C82" s="8">
         <v>170411</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D82" s="8">
         <v>1767701</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E82" s="17">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="F82" s="17">
-        <v>35549.714285714283</v>
-      </c>
-      <c r="G82" s="17">
+      <c r="F82" s="8">
+        <v>35550</v>
+      </c>
+      <c r="G82" s="8">
         <v>2834</v>
       </c>
-      <c r="H82" s="17">
-        <v>38383.714285714283</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="8">
+        <v>38384</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>44005</v>
       </c>
-      <c r="B83" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D83" s="17">
+      <c r="B83" s="8">
+        <v>1630258</v>
+      </c>
+      <c r="C83" s="8">
+        <v>175384</v>
+      </c>
+      <c r="D83" s="8">
         <v>1805642</v>
       </c>
-      <c r="E83" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G83" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H83" s="17" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
+      <c r="E83" s="17">
+        <v>0.10422837848208119</v>
+      </c>
+      <c r="F83" s="8">
+        <v>37231</v>
+      </c>
+      <c r="G83" s="8">
+        <v>3227</v>
+      </c>
+      <c r="H83" s="8">
+        <v>40458</v>
+      </c>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+    </row>
+    <row r="84" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>44006</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D84" s="8">
+        <v>1836037</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A84:H84"/>
+    <mergeCell ref="A86:H86"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8867,57 +8911,57 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B3" s="8">
-        <v>76127</v>
+        <v>77868</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B4" s="8">
-        <v>1729515</v>
+        <v>1758169</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B5" s="8">
-        <v>1805642</v>
+        <v>1836037</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>280</v>
+      <c r="A7" s="22" t="s">
+        <v>286</v>
       </c>
       <c r="B7" s="20"/>
     </row>
@@ -8932,73 +8976,80 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F42E27-2ADA-4DF7-B4C1-5CADEA9AFA16}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="55.453125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="B1" s="23"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="B3" s="28">
-        <v>170411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="B4" s="28">
-        <v>6606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="B6" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="27">
+        <v>175384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="27">
+        <v>6770</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -9010,56 +9061,56 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B3" s="8">
-        <v>4092</v>
+        <v>290</v>
+      </c>
+      <c r="B3" s="9">
+        <v>4389</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B4" s="8">
-        <v>54642</v>
+        <v>291</v>
+      </c>
+      <c r="B4" s="9">
+        <v>60407</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="8">
-        <v>14260</v>
+        <v>292</v>
+      </c>
+      <c r="B5" s="9">
+        <v>12951</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1483</v>
+        <v>293</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1320</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="8">
-        <v>5781</v>
+        <v>294</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5850</v>
       </c>
     </row>
   </sheetData>
@@ -9072,13 +9123,13 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9090,20 +9141,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9113,7 +9164,7 @@
       <c r="B3" s="6">
         <v>43925</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>827</v>
       </c>
     </row>
@@ -9124,7 +9175,7 @@
       <c r="B4" s="6">
         <v>43926</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>1132</v>
       </c>
     </row>
@@ -9135,7 +9186,7 @@
       <c r="B5" s="6">
         <v>43927</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>1153</v>
       </c>
     </row>
@@ -9146,7 +9197,7 @@
       <c r="B6" s="6">
         <v>43928</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>1252</v>
       </c>
     </row>
@@ -9157,7 +9208,7 @@
       <c r="B7" s="6">
         <v>43929</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>1491</v>
       </c>
     </row>
@@ -9168,7 +9219,7 @@
       <c r="B8" s="6">
         <v>43930</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>1439</v>
       </c>
     </row>
@@ -9179,7 +9230,7 @@
       <c r="B9" s="6">
         <v>43931</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>1532</v>
       </c>
     </row>
@@ -9190,7 +9241,7 @@
       <c r="B10" s="6">
         <v>43932</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>1514</v>
       </c>
     </row>
@@ -9201,7 +9252,7 @@
       <c r="B11" s="6">
         <v>43933</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>1338</v>
       </c>
     </row>
@@ -9212,7 +9263,7 @@
       <c r="B12" s="6">
         <v>43934</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>1176</v>
       </c>
     </row>
@@ -9223,7 +9274,7 @@
       <c r="B13" s="6">
         <v>43935</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>1409</v>
       </c>
     </row>
@@ -9234,7 +9285,7 @@
       <c r="B14" s="6">
         <v>43936</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>1538</v>
       </c>
     </row>
@@ -9245,7 +9296,7 @@
       <c r="B15" s="6">
         <v>43937</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="9">
         <v>1459</v>
       </c>
     </row>
@@ -9256,7 +9307,7 @@
       <c r="B16" s="6">
         <v>43938</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>1522</v>
       </c>
     </row>
@@ -9267,7 +9318,7 @@
       <c r="B17" s="6">
         <v>43939</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>1321</v>
       </c>
     </row>
@@ -9278,7 +9329,7 @@
       <c r="B18" s="6">
         <v>43940</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>1471</v>
       </c>
     </row>
@@ -9289,7 +9340,7 @@
       <c r="B19" s="6">
         <v>43941</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <v>1411</v>
       </c>
     </row>
@@ -9300,7 +9351,7 @@
       <c r="B20" s="6">
         <v>43942</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>1419</v>
       </c>
     </row>
@@ -9311,7 +9362,7 @@
       <c r="B21" s="6">
         <v>43943</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>1678</v>
       </c>
     </row>
@@ -9322,7 +9373,7 @@
       <c r="B22" s="6">
         <v>43944</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <v>1649</v>
       </c>
     </row>
@@ -9333,7 +9384,7 @@
       <c r="B23" s="6">
         <v>43945</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>1674</v>
       </c>
     </row>
@@ -9344,7 +9395,7 @@
       <c r="B24" s="6">
         <v>43946</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="9">
         <v>1597</v>
       </c>
     </row>
@@ -9355,7 +9406,7 @@
       <c r="B25" s="6">
         <v>43947</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="9">
         <v>1542</v>
       </c>
     </row>
@@ -9366,7 +9417,7 @@
       <c r="B26" s="6">
         <v>43948</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="9">
         <v>1563</v>
       </c>
     </row>
@@ -9377,7 +9428,7 @@
       <c r="B27" s="6">
         <v>43949</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="9">
         <v>1682</v>
       </c>
     </row>
@@ -9388,7 +9439,7 @@
       <c r="B28" s="6">
         <v>43950</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="9">
         <v>1702</v>
       </c>
     </row>
@@ -9399,7 +9450,7 @@
       <c r="B29" s="6">
         <v>43951</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="9">
         <v>1686</v>
       </c>
     </row>
@@ -9410,7 +9461,7 @@
       <c r="B30" s="6">
         <v>43952</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="9">
         <v>1778</v>
       </c>
     </row>
@@ -9421,7 +9472,7 @@
       <c r="B31" s="6">
         <v>43953</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="9">
         <v>1725</v>
       </c>
     </row>
@@ -9432,7 +9483,7 @@
       <c r="B32" s="6">
         <v>43954</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <v>1540</v>
       </c>
     </row>
@@ -9443,7 +9494,7 @@
       <c r="B33" s="6">
         <v>43955</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="9">
         <v>1533</v>
       </c>
     </row>
@@ -9454,7 +9505,7 @@
       <c r="B34" s="6">
         <v>43956</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="9">
         <v>1888</v>
       </c>
     </row>
@@ -9465,7 +9516,7 @@
       <c r="B35" s="6">
         <v>43957</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="9">
         <v>1812</v>
       </c>
     </row>
@@ -9476,7 +9527,7 @@
       <c r="B36" s="6">
         <v>43958</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="9">
         <v>1750</v>
       </c>
     </row>
@@ -9487,7 +9538,7 @@
       <c r="B37" s="6">
         <v>43959</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="9">
         <v>1734</v>
       </c>
     </row>
@@ -9498,7 +9549,7 @@
       <c r="B38" s="6">
         <v>43960</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="9">
         <v>1735</v>
       </c>
     </row>
@@ -9509,7 +9560,7 @@
       <c r="B39" s="6">
         <v>43961</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="9">
         <v>1626</v>
       </c>
     </row>
@@ -9520,7 +9571,7 @@
       <c r="B40" s="6">
         <v>43962</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="9">
         <v>1525</v>
       </c>
     </row>
@@ -9531,7 +9582,7 @@
       <c r="B41" s="6">
         <v>43963</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="9">
         <v>1725</v>
       </c>
     </row>
@@ -9542,7 +9593,7 @@
       <c r="B42" s="6">
         <v>43964</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="9">
         <v>1676</v>
       </c>
     </row>
@@ -9553,7 +9604,7 @@
       <c r="B43" s="6">
         <v>43965</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="9">
         <v>1648</v>
       </c>
     </row>
@@ -9564,7 +9615,7 @@
       <c r="B44" s="6">
         <v>43966</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="9">
         <v>1716</v>
       </c>
     </row>
@@ -9575,7 +9626,7 @@
       <c r="B45" s="6">
         <v>43967</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="9">
         <v>1791</v>
       </c>
     </row>
@@ -9586,7 +9637,7 @@
       <c r="B46" s="6">
         <v>43968</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="9">
         <v>1512</v>
       </c>
     </row>
@@ -9597,7 +9648,7 @@
       <c r="B47" s="6">
         <v>43969</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="9">
         <v>1551</v>
       </c>
     </row>
@@ -9608,7 +9659,7 @@
       <c r="B48" s="6">
         <v>43970</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="9">
         <v>1732</v>
       </c>
     </row>
@@ -9619,7 +9670,7 @@
       <c r="B49" s="6">
         <v>43971</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="9">
         <v>1791</v>
       </c>
     </row>
@@ -9630,7 +9681,7 @@
       <c r="B50" s="6">
         <v>43972</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="9">
         <v>1680</v>
       </c>
     </row>
@@ -9641,7 +9692,7 @@
       <c r="B51" s="6">
         <v>43973</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="9">
         <v>1578</v>
       </c>
     </row>
@@ -9652,7 +9703,7 @@
       <c r="B52" s="6">
         <v>43974</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="9">
         <v>1688</v>
       </c>
     </row>
@@ -9663,7 +9714,7 @@
       <c r="B53" s="6">
         <v>43975</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="9">
         <v>1572</v>
       </c>
     </row>
@@ -9674,7 +9725,7 @@
       <c r="B54" s="6">
         <v>43976</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="9">
         <v>1511</v>
       </c>
     </row>
@@ -9685,7 +9736,7 @@
       <c r="B55" s="6">
         <v>43977</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="9">
         <v>1534</v>
       </c>
     </row>
@@ -9696,7 +9747,7 @@
       <c r="B56" s="6">
         <v>43978</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="9">
         <v>1645</v>
       </c>
     </row>
@@ -9707,7 +9758,7 @@
       <c r="B57" s="6">
         <v>43979</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="9">
         <v>1692</v>
       </c>
     </row>
@@ -9718,7 +9769,7 @@
       <c r="B58" s="6">
         <v>43980</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="9">
         <v>1701</v>
       </c>
     </row>
@@ -9729,7 +9780,7 @@
       <c r="B59" s="6">
         <v>43981</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="9">
         <v>1752</v>
       </c>
     </row>
@@ -9740,7 +9791,7 @@
       <c r="B60" s="6">
         <v>43982</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="9">
         <v>1684</v>
       </c>
     </row>
@@ -9751,7 +9802,7 @@
       <c r="B61" s="6">
         <v>43983</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="9">
         <v>1756</v>
       </c>
     </row>
@@ -9762,7 +9813,7 @@
       <c r="B62" s="6">
         <v>43984</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="9">
         <v>1773</v>
       </c>
     </row>
@@ -9773,7 +9824,7 @@
       <c r="B63" s="6">
         <v>43985</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="9">
         <v>1799</v>
       </c>
     </row>
@@ -9784,7 +9835,7 @@
       <c r="B64" s="6">
         <v>43986</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="9">
         <v>1796</v>
       </c>
     </row>
@@ -9795,7 +9846,7 @@
       <c r="B65" s="6">
         <v>43987</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="9">
         <v>1855</v>
       </c>
     </row>
@@ -9806,7 +9857,7 @@
       <c r="B66" s="6">
         <v>43988</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="9">
         <v>1822</v>
       </c>
     </row>
@@ -9817,7 +9868,7 @@
       <c r="B67" s="6">
         <v>43989</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="9">
         <v>1878</v>
       </c>
     </row>
@@ -9828,7 +9879,7 @@
       <c r="B68" s="6">
         <v>43990</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="9">
         <v>1935</v>
       </c>
     </row>
@@ -9839,7 +9890,7 @@
       <c r="B69" s="6">
         <v>43991</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="9">
         <v>2056</v>
       </c>
     </row>
@@ -9850,7 +9901,7 @@
       <c r="B70" s="6">
         <v>43992</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="9">
         <v>2153</v>
       </c>
     </row>
@@ -9861,7 +9912,7 @@
       <c r="B71" s="6">
         <v>43993</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="9">
         <v>2008</v>
       </c>
     </row>
@@ -9872,7 +9923,7 @@
       <c r="B72" s="6">
         <v>43994</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="9">
         <v>2166</v>
       </c>
     </row>
@@ -9883,7 +9934,7 @@
       <c r="B73" s="6">
         <v>43995</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="9">
         <v>2242</v>
       </c>
     </row>
@@ -9894,7 +9945,7 @@
       <c r="B74" s="6">
         <v>43996</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="9">
         <v>2287</v>
       </c>
     </row>
@@ -9905,7 +9956,7 @@
       <c r="B75" s="6">
         <v>43997</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="9">
         <v>2326</v>
       </c>
     </row>
@@ -9916,7 +9967,7 @@
       <c r="B76" s="6">
         <v>43998</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="9">
         <v>2518</v>
       </c>
     </row>
@@ -9927,7 +9978,7 @@
       <c r="B77" s="6">
         <v>43999</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="9">
         <v>2793</v>
       </c>
     </row>
@@ -9938,7 +9989,7 @@
       <c r="B78" s="6">
         <v>44000</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="9">
         <v>2947</v>
       </c>
     </row>
@@ -9949,7 +10000,7 @@
       <c r="B79" s="6">
         <v>44001</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="9">
         <v>3148</v>
       </c>
     </row>
@@ -9960,7 +10011,7 @@
       <c r="B80" s="6">
         <v>44002</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="9">
         <v>3247</v>
       </c>
     </row>
@@ -9971,7 +10022,7 @@
       <c r="B81" s="6">
         <v>44003</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="9">
         <v>3409</v>
       </c>
     </row>
@@ -9982,7 +10033,7 @@
       <c r="B82" s="6">
         <v>44004</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="9">
         <v>3711</v>
       </c>
     </row>
@@ -9993,8 +10044,19 @@
       <c r="B83" s="6">
         <v>44005</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="9">
         <v>4092</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>82</v>
+      </c>
+      <c r="B84" s="6">
+        <v>44006</v>
+      </c>
+      <c r="C84" s="9">
+        <v>4389</v>
       </c>
     </row>
   </sheetData>
@@ -10007,12 +10069,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -10020,205 +10082,205 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>292</v>
+      <c r="A2" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B3" s="10">
-        <v>76</v>
-      </c>
-      <c r="C3" s="31">
+        <v>302</v>
+      </c>
+      <c r="B3" s="11">
+        <v>82</v>
+      </c>
+      <c r="C3" s="18">
         <f>B3/B$16</f>
-        <v>3.8152610441767069E-3</v>
+        <v>4.0483831152801778E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B4" s="10">
-        <v>316</v>
-      </c>
-      <c r="C4" s="31">
+        <v>303</v>
+      </c>
+      <c r="B4" s="11">
+        <v>325</v>
+      </c>
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.5863453815261046E-2</v>
+        <v>1.6045420883732411E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" s="10">
-        <v>840</v>
-      </c>
-      <c r="C5" s="31">
+        <v>304</v>
+      </c>
+      <c r="B5" s="11">
+        <v>863</v>
+      </c>
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
-        <v>4.2168674698795178E-2</v>
+        <v>4.2606763762034067E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" s="10">
-        <v>3301</v>
-      </c>
-      <c r="C6" s="31">
+        <v>305</v>
+      </c>
+      <c r="B6" s="11">
+        <v>3386</v>
+      </c>
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
-        <v>0.1657128514056225</v>
+        <v>0.16716860034559369</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B7" s="10">
-        <v>3647</v>
-      </c>
-      <c r="C7" s="31">
+        <v>306</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3707</v>
+      </c>
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
-        <v>0.18308232931726909</v>
+        <v>0.18301653912614169</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B8" s="10">
-        <v>3624</v>
-      </c>
-      <c r="C8" s="31">
+        <v>307</v>
+      </c>
+      <c r="B8" s="11">
+        <v>3681</v>
+      </c>
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
-        <v>0.1819277108433735</v>
+        <v>0.1817329054554431</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B9" s="10">
-        <v>3495</v>
-      </c>
-      <c r="C9" s="31">
+        <v>308</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3541</v>
+      </c>
+      <c r="C9" s="18">
         <f t="shared" si="0"/>
-        <v>0.17545180722891565</v>
+        <v>0.17482103184398914</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1405</v>
-      </c>
-      <c r="C10" s="31">
+        <v>309</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1419</v>
+      </c>
+      <c r="C10" s="18">
         <f t="shared" si="0"/>
-        <v>7.0532128514056228E-2</v>
+        <v>7.0056776104665514E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1049</v>
-      </c>
-      <c r="C11" s="31">
+        <v>310</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1056</v>
+      </c>
+      <c r="C11" s="18">
         <f t="shared" si="0"/>
-        <v>5.2660642570281121E-2</v>
+        <v>5.213527524068131E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B12" s="10">
-        <v>669</v>
-      </c>
-      <c r="C12" s="31">
+        <v>311</v>
+      </c>
+      <c r="B12" s="11">
+        <v>675</v>
+      </c>
+      <c r="C12" s="18">
         <f t="shared" si="0"/>
-        <v>3.3584337349397593E-2</v>
+        <v>3.3325104912367315E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B13" s="10">
-        <v>497</v>
-      </c>
-      <c r="C13" s="31">
+        <v>312</v>
+      </c>
+      <c r="B13" s="11">
+        <v>505</v>
+      </c>
+      <c r="C13" s="18">
         <f t="shared" si="0"/>
-        <v>2.4949799196787147E-2</v>
+        <v>2.4932115527030362E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B14" s="10">
-        <v>990</v>
-      </c>
-      <c r="C14" s="31">
+        <v>313</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1003</v>
+      </c>
+      <c r="C14" s="18">
         <f t="shared" si="0"/>
-        <v>4.9698795180722892E-2</v>
+        <v>4.9518637373488029E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B15" s="10">
-        <v>11</v>
-      </c>
-      <c r="C15" s="31">
+        <v>314</v>
+      </c>
+      <c r="B15" s="11">
+        <v>12</v>
+      </c>
+      <c r="C15" s="18">
         <f t="shared" si="0"/>
-        <v>5.5220883534136541E-4</v>
+        <v>5.9244630955319671E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="10">
-        <v>19920</v>
-      </c>
-      <c r="C16" s="31">
+      <c r="B16" s="11">
+        <v>20255</v>
+      </c>
+      <c r="C16" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>308</v>
+      <c r="A18" s="22" t="s">
+        <v>315</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
     </row>
-    <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>309</v>
+    <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>316</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>

--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{82561E7D-F1DA-414A-B55C-E2C2938E03CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E3957526-2821-446B-9EC3-138C7A45A3E2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21080" windowHeight="11060" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21080" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -1254,18 +1254,6 @@
     <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1280,6 +1268,18 @@
     </xf>
     <xf numFmtId="168" fontId="5" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1424,7 +1424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
@@ -1438,11 +1438,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4287,11 +4287,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4353,18 +4353,18 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4395,11 +4395,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4497,18 +4497,18 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4539,11 +4539,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4725,18 +4725,18 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4767,11 +4767,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4833,18 +4833,18 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4875,11 +4875,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4977,18 +4977,18 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5020,22 +5020,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6619,13 +6619,13 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="B97" s="21"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6655,10 +6655,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6677,10 +6677,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6712,16 +6712,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8884,16 +8884,16 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8922,10 +8922,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8960,10 +8960,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8992,45 +8992,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="20"/>
-    </row>
-    <row r="2" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="25"/>
+    </row>
+    <row r="2" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="23">
         <v>175384</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="23">
         <v>6770</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="29"/>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9047,10 +9047,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9060,10 +9060,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9086,7 +9086,7 @@
         <v>291</v>
       </c>
       <c r="B4" s="9">
-        <v>60407</v>
+        <v>56707</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9140,11 +9140,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -10086,11 +10086,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -10272,18 +10272,18 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
